--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/per-github/project-tennis/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C13F0-8366-CB46-A4F3-FB8DD23ED7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA38694-A5A8-DC43-9FA0-082B32AB9012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37260" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33220" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -6916,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I589"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="D419" sqref="D419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15442,7 +15442,7 @@
         <v>756</v>
       </c>
       <c r="D418" s="15">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E418" s="1">
         <v>625</v>
@@ -18104,7 +18104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I243"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/per-github/project-tennis/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277DF7FC-D98B-E54B-B964-757DB509FC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD20A201-A463-8249-81CE-506A6D729560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25320" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="1142">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -2660,13 +2660,7 @@
     <t>Chuyển LV</t>
   </si>
   <si>
-    <t>Nam Tịnh</t>
-  </si>
-  <si>
     <t>Khang Trần</t>
-  </si>
-  <si>
-    <t>08185928855</t>
   </si>
   <si>
     <t>Hòa Nguyệt Quế</t>
@@ -5758,12 +5752,6 @@
     <t>0918008595</t>
   </si>
   <si>
-    <t>Tý Long An</t>
-  </si>
-  <si>
-    <t>0362029050</t>
-  </si>
-  <si>
     <t>Ben Q9</t>
   </si>
   <si>
@@ -6410,6 +6398,12 @@
   </si>
   <si>
     <t>Quốc Kỳ Hòa</t>
+  </si>
+  <si>
+    <t>Nam Tịch</t>
+  </si>
+  <si>
+    <t>0818592855</t>
   </si>
 </sst>
 </file>
@@ -6836,10 +6830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I642"/>
+  <dimension ref="A1:I641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324:XFD324"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="F464" sqref="F464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7003,10 +6997,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D9" s="7">
         <v>685</v>
@@ -7020,10 +7014,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D10" s="7">
         <v>600</v>
@@ -7116,7 +7110,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D14" s="7">
         <v>650</v>
@@ -7140,7 +7134,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D15" s="5">
         <v>635</v>
@@ -7223,7 +7217,7 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D19" s="12">
         <v>635</v>
@@ -7247,7 +7241,7 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D20" s="12">
         <v>640</v>
@@ -7271,7 +7265,7 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D21" s="12">
         <v>630</v>
@@ -7297,7 +7291,7 @@
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D22" s="12">
         <v>635</v>
@@ -7318,10 +7312,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D23" s="12">
         <v>640</v>
@@ -7343,7 +7337,7 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D24" s="12">
         <v>650</v>
@@ -7387,7 +7381,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D26" s="22">
         <v>640</v>
@@ -7476,7 +7470,7 @@
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D30" s="12">
         <v>605</v>
@@ -7586,7 +7580,7 @@
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D35" s="12">
         <v>610</v>
@@ -7608,7 +7602,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D36" s="5">
         <v>605</v>
@@ -7629,7 +7623,7 @@
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D37" s="12">
         <v>665</v>
@@ -7649,7 +7643,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D38" s="7">
         <v>615</v>
@@ -7708,7 +7702,7 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D41" s="12">
         <v>600</v>
@@ -7731,7 +7725,7 @@
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D42" s="12">
         <v>650</v>
@@ -7773,7 +7767,7 @@
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D44" s="12">
         <v>630</v>
@@ -7994,7 +7988,7 @@
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D55" s="12">
         <v>625</v>
@@ -8015,7 +8009,7 @@
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D56" s="12">
         <v>610</v>
@@ -8052,7 +8046,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D58" s="5">
         <v>650</v>
@@ -8067,7 +8061,7 @@
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D59" s="12">
         <v>600</v>
@@ -8108,10 +8102,10 @@
         <v>56</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D61" s="12">
         <v>625</v>
@@ -8132,7 +8126,7 @@
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D62" s="12">
         <v>630</v>
@@ -8227,10 +8221,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D67" s="12">
         <v>615</v>
@@ -8267,10 +8261,10 @@
         <v>64</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D69" s="12">
         <v>600</v>
@@ -8291,7 +8285,7 @@
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D70" s="12">
         <v>605</v>
@@ -8418,7 +8412,7 @@
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D76" s="12">
         <v>660</v>
@@ -8502,7 +8496,7 @@
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D80" s="12">
         <v>600</v>
@@ -8548,7 +8542,7 @@
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D82" s="12">
         <v>670</v>
@@ -8592,7 +8586,7 @@
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D84" s="12">
         <v>615</v>
@@ -8611,7 +8605,7 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D85" s="12">
         <v>635</v>
@@ -8630,7 +8624,7 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D86" s="12">
         <v>690</v>
@@ -8653,7 +8647,7 @@
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D87" s="12">
         <v>610</v>
@@ -8762,7 +8756,7 @@
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D92" s="12">
         <v>655</v>
@@ -8782,10 +8776,10 @@
         <v>88</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D93" s="12">
         <v>605</v>
@@ -8882,7 +8876,7 @@
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D98" s="12">
         <v>645</v>
@@ -9010,7 +9004,7 @@
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D104" s="12">
         <v>630</v>
@@ -9054,7 +9048,7 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D106" s="12">
         <v>660</v>
@@ -9074,7 +9068,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D107" s="7">
         <v>605</v>
@@ -9138,7 +9132,7 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D110" s="12">
         <v>600</v>
@@ -9157,7 +9151,7 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D111" s="12">
         <v>625</v>
@@ -9235,7 +9229,7 @@
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D115" s="12">
         <v>600</v>
@@ -9256,7 +9250,7 @@
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D116" s="12">
         <v>675</v>
@@ -9296,7 +9290,7 @@
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D118" s="12">
         <v>675</v>
@@ -9315,7 +9309,7 @@
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D119" s="12">
         <v>600</v>
@@ -9338,7 +9332,7 @@
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D120" s="12">
         <v>600</v>
@@ -9382,7 +9376,7 @@
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D122" s="12">
         <v>645</v>
@@ -9405,7 +9399,7 @@
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="11" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D123" s="12">
         <v>590</v>
@@ -9424,7 +9418,7 @@
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D124" s="12">
         <v>615</v>
@@ -9443,7 +9437,7 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D125" s="12">
         <v>635</v>
@@ -9505,7 +9499,7 @@
         <v>123</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D128" s="5">
         <v>635</v>
@@ -9523,7 +9517,7 @@
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D129" s="12">
         <v>610</v>
@@ -9561,7 +9555,7 @@
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D131" s="12">
         <v>680</v>
@@ -9580,7 +9574,7 @@
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D132" s="12">
         <v>590</v>
@@ -9622,7 +9616,7 @@
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D134" s="12">
         <v>635</v>
@@ -9760,7 +9754,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D141" s="7">
         <v>765</v>
@@ -9778,7 +9772,7 @@
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D142" s="12">
         <v>785</v>
@@ -9816,7 +9810,7 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D144" s="12">
         <v>985</v>
@@ -9856,7 +9850,7 @@
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D146" s="12">
         <v>850</v>
@@ -9894,7 +9888,7 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D148" s="12">
         <v>790</v>
@@ -9912,7 +9906,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D149" s="7">
         <v>760</v>
@@ -9967,7 +9961,7 @@
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="11" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D152" s="12">
         <v>840</v>
@@ -9988,7 +9982,7 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="11" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D153" s="12">
         <v>785</v>
@@ -10007,7 +10001,7 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D154" s="12">
         <v>880</v>
@@ -10047,7 +10041,7 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D156" s="12">
         <v>830</v>
@@ -10068,7 +10062,7 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D157" s="12">
         <v>935</v>
@@ -10127,7 +10121,7 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D160" s="12">
         <v>920</v>
@@ -10186,7 +10180,7 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D163" s="12">
         <v>810</v>
@@ -10207,7 +10201,7 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D164" s="12">
         <v>755</v>
@@ -10228,7 +10222,7 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D165" s="12">
         <v>605</v>
@@ -10247,7 +10241,7 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D166" s="12">
         <v>990</v>
@@ -10286,7 +10280,7 @@
         <v>163</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D168" s="7">
         <v>735</v>
@@ -10304,7 +10298,7 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D169" s="12">
         <v>630</v>
@@ -10346,7 +10340,7 @@
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D171" s="12">
         <v>750</v>
@@ -10428,7 +10422,7 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D175" s="12">
         <v>910</v>
@@ -10468,7 +10462,7 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D177" s="12">
         <v>930</v>
@@ -10489,7 +10483,7 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D178" s="12">
         <v>955</v>
@@ -10510,7 +10504,7 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D179" s="12">
         <v>1010</v>
@@ -10531,7 +10525,7 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D180" s="12">
         <v>670</v>
@@ -10571,7 +10565,7 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D182" s="12">
         <v>890</v>
@@ -10590,7 +10584,7 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D183" s="12">
         <v>815</v>
@@ -10609,7 +10603,7 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D184" s="12">
         <v>835</v>
@@ -10630,7 +10624,7 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D185" s="12">
         <v>735</v>
@@ -10651,7 +10645,7 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D186" s="12">
         <v>780</v>
@@ -10670,7 +10664,7 @@
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D187" s="12">
         <v>810</v>
@@ -10689,7 +10683,7 @@
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D188" s="12">
         <v>880</v>
@@ -10710,7 +10704,7 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D189" s="12">
         <v>885</v>
@@ -10730,7 +10724,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D190" s="7">
         <v>695</v>
@@ -10764,7 +10758,7 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D192" s="12">
         <v>880</v>
@@ -10785,7 +10779,7 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D193" s="12">
         <v>745</v>
@@ -10844,7 +10838,7 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D196" s="12">
         <v>790</v>
@@ -10880,7 +10874,7 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D198" s="12">
         <v>740</v>
@@ -10899,7 +10893,7 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D199" s="12">
         <v>730</v>
@@ -10918,7 +10912,7 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D200" s="12">
         <v>745</v>
@@ -10951,7 +10945,7 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="11" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D202" s="12">
         <v>660</v>
@@ -11028,7 +11022,7 @@
         <v>201</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D206" s="7">
         <v>690</v>
@@ -11062,7 +11056,7 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="11" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D208" s="12">
         <v>760</v>
@@ -11081,7 +11075,7 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="11" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D209" s="12">
         <v>725</v>
@@ -13822,7 +13816,7 @@
       </c>
       <c r="B341" s="11"/>
       <c r="C341" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D341" s="12">
         <v>800</v>
@@ -15490,7 +15484,7 @@
       </c>
       <c r="F423" s="11"/>
       <c r="G423" s="11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H423" s="11"/>
       <c r="I423" s="11"/>
@@ -15648,7 +15642,7 @@
         <v>595</v>
       </c>
       <c r="F431" s="10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
@@ -16078,7 +16072,7 @@
       </c>
       <c r="B453" s="11"/>
       <c r="C453" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D453" s="12">
         <v>645</v>
@@ -16196,7 +16190,7 @@
         <v>718</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D459" s="12">
         <v>640</v>
@@ -16272,7 +16266,7 @@
       </c>
       <c r="B463" s="11"/>
       <c r="C463" s="11" t="s">
-        <v>722</v>
+        <v>1140</v>
       </c>
       <c r="D463" s="12">
         <v>615</v>
@@ -16281,7 +16275,7 @@
         <v>615</v>
       </c>
       <c r="F463" s="16" t="s">
-        <v>724</v>
+        <v>1141</v>
       </c>
       <c r="G463" s="11"/>
       <c r="H463" s="11"/>
@@ -16292,7 +16286,7 @@
         <v>460</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D464" s="7">
         <v>640</v>
@@ -16307,7 +16301,7 @@
       </c>
       <c r="B465" s="11"/>
       <c r="C465" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D465" s="12">
         <v>630</v>
@@ -16316,7 +16310,7 @@
         <v>625</v>
       </c>
       <c r="F465" s="16" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G465" s="11"/>
       <c r="H465" s="11"/>
@@ -16328,7 +16322,7 @@
       </c>
       <c r="B466" s="11"/>
       <c r="C466" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D466" s="12">
         <v>615</v>
@@ -16337,7 +16331,7 @@
         <v>615</v>
       </c>
       <c r="F466" s="16" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G466" s="11"/>
       <c r="H466" s="11"/>
@@ -16349,7 +16343,7 @@
       </c>
       <c r="B467" s="11"/>
       <c r="C467" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D467" s="12">
         <v>600</v>
@@ -16368,7 +16362,7 @@
       </c>
       <c r="B468" s="11"/>
       <c r="C468" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D468" s="12">
         <v>645</v>
@@ -16377,7 +16371,7 @@
         <v>640</v>
       </c>
       <c r="F468" s="16" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G468" s="11"/>
       <c r="H468" s="11"/>
@@ -16389,7 +16383,7 @@
       </c>
       <c r="B469" s="11"/>
       <c r="C469" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D469" s="12">
         <v>585</v>
@@ -16408,7 +16402,7 @@
       </c>
       <c r="B470" s="11"/>
       <c r="C470" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D470" s="12">
         <v>620</v>
@@ -16427,7 +16421,7 @@
       </c>
       <c r="B471" s="11"/>
       <c r="C471" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D471" s="12">
         <v>640</v>
@@ -16446,7 +16440,7 @@
       </c>
       <c r="B472" s="11"/>
       <c r="C472" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D472" s="12">
         <v>610</v>
@@ -16465,7 +16459,7 @@
       </c>
       <c r="B473" s="11"/>
       <c r="C473" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D473" s="12">
         <v>630</v>
@@ -16484,7 +16478,7 @@
       </c>
       <c r="B474" s="11"/>
       <c r="C474" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D474" s="12">
         <v>590</v>
@@ -16503,7 +16497,7 @@
       </c>
       <c r="B475" s="11"/>
       <c r="C475" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D475" s="12">
         <v>615</v>
@@ -16522,7 +16516,7 @@
       </c>
       <c r="B476" s="11"/>
       <c r="C476" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D476" s="12">
         <v>630</v>
@@ -16541,7 +16535,7 @@
       </c>
       <c r="B477" s="11"/>
       <c r="C477" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D477" s="12">
         <v>630</v>
@@ -16550,7 +16544,7 @@
         <v>625</v>
       </c>
       <c r="F477" s="16" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G477" s="11"/>
       <c r="H477" s="11"/>
@@ -16562,7 +16556,7 @@
       </c>
       <c r="B478" s="11"/>
       <c r="C478" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D478" s="12">
         <v>620</v>
@@ -16581,7 +16575,7 @@
       </c>
       <c r="B479" s="11"/>
       <c r="C479" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D479" s="12">
         <v>610</v>
@@ -16600,7 +16594,7 @@
       </c>
       <c r="B480" s="11"/>
       <c r="C480" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D480" s="12">
         <v>655</v>
@@ -16609,7 +16603,7 @@
         <v>645</v>
       </c>
       <c r="F480" s="16" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G480" s="11"/>
       <c r="H480" s="11"/>
@@ -16621,7 +16615,7 @@
       </c>
       <c r="B481" s="11"/>
       <c r="C481" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D481" s="12">
         <v>605</v>
@@ -16640,7 +16634,7 @@
       </c>
       <c r="B482" s="11"/>
       <c r="C482" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D482" s="12">
         <v>620</v>
@@ -16659,7 +16653,7 @@
       </c>
       <c r="B483" s="11"/>
       <c r="C483" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D483" s="12">
         <v>615</v>
@@ -16678,7 +16672,7 @@
       </c>
       <c r="B484" s="11"/>
       <c r="C484" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D484" s="12">
         <v>635</v>
@@ -16697,7 +16691,7 @@
       </c>
       <c r="B485" s="11"/>
       <c r="C485" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D485" s="12">
         <v>620</v>
@@ -16716,7 +16710,7 @@
       </c>
       <c r="B486" s="11"/>
       <c r="C486" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D486" s="12">
         <v>615</v>
@@ -16725,7 +16719,7 @@
         <v>610</v>
       </c>
       <c r="F486" s="16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G486" s="11"/>
       <c r="H486" s="11"/>
@@ -16737,7 +16731,7 @@
       </c>
       <c r="B487" s="11"/>
       <c r="C487" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D487" s="12">
         <v>625</v>
@@ -16746,7 +16740,7 @@
         <v>620</v>
       </c>
       <c r="F487" s="16" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G487" s="11"/>
       <c r="H487" s="11"/>
@@ -16758,7 +16752,7 @@
       </c>
       <c r="B488" s="11"/>
       <c r="C488" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D488" s="12">
         <v>610</v>
@@ -16767,7 +16761,7 @@
         <v>610</v>
       </c>
       <c r="F488" s="16" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G488" s="11"/>
       <c r="H488" s="11"/>
@@ -16779,7 +16773,7 @@
       </c>
       <c r="B489" s="11"/>
       <c r="C489" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D489" s="12">
         <v>630</v>
@@ -16798,7 +16792,7 @@
       </c>
       <c r="B490" s="11"/>
       <c r="C490" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D490" s="12">
         <v>630</v>
@@ -16807,7 +16801,7 @@
         <v>625</v>
       </c>
       <c r="F490" s="16" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G490" s="11"/>
       <c r="H490" s="11"/>
@@ -16819,7 +16813,7 @@
       </c>
       <c r="B491" s="11"/>
       <c r="C491" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D491" s="12">
         <v>585</v>
@@ -16838,7 +16832,7 @@
       </c>
       <c r="B492" s="11"/>
       <c r="C492" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D492" s="12">
         <v>610</v>
@@ -16857,7 +16851,7 @@
       </c>
       <c r="B493" s="11"/>
       <c r="C493" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D493" s="12">
         <v>590</v>
@@ -16876,7 +16870,7 @@
       </c>
       <c r="B494" s="11"/>
       <c r="C494" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D494" s="12">
         <v>670</v>
@@ -16895,7 +16889,7 @@
       </c>
       <c r="B495" s="11"/>
       <c r="C495" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D495" s="12">
         <v>635</v>
@@ -16913,7 +16907,7 @@
         <v>492</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D496" s="5">
         <v>645</v>
@@ -16928,7 +16922,7 @@
       </c>
       <c r="B497" s="11"/>
       <c r="C497" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D497" s="12">
         <v>605</v>
@@ -16937,7 +16931,7 @@
         <v>605</v>
       </c>
       <c r="F497" s="16" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G497" s="11"/>
       <c r="H497" s="11"/>
@@ -16949,7 +16943,7 @@
       </c>
       <c r="B498" s="11"/>
       <c r="C498" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D498" s="12">
         <v>640</v>
@@ -16968,7 +16962,7 @@
       </c>
       <c r="B499" s="11"/>
       <c r="C499" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D499" s="12">
         <v>610</v>
@@ -16987,7 +16981,7 @@
       </c>
       <c r="B500" s="11"/>
       <c r="C500" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D500" s="12">
         <v>650</v>
@@ -17006,7 +17000,7 @@
       </c>
       <c r="B501" s="11"/>
       <c r="C501" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D501" s="12">
         <v>600</v>
@@ -17025,7 +17019,7 @@
       </c>
       <c r="B502" s="11"/>
       <c r="C502" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D502" s="12">
         <v>650</v>
@@ -17044,7 +17038,7 @@
       </c>
       <c r="B503" s="11"/>
       <c r="C503" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D503" s="12">
         <v>640</v>
@@ -17053,7 +17047,7 @@
         <v>635</v>
       </c>
       <c r="F503" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G503" s="11"/>
       <c r="H503" s="11"/>
@@ -17065,7 +17059,7 @@
       </c>
       <c r="B504" s="11"/>
       <c r="C504" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D504" s="12">
         <v>625</v>
@@ -17084,7 +17078,7 @@
       </c>
       <c r="B505" s="11"/>
       <c r="C505" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D505" s="12">
         <v>610</v>
@@ -17103,7 +17097,7 @@
       </c>
       <c r="B506" s="11"/>
       <c r="C506" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D506" s="12">
         <v>640</v>
@@ -17122,7 +17116,7 @@
       </c>
       <c r="B507" s="11"/>
       <c r="C507" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D507" s="12">
         <v>610</v>
@@ -17131,7 +17125,7 @@
         <v>610</v>
       </c>
       <c r="F507" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G507" s="11"/>
       <c r="H507" s="11"/>
@@ -17143,7 +17137,7 @@
       </c>
       <c r="B508" s="11"/>
       <c r="C508" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D508" s="12">
         <v>660</v>
@@ -17152,7 +17146,7 @@
         <v>655</v>
       </c>
       <c r="F508" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G508" s="11"/>
       <c r="H508" s="11"/>
@@ -17164,7 +17158,7 @@
       </c>
       <c r="B509" s="11"/>
       <c r="C509" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D509" s="12">
         <v>655</v>
@@ -17173,7 +17167,7 @@
         <v>645</v>
       </c>
       <c r="F509" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G509" s="11"/>
       <c r="H509" s="11"/>
@@ -17185,7 +17179,7 @@
       </c>
       <c r="B510" s="11"/>
       <c r="C510" s="11" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D510" s="12">
         <v>625</v>
@@ -17204,7 +17198,7 @@
       </c>
       <c r="B511" s="11"/>
       <c r="C511" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D511" s="12">
         <v>605</v>
@@ -17213,7 +17207,7 @@
         <v>605</v>
       </c>
       <c r="F511" s="16" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G511" s="11"/>
       <c r="H511" s="11"/>
@@ -17225,7 +17219,7 @@
       </c>
       <c r="B512" s="11"/>
       <c r="C512" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D512" s="12">
         <v>650</v>
@@ -17234,7 +17228,7 @@
         <v>640</v>
       </c>
       <c r="F512" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G512" s="11"/>
       <c r="H512" s="11"/>
@@ -17246,7 +17240,7 @@
       </c>
       <c r="B513" s="11"/>
       <c r="C513" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D513" s="12">
         <v>640</v>
@@ -17255,7 +17249,7 @@
         <v>635</v>
       </c>
       <c r="F513" s="16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G513" s="11"/>
       <c r="H513" s="11"/>
@@ -17267,7 +17261,7 @@
       </c>
       <c r="B514" s="11"/>
       <c r="C514" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D514" s="12">
         <v>585</v>
@@ -17276,7 +17270,7 @@
         <v>585</v>
       </c>
       <c r="F514" s="16" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G514" s="11"/>
       <c r="H514" s="11"/>
@@ -17288,7 +17282,7 @@
       </c>
       <c r="B515" s="11"/>
       <c r="C515" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D515" s="12">
         <v>640</v>
@@ -17307,7 +17301,7 @@
       </c>
       <c r="B516" s="11"/>
       <c r="C516" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D516" s="12">
         <v>625</v>
@@ -17316,7 +17310,7 @@
         <v>615</v>
       </c>
       <c r="F516" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G516" s="11"/>
       <c r="H516" s="11"/>
@@ -17328,7 +17322,7 @@
       </c>
       <c r="B517" s="11"/>
       <c r="C517" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D517" s="12">
         <v>625</v>
@@ -17337,7 +17331,7 @@
         <v>615</v>
       </c>
       <c r="F517" s="16" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G517" s="11"/>
       <c r="H517" s="11"/>
@@ -17349,7 +17343,7 @@
       </c>
       <c r="B518" s="11"/>
       <c r="C518" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D518" s="12">
         <v>600</v>
@@ -17358,7 +17352,7 @@
         <v>600</v>
       </c>
       <c r="F518" s="16" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G518" s="11"/>
       <c r="H518" s="11"/>
@@ -17370,7 +17364,7 @@
       </c>
       <c r="B519" s="11"/>
       <c r="C519" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D519" s="12">
         <v>670</v>
@@ -17379,7 +17373,7 @@
         <v>660</v>
       </c>
       <c r="F519" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G519" s="11"/>
       <c r="H519" s="11"/>
@@ -17390,7 +17384,7 @@
         <v>516</v>
       </c>
       <c r="C520" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D520" s="7">
         <v>580</v>
@@ -17404,7 +17398,7 @@
         <v>517</v>
       </c>
       <c r="C521" s="6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D521" s="7">
         <v>660</v>
@@ -17413,7 +17407,7 @@
         <v>650</v>
       </c>
       <c r="F521" s="8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.2">
@@ -17422,7 +17416,7 @@
       </c>
       <c r="B522" s="11"/>
       <c r="C522" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D522" s="12">
         <v>590</v>
@@ -17431,7 +17425,7 @@
         <v>590</v>
       </c>
       <c r="F522" s="16" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G522" s="11"/>
       <c r="H522" s="11"/>
@@ -17443,7 +17437,7 @@
       </c>
       <c r="B523" s="11"/>
       <c r="C523" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D523" s="12">
         <v>650</v>
@@ -17452,7 +17446,7 @@
         <v>640</v>
       </c>
       <c r="F523" s="16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G523" s="11"/>
       <c r="H523" s="11"/>
@@ -17464,7 +17458,7 @@
       </c>
       <c r="B524" s="11"/>
       <c r="C524" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D524" s="12">
         <v>610</v>
@@ -17473,7 +17467,7 @@
         <v>610</v>
       </c>
       <c r="F524" s="16" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G524" s="11"/>
       <c r="H524" s="11"/>
@@ -17485,7 +17479,7 @@
       </c>
       <c r="B525" s="11"/>
       <c r="C525" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D525" s="12">
         <v>670</v>
@@ -17494,7 +17488,7 @@
         <v>660</v>
       </c>
       <c r="F525" s="16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G525" s="11"/>
       <c r="H525" s="11"/>
@@ -17506,7 +17500,7 @@
       </c>
       <c r="B526" s="11"/>
       <c r="C526" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D526" s="12">
         <v>620</v>
@@ -17515,7 +17509,7 @@
         <v>610</v>
       </c>
       <c r="F526" s="16" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G526" s="11"/>
       <c r="H526" s="11"/>
@@ -17527,7 +17521,7 @@
       </c>
       <c r="B527" s="11"/>
       <c r="C527" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D527" s="12">
         <v>635</v>
@@ -17536,7 +17530,7 @@
         <v>625</v>
       </c>
       <c r="F527" s="16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G527" s="11"/>
       <c r="H527" s="11"/>
@@ -17548,7 +17542,7 @@
       </c>
       <c r="B528" s="11"/>
       <c r="C528" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D528" s="12">
         <v>710</v>
@@ -17557,7 +17551,7 @@
         <v>700</v>
       </c>
       <c r="F528" s="16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G528" s="11"/>
       <c r="H528" s="11"/>
@@ -17569,7 +17563,7 @@
       </c>
       <c r="B529" s="11"/>
       <c r="C529" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D529" s="12">
         <v>610</v>
@@ -17588,7 +17582,7 @@
       </c>
       <c r="B530" s="11"/>
       <c r="C530" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D530" s="12">
         <v>710</v>
@@ -17597,7 +17591,7 @@
         <v>700</v>
       </c>
       <c r="F530" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G530" s="11"/>
       <c r="H530" s="11"/>
@@ -17609,7 +17603,7 @@
       </c>
       <c r="B531" s="11"/>
       <c r="C531" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D531" s="12">
         <v>630</v>
@@ -17618,7 +17612,7 @@
         <v>620</v>
       </c>
       <c r="F531" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G531" s="11"/>
       <c r="H531" s="11"/>
@@ -17630,7 +17624,7 @@
       </c>
       <c r="B532" s="11"/>
       <c r="C532" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D532" s="12">
         <v>670</v>
@@ -17649,7 +17643,7 @@
       </c>
       <c r="B533" s="11"/>
       <c r="C533" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D533" s="12">
         <v>775</v>
@@ -17668,7 +17662,7 @@
       </c>
       <c r="B534" s="11"/>
       <c r="C534" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D534" s="12">
         <v>630</v>
@@ -17687,7 +17681,7 @@
       </c>
       <c r="B535" s="11"/>
       <c r="C535" s="11" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D535" s="12">
         <v>760</v>
@@ -17706,7 +17700,7 @@
       </c>
       <c r="B536" s="11"/>
       <c r="C536" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D536" s="12">
         <v>740</v>
@@ -17715,7 +17709,7 @@
         <v>735</v>
       </c>
       <c r="F536" s="16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G536" s="11"/>
       <c r="H536" s="11"/>
@@ -17727,7 +17721,7 @@
       </c>
       <c r="B537" s="11"/>
       <c r="C537" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D537" s="12">
         <v>640</v>
@@ -17746,7 +17740,7 @@
       </c>
       <c r="B538" s="11"/>
       <c r="C538" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D538" s="12">
         <v>700</v>
@@ -17765,7 +17759,7 @@
       </c>
       <c r="B539" s="11"/>
       <c r="C539" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D539" s="12">
         <v>720</v>
@@ -17786,7 +17780,7 @@
       </c>
       <c r="B540" s="11"/>
       <c r="C540" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D540" s="12">
         <v>720</v>
@@ -17795,7 +17789,7 @@
         <v>710</v>
       </c>
       <c r="F540" s="16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G540" s="11"/>
       <c r="H540" s="11"/>
@@ -17807,7 +17801,7 @@
       </c>
       <c r="B541" s="11"/>
       <c r="C541" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D541" s="12">
         <v>640</v>
@@ -17816,7 +17810,7 @@
         <v>630</v>
       </c>
       <c r="F541" s="16" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G541" s="11"/>
       <c r="H541" s="11"/>
@@ -17828,7 +17822,7 @@
       </c>
       <c r="B542" s="11"/>
       <c r="C542" s="11" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D542" s="12">
         <v>730</v>
@@ -17847,7 +17841,7 @@
       </c>
       <c r="B543" s="11"/>
       <c r="C543" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D543" s="12">
         <v>625</v>
@@ -17866,7 +17860,7 @@
       </c>
       <c r="B544" s="11"/>
       <c r="C544" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D544" s="12">
         <v>690</v>
@@ -17875,7 +17869,7 @@
         <v>680</v>
       </c>
       <c r="F544" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G544" s="11"/>
       <c r="H544" s="11"/>
@@ -17887,7 +17881,7 @@
       </c>
       <c r="B545" s="11"/>
       <c r="C545" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D545" s="12">
         <v>630</v>
@@ -17906,7 +17900,7 @@
       </c>
       <c r="B546" s="11"/>
       <c r="C546" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D546" s="12">
         <v>725</v>
@@ -17925,7 +17919,7 @@
       </c>
       <c r="B547" s="11"/>
       <c r="C547" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D547" s="12">
         <v>670</v>
@@ -17944,7 +17938,7 @@
       </c>
       <c r="B548" s="11"/>
       <c r="C548" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D548" s="12">
         <v>670</v>
@@ -17963,7 +17957,7 @@
       </c>
       <c r="B549" s="11"/>
       <c r="C549" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D549" s="12">
         <v>725</v>
@@ -17982,7 +17976,7 @@
       </c>
       <c r="B550" s="11"/>
       <c r="C550" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D550" s="12">
         <v>625</v>
@@ -17991,7 +17985,7 @@
         <v>615</v>
       </c>
       <c r="F550" s="16" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G550" s="11"/>
       <c r="H550" s="11"/>
@@ -18003,7 +17997,7 @@
       </c>
       <c r="B551" s="11"/>
       <c r="C551" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D551" s="12">
         <v>630</v>
@@ -18022,7 +18016,7 @@
       </c>
       <c r="B552" s="11"/>
       <c r="C552" s="11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D552" s="12">
         <v>690</v>
@@ -18031,7 +18025,7 @@
         <v>675</v>
       </c>
       <c r="F552" s="16" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G552" s="11"/>
       <c r="H552" s="11"/>
@@ -18043,7 +18037,7 @@
       </c>
       <c r="B553" s="11"/>
       <c r="C553" s="11" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D553" s="12">
         <v>700</v>
@@ -18052,7 +18046,7 @@
         <v>690</v>
       </c>
       <c r="F553" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G553" s="11"/>
       <c r="H553" s="11"/>
@@ -18064,7 +18058,7 @@
       </c>
       <c r="B554" s="11"/>
       <c r="C554" s="11" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D554" s="12">
         <v>630</v>
@@ -18083,7 +18077,7 @@
       </c>
       <c r="B555" s="11"/>
       <c r="C555" s="11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D555" s="12">
         <v>660</v>
@@ -18092,7 +18086,7 @@
         <v>650</v>
       </c>
       <c r="F555" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G555" s="11"/>
       <c r="H555" s="11"/>
@@ -18104,7 +18098,7 @@
       </c>
       <c r="B556" s="11"/>
       <c r="C556" s="11" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D556" s="12">
         <v>620</v>
@@ -18123,7 +18117,7 @@
       </c>
       <c r="B557" s="11"/>
       <c r="C557" s="11" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D557" s="12">
         <v>650</v>
@@ -18132,7 +18126,7 @@
         <v>645</v>
       </c>
       <c r="F557" s="16" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G557" s="11"/>
       <c r="H557" s="11"/>
@@ -18144,7 +18138,7 @@
       </c>
       <c r="B558" s="11"/>
       <c r="C558" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D558" s="12">
         <v>625</v>
@@ -18153,7 +18147,7 @@
         <v>620</v>
       </c>
       <c r="F558" s="16" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G558" s="11"/>
       <c r="H558" s="11"/>
@@ -18164,7 +18158,7 @@
         <v>555</v>
       </c>
       <c r="C559" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D559" s="7">
         <v>580</v>
@@ -18178,7 +18172,7 @@
         <v>556</v>
       </c>
       <c r="C560" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D560" s="7">
         <v>620</v>
@@ -18187,7 +18181,7 @@
         <v>615</v>
       </c>
       <c r="F560" s="8" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
@@ -18196,7 +18190,7 @@
       </c>
       <c r="B561" s="11"/>
       <c r="C561" s="11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D561" s="12">
         <v>775</v>
@@ -18215,7 +18209,7 @@
       </c>
       <c r="B562" s="11"/>
       <c r="C562" s="11" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D562" s="12">
         <v>635</v>
@@ -18224,7 +18218,7 @@
         <v>630</v>
       </c>
       <c r="F562" s="16" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G562" s="11"/>
       <c r="H562" s="11"/>
@@ -18236,7 +18230,7 @@
       </c>
       <c r="B563" s="11"/>
       <c r="C563" s="11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D563" s="12">
         <v>610</v>
@@ -18255,7 +18249,7 @@
       </c>
       <c r="B564" s="11"/>
       <c r="C564" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D564" s="12">
         <v>640</v>
@@ -18274,7 +18268,7 @@
       </c>
       <c r="B565" s="11"/>
       <c r="C565" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D565" s="12">
         <v>650</v>
@@ -18292,7 +18286,7 @@
         <v>562</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D566" s="5">
         <v>670</v>
@@ -18307,7 +18301,7 @@
       </c>
       <c r="B567" s="11"/>
       <c r="C567" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D567" s="12">
         <v>635</v>
@@ -18316,7 +18310,7 @@
         <v>625</v>
       </c>
       <c r="F567" s="16" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G567" s="11"/>
       <c r="H567" s="11"/>
@@ -18328,7 +18322,7 @@
       </c>
       <c r="B568" s="11"/>
       <c r="C568" s="11" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D568" s="12">
         <v>600</v>
@@ -18347,7 +18341,7 @@
       </c>
       <c r="B569" s="11"/>
       <c r="C569" s="11" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D569" s="12">
         <v>645</v>
@@ -18356,7 +18350,7 @@
         <v>640</v>
       </c>
       <c r="F569" s="16" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G569" s="11"/>
       <c r="H569" s="11"/>
@@ -18368,7 +18362,7 @@
       </c>
       <c r="B570" s="11"/>
       <c r="C570" s="11" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D570" s="12">
         <v>630</v>
@@ -18377,7 +18371,7 @@
         <v>625</v>
       </c>
       <c r="F570" s="16" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G570" s="11"/>
       <c r="H570" s="11"/>
@@ -18389,7 +18383,7 @@
       </c>
       <c r="B571" s="11"/>
       <c r="C571" s="11" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D571" s="12">
         <v>660</v>
@@ -18398,7 +18392,7 @@
         <v>650</v>
       </c>
       <c r="F571" s="16" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G571" s="11"/>
       <c r="H571" s="11"/>
@@ -18410,7 +18404,7 @@
       </c>
       <c r="B572" s="11"/>
       <c r="C572" s="11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D572" s="12">
         <v>640</v>
@@ -18419,7 +18413,7 @@
         <v>635</v>
       </c>
       <c r="F572" s="16" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G572" s="11"/>
       <c r="H572" s="11"/>
@@ -18431,7 +18425,7 @@
       </c>
       <c r="B573" s="11"/>
       <c r="C573" s="11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D573" s="12">
         <v>690</v>
@@ -18440,7 +18434,7 @@
         <v>680</v>
       </c>
       <c r="F573" s="16" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G573" s="11"/>
       <c r="H573" s="11"/>
@@ -18452,7 +18446,7 @@
       </c>
       <c r="B574" s="11"/>
       <c r="C574" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D574" s="12">
         <v>640</v>
@@ -18471,7 +18465,7 @@
       </c>
       <c r="B575" s="11"/>
       <c r="C575" s="11" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D575" s="12">
         <v>645</v>
@@ -18480,7 +18474,7 @@
         <v>640</v>
       </c>
       <c r="F575" s="16" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G575" s="11"/>
       <c r="H575" s="11"/>
@@ -18492,7 +18486,7 @@
       </c>
       <c r="B576" s="11"/>
       <c r="C576" s="11" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D576" s="12">
         <v>650</v>
@@ -18501,7 +18495,7 @@
         <v>640</v>
       </c>
       <c r="F576" s="16" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G576" s="11"/>
       <c r="H576" s="11"/>
@@ -18513,7 +18507,7 @@
       </c>
       <c r="B577" s="11"/>
       <c r="C577" s="11" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D577" s="12">
         <v>690</v>
@@ -18532,7 +18526,7 @@
       </c>
       <c r="B578" s="11"/>
       <c r="C578" s="11" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D578" s="12">
         <v>675</v>
@@ -18541,7 +18535,7 @@
         <v>665</v>
       </c>
       <c r="F578" s="16" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G578" s="11"/>
       <c r="H578" s="11"/>
@@ -18552,7 +18546,7 @@
         <v>575</v>
       </c>
       <c r="C579" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D579" s="7">
         <v>585</v>
@@ -18567,7 +18561,7 @@
       </c>
       <c r="B580" s="11"/>
       <c r="C580" s="11" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D580" s="12">
         <v>580</v>
@@ -18586,7 +18580,7 @@
       </c>
       <c r="B581" s="11"/>
       <c r="C581" s="11" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D581" s="12">
         <v>580</v>
@@ -18605,7 +18599,7 @@
       </c>
       <c r="B582" s="11"/>
       <c r="C582" s="11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D582" s="12">
         <v>580</v>
@@ -18614,7 +18608,7 @@
         <v>580</v>
       </c>
       <c r="F582" s="16" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G582" s="11"/>
       <c r="H582" s="11"/>
@@ -18626,7 +18620,7 @@
       </c>
       <c r="B583" s="11"/>
       <c r="C583" s="11" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D583" s="12">
         <v>635</v>
@@ -18645,7 +18639,7 @@
       </c>
       <c r="B584" s="11"/>
       <c r="C584" s="11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D584" s="12">
         <v>610</v>
@@ -18654,7 +18648,7 @@
         <v>600</v>
       </c>
       <c r="F584" s="20" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G584" s="11"/>
       <c r="H584" s="11"/>
@@ -18666,7 +18660,7 @@
       </c>
       <c r="B585" s="11"/>
       <c r="C585" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D585" s="12">
         <v>605</v>
@@ -18675,11 +18669,11 @@
         <v>600</v>
       </c>
       <c r="F585" s="20" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G585" s="11"/>
       <c r="H585" s="11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I585" s="11"/>
     </row>
@@ -18689,7 +18683,7 @@
       </c>
       <c r="B586" s="11"/>
       <c r="C586" s="11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D586" s="12">
         <v>690</v>
@@ -18707,7 +18701,7 @@
         <v>583</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D587" s="5">
         <v>610</v>
@@ -18721,7 +18715,7 @@
         <v>584</v>
       </c>
       <c r="C588" s="11" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D588" s="14">
         <v>600</v>
@@ -18735,7 +18729,7 @@
         <v>585</v>
       </c>
       <c r="C589" s="11" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D589" s="14">
         <v>620</v>
@@ -18749,7 +18743,7 @@
         <v>586</v>
       </c>
       <c r="C590" s="11" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D590" s="14">
         <v>620</v>
@@ -18763,7 +18757,7 @@
         <v>587</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D591" s="5">
         <v>680</v>
@@ -18772,7 +18766,7 @@
         <v>670</v>
       </c>
       <c r="F591" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
@@ -18780,7 +18774,7 @@
         <v>588</v>
       </c>
       <c r="C592" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D592" s="14">
         <v>745</v>
@@ -18794,7 +18788,7 @@
         <v>589</v>
       </c>
       <c r="C593" s="11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D593" s="14">
         <v>725</v>
@@ -18803,7 +18797,7 @@
         <v>715</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
@@ -18811,7 +18805,7 @@
         <v>590</v>
       </c>
       <c r="C594" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D594" s="14">
         <v>740</v>
@@ -18820,7 +18814,7 @@
         <v>730</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
@@ -18828,7 +18822,7 @@
         <v>591</v>
       </c>
       <c r="C595" s="11" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D595" s="14">
         <v>700</v>
@@ -18837,7 +18831,7 @@
         <v>690</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.2">
@@ -18845,7 +18839,7 @@
         <v>592</v>
       </c>
       <c r="C596" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D596" s="14">
         <v>750</v>
@@ -18854,7 +18848,7 @@
         <v>735</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.2">
@@ -18862,7 +18856,7 @@
         <v>593</v>
       </c>
       <c r="C597" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D597" s="14">
         <v>600</v>
@@ -18871,7 +18865,7 @@
         <v>600</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
@@ -18879,7 +18873,7 @@
         <v>594</v>
       </c>
       <c r="C598" s="11" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D598" s="14">
         <v>760</v>
@@ -18888,7 +18882,7 @@
         <v>750</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.2">
@@ -18896,7 +18890,7 @@
         <v>595</v>
       </c>
       <c r="C599" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D599" s="14">
         <v>600</v>
@@ -18905,272 +18899,272 @@
         <v>600</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" s="11">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C600" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D600" s="14">
+        <v>720</v>
+      </c>
+      <c r="E600" s="1">
+        <v>710</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="11">
+        <v>598</v>
+      </c>
+      <c r="C601" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="D600" s="14">
-        <v>770</v>
-      </c>
-      <c r="E600" s="1">
-        <v>750</v>
-      </c>
-      <c r="F600" s="2" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A601" s="11">
-        <v>597</v>
-      </c>
-      <c r="C601" s="11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D601" s="14">
-        <v>720</v>
-      </c>
-      <c r="E601" s="1">
-        <v>710</v>
-      </c>
-      <c r="F601" s="2" t="s">
-        <v>1054</v>
+      <c r="D601" s="5">
+        <v>655</v>
+      </c>
+      <c r="E601" s="5">
+        <v>640</v>
+      </c>
+      <c r="F601" s="10" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="602" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A602" s="11">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D602" s="5">
-        <v>655</v>
+        <v>750</v>
       </c>
       <c r="E602" s="5">
-        <v>640</v>
-      </c>
-      <c r="F602" s="10" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="603" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="11">
-        <v>599</v>
-      </c>
-      <c r="C603" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C603" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D603" s="14">
+        <v>760</v>
+      </c>
+      <c r="E603" s="1">
+        <v>740</v>
+      </c>
+      <c r="F603" s="2" t="s">
         <v>1057</v>
-      </c>
-      <c r="D603" s="5">
-        <v>750</v>
-      </c>
-      <c r="E603" s="5">
-        <v>740</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" s="11">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C604" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D604" s="14">
-        <v>760</v>
+        <v>630</v>
       </c>
       <c r="E604" s="1">
-        <v>740</v>
-      </c>
-      <c r="F604" s="2" t="s">
-        <v>1061</v>
+        <v>620</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" s="11">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C605" s="11" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D605" s="14">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="E605" s="1">
-        <v>620</v>
+        <v>715</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" s="11">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D606" s="14">
-        <v>730</v>
+        <v>610</v>
       </c>
       <c r="E606" s="1">
-        <v>715</v>
+        <v>600</v>
       </c>
       <c r="F606" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" s="11">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C607" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D607" s="14">
+        <v>730</v>
+      </c>
+      <c r="E607" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="11">
+        <v>605</v>
+      </c>
+      <c r="C608" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="D607" s="14">
-        <v>610</v>
-      </c>
-      <c r="E607" s="1">
-        <v>600</v>
-      </c>
-      <c r="F607" s="2" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A608" s="11">
-        <v>604</v>
-      </c>
-      <c r="C608" s="11" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D608" s="14">
-        <v>730</v>
-      </c>
-      <c r="E608" s="1">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="609" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D608" s="5">
+        <v>685</v>
+      </c>
+      <c r="E608" s="5">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" s="11">
-        <v>605</v>
-      </c>
-      <c r="C609" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D609" s="5">
-        <v>685</v>
-      </c>
-      <c r="E609" s="5">
-        <v>670</v>
+        <v>606</v>
+      </c>
+      <c r="C609" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D609" s="14">
+        <v>625</v>
+      </c>
+      <c r="E609" s="1">
+        <v>615</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" s="11">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C610" s="11" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D610" s="14">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="E610" s="1">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="F610" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" s="11">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C611" s="11" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D611" s="14">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="E611" s="1">
-        <v>635</v>
-      </c>
-      <c r="F611" s="2" t="s">
-        <v>1085</v>
+        <v>600</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" s="11">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C612" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D612" s="14">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="E612" s="1">
-        <v>600</v>
+        <v>655</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" s="11">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C613" s="11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D613" s="14">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="E613" s="1">
-        <v>655</v>
+        <v>590</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" s="11">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C614" s="11" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D614" s="14">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="E614" s="1">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" s="11">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C615" s="11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D615" s="14">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="E615" s="1">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" s="11">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C616" s="11" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D616" s="14">
         <v>640</v>
@@ -19179,63 +19173,60 @@
         <v>630</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" s="11">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C617" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D617" s="14">
         <v>640</v>
       </c>
       <c r="E617" s="1">
-        <v>630</v>
-      </c>
-      <c r="F617" s="2" t="s">
-        <v>1096</v>
+        <v>625</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" s="11">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C618" s="11" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D618" s="14">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="E618" s="1">
-        <v>625</v>
+        <v>605</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" s="11">
+        <v>616</v>
+      </c>
+      <c r="C619" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D619" s="14">
+        <v>625</v>
+      </c>
+      <c r="E619" s="1">
         <v>615</v>
-      </c>
-      <c r="C619" s="11" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D619" s="14">
-        <v>615</v>
-      </c>
-      <c r="E619" s="1">
-        <v>605</v>
-      </c>
-      <c r="F619" s="2" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" s="11">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C620" s="11" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D620" s="14">
         <v>625</v>
@@ -19246,106 +19237,106 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" s="11">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C621" s="11" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D621" s="14">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="E621" s="1">
-        <v>615</v>
+        <v>600</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" s="11">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C622" s="11" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D622" s="14">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="E622" s="1">
-        <v>600</v>
-      </c>
-      <c r="F622" s="2" t="s">
-        <v>1103</v>
+        <v>615</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" s="11">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C623" s="11" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D623" s="14">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="E623" s="1">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" s="11">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C624" s="11" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D624" s="14">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E624" s="1">
         <v>600</v>
       </c>
+      <c r="F624" s="2" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" s="11">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C625" s="11" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D625" s="14">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="E625" s="1">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="F625" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" s="11">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C626" s="11" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D626" s="14">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="E626" s="1">
-        <v>620</v>
-      </c>
-      <c r="F626" s="2" t="s">
-        <v>1109</v>
+        <v>600</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" s="11">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C627" s="11" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D627" s="14">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E627" s="1">
         <v>600</v>
@@ -19353,89 +19344,89 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" s="11">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C628" s="11" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D628" s="14">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="E628" s="1">
-        <v>600</v>
+        <v>625</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" s="11">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C629" s="11" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D629" s="14">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="E629" s="1">
-        <v>625</v>
+        <v>600</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" s="11">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C630" s="11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D630" s="14">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="E630" s="1">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="F630" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" s="11">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C631" s="11" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D631" s="14">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E631" s="1">
-        <v>640</v>
-      </c>
-      <c r="F631" s="2" t="s">
-        <v>1116</v>
+        <v>630</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" s="11">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C632" s="11" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D632" s="14">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="E632" s="1">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" s="11">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C633" s="11" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D633" s="14">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E633" s="1">
         <v>600</v>
@@ -19443,75 +19434,78 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" s="11">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C634" s="11" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D634" s="14">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="E634" s="1">
-        <v>600</v>
+        <v>635</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" s="11">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C635" s="11" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D635" s="14">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E635" s="1">
-        <v>635</v>
-      </c>
-      <c r="F635" s="2" t="s">
-        <v>1121</v>
+        <v>630</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" s="11">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C636" s="11" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D636" s="14">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="E636" s="1">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" s="11">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C637" s="11" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D637" s="14">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E637" s="1">
         <v>600</v>
       </c>
+      <c r="F637" s="2" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" s="11">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C638" s="11" t="s">
         <v>1133</v>
       </c>
       <c r="D638" s="14">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="E638" s="1">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="F638" s="2" t="s">
         <v>1134</v>
@@ -19519,63 +19513,46 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" s="11">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C639" s="11" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D639" s="14">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E639" s="1">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F639" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" s="11">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C640" s="11" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D640" s="14">
+        <v>625</v>
+      </c>
+      <c r="E640" s="1">
         <v>620</v>
-      </c>
-      <c r="E640" s="1">
-        <v>610</v>
-      </c>
-      <c r="F640" s="2" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641" s="11">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C641" s="11" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D641" s="14">
-        <v>625</v>
+        <v>680</v>
       </c>
       <c r="E641" s="1">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A642" s="11">
-        <v>638</v>
-      </c>
-      <c r="C642" s="11" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D642" s="14">
-        <v>680</v>
-      </c>
-      <c r="E642" s="1">
         <v>660</v>
       </c>
     </row>
@@ -19693,7 +19670,7 @@
         <v>560</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -19731,7 +19708,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="D9" s="22">
         <v>635</v>
@@ -19851,7 +19828,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D17" s="7">
         <v>690</v>
@@ -19868,7 +19845,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D18" s="5">
         <v>675</v>
@@ -20232,7 +20209,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D41" s="5">
         <v>660</v>
@@ -20559,7 +20536,7 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D63" s="1">
         <v>600</v>
@@ -20568,7 +20545,7 @@
         <v>590</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -20576,7 +20553,7 @@
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D64" s="1">
         <v>590</v>
@@ -20585,7 +20562,7 @@
         <v>580</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -20593,7 +20570,7 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D65" s="1">
         <v>725</v>
@@ -20607,7 +20584,7 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D66" s="1">
         <v>720</v>
@@ -20616,7 +20593,7 @@
         <v>700</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -20624,7 +20601,7 @@
         <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D67" s="1">
         <v>600</v>
@@ -20633,7 +20610,7 @@
         <v>585</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -20641,7 +20618,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D68" s="7">
         <v>645</v>
@@ -20650,7 +20627,7 @@
         <v>640</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -20658,7 +20635,7 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D69" s="1">
         <v>585</v>
@@ -20667,7 +20644,7 @@
         <v>575</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -20675,7 +20652,7 @@
         <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D70" s="1">
         <v>615</v>
@@ -20684,7 +20661,7 @@
         <v>610</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -20692,7 +20669,7 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D71" s="1">
         <v>620</v>
@@ -20701,7 +20678,7 @@
         <v>610</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -20709,7 +20686,7 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D72" s="1">
         <v>610</v>
@@ -20724,7 +20701,7 @@
         <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D73" s="1">
         <v>650</v>
@@ -20739,7 +20716,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D74" s="5">
         <v>615</v>
@@ -20754,7 +20731,7 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D75" s="1">
         <v>640</v>
@@ -20769,7 +20746,7 @@
         <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D76" s="1">
         <v>615</v>
@@ -20778,7 +20755,7 @@
         <v>600</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -20786,7 +20763,7 @@
         <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D77" s="1">
         <v>600</v>
@@ -20795,7 +20772,7 @@
         <v>590</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20803,7 +20780,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D78" s="12">
         <v>635</v>
@@ -20817,7 +20794,7 @@
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D79" s="1">
         <v>700</v>
@@ -20832,7 +20809,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D80" s="7">
         <v>680</v>
@@ -20847,7 +20824,7 @@
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D81" s="1">
         <v>620</v>
@@ -20856,7 +20833,7 @@
         <v>610</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -20864,7 +20841,7 @@
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D82" s="1">
         <v>645</v>
@@ -20873,7 +20850,7 @@
         <v>635</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -20881,7 +20858,7 @@
         <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D83" s="1">
         <v>600</v>
@@ -20895,7 +20872,7 @@
         <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D84" s="1">
         <v>615</v>
@@ -20909,7 +20886,7 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D85" s="1">
         <v>580</v>
@@ -20918,7 +20895,7 @@
         <v>570</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -20926,7 +20903,7 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="D86" s="1">
         <v>640</v>
@@ -20941,7 +20918,7 @@
         <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="D87" s="1">
         <v>575</v>
@@ -20950,7 +20927,7 @@
         <v>570</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -20958,7 +20935,7 @@
         <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D88" s="1">
         <v>580</v>
@@ -20973,7 +20950,7 @@
         <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D89" s="1">
         <v>690</v>
@@ -20982,7 +20959,7 @@
         <v>670</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -20990,7 +20967,7 @@
         <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D90" s="1">
         <v>575</v>
@@ -20999,7 +20976,7 @@
         <v>570</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/per-github/project-tennis/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD20A201-A463-8249-81CE-506A6D729560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6256BC-2539-764F-A6AB-5CFB9FB1AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25320" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1142">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -6830,10 +6830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I641"/>
+  <dimension ref="A1:I640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="F464" sqref="F464"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:XFD437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7684,7 +7684,7 @@
         <v>69</v>
       </c>
       <c r="D40" s="12">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E40" s="12">
         <v>670</v>
@@ -15744,55 +15744,55 @@
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" s="11">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B437" s="11"/>
       <c r="C437" s="11" t="s">
-        <v>456</v>
+        <v>694</v>
       </c>
       <c r="D437" s="12">
-        <v>635</v>
+        <v>590</v>
       </c>
       <c r="E437" s="12">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="F437" s="11"/>
       <c r="G437" s="11"/>
       <c r="H437" s="11"/>
       <c r="I437" s="11"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="11">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B438" s="11"/>
       <c r="C438" s="11" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D438" s="12">
-        <v>590</v>
+        <v>635</v>
       </c>
       <c r="E438" s="12">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F438" s="11"/>
       <c r="G438" s="11"/>
       <c r="H438" s="11"/>
       <c r="I438" s="11"/>
     </row>
-    <row r="439" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="11">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B439" s="11"/>
       <c r="C439" s="11" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D439" s="12">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="E439" s="12">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="F439" s="11"/>
       <c r="G439" s="11"/>
@@ -15801,51 +15801,53 @@
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="11">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B440" s="11"/>
       <c r="C440" s="11" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D440" s="12">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="E440" s="12">
         <v>615</v>
       </c>
       <c r="F440" s="11"/>
-      <c r="G440" s="11"/>
+      <c r="G440" s="11">
+        <v>1970</v>
+      </c>
       <c r="H440" s="11"/>
       <c r="I440" s="11"/>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" s="11">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B441" s="11"/>
       <c r="C441" s="11" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D441" s="12">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E441" s="12">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F441" s="11"/>
       <c r="G441" s="11">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="H441" s="11"/>
       <c r="I441" s="11"/>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="11">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B442" s="11"/>
       <c r="C442" s="11" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D442" s="12">
         <v>615</v>
@@ -15855,154 +15857,152 @@
       </c>
       <c r="F442" s="11"/>
       <c r="G442" s="11">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="H442" s="11"/>
       <c r="I442" s="11"/>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="11">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B443" s="11"/>
       <c r="C443" s="11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D443" s="12">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="E443" s="12">
-        <v>605</v>
-      </c>
-      <c r="F443" s="11"/>
+        <v>620</v>
+      </c>
+      <c r="F443" s="16" t="s">
+        <v>701</v>
+      </c>
       <c r="G443" s="11">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="H443" s="11"/>
       <c r="I443" s="11"/>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" s="11">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B444" s="11"/>
       <c r="C444" s="11" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D444" s="12">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="E444" s="12">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="F444" s="16" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G444" s="11">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="H444" s="11"/>
       <c r="I444" s="11"/>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="11">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B445" s="11"/>
       <c r="C445" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D445" s="12">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="E445" s="12">
-        <v>630</v>
-      </c>
-      <c r="F445" s="16" t="s">
-        <v>703</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="F445" s="11"/>
       <c r="G445" s="11">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H445" s="11"/>
       <c r="I445" s="11"/>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" s="11">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B446" s="11"/>
       <c r="C446" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D446" s="12">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E446" s="12">
         <v>620</v>
       </c>
       <c r="F446" s="11"/>
       <c r="G446" s="11">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="H446" s="11"/>
       <c r="I446" s="11"/>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" s="11">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B447" s="11"/>
       <c r="C447" s="11" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D447" s="12">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="E447" s="12">
-        <v>620</v>
-      </c>
-      <c r="F447" s="11"/>
-      <c r="G447" s="11">
-        <v>1971</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="F447" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="G447" s="11"/>
       <c r="H447" s="11"/>
       <c r="I447" s="11"/>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="11">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B448" s="11"/>
       <c r="C448" s="11" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D448" s="12">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="E448" s="12">
-        <v>650</v>
-      </c>
-      <c r="F448" s="16" t="s">
-        <v>707</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="F448" s="11"/>
       <c r="G448" s="11"/>
       <c r="H448" s="11"/>
       <c r="I448" s="11"/>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="11">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B449" s="11"/>
       <c r="C449" s="11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D449" s="12">
-        <v>740</v>
+        <v>625</v>
       </c>
       <c r="E449" s="12">
-        <v>730</v>
+        <v>620</v>
       </c>
       <c r="F449" s="11"/>
       <c r="G449" s="11"/>
@@ -16011,17 +16011,17 @@
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" s="11">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B450" s="11"/>
       <c r="C450" s="11" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D450" s="12">
-        <v>625</v>
+        <v>730</v>
       </c>
       <c r="E450" s="12">
-        <v>620</v>
+        <v>725</v>
       </c>
       <c r="F450" s="11"/>
       <c r="G450" s="11"/>
@@ -16030,17 +16030,17 @@
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="11">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B451" s="11"/>
       <c r="C451" s="11" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D451" s="12">
-        <v>730</v>
+        <v>655</v>
       </c>
       <c r="E451" s="12">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="F451" s="11"/>
       <c r="G451" s="11"/>
@@ -16049,17 +16049,17 @@
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="11">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B452" s="11"/>
       <c r="C452" s="11" t="s">
-        <v>711</v>
+        <v>784</v>
       </c>
       <c r="D452" s="12">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="E452" s="12">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F452" s="11"/>
       <c r="G452" s="11"/>
@@ -16068,17 +16068,17 @@
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="11">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B453" s="11"/>
       <c r="C453" s="11" t="s">
-        <v>784</v>
+        <v>712</v>
       </c>
       <c r="D453" s="12">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="E453" s="12">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="F453" s="11"/>
       <c r="G453" s="11"/>
@@ -16087,57 +16087,57 @@
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="11">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B454" s="11"/>
       <c r="C454" s="11" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D454" s="12">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="E454" s="12">
-        <v>650</v>
-      </c>
-      <c r="F454" s="11"/>
+        <v>610</v>
+      </c>
+      <c r="F454" s="16" t="s">
+        <v>714</v>
+      </c>
       <c r="G454" s="11"/>
       <c r="H454" s="11"/>
       <c r="I454" s="11"/>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="11">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B455" s="11"/>
       <c r="C455" s="11" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D455" s="12">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="E455" s="12">
-        <v>610</v>
-      </c>
-      <c r="F455" s="16" t="s">
-        <v>714</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="F455" s="11"/>
       <c r="G455" s="11"/>
       <c r="H455" s="11"/>
       <c r="I455" s="11"/>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="11">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B456" s="11"/>
       <c r="C456" s="11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D456" s="12">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="E456" s="12">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="F456" s="11"/>
       <c r="G456" s="11"/>
@@ -16146,57 +16146,57 @@
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="11">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B457" s="11"/>
       <c r="C457" s="11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D457" s="12">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="E457" s="12">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="F457" s="11"/>
       <c r="G457" s="11"/>
       <c r="H457" s="11"/>
       <c r="I457" s="11"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="11">
-        <v>454</v>
-      </c>
-      <c r="B458" s="11"/>
+        <v>455</v>
+      </c>
+      <c r="B458" s="11" t="s">
+        <v>718</v>
+      </c>
       <c r="C458" s="11" t="s">
-        <v>717</v>
+        <v>927</v>
       </c>
       <c r="D458" s="12">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E458" s="12">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F458" s="11"/>
       <c r="G458" s="11"/>
       <c r="H458" s="11"/>
       <c r="I458" s="11"/>
     </row>
-    <row r="459" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" s="11">
-        <v>455</v>
-      </c>
-      <c r="B459" s="11" t="s">
-        <v>718</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B459" s="11"/>
       <c r="C459" s="11" t="s">
-        <v>927</v>
+        <v>719</v>
       </c>
       <c r="D459" s="12">
+        <v>645</v>
+      </c>
+      <c r="E459" s="12">
         <v>640</v>
-      </c>
-      <c r="E459" s="12">
-        <v>635</v>
       </c>
       <c r="F459" s="11"/>
       <c r="G459" s="11"/>
@@ -16205,17 +16205,17 @@
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" s="11">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B460" s="11"/>
       <c r="C460" s="11" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D460" s="12">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E460" s="12">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F460" s="11"/>
       <c r="G460" s="11"/>
@@ -16224,17 +16224,17 @@
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" s="11">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B461" s="11"/>
       <c r="C461" s="11" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D461" s="12">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="E461" s="12">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="F461" s="11"/>
       <c r="G461" s="11"/>
@@ -16243,74 +16243,76 @@
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" s="11">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B462" s="11"/>
       <c r="C462" s="11" t="s">
-        <v>721</v>
+        <v>1140</v>
       </c>
       <c r="D462" s="12">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="E462" s="12">
-        <v>600</v>
-      </c>
-      <c r="F462" s="11"/>
+        <v>615</v>
+      </c>
+      <c r="F462" s="16" t="s">
+        <v>1141</v>
+      </c>
       <c r="G462" s="11"/>
       <c r="H462" s="11"/>
       <c r="I462" s="11"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A463" s="11">
-        <v>459</v>
-      </c>
-      <c r="B463" s="11"/>
-      <c r="C463" s="11" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D463" s="12">
-        <v>615</v>
-      </c>
-      <c r="E463" s="12">
-        <v>615</v>
-      </c>
-      <c r="F463" s="16" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G463" s="11"/>
-      <c r="H463" s="11"/>
-      <c r="I463" s="11"/>
-    </row>
-    <row r="464" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="6">
+    <row r="463" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="6">
         <v>460</v>
       </c>
-      <c r="C464" s="6" t="s">
+      <c r="C463" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D464" s="7">
+      <c r="D463" s="7">
         <v>640</v>
       </c>
-      <c r="E464" s="7">
+      <c r="E463" s="7">
         <v>635</v>
       </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A464" s="11">
+        <v>461</v>
+      </c>
+      <c r="B464" s="11"/>
+      <c r="C464" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="D464" s="12">
+        <v>630</v>
+      </c>
+      <c r="E464" s="12">
+        <v>625</v>
+      </c>
+      <c r="F464" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="G464" s="11"/>
+      <c r="H464" s="11"/>
+      <c r="I464" s="11"/>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" s="11">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B465" s="11"/>
       <c r="C465" s="11" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D465" s="12">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="E465" s="12">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F465" s="16" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G465" s="11"/>
       <c r="H465" s="11"/>
@@ -16318,78 +16320,76 @@
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" s="11">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B466" s="11"/>
       <c r="C466" s="11" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D466" s="12">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="E466" s="12">
-        <v>615</v>
-      </c>
-      <c r="F466" s="16" t="s">
-        <v>726</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="F466" s="11"/>
       <c r="G466" s="11"/>
       <c r="H466" s="11"/>
       <c r="I466" s="11"/>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" s="11">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B467" s="11"/>
       <c r="C467" s="11" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D467" s="12">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="E467" s="12">
-        <v>600</v>
-      </c>
-      <c r="F467" s="11"/>
+        <v>640</v>
+      </c>
+      <c r="F467" s="16" t="s">
+        <v>729</v>
+      </c>
       <c r="G467" s="11"/>
       <c r="H467" s="11"/>
       <c r="I467" s="11"/>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" s="11">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B468" s="11"/>
       <c r="C468" s="11" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D468" s="12">
-        <v>645</v>
+        <v>585</v>
       </c>
       <c r="E468" s="12">
-        <v>640</v>
-      </c>
-      <c r="F468" s="16" t="s">
-        <v>729</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="F468" s="11"/>
       <c r="G468" s="11"/>
       <c r="H468" s="11"/>
       <c r="I468" s="11"/>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" s="11">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B469" s="11"/>
       <c r="C469" s="11" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D469" s="12">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="E469" s="12">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="F469" s="11"/>
       <c r="G469" s="11"/>
@@ -16398,17 +16398,17 @@
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" s="11">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B470" s="11"/>
       <c r="C470" s="11" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D470" s="12">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="E470" s="12">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="F470" s="11"/>
       <c r="G470" s="11"/>
@@ -16417,17 +16417,17 @@
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" s="11">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B471" s="11"/>
       <c r="C471" s="11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D471" s="12">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="E471" s="12">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="F471" s="11"/>
       <c r="G471" s="11"/>
@@ -16436,17 +16436,17 @@
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" s="11">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B472" s="11"/>
       <c r="C472" s="11" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D472" s="12">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E472" s="12">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="F472" s="11"/>
       <c r="G472" s="11"/>
@@ -16455,17 +16455,17 @@
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" s="11">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B473" s="11"/>
       <c r="C473" s="11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D473" s="12">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="E473" s="12">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="F473" s="11"/>
       <c r="G473" s="11"/>
@@ -16474,17 +16474,17 @@
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" s="11">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B474" s="11"/>
       <c r="C474" s="11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D474" s="12">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="E474" s="12">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="F474" s="11"/>
       <c r="G474" s="11"/>
@@ -16493,17 +16493,17 @@
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" s="11">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B475" s="11"/>
       <c r="C475" s="11" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D475" s="12">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="E475" s="12">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="F475" s="11"/>
       <c r="G475" s="11"/>
@@ -16512,11 +16512,11 @@
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" s="11">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B476" s="11"/>
       <c r="C476" s="11" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D476" s="12">
         <v>630</v>
@@ -16524,45 +16524,45 @@
       <c r="E476" s="12">
         <v>625</v>
       </c>
-      <c r="F476" s="11"/>
+      <c r="F476" s="16" t="s">
+        <v>739</v>
+      </c>
       <c r="G476" s="11"/>
       <c r="H476" s="11"/>
       <c r="I476" s="11"/>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" s="11">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B477" s="11"/>
       <c r="C477" s="11" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D477" s="12">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E477" s="12">
-        <v>625</v>
-      </c>
-      <c r="F477" s="16" t="s">
-        <v>739</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="F477" s="11"/>
       <c r="G477" s="11"/>
       <c r="H477" s="11"/>
       <c r="I477" s="11"/>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" s="11">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B478" s="11"/>
       <c r="C478" s="11" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D478" s="12">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E478" s="12">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F478" s="11"/>
       <c r="G478" s="11"/>
@@ -16571,57 +16571,57 @@
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" s="11">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B479" s="11"/>
       <c r="C479" s="11" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D479" s="12">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="E479" s="12">
-        <v>610</v>
-      </c>
-      <c r="F479" s="11"/>
+        <v>645</v>
+      </c>
+      <c r="F479" s="16" t="s">
+        <v>743</v>
+      </c>
       <c r="G479" s="11"/>
       <c r="H479" s="11"/>
       <c r="I479" s="11"/>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" s="11">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B480" s="11"/>
       <c r="C480" s="11" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D480" s="12">
-        <v>655</v>
+        <v>605</v>
       </c>
       <c r="E480" s="12">
-        <v>645</v>
-      </c>
-      <c r="F480" s="16" t="s">
-        <v>743</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="F480" s="11"/>
       <c r="G480" s="11"/>
       <c r="H480" s="11"/>
       <c r="I480" s="11"/>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" s="11">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B481" s="11"/>
       <c r="C481" s="11" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="D481" s="12">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="E481" s="12">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="F481" s="11"/>
       <c r="G481" s="11"/>
@@ -16630,17 +16630,17 @@
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" s="11">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B482" s="11"/>
       <c r="C482" s="11" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D482" s="12">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E482" s="12">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F482" s="11"/>
       <c r="G482" s="11"/>
@@ -16649,17 +16649,17 @@
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" s="11">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B483" s="11"/>
       <c r="C483" s="11" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D483" s="12">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="E483" s="12">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="F483" s="11"/>
       <c r="G483" s="11"/>
@@ -16668,17 +16668,17 @@
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" s="11">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B484" s="11"/>
       <c r="C484" s="11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D484" s="12">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="E484" s="12">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F484" s="11"/>
       <c r="G484" s="11"/>
@@ -16687,39 +16687,41 @@
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="11">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B485" s="11"/>
       <c r="C485" s="11" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D485" s="12">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E485" s="12">
-        <v>620</v>
-      </c>
-      <c r="F485" s="11"/>
+        <v>610</v>
+      </c>
+      <c r="F485" s="16" t="s">
+        <v>752</v>
+      </c>
       <c r="G485" s="11"/>
       <c r="H485" s="11"/>
       <c r="I485" s="11"/>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" s="11">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B486" s="11"/>
       <c r="C486" s="11" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D486" s="12">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="E486" s="12">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F486" s="16" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G486" s="11"/>
       <c r="H486" s="11"/>
@@ -16727,20 +16729,20 @@
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" s="11">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B487" s="11"/>
       <c r="C487" s="11" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D487" s="12">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="E487" s="12">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F487" s="16" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G487" s="11"/>
       <c r="H487" s="11"/>
@@ -16748,32 +16750,30 @@
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" s="11">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B488" s="11"/>
       <c r="C488" s="11" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D488" s="12">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E488" s="12">
-        <v>610</v>
-      </c>
-      <c r="F488" s="16" t="s">
-        <v>756</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="F488" s="11"/>
       <c r="G488" s="11"/>
       <c r="H488" s="11"/>
       <c r="I488" s="11"/>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" s="11">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B489" s="11"/>
       <c r="C489" s="11" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D489" s="12">
         <v>630</v>
@@ -16781,45 +16781,45 @@
       <c r="E489" s="12">
         <v>625</v>
       </c>
-      <c r="F489" s="11"/>
+      <c r="F489" s="16" t="s">
+        <v>759</v>
+      </c>
       <c r="G489" s="11"/>
       <c r="H489" s="11"/>
       <c r="I489" s="11"/>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" s="11">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B490" s="11"/>
       <c r="C490" s="11" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D490" s="12">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E490" s="12">
-        <v>625</v>
-      </c>
-      <c r="F490" s="16" t="s">
-        <v>759</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="F490" s="11"/>
       <c r="G490" s="11"/>
       <c r="H490" s="11"/>
       <c r="I490" s="11"/>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" s="11">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B491" s="11"/>
       <c r="C491" s="11" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D491" s="12">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="E491" s="12">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="F491" s="11"/>
       <c r="G491" s="11"/>
@@ -16828,17 +16828,17 @@
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" s="11">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B492" s="11"/>
       <c r="C492" s="11" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D492" s="12">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="E492" s="12">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="F492" s="11"/>
       <c r="G492" s="11"/>
@@ -16847,17 +16847,17 @@
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" s="11">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B493" s="11"/>
       <c r="C493" s="11" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D493" s="12">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="E493" s="12">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="F493" s="11"/>
       <c r="G493" s="11"/>
@@ -16866,90 +16866,90 @@
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="11">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B494" s="11"/>
       <c r="C494" s="11" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D494" s="12">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="E494" s="12">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="F494" s="11"/>
       <c r="G494" s="11"/>
       <c r="H494" s="11"/>
       <c r="I494" s="11"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A495" s="11">
-        <v>491</v>
-      </c>
-      <c r="B495" s="11"/>
-      <c r="C495" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="D495" s="12">
-        <v>635</v>
-      </c>
-      <c r="E495" s="12">
+    <row r="495" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="4">
+        <v>492</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D495" s="5">
+        <v>645</v>
+      </c>
+      <c r="E495" s="5">
         <v>630</v>
       </c>
-      <c r="F495" s="11"/>
-      <c r="G495" s="11"/>
-      <c r="H495" s="11"/>
-      <c r="I495" s="11"/>
-    </row>
-    <row r="496" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="4">
-        <v>492</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="D496" s="5">
-        <v>645</v>
-      </c>
-      <c r="E496" s="5">
-        <v>630</v>
-      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A496" s="11">
+        <v>493</v>
+      </c>
+      <c r="B496" s="11"/>
+      <c r="C496" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="D496" s="12">
+        <v>605</v>
+      </c>
+      <c r="E496" s="12">
+        <v>605</v>
+      </c>
+      <c r="F496" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="G496" s="11"/>
+      <c r="H496" s="11"/>
+      <c r="I496" s="11"/>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="11">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B497" s="11"/>
       <c r="C497" s="11" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D497" s="12">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="E497" s="12">
-        <v>605</v>
-      </c>
-      <c r="F497" s="16" t="s">
-        <v>767</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="F497" s="11"/>
       <c r="G497" s="11"/>
       <c r="H497" s="11"/>
       <c r="I497" s="11"/>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="11">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B498" s="11"/>
       <c r="C498" s="11" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D498" s="12">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="E498" s="12">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="F498" s="11"/>
       <c r="G498" s="11"/>
@@ -16958,17 +16958,17 @@
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="11">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B499" s="11"/>
       <c r="C499" s="11" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D499" s="12">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="E499" s="12">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="F499" s="11"/>
       <c r="G499" s="11"/>
@@ -16977,17 +16977,17 @@
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="11">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B500" s="11"/>
       <c r="C500" s="11" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D500" s="12">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E500" s="12">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="F500" s="11"/>
       <c r="G500" s="11"/>
@@ -16996,17 +16996,17 @@
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="11">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B501" s="11"/>
       <c r="C501" s="11" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D501" s="12">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E501" s="12">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="F501" s="11"/>
       <c r="G501" s="11"/>
@@ -17015,57 +17015,57 @@
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" s="11">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B502" s="11"/>
       <c r="C502" s="11" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D502" s="12">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E502" s="12">
-        <v>640</v>
-      </c>
-      <c r="F502" s="11"/>
+        <v>635</v>
+      </c>
+      <c r="F502" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="G502" s="11"/>
       <c r="H502" s="11"/>
       <c r="I502" s="11"/>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" s="11">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B503" s="11"/>
       <c r="C503" s="11" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D503" s="12">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="E503" s="12">
-        <v>635</v>
-      </c>
-      <c r="F503" s="16" t="s">
-        <v>774</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="F503" s="11"/>
       <c r="G503" s="11"/>
       <c r="H503" s="11"/>
       <c r="I503" s="11"/>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" s="11">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B504" s="11"/>
       <c r="C504" s="11" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D504" s="12">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="E504" s="12">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F504" s="11"/>
       <c r="G504" s="11"/>
@@ -17074,17 +17074,17 @@
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="11">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B505" s="11"/>
       <c r="C505" s="11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D505" s="12">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="E505" s="12">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="F505" s="11"/>
       <c r="G505" s="11"/>
@@ -17093,39 +17093,41 @@
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" s="11">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B506" s="11"/>
       <c r="C506" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D506" s="12">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="E506" s="12">
-        <v>635</v>
-      </c>
-      <c r="F506" s="11"/>
+        <v>610</v>
+      </c>
+      <c r="F506" s="16" t="s">
+        <v>779</v>
+      </c>
       <c r="G506" s="11"/>
       <c r="H506" s="11"/>
       <c r="I506" s="11"/>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" s="11">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B507" s="11"/>
       <c r="C507" s="11" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D507" s="12">
-        <v>610</v>
+        <v>660</v>
       </c>
       <c r="E507" s="12">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="F507" s="16" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G507" s="11"/>
       <c r="H507" s="11"/>
@@ -17133,20 +17135,20 @@
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" s="11">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B508" s="11"/>
       <c r="C508" s="11" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D508" s="12">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E508" s="12">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F508" s="16" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G508" s="11"/>
       <c r="H508" s="11"/>
@@ -17154,60 +17156,60 @@
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" s="11">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B509" s="11"/>
       <c r="C509" s="11" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D509" s="12">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="E509" s="12">
-        <v>645</v>
-      </c>
-      <c r="F509" s="16" t="s">
-        <v>783</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="F509" s="11"/>
       <c r="G509" s="11"/>
       <c r="H509" s="11"/>
       <c r="I509" s="11"/>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="11">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B510" s="11"/>
       <c r="C510" s="11" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D510" s="12">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="E510" s="12">
-        <v>615</v>
-      </c>
-      <c r="F510" s="11"/>
+        <v>605</v>
+      </c>
+      <c r="F510" s="16" t="s">
+        <v>787</v>
+      </c>
       <c r="G510" s="11"/>
       <c r="H510" s="11"/>
       <c r="I510" s="11"/>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" s="11">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B511" s="11"/>
       <c r="C511" s="11" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D511" s="12">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="E511" s="12">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="F511" s="16" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G511" s="11"/>
       <c r="H511" s="11"/>
@@ -17215,20 +17217,20 @@
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" s="11">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B512" s="11"/>
       <c r="C512" s="11" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D512" s="12">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E512" s="12">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F512" s="16" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G512" s="11"/>
       <c r="H512" s="11"/>
@@ -17236,20 +17238,20 @@
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" s="11">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B513" s="11"/>
       <c r="C513" s="11" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D513" s="12">
-        <v>640</v>
+        <v>585</v>
       </c>
       <c r="E513" s="12">
-        <v>635</v>
+        <v>585</v>
       </c>
       <c r="F513" s="16" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G513" s="11"/>
       <c r="H513" s="11"/>
@@ -17257,51 +17259,51 @@
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" s="11">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B514" s="11"/>
       <c r="C514" s="11" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D514" s="12">
-        <v>585</v>
+        <v>640</v>
       </c>
       <c r="E514" s="12">
-        <v>585</v>
-      </c>
-      <c r="F514" s="16" t="s">
-        <v>793</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="F514" s="11"/>
       <c r="G514" s="11"/>
       <c r="H514" s="11"/>
       <c r="I514" s="11"/>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" s="11">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B515" s="11"/>
       <c r="C515" s="11" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D515" s="12">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="E515" s="12">
-        <v>635</v>
-      </c>
-      <c r="F515" s="11"/>
+        <v>615</v>
+      </c>
+      <c r="F515" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="G515" s="11"/>
       <c r="H515" s="11"/>
       <c r="I515" s="11"/>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" s="11">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B516" s="11"/>
       <c r="C516" s="11" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D516" s="12">
         <v>625</v>
@@ -17310,7 +17312,7 @@
         <v>615</v>
       </c>
       <c r="F516" s="16" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G516" s="11"/>
       <c r="H516" s="11"/>
@@ -17318,20 +17320,20 @@
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" s="11">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B517" s="11"/>
       <c r="C517" s="11" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D517" s="12">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="E517" s="12">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="F517" s="16" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G517" s="11"/>
       <c r="H517" s="11"/>
@@ -17339,93 +17341,93 @@
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" s="11">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B518" s="11"/>
       <c r="C518" s="11" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D518" s="12">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="E518" s="12">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="F518" s="16" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G518" s="11"/>
       <c r="H518" s="11"/>
       <c r="I518" s="11"/>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A519" s="11">
-        <v>515</v>
-      </c>
-      <c r="B519" s="11"/>
-      <c r="C519" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="D519" s="12">
-        <v>670</v>
-      </c>
-      <c r="E519" s="12">
-        <v>660</v>
-      </c>
-      <c r="F519" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="G519" s="11"/>
-      <c r="H519" s="11"/>
-      <c r="I519" s="11"/>
+    <row r="519" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="6">
+        <v>516</v>
+      </c>
+      <c r="C519" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="D519" s="7">
+        <v>580</v>
+      </c>
+      <c r="E519" s="7">
+        <v>580</v>
+      </c>
     </row>
     <row r="520" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A520" s="6">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C520" s="6" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="D520" s="7">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="E520" s="7">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="6">
-        <v>517</v>
-      </c>
-      <c r="C521" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="D521" s="7">
-        <v>660</v>
-      </c>
-      <c r="E521" s="7">
         <v>650</v>
       </c>
-      <c r="F521" s="8" t="s">
+      <c r="F520" s="8" t="s">
         <v>834</v>
       </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A521" s="11">
+        <v>518</v>
+      </c>
+      <c r="B521" s="11"/>
+      <c r="C521" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="D521" s="12">
+        <v>590</v>
+      </c>
+      <c r="E521" s="12">
+        <v>590</v>
+      </c>
+      <c r="F521" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="G521" s="11"/>
+      <c r="H521" s="11"/>
+      <c r="I521" s="11"/>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" s="11">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B522" s="11"/>
       <c r="C522" s="11" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D522" s="12">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="E522" s="12">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="F522" s="16" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G522" s="11"/>
       <c r="H522" s="11"/>
@@ -17433,20 +17435,20 @@
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" s="11">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B523" s="11"/>
       <c r="C523" s="11" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D523" s="12">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="E523" s="12">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="F523" s="16" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G523" s="11"/>
       <c r="H523" s="11"/>
@@ -17454,20 +17456,20 @@
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" s="11">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B524" s="11"/>
       <c r="C524" s="11" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D524" s="12">
-        <v>610</v>
+        <v>670</v>
       </c>
       <c r="E524" s="12">
-        <v>610</v>
+        <v>660</v>
       </c>
       <c r="F524" s="16" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G524" s="11"/>
       <c r="H524" s="11"/>
@@ -17475,20 +17477,20 @@
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" s="11">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B525" s="11"/>
       <c r="C525" s="11" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D525" s="12">
-        <v>670</v>
+        <v>620</v>
       </c>
       <c r="E525" s="12">
-        <v>660</v>
+        <v>610</v>
       </c>
       <c r="F525" s="16" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G525" s="11"/>
       <c r="H525" s="11"/>
@@ -17496,20 +17498,20 @@
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" s="11">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B526" s="11"/>
       <c r="C526" s="11" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D526" s="12">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="E526" s="12">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="F526" s="16" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="G526" s="11"/>
       <c r="H526" s="11"/>
@@ -17517,20 +17519,20 @@
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" s="11">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B527" s="11"/>
       <c r="C527" s="11" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D527" s="12">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="E527" s="12">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="F527" s="16" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G527" s="11"/>
       <c r="H527" s="11"/>
@@ -17538,60 +17540,60 @@
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" s="11">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B528" s="11"/>
       <c r="C528" s="11" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D528" s="12">
-        <v>710</v>
+        <v>610</v>
       </c>
       <c r="E528" s="12">
-        <v>700</v>
-      </c>
-      <c r="F528" s="16" t="s">
-        <v>817</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="F528" s="11"/>
       <c r="G528" s="11"/>
       <c r="H528" s="11"/>
       <c r="I528" s="11"/>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" s="11">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B529" s="11"/>
       <c r="C529" s="11" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D529" s="12">
-        <v>610</v>
+        <v>710</v>
       </c>
       <c r="E529" s="12">
-        <v>610</v>
-      </c>
-      <c r="F529" s="11"/>
+        <v>700</v>
+      </c>
+      <c r="F529" s="16" t="s">
+        <v>820</v>
+      </c>
       <c r="G529" s="11"/>
       <c r="H529" s="11"/>
       <c r="I529" s="11"/>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" s="11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B530" s="11"/>
       <c r="C530" s="11" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D530" s="12">
-        <v>710</v>
+        <v>630</v>
       </c>
       <c r="E530" s="12">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="F530" s="16" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G530" s="11"/>
       <c r="H530" s="11"/>
@@ -17599,38 +17601,36 @@
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" s="11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B531" s="11"/>
       <c r="C531" s="11" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D531" s="12">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="E531" s="12">
-        <v>620</v>
-      </c>
-      <c r="F531" s="16" t="s">
-        <v>822</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="F531" s="11"/>
       <c r="G531" s="11"/>
       <c r="H531" s="11"/>
       <c r="I531" s="11"/>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B532" s="11"/>
       <c r="C532" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D532" s="12">
-        <v>670</v>
+        <v>775</v>
       </c>
       <c r="E532" s="12">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="F532" s="11"/>
       <c r="G532" s="11"/>
@@ -17639,17 +17639,17 @@
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" s="11">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B533" s="11"/>
       <c r="C533" s="11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D533" s="12">
-        <v>775</v>
+        <v>630</v>
       </c>
       <c r="E533" s="12">
-        <v>760</v>
+        <v>620</v>
       </c>
       <c r="F533" s="11"/>
       <c r="G533" s="11"/>
@@ -17658,17 +17658,17 @@
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" s="11">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B534" s="11"/>
       <c r="C534" s="11" t="s">
-        <v>825</v>
+        <v>1031</v>
       </c>
       <c r="D534" s="12">
-        <v>630</v>
+        <v>760</v>
       </c>
       <c r="E534" s="12">
-        <v>620</v>
+        <v>740</v>
       </c>
       <c r="F534" s="11"/>
       <c r="G534" s="11"/>
@@ -17677,57 +17677,57 @@
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B535" s="11"/>
       <c r="C535" s="11" t="s">
-        <v>1031</v>
+        <v>826</v>
       </c>
       <c r="D535" s="12">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="E535" s="12">
-        <v>740</v>
-      </c>
-      <c r="F535" s="11"/>
+        <v>735</v>
+      </c>
+      <c r="F535" s="16" t="s">
+        <v>827</v>
+      </c>
       <c r="G535" s="11"/>
       <c r="H535" s="11"/>
       <c r="I535" s="11"/>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B536" s="11"/>
       <c r="C536" s="11" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D536" s="12">
-        <v>740</v>
+        <v>640</v>
       </c>
       <c r="E536" s="12">
-        <v>735</v>
-      </c>
-      <c r="F536" s="16" t="s">
-        <v>827</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="F536" s="11"/>
       <c r="G536" s="11"/>
       <c r="H536" s="11"/>
       <c r="I536" s="11"/>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B537" s="11"/>
       <c r="C537" s="11" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D537" s="12">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="E537" s="12">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="F537" s="11"/>
       <c r="G537" s="11"/>
@@ -17736,39 +17736,41 @@
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B538" s="11"/>
       <c r="C538" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D538" s="12">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="E538" s="12">
-        <v>690</v>
-      </c>
-      <c r="F538" s="11"/>
+        <v>705</v>
+      </c>
+      <c r="F538" s="16" t="s">
+        <v>336</v>
+      </c>
       <c r="G538" s="11"/>
       <c r="H538" s="11"/>
       <c r="I538" s="11"/>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" s="11">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B539" s="11"/>
       <c r="C539" s="11" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D539" s="12">
         <v>720</v>
       </c>
       <c r="E539" s="12">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="F539" s="16" t="s">
-        <v>336</v>
+        <v>832</v>
       </c>
       <c r="G539" s="11"/>
       <c r="H539" s="11"/>
@@ -17776,20 +17778,20 @@
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" s="11">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B540" s="11"/>
       <c r="C540" s="11" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D540" s="12">
-        <v>720</v>
+        <v>640</v>
       </c>
       <c r="E540" s="12">
-        <v>710</v>
+        <v>630</v>
       </c>
       <c r="F540" s="16" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="G540" s="11"/>
       <c r="H540" s="11"/>
@@ -17797,38 +17799,36 @@
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" s="11">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B541" s="11"/>
       <c r="C541" s="11" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D541" s="12">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="E541" s="12">
-        <v>630</v>
-      </c>
-      <c r="F541" s="16" t="s">
-        <v>836</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="F541" s="11"/>
       <c r="G541" s="11"/>
       <c r="H541" s="11"/>
       <c r="I541" s="11"/>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" s="11">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B542" s="11"/>
       <c r="C542" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D542" s="12">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="E542" s="12">
-        <v>715</v>
+        <v>620</v>
       </c>
       <c r="F542" s="11"/>
       <c r="G542" s="11"/>
@@ -17837,57 +17837,57 @@
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" s="11">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B543" s="11"/>
       <c r="C543" s="11" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D543" s="12">
-        <v>625</v>
+        <v>690</v>
       </c>
       <c r="E543" s="12">
-        <v>620</v>
-      </c>
-      <c r="F543" s="11"/>
+        <v>680</v>
+      </c>
+      <c r="F543" s="16" t="s">
+        <v>840</v>
+      </c>
       <c r="G543" s="11"/>
       <c r="H543" s="11"/>
       <c r="I543" s="11"/>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" s="11">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B544" s="11"/>
       <c r="C544" s="11" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D544" s="12">
-        <v>690</v>
+        <v>630</v>
       </c>
       <c r="E544" s="12">
-        <v>680</v>
-      </c>
-      <c r="F544" s="16" t="s">
-        <v>840</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="F544" s="11"/>
       <c r="G544" s="11"/>
       <c r="H544" s="11"/>
       <c r="I544" s="11"/>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" s="11">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B545" s="11"/>
       <c r="C545" s="11" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D545" s="12">
-        <v>630</v>
+        <v>725</v>
       </c>
       <c r="E545" s="12">
-        <v>620</v>
+        <v>725</v>
       </c>
       <c r="F545" s="11"/>
       <c r="G545" s="11"/>
@@ -17896,30 +17896,30 @@
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" s="11">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B546" s="11"/>
       <c r="C546" s="11" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="D546" s="12">
-        <v>725</v>
+        <v>670</v>
       </c>
       <c r="E546" s="12">
-        <v>725</v>
+        <v>660</v>
       </c>
       <c r="F546" s="11"/>
       <c r="G546" s="11"/>
       <c r="H546" s="11"/>
       <c r="I546" s="11"/>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="11">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B547" s="11"/>
       <c r="C547" s="11" t="s">
-        <v>858</v>
+        <v>930</v>
       </c>
       <c r="D547" s="12">
         <v>670</v>
@@ -17932,19 +17932,19 @@
       <c r="H547" s="11"/>
       <c r="I547" s="11"/>
     </row>
-    <row r="548" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548" s="11">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B548" s="11"/>
       <c r="C548" s="11" t="s">
-        <v>930</v>
+        <v>843</v>
       </c>
       <c r="D548" s="12">
-        <v>670</v>
+        <v>725</v>
       </c>
       <c r="E548" s="12">
-        <v>660</v>
+        <v>715</v>
       </c>
       <c r="F548" s="11"/>
       <c r="G548" s="11"/>
@@ -17953,290 +17953,290 @@
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" s="11">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B549" s="11"/>
       <c r="C549" s="11" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D549" s="12">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="E549" s="12">
-        <v>715</v>
-      </c>
-      <c r="F549" s="11"/>
+        <v>615</v>
+      </c>
+      <c r="F549" s="16" t="s">
+        <v>845</v>
+      </c>
       <c r="G549" s="11"/>
       <c r="H549" s="11"/>
       <c r="I549" s="11"/>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550" s="11">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B550" s="11"/>
       <c r="C550" s="11" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="D550" s="12">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E550" s="12">
-        <v>615</v>
-      </c>
-      <c r="F550" s="16" t="s">
-        <v>845</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="F550" s="11"/>
       <c r="G550" s="11"/>
       <c r="H550" s="11"/>
       <c r="I550" s="11"/>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" s="11">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B551" s="11"/>
       <c r="C551" s="11" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="D551" s="12">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="E551" s="12">
-        <v>620</v>
-      </c>
-      <c r="F551" s="11"/>
+        <v>675</v>
+      </c>
+      <c r="F551" s="16" t="s">
+        <v>868</v>
+      </c>
       <c r="G551" s="11"/>
       <c r="H551" s="11"/>
       <c r="I551" s="11"/>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" s="11">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B552" s="11"/>
       <c r="C552" s="11" t="s">
-        <v>859</v>
+        <v>925</v>
       </c>
       <c r="D552" s="12">
+        <v>700</v>
+      </c>
+      <c r="E552" s="12">
         <v>690</v>
       </c>
-      <c r="E552" s="12">
-        <v>675</v>
-      </c>
       <c r="F552" s="16" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G552" s="11"/>
       <c r="H552" s="11"/>
       <c r="I552" s="11"/>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="11">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B553" s="11"/>
       <c r="C553" s="11" t="s">
-        <v>925</v>
+        <v>874</v>
       </c>
       <c r="D553" s="12">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="E553" s="12">
-        <v>690</v>
-      </c>
-      <c r="F553" s="16" t="s">
-        <v>870</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="F553" s="11"/>
       <c r="G553" s="11"/>
       <c r="H553" s="11"/>
       <c r="I553" s="11"/>
     </row>
-    <row r="554" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" s="11">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B554" s="11"/>
       <c r="C554" s="11" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D554" s="12">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="E554" s="12">
-        <v>625</v>
-      </c>
-      <c r="F554" s="11"/>
+        <v>650</v>
+      </c>
+      <c r="F554" s="16" t="s">
+        <v>876</v>
+      </c>
       <c r="G554" s="11"/>
       <c r="H554" s="11"/>
       <c r="I554" s="11"/>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555" s="11">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B555" s="11"/>
       <c r="C555" s="11" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D555" s="12">
-        <v>660</v>
-      </c>
-      <c r="E555" s="12">
-        <v>650</v>
-      </c>
-      <c r="F555" s="16" t="s">
-        <v>876</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E555" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="F555" s="11"/>
       <c r="G555" s="11"/>
       <c r="H555" s="11"/>
       <c r="I555" s="11"/>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556" s="11">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B556" s="11"/>
       <c r="C556" s="11" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D556" s="12">
-        <v>620</v>
-      </c>
-      <c r="E556" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="F556" s="11"/>
+        <v>650</v>
+      </c>
+      <c r="E556" s="12">
+        <v>645</v>
+      </c>
+      <c r="F556" s="16" t="s">
+        <v>879</v>
+      </c>
       <c r="G556" s="11"/>
       <c r="H556" s="11"/>
       <c r="I556" s="11"/>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" s="11">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B557" s="11"/>
       <c r="C557" s="11" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D557" s="12">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="E557" s="12">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="F557" s="16" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G557" s="11"/>
       <c r="H557" s="11"/>
       <c r="I557" s="11"/>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A558" s="11">
-        <v>554</v>
-      </c>
-      <c r="B558" s="11"/>
-      <c r="C558" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="D558" s="12">
-        <v>625</v>
-      </c>
-      <c r="E558" s="12">
-        <v>620</v>
-      </c>
-      <c r="F558" s="16" t="s">
-        <v>881</v>
-      </c>
-      <c r="G558" s="11"/>
-      <c r="H558" s="11"/>
-      <c r="I558" s="11"/>
+    <row r="558" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="6">
+        <v>555</v>
+      </c>
+      <c r="C558" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="D558" s="7">
+        <v>580</v>
+      </c>
+      <c r="E558" s="7">
+        <v>580</v>
+      </c>
     </row>
     <row r="559" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C559" s="6" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D559" s="7">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="E559" s="7">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="6">
-        <v>556</v>
-      </c>
-      <c r="C560" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="D560" s="7">
-        <v>620</v>
-      </c>
-      <c r="E560" s="7">
         <v>615</v>
       </c>
-      <c r="F560" s="8" t="s">
+      <c r="F559" s="8" t="s">
         <v>884</v>
       </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A560" s="11">
+        <v>557</v>
+      </c>
+      <c r="B560" s="11"/>
+      <c r="C560" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="D560" s="12">
+        <v>775</v>
+      </c>
+      <c r="E560" s="12">
+        <v>765</v>
+      </c>
+      <c r="F560" s="16"/>
+      <c r="G560" s="11"/>
+      <c r="H560" s="11"/>
+      <c r="I560" s="11"/>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" s="11">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B561" s="11"/>
       <c r="C561" s="11" t="s">
-        <v>929</v>
+        <v>885</v>
       </c>
       <c r="D561" s="12">
-        <v>775</v>
+        <v>635</v>
       </c>
       <c r="E561" s="12">
-        <v>765</v>
-      </c>
-      <c r="F561" s="16"/>
+        <v>630</v>
+      </c>
+      <c r="F561" s="16" t="s">
+        <v>892</v>
+      </c>
       <c r="G561" s="11"/>
       <c r="H561" s="11"/>
       <c r="I561" s="11"/>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" s="11">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B562" s="11"/>
       <c r="C562" s="11" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D562" s="12">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="E562" s="12">
-        <v>630</v>
-      </c>
-      <c r="F562" s="16" t="s">
-        <v>892</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="F562" s="11"/>
       <c r="G562" s="11"/>
       <c r="H562" s="11"/>
       <c r="I562" s="11"/>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" s="11">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B563" s="11"/>
       <c r="C563" s="11" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D563" s="12">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="E563" s="12">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="F563" s="11"/>
       <c r="G563" s="11"/>
@@ -18245,112 +18245,114 @@
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" s="11">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B564" s="11"/>
       <c r="C564" s="11" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D564" s="12">
+        <v>650</v>
+      </c>
+      <c r="E564" s="12">
         <v>640</v>
-      </c>
-      <c r="E564" s="12">
-        <v>630</v>
       </c>
       <c r="F564" s="11"/>
       <c r="G564" s="11"/>
       <c r="H564" s="11"/>
       <c r="I564" s="11"/>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A565" s="11">
-        <v>561</v>
-      </c>
-      <c r="B565" s="11"/>
-      <c r="C565" s="11" t="s">
-        <v>888</v>
-      </c>
-      <c r="D565" s="12">
-        <v>650</v>
-      </c>
-      <c r="E565" s="12">
+    <row r="565" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="4">
+        <v>562</v>
+      </c>
+      <c r="C565" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="D565" s="5">
+        <v>670</v>
+      </c>
+      <c r="E565" s="5">
         <v>640</v>
       </c>
-      <c r="F565" s="11"/>
-      <c r="G565" s="11"/>
-      <c r="H565" s="11"/>
-      <c r="I565" s="11"/>
-    </row>
-    <row r="566" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="4">
-        <v>562</v>
-      </c>
-      <c r="C566" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="D566" s="5">
-        <v>670</v>
-      </c>
-      <c r="E566" s="5">
-        <v>640</v>
-      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A566" s="11">
+        <v>563</v>
+      </c>
+      <c r="B566" s="11"/>
+      <c r="C566" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="D566" s="12">
+        <v>635</v>
+      </c>
+      <c r="E566" s="12">
+        <v>625</v>
+      </c>
+      <c r="F566" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="G566" s="11"/>
+      <c r="H566" s="11"/>
+      <c r="I566" s="11"/>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" s="11">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B567" s="11"/>
       <c r="C567" s="11" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="D567" s="12">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="E567" s="12">
-        <v>625</v>
-      </c>
-      <c r="F567" s="16" t="s">
-        <v>891</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="F567" s="11"/>
       <c r="G567" s="11"/>
       <c r="H567" s="11"/>
       <c r="I567" s="11"/>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="11">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B568" s="11"/>
       <c r="C568" s="11" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D568" s="12">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="E568" s="12">
-        <v>600</v>
-      </c>
-      <c r="F568" s="11"/>
+        <v>640</v>
+      </c>
+      <c r="F568" s="16" t="s">
+        <v>896</v>
+      </c>
       <c r="G568" s="11"/>
       <c r="H568" s="11"/>
       <c r="I568" s="11"/>
     </row>
     <row r="569" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="11">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B569" s="11"/>
       <c r="C569" s="11" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D569" s="12">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="E569" s="12">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="F569" s="16" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G569" s="11"/>
       <c r="H569" s="11"/>
@@ -18358,20 +18360,20 @@
     </row>
     <row r="570" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="11">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B570" s="11"/>
       <c r="C570" s="11" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D570" s="12">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="E570" s="12">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="F570" s="16" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="G570" s="11"/>
       <c r="H570" s="11"/>
@@ -18379,41 +18381,41 @@
     </row>
     <row r="571" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="11">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B571" s="11"/>
       <c r="C571" s="11" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D571" s="12">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="E571" s="12">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="F571" s="16" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G571" s="11"/>
       <c r="H571" s="11"/>
       <c r="I571" s="11"/>
     </row>
-    <row r="572" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572" s="11">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B572" s="11"/>
       <c r="C572" s="11" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D572" s="12">
-        <v>640</v>
+        <v>690</v>
       </c>
       <c r="E572" s="12">
-        <v>635</v>
+        <v>680</v>
       </c>
       <c r="F572" s="16" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="G572" s="11"/>
       <c r="H572" s="11"/>
@@ -18421,60 +18423,60 @@
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" s="11">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B573" s="11"/>
       <c r="C573" s="11" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D573" s="12">
-        <v>690</v>
+        <v>640</v>
       </c>
       <c r="E573" s="12">
-        <v>680</v>
-      </c>
-      <c r="F573" s="16" t="s">
-        <v>904</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="F573" s="11"/>
       <c r="G573" s="11"/>
       <c r="H573" s="11"/>
       <c r="I573" s="11"/>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574" s="11">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B574" s="11"/>
       <c r="C574" s="11" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D574" s="12">
+        <v>645</v>
+      </c>
+      <c r="E574" s="12">
         <v>640</v>
       </c>
-      <c r="E574" s="12">
-        <v>635</v>
-      </c>
-      <c r="F574" s="11"/>
+      <c r="F574" s="16" t="s">
+        <v>908</v>
+      </c>
       <c r="G574" s="11"/>
       <c r="H574" s="11"/>
       <c r="I574" s="11"/>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" s="11">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B575" s="11"/>
       <c r="C575" s="11" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D575" s="12">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="E575" s="12">
         <v>640</v>
       </c>
       <c r="F575" s="16" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G575" s="11"/>
       <c r="H575" s="11"/>
@@ -18482,86 +18484,84 @@
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" s="11">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B576" s="11"/>
       <c r="C576" s="11" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D576" s="12">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="E576" s="12">
-        <v>640</v>
-      </c>
-      <c r="F576" s="16" t="s">
-        <v>910</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="F576" s="11"/>
       <c r="G576" s="11"/>
       <c r="H576" s="11"/>
       <c r="I576" s="11"/>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" s="11">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B577" s="11"/>
       <c r="C577" s="11" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D577" s="12">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="E577" s="12">
-        <v>670</v>
-      </c>
-      <c r="F577" s="11"/>
+        <v>665</v>
+      </c>
+      <c r="F577" s="16" t="s">
+        <v>916</v>
+      </c>
       <c r="G577" s="11"/>
       <c r="H577" s="11"/>
       <c r="I577" s="11"/>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A578" s="11">
-        <v>574</v>
-      </c>
-      <c r="B578" s="11"/>
-      <c r="C578" s="11" t="s">
-        <v>915</v>
-      </c>
-      <c r="D578" s="12">
-        <v>675</v>
-      </c>
-      <c r="E578" s="12">
-        <v>665</v>
-      </c>
-      <c r="F578" s="16" t="s">
-        <v>916</v>
-      </c>
-      <c r="G578" s="11"/>
-      <c r="H578" s="11"/>
-      <c r="I578" s="11"/>
-    </row>
-    <row r="579" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="6">
+    <row r="578" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="6">
         <v>575</v>
       </c>
-      <c r="C579" s="6" t="s">
+      <c r="C578" s="6" t="s">
         <v>917</v>
       </c>
-      <c r="D579" s="7">
+      <c r="D578" s="7">
         <v>585</v>
       </c>
-      <c r="E579" s="7">
+      <c r="E578" s="7">
         <v>585</v>
       </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A579" s="11">
+        <v>576</v>
+      </c>
+      <c r="B579" s="11"/>
+      <c r="C579" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="D579" s="12">
+        <v>580</v>
+      </c>
+      <c r="E579" s="12">
+        <v>580</v>
+      </c>
+      <c r="F579" s="11"/>
+      <c r="G579" s="11"/>
+      <c r="H579" s="11"/>
+      <c r="I579" s="11"/>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" s="11">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B580" s="11"/>
       <c r="C580" s="11" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D580" s="12">
         <v>580</v>
@@ -18576,11 +18576,11 @@
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" s="11">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B581" s="11"/>
       <c r="C581" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D581" s="12">
         <v>580</v>
@@ -18588,566 +18588,564 @@
       <c r="E581" s="12">
         <v>580</v>
       </c>
-      <c r="F581" s="11"/>
+      <c r="F581" s="16" t="s">
+        <v>919</v>
+      </c>
       <c r="G581" s="11"/>
       <c r="H581" s="11"/>
       <c r="I581" s="11"/>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" s="11">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B582" s="11"/>
       <c r="C582" s="11" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="D582" s="12">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="E582" s="12">
-        <v>580</v>
-      </c>
-      <c r="F582" s="16" t="s">
-        <v>919</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="F582" s="11"/>
       <c r="G582" s="11"/>
       <c r="H582" s="11"/>
       <c r="I582" s="11"/>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" s="11">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B583" s="11"/>
       <c r="C583" s="11" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="D583" s="12">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="E583" s="12">
-        <v>625</v>
-      </c>
-      <c r="F583" s="11"/>
+        <v>600</v>
+      </c>
+      <c r="F583" s="20" t="s">
+        <v>935</v>
+      </c>
       <c r="G583" s="11"/>
       <c r="H583" s="11"/>
       <c r="I583" s="11"/>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" s="11">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B584" s="11"/>
       <c r="C584" s="11" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D584" s="12">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E584" s="12">
         <v>600</v>
       </c>
       <c r="F584" s="20" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G584" s="11"/>
-      <c r="H584" s="11"/>
+      <c r="H584" s="11" t="s">
+        <v>934</v>
+      </c>
       <c r="I584" s="11"/>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" s="11">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B585" s="11"/>
       <c r="C585" s="11" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D585" s="12">
-        <v>605</v>
+        <v>690</v>
       </c>
       <c r="E585" s="12">
+        <v>675</v>
+      </c>
+      <c r="F585" s="11"/>
+      <c r="G585" s="11"/>
+      <c r="H585" s="11"/>
+      <c r="I585" s="11"/>
+    </row>
+    <row r="586" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="11">
+        <v>583</v>
+      </c>
+      <c r="C586" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D586" s="5">
+        <v>610</v>
+      </c>
+      <c r="E586" s="5">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A587" s="11">
+        <v>584</v>
+      </c>
+      <c r="C587" s="11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D587" s="14">
         <v>600</v>
       </c>
-      <c r="F585" s="20" t="s">
-        <v>933</v>
-      </c>
-      <c r="G585" s="11"/>
-      <c r="H585" s="11" t="s">
-        <v>934</v>
-      </c>
-      <c r="I585" s="11"/>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A586" s="11">
-        <v>582</v>
-      </c>
-      <c r="B586" s="11"/>
-      <c r="C586" s="11" t="s">
-        <v>936</v>
-      </c>
-      <c r="D586" s="12">
-        <v>690</v>
-      </c>
-      <c r="E586" s="12">
-        <v>675</v>
-      </c>
-      <c r="F586" s="11"/>
-      <c r="G586" s="11"/>
-      <c r="H586" s="11"/>
-      <c r="I586" s="11"/>
-    </row>
-    <row r="587" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="11">
-        <v>583</v>
-      </c>
-      <c r="C587" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D587" s="5">
-        <v>610</v>
-      </c>
-      <c r="E587" s="5">
-        <v>610</v>
+      <c r="E587" s="1">
+        <v>600</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" s="11">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C588" s="11" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D588" s="14">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="E588" s="1">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" s="11">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C589" s="11" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D589" s="14">
         <v>620</v>
       </c>
       <c r="E589" s="1">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A590" s="11">
-        <v>586</v>
-      </c>
-      <c r="C590" s="11" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D590" s="14">
-        <v>620</v>
-      </c>
-      <c r="E590" s="1">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="591" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+      <c r="C590" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D590" s="5">
+        <v>680</v>
+      </c>
+      <c r="E590" s="5">
+        <v>670</v>
+      </c>
+      <c r="F590" s="10" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" s="11">
-        <v>587</v>
-      </c>
-      <c r="C591" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D591" s="5">
-        <v>680</v>
-      </c>
-      <c r="E591" s="5">
-        <v>670</v>
-      </c>
-      <c r="F591" s="10" t="s">
-        <v>1032</v>
+        <v>588</v>
+      </c>
+      <c r="C591" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D591" s="14">
+        <v>745</v>
+      </c>
+      <c r="E591" s="1">
+        <v>740</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" s="11">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C592" s="11" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D592" s="14">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="E592" s="1">
-        <v>740</v>
+        <v>715</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" s="11">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C593" s="11" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D593" s="14">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="E593" s="1">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="11">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C594" s="11" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D594" s="14">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="E594" s="1">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="11">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C595" s="11" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D595" s="14">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E595" s="1">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" s="11">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C596" s="11" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D596" s="14">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E596" s="1">
-        <v>735</v>
+        <v>600</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" s="11">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C597" s="11" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D597" s="14">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="E597" s="1">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="11">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C598" s="11" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D598" s="14">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="E598" s="1">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" s="11">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C599" s="11" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="D599" s="14">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="E599" s="1">
-        <v>600</v>
+        <v>710</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A600" s="11">
-        <v>597</v>
-      </c>
-      <c r="C600" s="11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D600" s="14">
-        <v>720</v>
-      </c>
-      <c r="E600" s="1">
-        <v>710</v>
-      </c>
-      <c r="F600" s="2" t="s">
-        <v>1050</v>
+        <v>598</v>
+      </c>
+      <c r="C600" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D600" s="5">
+        <v>655</v>
+      </c>
+      <c r="E600" s="5">
+        <v>640</v>
+      </c>
+      <c r="F600" s="10" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="601" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" s="11">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D601" s="5">
-        <v>655</v>
+        <v>750</v>
       </c>
       <c r="E601" s="5">
-        <v>640</v>
-      </c>
-      <c r="F601" s="10" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="602" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="11">
-        <v>599</v>
-      </c>
-      <c r="C602" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D602" s="5">
-        <v>750</v>
-      </c>
-      <c r="E602" s="5">
+        <v>600</v>
+      </c>
+      <c r="C602" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D602" s="14">
+        <v>760</v>
+      </c>
+      <c r="E602" s="1">
         <v>740</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="11">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C603" s="11" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D603" s="14">
-        <v>760</v>
+        <v>630</v>
       </c>
       <c r="E603" s="1">
-        <v>740</v>
-      </c>
-      <c r="F603" s="2" t="s">
-        <v>1057</v>
+        <v>620</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" s="11">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C604" s="11" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D604" s="14">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="E604" s="1">
-        <v>620</v>
+        <v>715</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" s="11">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C605" s="11" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D605" s="14">
-        <v>730</v>
+        <v>610</v>
       </c>
       <c r="E605" s="1">
-        <v>715</v>
+        <v>600</v>
       </c>
       <c r="F605" s="2" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" s="11">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D606" s="14">
-        <v>610</v>
+        <v>730</v>
       </c>
       <c r="E606" s="1">
-        <v>600</v>
-      </c>
-      <c r="F606" s="2" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A607" s="11">
-        <v>604</v>
-      </c>
-      <c r="C607" s="11" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D607" s="14">
-        <v>730</v>
-      </c>
-      <c r="E607" s="1">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+      <c r="C607" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D607" s="5">
+        <v>685</v>
+      </c>
+      <c r="E607" s="5">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" s="11">
-        <v>605</v>
-      </c>
-      <c r="C608" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D608" s="5">
-        <v>685</v>
-      </c>
-      <c r="E608" s="5">
-        <v>670</v>
+        <v>606</v>
+      </c>
+      <c r="C608" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D608" s="14">
+        <v>625</v>
+      </c>
+      <c r="E608" s="1">
+        <v>615</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" s="11">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C609" s="11" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D609" s="14">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="E609" s="1">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" s="11">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C610" s="11" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D610" s="14">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="E610" s="1">
-        <v>635</v>
-      </c>
-      <c r="F610" s="2" t="s">
-        <v>1081</v>
+        <v>600</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" s="11">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C611" s="11" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D611" s="14">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="E611" s="1">
-        <v>600</v>
+        <v>655</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" s="11">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C612" s="11" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D612" s="14">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="E612" s="1">
-        <v>655</v>
+        <v>590</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" s="11">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C613" s="11" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D613" s="14">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="E613" s="1">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" s="11">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C614" s="11" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D614" s="14">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="E614" s="1">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" s="11">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C615" s="11" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D615" s="14">
         <v>640</v>
@@ -19156,63 +19154,60 @@
         <v>630</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" s="11">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C616" s="11" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D616" s="14">
         <v>640</v>
       </c>
       <c r="E616" s="1">
-        <v>630</v>
-      </c>
-      <c r="F616" s="2" t="s">
-        <v>1092</v>
+        <v>625</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" s="11">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C617" s="11" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D617" s="14">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="E617" s="1">
-        <v>625</v>
+        <v>605</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" s="11">
+        <v>616</v>
+      </c>
+      <c r="C618" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D618" s="14">
+        <v>625</v>
+      </c>
+      <c r="E618" s="1">
         <v>615</v>
-      </c>
-      <c r="C618" s="11" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D618" s="14">
-        <v>615</v>
-      </c>
-      <c r="E618" s="1">
-        <v>605</v>
-      </c>
-      <c r="F618" s="2" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" s="11">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C619" s="11" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D619" s="14">
         <v>625</v>
@@ -19223,106 +19218,106 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" s="11">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C620" s="11" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D620" s="14">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="E620" s="1">
-        <v>615</v>
+        <v>600</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" s="11">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C621" s="11" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D621" s="14">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="E621" s="1">
-        <v>600</v>
-      </c>
-      <c r="F621" s="2" t="s">
-        <v>1099</v>
+        <v>615</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" s="11">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C622" s="11" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D622" s="14">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="E622" s="1">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" s="11">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C623" s="11" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D623" s="14">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E623" s="1">
         <v>600</v>
       </c>
+      <c r="F623" s="2" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" s="11">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C624" s="11" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D624" s="14">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="E624" s="1">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" s="11">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C625" s="11" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D625" s="14">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="E625" s="1">
-        <v>620</v>
-      </c>
-      <c r="F625" s="2" t="s">
-        <v>1105</v>
+        <v>600</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" s="11">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C626" s="11" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D626" s="14">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E626" s="1">
         <v>600</v>
@@ -19330,89 +19325,89 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" s="11">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C627" s="11" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D627" s="14">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="E627" s="1">
-        <v>600</v>
+        <v>625</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" s="11">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C628" s="11" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D628" s="14">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="E628" s="1">
-        <v>625</v>
+        <v>600</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" s="11">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C629" s="11" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D629" s="14">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="E629" s="1">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" s="11">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C630" s="11" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D630" s="14">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E630" s="1">
-        <v>640</v>
-      </c>
-      <c r="F630" s="2" t="s">
-        <v>1112</v>
+        <v>630</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" s="11">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C631" s="11" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D631" s="14">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="E631" s="1">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" s="11">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C632" s="11" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D632" s="14">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E632" s="1">
         <v>600</v>
@@ -19420,139 +19415,125 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" s="11">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C633" s="11" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D633" s="14">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="E633" s="1">
-        <v>600</v>
+        <v>635</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" s="11">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C634" s="11" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="D634" s="14">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E634" s="1">
-        <v>635</v>
-      </c>
-      <c r="F634" s="2" t="s">
-        <v>1117</v>
+        <v>630</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" s="11">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C635" s="11" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="D635" s="14">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="E635" s="1">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" s="11">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C636" s="11" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D636" s="14">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E636" s="1">
         <v>600</v>
       </c>
+      <c r="F636" s="2" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" s="11">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C637" s="11" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="D637" s="14">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="E637" s="1">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" s="11">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C638" s="11" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D638" s="14">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E638" s="1">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" s="11">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C639" s="11" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D639" s="14">
+        <v>625</v>
+      </c>
+      <c r="E639" s="1">
         <v>620</v>
-      </c>
-      <c r="E639" s="1">
-        <v>610</v>
-      </c>
-      <c r="F639" s="2" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" s="11">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C640" s="11" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D640" s="14">
-        <v>625</v>
+        <v>680</v>
       </c>
       <c r="E640" s="1">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A641" s="11">
-        <v>638</v>
-      </c>
-      <c r="C641" s="11" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D641" s="14">
-        <v>680</v>
-      </c>
-      <c r="E641" s="1">
         <v>660</v>
       </c>
     </row>

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/per-github/project-tennis/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6256BC-2539-764F-A6AB-5CFB9FB1AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE95B3-40D9-FD42-80F7-181C73D8DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25320" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,9 +564,6 @@
     <t>09033756</t>
   </si>
   <si>
-    <t>Nam Võ</t>
-  </si>
-  <si>
     <t>0799301886</t>
   </si>
   <si>
@@ -1622,9 +1619,6 @@
     <t xml:space="preserve">Võ Đình Hải </t>
   </si>
   <si>
-    <t>Da Costa</t>
-  </si>
-  <si>
     <t>0962160191</t>
   </si>
   <si>
@@ -5466,28 +5460,6 @@
   </si>
   <si>
     <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n D2</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Th</t>
     </r>
     <r>
@@ -6404,6 +6376,34 @@
   </si>
   <si>
     <t>0818592855</t>
+  </si>
+  <si>
+    <t>Đại Nam</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n Phúc</t>
+    </r>
+  </si>
+  <si>
+    <t>La Costa</t>
   </si>
 </sst>
 </file>
@@ -6832,8 +6832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:XFD437"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6922,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>9</v>
@@ -6997,10 +6997,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D9" s="7">
         <v>685</v>
@@ -7014,10 +7014,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D10" s="7">
         <v>600</v>
@@ -7110,7 +7110,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D14" s="7">
         <v>650</v>
@@ -7134,7 +7134,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D15" s="5">
         <v>635</v>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D18" s="12">
         <v>670</v>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D19" s="12">
         <v>635</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D20" s="12">
         <v>640</v>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D21" s="12">
         <v>630</v>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D22" s="12">
         <v>635</v>
@@ -7312,10 +7312,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D23" s="12">
         <v>640</v>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D24" s="12">
         <v>650</v>
@@ -7381,7 +7381,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D26" s="22">
         <v>640</v>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D30" s="12">
         <v>605</v>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D35" s="12">
         <v>610</v>
@@ -7602,7 +7602,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D36" s="5">
         <v>605</v>
@@ -7623,7 +7623,7 @@
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D37" s="12">
         <v>665</v>
@@ -7643,7 +7643,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D38" s="7">
         <v>615</v>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D41" s="12">
         <v>600</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D42" s="12">
         <v>650</v>
@@ -7734,7 +7734,7 @@
         <v>640</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D44" s="12">
         <v>630</v>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D55" s="12">
         <v>625</v>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D56" s="12">
         <v>610</v>
@@ -8046,7 +8046,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D58" s="5">
         <v>650</v>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D59" s="12">
         <v>600</v>
@@ -8102,10 +8102,10 @@
         <v>56</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D61" s="12">
         <v>625</v>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D62" s="12">
         <v>630</v>
@@ -8221,10 +8221,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D67" s="12">
         <v>615</v>
@@ -8261,10 +8261,10 @@
         <v>64</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D69" s="12">
         <v>600</v>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D70" s="12">
         <v>605</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D76" s="12">
         <v>660</v>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D80" s="12">
         <v>600</v>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D82" s="12">
         <v>670</v>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D84" s="12">
         <v>615</v>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D85" s="12">
         <v>635</v>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D86" s="12">
         <v>690</v>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D87" s="12">
         <v>610</v>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D92" s="12">
         <v>655</v>
@@ -8776,10 +8776,10 @@
         <v>88</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D93" s="12">
         <v>605</v>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D98" s="12">
         <v>645</v>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D104" s="12">
         <v>630</v>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D106" s="12">
         <v>660</v>
@@ -9068,7 +9068,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D107" s="7">
         <v>605</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D110" s="12">
         <v>600</v>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D111" s="12">
         <v>625</v>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D112" s="12">
         <v>685</v>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D115" s="12">
         <v>600</v>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D116" s="12">
         <v>675</v>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D118" s="12">
         <v>675</v>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D119" s="12">
         <v>600</v>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D120" s="12">
         <v>600</v>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D122" s="12">
         <v>645</v>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D123" s="12">
         <v>590</v>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D124" s="12">
         <v>615</v>
@@ -9437,7 +9437,7 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D125" s="12">
         <v>635</v>
@@ -9499,7 +9499,7 @@
         <v>123</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D128" s="5">
         <v>635</v>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D129" s="12">
         <v>610</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D131" s="12">
         <v>680</v>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D132" s="12">
         <v>590</v>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D134" s="12">
         <v>635</v>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="11" t="s">
-        <v>174</v>
+        <v>1139</v>
       </c>
       <c r="D135" s="12">
         <v>610</v>
@@ -9646,7 +9646,7 @@
         <v>605</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -9657,10 +9657,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D136" s="12">
         <v>670</v>
@@ -9669,7 +9669,7 @@
         <v>660</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
@@ -9680,7 +9680,7 @@
         <v>132</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D137" s="7">
         <v>655</v>
@@ -9689,7 +9689,7 @@
         <v>650</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D138" s="12">
         <v>910</v>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D139" s="12">
         <v>995</v>
@@ -9726,7 +9726,7 @@
         <v>980</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -9737,7 +9737,7 @@
         <v>135</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D140" s="7">
         <v>775</v>
@@ -9746,7 +9746,7 @@
         <v>760</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -9754,7 +9754,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D141" s="7">
         <v>765</v>
@@ -9763,7 +9763,7 @@
         <v>750</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D142" s="12">
         <v>785</v>
@@ -9781,7 +9781,7 @@
         <v>775</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
@@ -9792,7 +9792,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D143" s="7">
         <v>805</v>
@@ -9801,7 +9801,7 @@
         <v>800</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D144" s="12">
         <v>985</v>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D145" s="12">
         <v>750</v>
@@ -9838,7 +9838,7 @@
         <v>745</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D146" s="12">
         <v>850</v>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D147" s="12">
         <v>930</v>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D148" s="12">
         <v>790</v>
@@ -9906,7 +9906,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D149" s="7">
         <v>760</v>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D150" s="12">
         <v>620</v>
@@ -9930,7 +9930,7 @@
         <v>610</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D151" s="12">
         <v>725</v>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D152" s="12">
         <v>840</v>
@@ -9970,7 +9970,7 @@
         <v>820</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="11" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D153" s="12">
         <v>785</v>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D154" s="12">
         <v>880</v>
@@ -10010,7 +10010,7 @@
         <v>870</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D155" s="12">
         <v>940</v>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D156" s="12">
         <v>830</v>
@@ -10050,7 +10050,7 @@
         <v>800</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -10062,7 +10062,7 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D157" s="12">
         <v>935</v>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D158" s="12">
         <v>940</v>
@@ -10100,7 +10100,7 @@
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D159" s="12">
         <v>660</v>
@@ -10109,7 +10109,7 @@
         <v>645</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D160" s="12">
         <v>920</v>
@@ -10130,7 +10130,7 @@
         <v>900</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D162" s="12">
         <v>960</v>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D163" s="12">
         <v>810</v>
@@ -10189,7 +10189,7 @@
         <v>790</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D164" s="12">
         <v>755</v>
@@ -10210,7 +10210,7 @@
         <v>745</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D165" s="12">
         <v>605</v>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D166" s="12">
         <v>990</v>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D167" s="12">
         <v>860</v>
@@ -10269,7 +10269,7 @@
         <v>840</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
@@ -10280,7 +10280,7 @@
         <v>163</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D168" s="7">
         <v>735</v>
@@ -10289,7 +10289,7 @@
         <v>730</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D169" s="12">
         <v>630</v>
@@ -10307,7 +10307,7 @@
         <v>620</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D170" s="12">
         <v>920</v>
@@ -10328,7 +10328,7 @@
         <v>900</v>
       </c>
       <c r="F170" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D171" s="12">
         <v>750</v>
@@ -10349,7 +10349,7 @@
         <v>740</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D172" s="12">
         <v>840</v>
@@ -10370,7 +10370,7 @@
         <v>820</v>
       </c>
       <c r="F172" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D173" s="12">
         <v>930</v>
@@ -10391,7 +10391,7 @@
         <v>910</v>
       </c>
       <c r="F173" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D174" s="12">
         <v>940</v>
@@ -10422,7 +10422,7 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D175" s="12">
         <v>910</v>
@@ -10431,7 +10431,7 @@
         <v>890</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D176" s="12">
         <v>765</v>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D177" s="12">
         <v>930</v>
@@ -10471,7 +10471,7 @@
         <v>910</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D178" s="12">
         <v>955</v>
@@ -10492,7 +10492,7 @@
         <v>930</v>
       </c>
       <c r="F178" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D179" s="12">
         <v>1010</v>
@@ -10513,7 +10513,7 @@
         <v>990</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D180" s="12">
         <v>670</v>
@@ -10534,7 +10534,7 @@
         <v>650</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
@@ -10546,7 +10546,7 @@
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D181" s="12">
         <v>900</v>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D182" s="12">
         <v>890</v>
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D183" s="12">
         <v>815</v>
@@ -10603,7 +10603,7 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D184" s="12">
         <v>835</v>
@@ -10612,7 +10612,7 @@
         <v>810</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D185" s="12">
         <v>735</v>
@@ -10633,7 +10633,7 @@
         <v>730</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D186" s="12">
         <v>780</v>
@@ -10664,7 +10664,7 @@
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D187" s="12">
         <v>810</v>
@@ -10683,7 +10683,7 @@
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D188" s="12">
         <v>880</v>
@@ -10692,7 +10692,7 @@
         <v>850</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G188" s="11"/>
       <c r="H188" s="11"/>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D189" s="12">
         <v>885</v>
@@ -10713,7 +10713,7 @@
         <v>870</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
@@ -10724,7 +10724,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D190" s="7">
         <v>695</v>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D191" s="12">
         <v>900</v>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D192" s="12">
         <v>880</v>
@@ -10767,7 +10767,7 @@
         <v>860</v>
       </c>
       <c r="F192" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D193" s="12">
         <v>745</v>
@@ -10788,7 +10788,7 @@
         <v>735</v>
       </c>
       <c r="F193" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D194" s="12">
         <v>995</v>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D195" s="12">
         <v>755</v>
@@ -10838,7 +10838,7 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D196" s="12">
         <v>790</v>
@@ -10856,7 +10856,7 @@
         <v>192</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D197" s="7">
         <v>710</v>
@@ -10865,7 +10865,7 @@
         <v>700</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11" t="s">
-        <v>1018</v>
+        <v>1140</v>
       </c>
       <c r="D198" s="12">
         <v>740</v>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D199" s="12">
         <v>730</v>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D200" s="12">
         <v>745</v>
@@ -10930,7 +10930,7 @@
         <v>196</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D201" s="7">
         <v>750</v>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="11" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D202" s="12">
         <v>660</v>
@@ -10954,7 +10954,7 @@
         <v>640</v>
       </c>
       <c r="F202" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D203" s="12">
         <v>725</v>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D204" s="12">
         <v>715</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D205" s="12">
         <v>750</v>
@@ -11022,7 +11022,7 @@
         <v>201</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D206" s="7">
         <v>690</v>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D207" s="12">
         <v>740</v>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="11" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D208" s="12">
         <v>760</v>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="11" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D209" s="12">
         <v>725</v>
@@ -11094,7 +11094,7 @@
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D210" s="12">
         <v>700</v>
@@ -11103,7 +11103,7 @@
         <v>680</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G210" s="11"/>
       <c r="H210" s="11"/>
@@ -11114,10 +11114,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D211" s="12">
         <v>660</v>
@@ -11126,7 +11126,7 @@
         <v>640</v>
       </c>
       <c r="F211" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G211" s="11"/>
       <c r="H211" s="11"/>
@@ -11137,10 +11137,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D212" s="12">
         <v>630</v>
@@ -11149,7 +11149,7 @@
         <v>615</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G212" s="11"/>
       <c r="H212" s="11"/>
@@ -11160,10 +11160,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C213" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="D213" s="12">
         <v>625</v>
@@ -11172,7 +11172,7 @@
         <v>610</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
@@ -11183,10 +11183,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D214" s="12">
         <v>640</v>
@@ -11195,7 +11195,7 @@
         <v>620</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G214" s="11"/>
       <c r="H214" s="11"/>
@@ -11206,10 +11206,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D215" s="12">
         <v>620</v>
@@ -11218,7 +11218,7 @@
         <v>610</v>
       </c>
       <c r="F215" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G215" s="11"/>
       <c r="H215" s="11"/>
@@ -11229,10 +11229,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D216" s="12">
         <v>610</v>
@@ -11241,7 +11241,7 @@
         <v>600</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
@@ -11252,10 +11252,10 @@
         <v>212</v>
       </c>
       <c r="B217" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C217" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="D217" s="12">
         <v>630</v>
@@ -11264,7 +11264,7 @@
         <v>610</v>
       </c>
       <c r="F217" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
@@ -11275,10 +11275,10 @@
         <v>213</v>
       </c>
       <c r="B218" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C218" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="D218" s="12">
         <v>605</v>
@@ -11287,7 +11287,7 @@
         <v>600</v>
       </c>
       <c r="F218" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G218" s="11"/>
       <c r="H218" s="11"/>
@@ -11298,10 +11298,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D219" s="12">
         <v>630</v>
@@ -11310,7 +11310,7 @@
         <v>610</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G219" s="11"/>
       <c r="H219" s="11"/>
@@ -11321,10 +11321,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C220" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="D220" s="12">
         <v>610</v>
@@ -11333,7 +11333,7 @@
         <v>600</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G220" s="11"/>
       <c r="H220" s="11"/>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D221" s="12">
         <v>635</v>
@@ -11354,7 +11354,7 @@
         <v>625</v>
       </c>
       <c r="F221" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G221" s="11" t="s">
         <v>145</v>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B222" s="11"/>
       <c r="C222" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D222" s="12">
         <v>635</v>
@@ -11377,7 +11377,7 @@
         <v>620</v>
       </c>
       <c r="F222" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G222" s="11" t="s">
         <v>145</v>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D223" s="12">
         <v>655</v>
@@ -11400,7 +11400,7 @@
         <v>645</v>
       </c>
       <c r="F223" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G223" s="11" t="s">
         <v>145</v>
@@ -11414,7 +11414,7 @@
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D224" s="12">
         <v>635</v>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D225" s="12">
         <v>655</v>
@@ -11444,7 +11444,7 @@
         <v>645</v>
       </c>
       <c r="F225" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G225" s="11" t="s">
         <v>145</v>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D226" s="12">
         <v>650</v>
@@ -11467,7 +11467,7 @@
         <v>620</v>
       </c>
       <c r="F226" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G226" s="11" t="s">
         <v>145</v>
@@ -11480,10 +11480,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D227" s="12">
         <v>620</v>
@@ -11492,10 +11492,10 @@
         <v>620</v>
       </c>
       <c r="F227" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G227" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="G227" s="11" t="s">
-        <v>328</v>
       </c>
       <c r="H227" s="11"/>
       <c r="I227" s="11"/>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D228" s="12">
         <v>745</v>
@@ -11515,10 +11515,10 @@
         <v>745</v>
       </c>
       <c r="F228" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G228" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="G228" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="H228" s="11"/>
       <c r="I228" s="11"/>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="B229" s="11"/>
       <c r="C229" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D229" s="12">
         <v>730</v>
@@ -11538,10 +11538,10 @@
         <v>700</v>
       </c>
       <c r="F229" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G229" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="G229" s="11" t="s">
-        <v>335</v>
       </c>
       <c r="H229" s="11"/>
       <c r="I229" s="11"/>
@@ -11552,7 +11552,7 @@
       </c>
       <c r="B230" s="11"/>
       <c r="C230" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D230" s="12">
         <v>840</v>
@@ -11570,7 +11570,7 @@
         <v>226</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D231" s="7">
         <v>640</v>
@@ -11579,10 +11579,10 @@
         <v>640</v>
       </c>
       <c r="F231" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G231" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="232" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="B232" s="11"/>
       <c r="C232" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D232" s="12">
         <v>755</v>
@@ -11600,10 +11600,10 @@
         <v>745</v>
       </c>
       <c r="F232" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="G232" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="G232" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="H232" s="11"/>
       <c r="I232" s="11"/>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="B233" s="11"/>
       <c r="C233" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D233" s="12">
         <v>600</v>
@@ -11624,7 +11624,7 @@
       </c>
       <c r="F233" s="11"/>
       <c r="G233" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H233" s="11"/>
       <c r="I233" s="11"/>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="B234" s="11"/>
       <c r="C234" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D234" s="12">
         <v>650</v>
@@ -11644,10 +11644,10 @@
         <v>645</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G234" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H234" s="11"/>
       <c r="I234" s="11"/>
@@ -11658,7 +11658,7 @@
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D235" s="12">
         <v>620</v>
@@ -11667,10 +11667,10 @@
         <v>620</v>
       </c>
       <c r="F235" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G235" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H235" s="11"/>
       <c r="I235" s="11"/>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D236" s="12">
         <v>725</v>
@@ -11690,10 +11690,10 @@
         <v>710</v>
       </c>
       <c r="F236" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H236" s="11"/>
       <c r="I236" s="11"/>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D237" s="12">
         <v>665</v>
@@ -11713,10 +11713,10 @@
         <v>650</v>
       </c>
       <c r="F237" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G237" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="G237" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="H237" s="11"/>
       <c r="I237" s="11"/>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D238" s="12">
         <v>725</v>
@@ -11736,10 +11736,10 @@
         <v>710</v>
       </c>
       <c r="F238" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G238" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H238" s="11"/>
       <c r="I238" s="11"/>
@@ -11750,7 +11750,7 @@
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D239" s="12">
         <v>715</v>
@@ -11759,10 +11759,10 @@
         <v>710</v>
       </c>
       <c r="F239" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H239" s="11"/>
       <c r="I239" s="11"/>
@@ -11773,7 +11773,7 @@
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D240" s="12">
         <v>610</v>
@@ -11782,7 +11782,7 @@
         <v>600</v>
       </c>
       <c r="F240" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G240" s="11"/>
       <c r="H240" s="11"/>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D241" s="12">
         <v>630</v>
@@ -11803,7 +11803,7 @@
         <v>610</v>
       </c>
       <c r="F241" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G241" s="11"/>
       <c r="H241" s="11"/>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="B242" s="11"/>
       <c r="C242" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D242" s="12">
         <v>645</v>
@@ -11824,7 +11824,7 @@
         <v>620</v>
       </c>
       <c r="F242" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G242" s="11"/>
       <c r="H242" s="11"/>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="B243" s="11"/>
       <c r="C243" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D243" s="12">
         <v>600</v>
@@ -11845,7 +11845,7 @@
         <v>600</v>
       </c>
       <c r="F243" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G243" s="11"/>
       <c r="H243" s="11"/>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D244" s="12">
         <v>620</v>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="B245" s="11"/>
       <c r="C245" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D245" s="12">
         <v>600</v>
@@ -11887,7 +11887,7 @@
         <v>600</v>
       </c>
       <c r="F245" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G245" s="11"/>
       <c r="H245" s="11"/>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D246" s="12">
         <v>630</v>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D247" s="12">
         <v>615</v>
@@ -11927,10 +11927,10 @@
         <v>600</v>
       </c>
       <c r="F247" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G247" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H247" s="11"/>
       <c r="I247" s="11"/>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D248" s="12">
         <v>630</v>
@@ -11950,7 +11950,7 @@
         <v>620</v>
       </c>
       <c r="F248" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="B249" s="11"/>
       <c r="C249" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D249" s="12">
         <v>610</v>
@@ -11971,7 +11971,7 @@
         <v>600</v>
       </c>
       <c r="F249" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D250" s="12">
         <v>635</v>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D251" s="12">
         <v>640</v>
@@ -12013,7 +12013,7 @@
         <v>630</v>
       </c>
       <c r="F251" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="B252" s="11"/>
       <c r="C252" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D252" s="12">
         <v>620</v>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B253" s="11"/>
       <c r="C253" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D253" s="12">
         <v>630</v>
@@ -12053,7 +12053,7 @@
         <v>610</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="B254" s="11"/>
       <c r="C254" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D254" s="12">
         <v>625</v>
@@ -12074,7 +12074,7 @@
         <v>610</v>
       </c>
       <c r="F254" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="B255" s="11"/>
       <c r="C255" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D255" s="12">
         <v>630</v>
@@ -12095,7 +12095,7 @@
         <v>630</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="11" t="s">
-        <v>390</v>
+        <v>1141</v>
       </c>
       <c r="D256" s="12">
         <v>645</v>
@@ -12116,10 +12116,10 @@
         <v>640</v>
       </c>
       <c r="F256" s="16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G256" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H256" s="11"/>
       <c r="I256" s="11"/>
@@ -12130,7 +12130,7 @@
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D257" s="12">
         <v>640</v>
@@ -12139,7 +12139,7 @@
         <v>630</v>
       </c>
       <c r="F257" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D258" s="12">
         <v>620</v>
@@ -12160,7 +12160,7 @@
         <v>600</v>
       </c>
       <c r="F258" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B259" s="11"/>
       <c r="C259" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D259" s="12">
         <v>620</v>
@@ -12181,7 +12181,7 @@
         <v>615</v>
       </c>
       <c r="F259" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G259" s="11" t="s">
         <v>145</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="B260" s="11"/>
       <c r="C260" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D260" s="12">
         <v>730</v>
@@ -12216,7 +12216,7 @@
       </c>
       <c r="B261" s="11"/>
       <c r="C261" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D261" s="12">
         <v>650</v>
@@ -12225,7 +12225,7 @@
         <v>640</v>
       </c>
       <c r="F261" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G261" s="11" t="s">
         <v>12</v>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D262" s="12">
         <v>620</v>
@@ -12248,7 +12248,7 @@
         <v>605</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
@@ -12260,7 +12260,7 @@
       </c>
       <c r="B263" s="11"/>
       <c r="C263" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D263" s="12">
         <v>655</v>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="B264" s="11"/>
       <c r="C264" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D264" s="12">
         <v>630</v>
@@ -12297,7 +12297,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D265" s="5">
         <v>650</v>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="B266" s="11"/>
       <c r="C266" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D266" s="12">
         <v>620</v>
@@ -12321,7 +12321,7 @@
         <v>605</v>
       </c>
       <c r="F266" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G266" s="11"/>
       <c r="H266" s="11"/>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D267" s="12">
         <v>630</v>
@@ -12342,7 +12342,7 @@
         <v>620</v>
       </c>
       <c r="F267" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D268" s="12">
         <v>625</v>
@@ -12363,7 +12363,7 @@
         <v>610</v>
       </c>
       <c r="F268" s="16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D269" s="12">
         <v>620</v>
@@ -12394,7 +12394,7 @@
       </c>
       <c r="B270" s="11"/>
       <c r="C270" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D270" s="12">
         <v>620</v>
@@ -12413,7 +12413,7 @@
       </c>
       <c r="B271" s="11"/>
       <c r="C271" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D271" s="12">
         <v>605</v>
@@ -12422,7 +12422,7 @@
         <v>600</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G271" s="11"/>
       <c r="H271" s="11"/>
@@ -12434,7 +12434,7 @@
       </c>
       <c r="B272" s="11"/>
       <c r="C272" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D272" s="12">
         <v>650</v>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D273" s="12">
         <v>620</v>
@@ -12462,7 +12462,7 @@
         <v>610</v>
       </c>
       <c r="F273" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G273" s="11"/>
       <c r="H273" s="11"/>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D274" s="12">
         <v>655</v>
@@ -12483,7 +12483,7 @@
         <v>635</v>
       </c>
       <c r="F274" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G274" s="11"/>
       <c r="H274" s="11"/>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="B275" s="11"/>
       <c r="C275" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D275" s="12">
         <v>635</v>
@@ -12504,7 +12504,7 @@
         <v>620</v>
       </c>
       <c r="F275" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G275" s="11"/>
       <c r="H275" s="11"/>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B276" s="11"/>
       <c r="C276" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D276" s="12">
         <v>620</v>
@@ -12525,7 +12525,7 @@
         <v>615</v>
       </c>
       <c r="F276" s="16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G276" s="11"/>
       <c r="H276" s="11"/>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="B277" s="11"/>
       <c r="C277" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D277" s="12">
         <v>630</v>
@@ -12546,7 +12546,7 @@
         <v>610</v>
       </c>
       <c r="F277" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G277" s="11"/>
       <c r="H277" s="11"/>
@@ -12557,7 +12557,7 @@
         <v>273</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D278" s="5">
         <v>655</v>
@@ -12566,10 +12566,10 @@
         <v>640</v>
       </c>
       <c r="F278" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="B279" s="11"/>
       <c r="C279" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D279" s="12">
         <v>620</v>
@@ -12587,7 +12587,7 @@
         <v>610</v>
       </c>
       <c r="F279" s="16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G279" s="11"/>
       <c r="H279" s="11"/>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D280" s="12">
         <v>610</v>
@@ -12608,7 +12608,7 @@
         <v>605</v>
       </c>
       <c r="F280" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G280" s="11"/>
       <c r="H280" s="11"/>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D281" s="12">
         <v>650</v>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="B282" s="11"/>
       <c r="C282" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D282" s="12">
         <v>645</v>
@@ -12650,7 +12650,7 @@
         <v>640</v>
       </c>
       <c r="F282" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G282" s="11" t="s">
         <v>145</v>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B283" s="11"/>
       <c r="C283" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D283" s="12">
         <v>635</v>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="B284" s="11"/>
       <c r="C284" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D284" s="12">
         <v>710</v>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="B285" s="11"/>
       <c r="C285" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D285" s="12">
         <v>635</v>
@@ -12725,7 +12725,7 @@
       </c>
       <c r="B286" s="11"/>
       <c r="C286" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D286" s="12">
         <v>600</v>
@@ -12734,7 +12734,7 @@
         <v>600</v>
       </c>
       <c r="F286" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G286" s="11"/>
       <c r="H286" s="11"/>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D287" s="12">
         <v>620</v>
@@ -12755,7 +12755,7 @@
         <v>610</v>
       </c>
       <c r="F287" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G287" s="11"/>
       <c r="H287" s="11"/>
@@ -12767,7 +12767,7 @@
       </c>
       <c r="B288" s="11"/>
       <c r="C288" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D288" s="12">
         <v>610</v>
@@ -12776,10 +12776,10 @@
         <v>600</v>
       </c>
       <c r="F288" s="16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G288" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H288" s="11"/>
       <c r="I288" s="11"/>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="B289" s="11"/>
       <c r="C289" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D289" s="12">
         <v>660</v>
@@ -12799,10 +12799,10 @@
         <v>650</v>
       </c>
       <c r="F289" s="16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G289" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H289" s="11"/>
       <c r="I289" s="11"/>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="B290" s="11"/>
       <c r="C290" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D290" s="12">
         <v>645</v>
@@ -12822,7 +12822,7 @@
         <v>635</v>
       </c>
       <c r="F290" s="16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G290" s="11"/>
       <c r="H290" s="11"/>
@@ -12834,7 +12834,7 @@
       </c>
       <c r="B291" s="11"/>
       <c r="C291" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D291" s="12">
         <v>610</v>
@@ -12843,7 +12843,7 @@
         <v>600</v>
       </c>
       <c r="F291" s="16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G291" s="11"/>
       <c r="H291" s="11"/>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="B292" s="11"/>
       <c r="C292" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D292" s="12">
         <v>660</v>
@@ -12864,7 +12864,7 @@
         <v>655</v>
       </c>
       <c r="F292" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G292" s="11"/>
       <c r="H292" s="11"/>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="B293" s="11"/>
       <c r="C293" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D293" s="12">
         <v>605</v>
@@ -12885,7 +12885,7 @@
         <v>600</v>
       </c>
       <c r="F293" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G293" s="11"/>
       <c r="H293" s="11"/>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="B294" s="11"/>
       <c r="C294" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D294" s="12">
         <v>605</v>
@@ -12906,7 +12906,7 @@
         <v>600</v>
       </c>
       <c r="F294" s="16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G294" s="11"/>
       <c r="H294" s="11"/>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="B295" s="11"/>
       <c r="C295" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D295" s="12">
         <v>600</v>
@@ -12927,7 +12927,7 @@
         <v>600</v>
       </c>
       <c r="F295" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G295" s="11"/>
       <c r="H295" s="11"/>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="B296" s="11"/>
       <c r="C296" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D296" s="12">
         <v>600</v>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="B297" s="11"/>
       <c r="C297" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D297" s="12">
         <v>625</v>
@@ -12969,7 +12969,7 @@
         <v>615</v>
       </c>
       <c r="F297" s="16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G297" s="11"/>
       <c r="H297" s="11"/>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="B298" s="11"/>
       <c r="C298" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D298" s="12">
         <v>630</v>
@@ -12990,7 +12990,7 @@
         <v>625</v>
       </c>
       <c r="F298" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G298" s="11"/>
       <c r="H298" s="11"/>
@@ -13002,7 +13002,7 @@
       </c>
       <c r="B299" s="11"/>
       <c r="C299" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D299" s="12">
         <v>630</v>
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B300" s="11"/>
       <c r="C300" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D300" s="12">
         <v>640</v>
@@ -13032,7 +13032,7 @@
         <v>625</v>
       </c>
       <c r="F300" s="16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G300" s="11"/>
       <c r="H300" s="11"/>
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B301" s="11"/>
       <c r="C301" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D301" s="12">
         <v>615</v>
@@ -13053,7 +13053,7 @@
         <v>605</v>
       </c>
       <c r="F301" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G301" s="11"/>
       <c r="H301" s="11"/>
@@ -13065,7 +13065,7 @@
       </c>
       <c r="B302" s="11"/>
       <c r="C302" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D302" s="12">
         <v>610</v>
@@ -13074,7 +13074,7 @@
         <v>600</v>
       </c>
       <c r="F302" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G302" s="11"/>
       <c r="H302" s="11"/>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="B303" s="11"/>
       <c r="C303" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D303" s="12">
         <v>655</v>
@@ -13105,7 +13105,7 @@
       </c>
       <c r="B304" s="11"/>
       <c r="C304" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D304" s="12">
         <v>650</v>
@@ -13124,7 +13124,7 @@
       </c>
       <c r="B305" s="11"/>
       <c r="C305" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D305" s="12">
         <v>655</v>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="B306" s="11"/>
       <c r="C306" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D306" s="12">
         <v>600</v>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="B307" s="11"/>
       <c r="C307" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D307" s="12">
         <v>615</v>
@@ -13181,7 +13181,7 @@
       </c>
       <c r="B308" s="11"/>
       <c r="C308" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D308" s="12">
         <v>640</v>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B309" s="11"/>
       <c r="C309" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D309" s="12">
         <v>620</v>
@@ -13209,7 +13209,7 @@
         <v>605</v>
       </c>
       <c r="F309" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G309" s="11"/>
       <c r="H309" s="11"/>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="B310" s="11"/>
       <c r="C310" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D310" s="12">
         <v>600</v>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B311" s="11"/>
       <c r="C311" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D311" s="12">
         <v>675</v>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="B312" s="11"/>
       <c r="C312" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D312" s="12">
         <v>660</v>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="B313" s="11"/>
       <c r="C313" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D313" s="12">
         <v>615</v>
@@ -13297,7 +13297,7 @@
       </c>
       <c r="B314" s="11"/>
       <c r="C314" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D314" s="12">
         <v>650</v>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="B315" s="11"/>
       <c r="C315" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D315" s="12">
         <v>750</v>
@@ -13325,7 +13325,7 @@
         <v>740</v>
       </c>
       <c r="F315" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G315" s="11"/>
       <c r="H315" s="11"/>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="B316" s="11"/>
       <c r="C316" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D316" s="12">
         <v>620</v>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="B317" s="11"/>
       <c r="C317" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D317" s="12">
         <v>680</v>
@@ -13365,7 +13365,7 @@
         <v>670</v>
       </c>
       <c r="F317" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G317" s="11"/>
       <c r="H317" s="11"/>
@@ -13376,7 +13376,7 @@
         <v>313</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D318" s="5">
         <v>740</v>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="B319" s="11"/>
       <c r="C319" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D319" s="12">
         <v>740</v>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="B321" s="11"/>
       <c r="C321" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D321" s="12">
         <v>815</v>
@@ -13438,7 +13438,7 @@
         <v>800</v>
       </c>
       <c r="F321" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G321" s="11"/>
       <c r="H321" s="11"/>
@@ -13450,7 +13450,7 @@
       </c>
       <c r="B322" s="11"/>
       <c r="C322" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D322" s="12">
         <v>825</v>
@@ -13469,7 +13469,7 @@
       </c>
       <c r="B323" s="11"/>
       <c r="C323" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D323" s="12">
         <v>770</v>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="B324" s="11"/>
       <c r="C324" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D324" s="12">
         <v>680</v>
@@ -13507,7 +13507,7 @@
       </c>
       <c r="B325" s="11"/>
       <c r="C325" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D325" s="12">
         <v>640</v>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="B326" s="11"/>
       <c r="C326" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D326" s="12">
         <v>615</v>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="B327" s="11"/>
       <c r="C327" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D327" s="12">
         <v>860</v>
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B328" s="11"/>
       <c r="C328" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D328" s="12">
         <v>610</v>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B329" s="11"/>
       <c r="C329" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D329" s="12">
         <v>835</v>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="B330" s="11"/>
       <c r="C330" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D330" s="12">
         <v>820</v>
@@ -13611,7 +13611,7 @@
         <v>805</v>
       </c>
       <c r="F330" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G330" s="11"/>
       <c r="H330" s="11"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="B331" s="11"/>
       <c r="C331" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D331" s="12">
         <v>615</v>
@@ -13632,7 +13632,7 @@
         <v>605</v>
       </c>
       <c r="F331" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G331" s="11"/>
       <c r="H331" s="11"/>
@@ -13644,7 +13644,7 @@
       </c>
       <c r="B332" s="11"/>
       <c r="C332" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D332" s="12">
         <v>820</v>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="B333" s="11"/>
       <c r="C333" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D333" s="12">
         <v>800</v>
@@ -13682,7 +13682,7 @@
       </c>
       <c r="B334" s="11"/>
       <c r="C334" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D334" s="12">
         <v>620</v>
@@ -13691,7 +13691,7 @@
         <v>605</v>
       </c>
       <c r="F334" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G334" s="11"/>
       <c r="H334" s="11"/>
@@ -13702,7 +13702,7 @@
         <v>331</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D335" s="7">
         <v>685</v>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="B336" s="11"/>
       <c r="C336" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D336" s="12">
         <v>660</v>
@@ -13726,7 +13726,7 @@
         <v>640</v>
       </c>
       <c r="F336" s="16" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G336" s="11"/>
       <c r="H336" s="11"/>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="B337" s="11"/>
       <c r="C337" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D337" s="12">
         <v>630</v>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="B338" s="11"/>
       <c r="C338" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D338" s="12">
         <v>645</v>
@@ -13766,7 +13766,7 @@
         <v>630</v>
       </c>
       <c r="F338" s="16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G338" s="11"/>
       <c r="H338" s="11"/>
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B339" s="11"/>
       <c r="C339" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D339" s="12">
         <v>845</v>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="B340" s="11"/>
       <c r="C340" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D340" s="12">
         <v>710</v>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B341" s="11"/>
       <c r="C341" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D341" s="12">
         <v>800</v>
@@ -13834,7 +13834,7 @@
         <v>338</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D342" s="5">
         <v>750</v>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="B343" s="11"/>
       <c r="C343" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D343" s="12">
         <v>655</v>
@@ -13858,7 +13858,7 @@
         <v>640</v>
       </c>
       <c r="F343" s="16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G343" s="11"/>
       <c r="H343" s="11"/>
@@ -13870,7 +13870,7 @@
       </c>
       <c r="B344" s="11"/>
       <c r="C344" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D344" s="12">
         <v>820</v>
@@ -13879,7 +13879,7 @@
         <v>800</v>
       </c>
       <c r="F344" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G344" s="11"/>
       <c r="H344" s="11"/>
@@ -13891,7 +13891,7 @@
       </c>
       <c r="B345" s="11"/>
       <c r="C345" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D345" s="12">
         <v>650</v>
@@ -13900,7 +13900,7 @@
         <v>645</v>
       </c>
       <c r="F345" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G345" s="11"/>
       <c r="H345" s="11"/>
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B346" s="11"/>
       <c r="C346" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D346" s="12">
         <v>680</v>
@@ -13921,7 +13921,7 @@
         <v>680</v>
       </c>
       <c r="F346" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G346" s="11"/>
       <c r="H346" s="11"/>
@@ -13933,7 +13933,7 @@
       </c>
       <c r="B347" s="11"/>
       <c r="C347" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D347" s="12">
         <v>620</v>
@@ -13942,7 +13942,7 @@
         <v>600</v>
       </c>
       <c r="F347" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G347" s="11"/>
       <c r="H347" s="11"/>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="B348" s="11"/>
       <c r="C348" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D348" s="12">
         <v>720</v>
@@ -13963,7 +13963,7 @@
         <v>700</v>
       </c>
       <c r="F348" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G348" s="11"/>
       <c r="H348" s="11"/>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="B349" s="11"/>
       <c r="C349" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D349" s="12">
         <v>610</v>
@@ -13984,7 +13984,7 @@
         <v>600</v>
       </c>
       <c r="F349" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G349" s="11"/>
       <c r="H349" s="11"/>
@@ -13996,7 +13996,7 @@
       </c>
       <c r="B350" s="11"/>
       <c r="C350" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D350" s="12">
         <v>610</v>
@@ -14005,7 +14005,7 @@
         <v>600</v>
       </c>
       <c r="F350" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G350" s="11"/>
       <c r="H350" s="11"/>
@@ -14017,7 +14017,7 @@
       </c>
       <c r="B351" s="11"/>
       <c r="C351" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D351" s="12">
         <v>675</v>
@@ -14026,7 +14026,7 @@
         <v>660</v>
       </c>
       <c r="F351" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G351" s="11"/>
       <c r="H351" s="11"/>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="B352" s="11"/>
       <c r="C352" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D352" s="12">
         <v>740</v>
@@ -14047,7 +14047,7 @@
         <v>720</v>
       </c>
       <c r="F352" s="16" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G352" s="11"/>
       <c r="H352" s="11"/>
@@ -14059,7 +14059,7 @@
       </c>
       <c r="B353" s="11"/>
       <c r="C353" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D353" s="12">
         <v>610</v>
@@ -14068,7 +14068,7 @@
         <v>600</v>
       </c>
       <c r="F353" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G353" s="11"/>
       <c r="H353" s="11"/>
@@ -14080,7 +14080,7 @@
       </c>
       <c r="B354" s="11"/>
       <c r="C354" s="13" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D354" s="12">
         <v>740</v>
@@ -14089,7 +14089,7 @@
         <v>720</v>
       </c>
       <c r="F354" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G354" s="11"/>
       <c r="H354" s="11"/>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="B355" s="11"/>
       <c r="C355" s="13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D355" s="12">
         <v>620</v>
@@ -14110,7 +14110,7 @@
         <v>605</v>
       </c>
       <c r="F355" s="16" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G355" s="11"/>
       <c r="H355" s="11"/>
@@ -14122,7 +14122,7 @@
       </c>
       <c r="B356" s="11"/>
       <c r="C356" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D356" s="12">
         <v>710</v>
@@ -14131,7 +14131,7 @@
         <v>690</v>
       </c>
       <c r="F356" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G356" s="11"/>
       <c r="H356" s="11"/>
@@ -14143,7 +14143,7 @@
       </c>
       <c r="B357" s="11"/>
       <c r="C357" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D357" s="12">
         <v>625</v>
@@ -14152,7 +14152,7 @@
         <v>610</v>
       </c>
       <c r="F357" s="16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G357" s="11"/>
       <c r="H357" s="11"/>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="B358" s="11"/>
       <c r="C358" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D358" s="12">
         <v>700</v>
@@ -14173,7 +14173,7 @@
         <v>680</v>
       </c>
       <c r="F358" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G358" s="11"/>
       <c r="H358" s="11"/>
@@ -14208,7 +14208,7 @@
       </c>
       <c r="B360" s="11"/>
       <c r="C360" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D360" s="12">
         <v>715</v>
@@ -14217,7 +14217,7 @@
         <v>695</v>
       </c>
       <c r="F360" s="16" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G360" s="11"/>
       <c r="H360" s="11"/>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="B361" s="11"/>
       <c r="C361" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D361" s="12">
         <v>635</v>
@@ -14238,7 +14238,7 @@
         <v>625</v>
       </c>
       <c r="F361" s="16" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G361" s="11"/>
       <c r="H361" s="11"/>
@@ -14250,7 +14250,7 @@
       </c>
       <c r="B362" s="11"/>
       <c r="C362" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D362" s="12">
         <v>730</v>
@@ -14269,7 +14269,7 @@
       </c>
       <c r="B363" s="11"/>
       <c r="C363" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D363" s="12">
         <v>610</v>
@@ -14278,7 +14278,7 @@
         <v>600</v>
       </c>
       <c r="F363" s="16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G363" s="11"/>
       <c r="H363" s="11"/>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="B364" s="11"/>
       <c r="C364" s="13" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D364" s="12">
         <v>710</v>
@@ -14299,7 +14299,7 @@
         <v>690</v>
       </c>
       <c r="F364" s="16" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G364" s="11"/>
       <c r="H364" s="11"/>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="B365" s="11"/>
       <c r="C365" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D365" s="12">
         <v>625</v>
@@ -14320,7 +14320,7 @@
         <v>610</v>
       </c>
       <c r="F365" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G365" s="11"/>
       <c r="H365" s="11"/>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="B366" s="11"/>
       <c r="C366" s="13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D366" s="12">
         <v>610</v>
@@ -14341,7 +14341,7 @@
         <v>610</v>
       </c>
       <c r="F366" s="16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G366" s="11"/>
       <c r="H366" s="11"/>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="B367" s="11"/>
       <c r="C367" s="13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D367" s="12">
         <v>690</v>
@@ -14362,7 +14362,7 @@
         <v>670</v>
       </c>
       <c r="F367" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G367" s="11"/>
       <c r="H367" s="11"/>
@@ -14373,7 +14373,7 @@
         <v>364</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D368" s="7">
         <v>625</v>
@@ -14382,7 +14382,7 @@
         <v>615</v>
       </c>
       <c r="F368" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="B369" s="11"/>
       <c r="C369" s="13" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D369" s="12">
         <v>745</v>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="B370" s="11"/>
       <c r="C370" s="13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D370" s="12">
         <v>645</v>
@@ -14429,7 +14429,7 @@
       </c>
       <c r="B371" s="11"/>
       <c r="C371" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D371" s="12">
         <v>825</v>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="B372" s="11"/>
       <c r="C372" s="13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D372" s="12">
         <v>870</v>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="B373" s="11"/>
       <c r="C373" s="13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D373" s="12">
         <v>685</v>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="B374" s="11"/>
       <c r="C374" s="13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D374" s="12">
         <v>645</v>
@@ -14495,7 +14495,7 @@
         <v>635</v>
       </c>
       <c r="F374" s="16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G374" s="11"/>
       <c r="H374" s="11"/>
@@ -14507,7 +14507,7 @@
       </c>
       <c r="B375" s="11"/>
       <c r="C375" s="13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D375" s="12">
         <v>610</v>
@@ -14516,7 +14516,7 @@
         <v>610</v>
       </c>
       <c r="F375" s="16" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G375" s="11"/>
       <c r="H375" s="11"/>
@@ -14527,7 +14527,7 @@
         <v>372</v>
       </c>
       <c r="C376" s="21" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D376" s="7">
         <v>720</v>
@@ -14536,7 +14536,7 @@
         <v>715</v>
       </c>
       <c r="F376" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
@@ -14545,7 +14545,7 @@
       </c>
       <c r="B377" s="11"/>
       <c r="C377" s="13" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D377" s="12">
         <v>630</v>
@@ -14554,7 +14554,7 @@
         <v>620</v>
       </c>
       <c r="F377" s="16" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G377" s="11"/>
       <c r="H377" s="11"/>
@@ -14566,7 +14566,7 @@
       </c>
       <c r="B378" s="11"/>
       <c r="C378" s="13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D378" s="12">
         <v>630</v>
@@ -14575,7 +14575,7 @@
         <v>625</v>
       </c>
       <c r="F378" s="16" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G378" s="11"/>
       <c r="H378" s="11"/>
@@ -14587,7 +14587,7 @@
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="13" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D379" s="12">
         <v>675</v>
@@ -14596,7 +14596,7 @@
         <v>650</v>
       </c>
       <c r="F379" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G379" s="11"/>
       <c r="H379" s="11"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B380" s="11"/>
       <c r="C380" s="13" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D380" s="12">
         <v>615</v>
@@ -14617,7 +14617,7 @@
         <v>610</v>
       </c>
       <c r="F380" s="16" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G380" s="11"/>
       <c r="H380" s="11"/>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="B381" s="11"/>
       <c r="C381" s="13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D381" s="12">
         <v>630</v>
@@ -14638,7 +14638,7 @@
         <v>620</v>
       </c>
       <c r="F381" s="16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G381" s="11"/>
       <c r="H381" s="11"/>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="B382" s="11"/>
       <c r="C382" s="13" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D382" s="12">
         <v>700</v>
@@ -14659,7 +14659,7 @@
         <v>680</v>
       </c>
       <c r="F382" s="16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G382" s="11"/>
       <c r="H382" s="11"/>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="B383" s="11"/>
       <c r="C383" s="13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D383" s="12">
         <v>645</v>
@@ -14680,7 +14680,7 @@
         <v>635</v>
       </c>
       <c r="F383" s="16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G383" s="11"/>
       <c r="H383" s="11"/>
@@ -14692,7 +14692,7 @@
       </c>
       <c r="B384" s="11"/>
       <c r="C384" s="13" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D384" s="12">
         <v>645</v>
@@ -14701,7 +14701,7 @@
         <v>635</v>
       </c>
       <c r="F384" s="16" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G384" s="11"/>
       <c r="H384" s="11"/>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="B385" s="11"/>
       <c r="C385" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D385" s="12">
         <v>630</v>
@@ -14722,7 +14722,7 @@
         <v>620</v>
       </c>
       <c r="F385" s="16" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G385" s="11"/>
       <c r="H385" s="11"/>
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B386" s="11"/>
       <c r="C386" s="13" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D386" s="12">
         <v>635</v>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="B387" s="11"/>
       <c r="C387" s="13" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D387" s="12">
         <v>775</v>
@@ -14772,7 +14772,7 @@
       </c>
       <c r="B388" s="11"/>
       <c r="C388" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D388" s="12">
         <v>625</v>
@@ -14793,7 +14793,7 @@
       </c>
       <c r="B389" s="11"/>
       <c r="C389" s="13" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D389" s="12">
         <v>630</v>
@@ -14804,7 +14804,7 @@
       <c r="F389" s="11"/>
       <c r="G389" s="11"/>
       <c r="H389" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I389" s="11"/>
     </row>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="B390" s="11"/>
       <c r="C390" s="13" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D390" s="12">
         <v>660</v>
@@ -14825,7 +14825,7 @@
       <c r="F390" s="11"/>
       <c r="G390" s="11"/>
       <c r="H390" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I390" s="11"/>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="B391" s="11"/>
       <c r="C391" s="13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D391" s="12">
         <v>700</v>
@@ -14856,7 +14856,7 @@
       </c>
       <c r="B392" s="11"/>
       <c r="C392" s="13" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D392" s="12">
         <v>670</v>
@@ -14867,7 +14867,7 @@
       <c r="F392" s="11"/>
       <c r="G392" s="11"/>
       <c r="H392" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I392" s="11"/>
     </row>
@@ -14877,7 +14877,7 @@
       </c>
       <c r="B393" s="11"/>
       <c r="C393" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D393" s="12">
         <v>655</v>
@@ -14888,7 +14888,7 @@
       <c r="F393" s="11"/>
       <c r="G393" s="11"/>
       <c r="H393" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I393" s="11"/>
     </row>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="B394" s="11"/>
       <c r="C394" s="11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D394" s="12">
         <v>680</v>
@@ -14907,11 +14907,11 @@
         <v>670</v>
       </c>
       <c r="F394" s="16" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G394" s="11"/>
       <c r="H394" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I394" s="11"/>
     </row>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="B395" s="11"/>
       <c r="C395" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D395" s="12">
         <v>630</v>
@@ -14930,7 +14930,7 @@
         <v>620</v>
       </c>
       <c r="F395" s="16" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G395" s="11"/>
       <c r="H395" s="11"/>
@@ -14942,7 +14942,7 @@
       </c>
       <c r="B396" s="11"/>
       <c r="C396" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D396" s="12">
         <v>695</v>
@@ -14951,11 +14951,11 @@
         <v>685</v>
       </c>
       <c r="F396" s="16" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G396" s="11"/>
       <c r="H396" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I396" s="11"/>
     </row>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="B397" s="11"/>
       <c r="C397" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D397" s="12">
         <v>645</v>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="B398" s="11"/>
       <c r="C398" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D398" s="12">
         <v>640</v>
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B399" s="11"/>
       <c r="C399" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D399" s="12">
         <v>660</v>
@@ -15021,7 +15021,7 @@
         <v>396</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D400" s="7">
         <v>580</v>
@@ -15030,7 +15030,7 @@
         <v>580</v>
       </c>
       <c r="F400" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="B401" s="11"/>
       <c r="C401" s="11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D401" s="12">
         <v>750</v>
@@ -15048,7 +15048,7 @@
         <v>745</v>
       </c>
       <c r="F401" s="16" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G401" s="11"/>
       <c r="H401" s="11"/>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="B402" s="11"/>
       <c r="C402" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D402" s="12">
         <v>750</v>
@@ -15069,7 +15069,7 @@
         <v>735</v>
       </c>
       <c r="F402" s="16" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G402" s="11"/>
       <c r="H402" s="11"/>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="B403" s="11"/>
       <c r="C403" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D403" s="12">
         <v>620</v>
@@ -15090,7 +15090,7 @@
         <v>615</v>
       </c>
       <c r="F403" s="16" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G403" s="11"/>
       <c r="H403" s="11"/>
@@ -15102,7 +15102,7 @@
       </c>
       <c r="B404" s="11"/>
       <c r="C404" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D404" s="12">
         <v>735</v>
@@ -15111,7 +15111,7 @@
         <v>725</v>
       </c>
       <c r="F404" s="16" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G404" s="11"/>
       <c r="H404" s="11"/>
@@ -15123,7 +15123,7 @@
       </c>
       <c r="B405" s="11"/>
       <c r="C405" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D405" s="12">
         <v>660</v>
@@ -15132,7 +15132,7 @@
         <v>650</v>
       </c>
       <c r="F405" s="16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G405" s="11"/>
       <c r="H405" s="11"/>
@@ -15144,7 +15144,7 @@
       </c>
       <c r="B406" s="11"/>
       <c r="C406" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D406" s="12">
         <v>630</v>
@@ -15153,7 +15153,7 @@
         <v>630</v>
       </c>
       <c r="F406" s="16" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G406" s="11"/>
       <c r="H406" s="11"/>
@@ -15164,7 +15164,7 @@
         <v>403</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D407" s="7">
         <v>625</v>
@@ -15173,7 +15173,7 @@
         <v>620</v>
       </c>
       <c r="F407" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -15182,7 +15182,7 @@
       </c>
       <c r="B408" s="11"/>
       <c r="C408" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D408" s="12">
         <v>655</v>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="B409" s="11"/>
       <c r="C409" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D409" s="12">
         <v>830</v>
@@ -15220,7 +15220,7 @@
       </c>
       <c r="B410" s="11"/>
       <c r="C410" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D410" s="12">
         <v>715</v>
@@ -15229,7 +15229,7 @@
         <v>710</v>
       </c>
       <c r="F410" s="16" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G410" s="11"/>
       <c r="H410" s="11"/>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="B411" s="11"/>
       <c r="C411" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D411" s="12">
         <v>740</v>
@@ -15259,7 +15259,7 @@
         <v>408</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D412" s="7">
         <v>590</v>
@@ -15268,7 +15268,7 @@
         <v>590</v>
       </c>
       <c r="F412" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="B413" s="11"/>
       <c r="C413" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D413" s="12">
         <v>675</v>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="B414" s="11"/>
       <c r="C414" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D414" s="12">
         <v>600</v>
@@ -15305,7 +15305,7 @@
         <v>600</v>
       </c>
       <c r="F414" s="16" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G414" s="11"/>
       <c r="H414" s="11"/>
@@ -15317,7 +15317,7 @@
       </c>
       <c r="B415" s="11"/>
       <c r="C415" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D415" s="12">
         <v>650</v>
@@ -15335,7 +15335,7 @@
         <v>412</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D416" s="5">
         <v>655</v>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="B417" s="11"/>
       <c r="C417" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D417" s="12">
         <v>770</v>
@@ -15359,7 +15359,7 @@
         <v>750</v>
       </c>
       <c r="F417" s="16" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G417" s="11"/>
       <c r="H417" s="11"/>
@@ -15371,7 +15371,7 @@
       </c>
       <c r="B418" s="11"/>
       <c r="C418" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D418" s="12">
         <v>680</v>
@@ -15390,7 +15390,7 @@
       </c>
       <c r="B419" s="11"/>
       <c r="C419" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D419" s="12">
         <v>645</v>
@@ -15399,7 +15399,7 @@
         <v>635</v>
       </c>
       <c r="F419" s="16" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G419" s="11"/>
       <c r="H419" s="11"/>
@@ -15411,7 +15411,7 @@
       </c>
       <c r="B420" s="11"/>
       <c r="C420" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D420" s="12">
         <v>655</v>
@@ -15420,7 +15420,7 @@
         <v>650</v>
       </c>
       <c r="F420" s="16" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G420" s="11"/>
       <c r="H420" s="11"/>
@@ -15432,7 +15432,7 @@
       </c>
       <c r="B421" s="11"/>
       <c r="C421" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D421" s="12">
         <v>635</v>
@@ -15441,7 +15441,7 @@
         <v>630</v>
       </c>
       <c r="F421" s="16" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G421" s="11"/>
       <c r="H421" s="11"/>
@@ -15453,7 +15453,7 @@
       </c>
       <c r="B422" s="11"/>
       <c r="C422" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D422" s="12">
         <v>620</v>
@@ -15462,7 +15462,7 @@
         <v>610</v>
       </c>
       <c r="F422" s="16" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G422" s="11"/>
       <c r="H422" s="11"/>
@@ -15474,7 +15474,7 @@
       </c>
       <c r="B423" s="11"/>
       <c r="C423" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D423" s="12">
         <v>635</v>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="F423" s="11"/>
       <c r="G423" s="11" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H423" s="11"/>
       <c r="I423" s="11"/>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="B424" s="11"/>
       <c r="C424" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D424" s="12">
         <v>640</v>
@@ -15514,7 +15514,7 @@
       </c>
       <c r="B425" s="11"/>
       <c r="C425" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D425" s="12">
         <v>610</v>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="B426" s="11"/>
       <c r="C426" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D426" s="12">
         <v>670</v>
@@ -15552,7 +15552,7 @@
       </c>
       <c r="B427" s="11"/>
       <c r="C427" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D427" s="12">
         <v>615</v>
@@ -15561,7 +15561,7 @@
         <v>610</v>
       </c>
       <c r="F427" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G427" s="11"/>
       <c r="H427" s="11"/>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="B428" s="11"/>
       <c r="C428" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D428" s="12">
         <v>630</v>
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B429" s="11"/>
       <c r="C429" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D429" s="12">
         <v>640</v>
@@ -15602,7 +15602,7 @@
       </c>
       <c r="F429" s="11"/>
       <c r="G429" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H429" s="11"/>
       <c r="I429" s="11"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="B430" s="11"/>
       <c r="C430" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D430" s="12">
         <v>605</v>
@@ -15622,7 +15622,7 @@
         <v>600</v>
       </c>
       <c r="F430" s="16" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G430" s="11"/>
       <c r="H430" s="11"/>
@@ -15633,7 +15633,7 @@
         <v>427</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D431" s="5">
         <v>595</v>
@@ -15642,7 +15642,7 @@
         <v>595</v>
       </c>
       <c r="F431" s="10" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="B432" s="11"/>
       <c r="C432" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D432" s="12">
         <v>660</v>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="B433" s="11"/>
       <c r="C433" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D433" s="12">
         <v>630</v>
@@ -15689,7 +15689,7 @@
       </c>
       <c r="B434" s="11"/>
       <c r="C434" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D434" s="12">
         <v>690</v>
@@ -15708,7 +15708,7 @@
       </c>
       <c r="B435" s="11"/>
       <c r="C435" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D435" s="12">
         <v>610</v>
@@ -15727,7 +15727,7 @@
       </c>
       <c r="B436" s="11"/>
       <c r="C436" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D436" s="12">
         <v>635</v>
@@ -15736,7 +15736,7 @@
         <v>625</v>
       </c>
       <c r="F436" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G436" s="11"/>
       <c r="H436" s="11"/>
@@ -15748,7 +15748,7 @@
       </c>
       <c r="B437" s="11"/>
       <c r="C437" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D437" s="12">
         <v>590</v>
@@ -15767,7 +15767,7 @@
       </c>
       <c r="B438" s="11"/>
       <c r="C438" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D438" s="12">
         <v>635</v>
@@ -15786,7 +15786,7 @@
       </c>
       <c r="B439" s="11"/>
       <c r="C439" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D439" s="12">
         <v>615</v>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="B440" s="11"/>
       <c r="C440" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D440" s="12">
         <v>620</v>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="B441" s="11"/>
       <c r="C441" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D441" s="12">
         <v>615</v>
@@ -15847,7 +15847,7 @@
       </c>
       <c r="B442" s="11"/>
       <c r="C442" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D442" s="12">
         <v>615</v>
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B443" s="11"/>
       <c r="C443" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D443" s="12">
         <v>620</v>
@@ -15877,7 +15877,7 @@
         <v>620</v>
       </c>
       <c r="F443" s="16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G443" s="11">
         <v>1970</v>
@@ -15891,7 +15891,7 @@
       </c>
       <c r="B444" s="11"/>
       <c r="C444" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D444" s="12">
         <v>640</v>
@@ -15900,7 +15900,7 @@
         <v>630</v>
       </c>
       <c r="F444" s="16" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G444" s="11">
         <v>1972</v>
@@ -15914,7 +15914,7 @@
       </c>
       <c r="B445" s="11"/>
       <c r="C445" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D445" s="12">
         <v>625</v>
@@ -15935,7 +15935,7 @@
       </c>
       <c r="B446" s="11"/>
       <c r="C446" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D446" s="12">
         <v>630</v>
@@ -15956,7 +15956,7 @@
       </c>
       <c r="B447" s="11"/>
       <c r="C447" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D447" s="12">
         <v>660</v>
@@ -15965,7 +15965,7 @@
         <v>650</v>
       </c>
       <c r="F447" s="16" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G447" s="11"/>
       <c r="H447" s="11"/>
@@ -15977,10 +15977,10 @@
       </c>
       <c r="B448" s="11"/>
       <c r="C448" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D448" s="12">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E448" s="12">
         <v>730</v>
@@ -15996,7 +15996,7 @@
       </c>
       <c r="B449" s="11"/>
       <c r="C449" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D449" s="12">
         <v>625</v>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="B450" s="11"/>
       <c r="C450" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D450" s="12">
         <v>730</v>
@@ -16034,7 +16034,7 @@
       </c>
       <c r="B451" s="11"/>
       <c r="C451" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D451" s="12">
         <v>655</v>
@@ -16053,7 +16053,7 @@
       </c>
       <c r="B452" s="11"/>
       <c r="C452" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D452" s="12">
         <v>645</v>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B453" s="11"/>
       <c r="C453" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D453" s="12">
         <v>655</v>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="B454" s="11"/>
       <c r="C454" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D454" s="12">
         <v>610</v>
@@ -16100,7 +16100,7 @@
         <v>610</v>
       </c>
       <c r="F454" s="16" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G454" s="11"/>
       <c r="H454" s="11"/>
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B455" s="11"/>
       <c r="C455" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D455" s="12">
         <v>640</v>
@@ -16131,7 +16131,7 @@
       </c>
       <c r="B456" s="11"/>
       <c r="C456" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D456" s="12">
         <v>670</v>
@@ -16150,7 +16150,7 @@
       </c>
       <c r="B457" s="11"/>
       <c r="C457" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D457" s="12">
         <v>650</v>
@@ -16168,10 +16168,10 @@
         <v>455</v>
       </c>
       <c r="B458" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D458" s="12">
         <v>640</v>
@@ -16190,7 +16190,7 @@
       </c>
       <c r="B459" s="11"/>
       <c r="C459" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D459" s="12">
         <v>645</v>
@@ -16209,7 +16209,7 @@
       </c>
       <c r="B460" s="11"/>
       <c r="C460" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D460" s="12">
         <v>635</v>
@@ -16228,7 +16228,7 @@
       </c>
       <c r="B461" s="11"/>
       <c r="C461" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D461" s="12">
         <v>600</v>
@@ -16247,7 +16247,7 @@
       </c>
       <c r="B462" s="11"/>
       <c r="C462" s="11" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D462" s="12">
         <v>615</v>
@@ -16256,7 +16256,7 @@
         <v>615</v>
       </c>
       <c r="F462" s="16" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G462" s="11"/>
       <c r="H462" s="11"/>
@@ -16267,7 +16267,7 @@
         <v>460</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D463" s="7">
         <v>640</v>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="B464" s="11"/>
       <c r="C464" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D464" s="12">
         <v>630</v>
@@ -16291,7 +16291,7 @@
         <v>625</v>
       </c>
       <c r="F464" s="16" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G464" s="11"/>
       <c r="H464" s="11"/>
@@ -16303,7 +16303,7 @@
       </c>
       <c r="B465" s="11"/>
       <c r="C465" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D465" s="12">
         <v>615</v>
@@ -16312,7 +16312,7 @@
         <v>615</v>
       </c>
       <c r="F465" s="16" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G465" s="11"/>
       <c r="H465" s="11"/>
@@ -16324,7 +16324,7 @@
       </c>
       <c r="B466" s="11"/>
       <c r="C466" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D466" s="12">
         <v>600</v>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="B467" s="11"/>
       <c r="C467" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D467" s="12">
         <v>645</v>
@@ -16352,7 +16352,7 @@
         <v>640</v>
       </c>
       <c r="F467" s="16" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G467" s="11"/>
       <c r="H467" s="11"/>
@@ -16364,7 +16364,7 @@
       </c>
       <c r="B468" s="11"/>
       <c r="C468" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D468" s="12">
         <v>585</v>
@@ -16383,7 +16383,7 @@
       </c>
       <c r="B469" s="11"/>
       <c r="C469" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D469" s="12">
         <v>620</v>
@@ -16402,7 +16402,7 @@
       </c>
       <c r="B470" s="11"/>
       <c r="C470" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D470" s="12">
         <v>640</v>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="B471" s="11"/>
       <c r="C471" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D471" s="12">
         <v>610</v>
@@ -16440,7 +16440,7 @@
       </c>
       <c r="B472" s="11"/>
       <c r="C472" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D472" s="12">
         <v>630</v>
@@ -16459,7 +16459,7 @@
       </c>
       <c r="B473" s="11"/>
       <c r="C473" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D473" s="12">
         <v>590</v>
@@ -16478,7 +16478,7 @@
       </c>
       <c r="B474" s="11"/>
       <c r="C474" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D474" s="12">
         <v>615</v>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="B475" s="11"/>
       <c r="C475" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D475" s="12">
         <v>630</v>
@@ -16516,7 +16516,7 @@
       </c>
       <c r="B476" s="11"/>
       <c r="C476" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D476" s="12">
         <v>630</v>
@@ -16525,7 +16525,7 @@
         <v>625</v>
       </c>
       <c r="F476" s="16" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G476" s="11"/>
       <c r="H476" s="11"/>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="B477" s="11"/>
       <c r="C477" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D477" s="12">
         <v>620</v>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="B478" s="11"/>
       <c r="C478" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D478" s="12">
         <v>610</v>
@@ -16575,7 +16575,7 @@
       </c>
       <c r="B479" s="11"/>
       <c r="C479" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D479" s="12">
         <v>655</v>
@@ -16584,7 +16584,7 @@
         <v>645</v>
       </c>
       <c r="F479" s="16" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G479" s="11"/>
       <c r="H479" s="11"/>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="B480" s="11"/>
       <c r="C480" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D480" s="12">
         <v>605</v>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="B481" s="11"/>
       <c r="C481" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D481" s="12">
         <v>620</v>
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B482" s="11"/>
       <c r="C482" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D482" s="12">
         <v>615</v>
@@ -16653,7 +16653,7 @@
       </c>
       <c r="B483" s="11"/>
       <c r="C483" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D483" s="12">
         <v>635</v>
@@ -16672,7 +16672,7 @@
       </c>
       <c r="B484" s="11"/>
       <c r="C484" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D484" s="12">
         <v>620</v>
@@ -16691,7 +16691,7 @@
       </c>
       <c r="B485" s="11"/>
       <c r="C485" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D485" s="12">
         <v>615</v>
@@ -16700,7 +16700,7 @@
         <v>610</v>
       </c>
       <c r="F485" s="16" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G485" s="11"/>
       <c r="H485" s="11"/>
@@ -16712,7 +16712,7 @@
       </c>
       <c r="B486" s="11"/>
       <c r="C486" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D486" s="12">
         <v>625</v>
@@ -16721,7 +16721,7 @@
         <v>620</v>
       </c>
       <c r="F486" s="16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G486" s="11"/>
       <c r="H486" s="11"/>
@@ -16733,7 +16733,7 @@
       </c>
       <c r="B487" s="11"/>
       <c r="C487" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D487" s="12">
         <v>610</v>
@@ -16742,7 +16742,7 @@
         <v>610</v>
       </c>
       <c r="F487" s="16" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G487" s="11"/>
       <c r="H487" s="11"/>
@@ -16754,7 +16754,7 @@
       </c>
       <c r="B488" s="11"/>
       <c r="C488" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D488" s="12">
         <v>630</v>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="B489" s="11"/>
       <c r="C489" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D489" s="12">
         <v>630</v>
@@ -16782,7 +16782,7 @@
         <v>625</v>
       </c>
       <c r="F489" s="16" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G489" s="11"/>
       <c r="H489" s="11"/>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="B490" s="11"/>
       <c r="C490" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D490" s="12">
         <v>585</v>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="B491" s="11"/>
       <c r="C491" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D491" s="12">
         <v>610</v>
@@ -16832,7 +16832,7 @@
       </c>
       <c r="B492" s="11"/>
       <c r="C492" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D492" s="12">
         <v>590</v>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="B493" s="11"/>
       <c r="C493" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D493" s="12">
         <v>670</v>
@@ -16870,7 +16870,7 @@
       </c>
       <c r="B494" s="11"/>
       <c r="C494" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D494" s="12">
         <v>635</v>
@@ -16888,7 +16888,7 @@
         <v>492</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D495" s="5">
         <v>645</v>
@@ -16903,7 +16903,7 @@
       </c>
       <c r="B496" s="11"/>
       <c r="C496" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D496" s="12">
         <v>605</v>
@@ -16912,7 +16912,7 @@
         <v>605</v>
       </c>
       <c r="F496" s="16" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G496" s="11"/>
       <c r="H496" s="11"/>
@@ -16924,7 +16924,7 @@
       </c>
       <c r="B497" s="11"/>
       <c r="C497" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D497" s="12">
         <v>640</v>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="B498" s="11"/>
       <c r="C498" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D498" s="12">
         <v>610</v>
@@ -16962,7 +16962,7 @@
       </c>
       <c r="B499" s="11"/>
       <c r="C499" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D499" s="12">
         <v>650</v>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="B500" s="11"/>
       <c r="C500" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D500" s="12">
         <v>600</v>
@@ -17000,7 +17000,7 @@
       </c>
       <c r="B501" s="11"/>
       <c r="C501" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D501" s="12">
         <v>650</v>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="B502" s="11"/>
       <c r="C502" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D502" s="12">
         <v>640</v>
@@ -17028,7 +17028,7 @@
         <v>635</v>
       </c>
       <c r="F502" s="16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G502" s="11"/>
       <c r="H502" s="11"/>
@@ -17040,7 +17040,7 @@
       </c>
       <c r="B503" s="11"/>
       <c r="C503" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D503" s="12">
         <v>625</v>
@@ -17059,7 +17059,7 @@
       </c>
       <c r="B504" s="11"/>
       <c r="C504" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D504" s="12">
         <v>610</v>
@@ -17078,7 +17078,7 @@
       </c>
       <c r="B505" s="11"/>
       <c r="C505" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D505" s="12">
         <v>640</v>
@@ -17097,7 +17097,7 @@
       </c>
       <c r="B506" s="11"/>
       <c r="C506" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D506" s="12">
         <v>610</v>
@@ -17106,7 +17106,7 @@
         <v>610</v>
       </c>
       <c r="F506" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G506" s="11"/>
       <c r="H506" s="11"/>
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B507" s="11"/>
       <c r="C507" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D507" s="12">
         <v>660</v>
@@ -17127,7 +17127,7 @@
         <v>655</v>
       </c>
       <c r="F507" s="16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G507" s="11"/>
       <c r="H507" s="11"/>
@@ -17139,7 +17139,7 @@
       </c>
       <c r="B508" s="11"/>
       <c r="C508" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D508" s="12">
         <v>655</v>
@@ -17148,7 +17148,7 @@
         <v>645</v>
       </c>
       <c r="F508" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G508" s="11"/>
       <c r="H508" s="11"/>
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B509" s="11"/>
       <c r="C509" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D509" s="12">
         <v>625</v>
@@ -17179,7 +17179,7 @@
       </c>
       <c r="B510" s="11"/>
       <c r="C510" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D510" s="12">
         <v>605</v>
@@ -17188,7 +17188,7 @@
         <v>605</v>
       </c>
       <c r="F510" s="16" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G510" s="11"/>
       <c r="H510" s="11"/>
@@ -17200,7 +17200,7 @@
       </c>
       <c r="B511" s="11"/>
       <c r="C511" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D511" s="12">
         <v>650</v>
@@ -17209,7 +17209,7 @@
         <v>640</v>
       </c>
       <c r="F511" s="16" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G511" s="11"/>
       <c r="H511" s="11"/>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="B512" s="11"/>
       <c r="C512" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D512" s="12">
         <v>640</v>
@@ -17230,7 +17230,7 @@
         <v>635</v>
       </c>
       <c r="F512" s="16" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G512" s="11"/>
       <c r="H512" s="11"/>
@@ -17242,7 +17242,7 @@
       </c>
       <c r="B513" s="11"/>
       <c r="C513" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D513" s="12">
         <v>585</v>
@@ -17251,7 +17251,7 @@
         <v>585</v>
       </c>
       <c r="F513" s="16" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G513" s="11"/>
       <c r="H513" s="11"/>
@@ -17263,7 +17263,7 @@
       </c>
       <c r="B514" s="11"/>
       <c r="C514" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D514" s="12">
         <v>640</v>
@@ -17282,7 +17282,7 @@
       </c>
       <c r="B515" s="11"/>
       <c r="C515" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D515" s="12">
         <v>625</v>
@@ -17291,7 +17291,7 @@
         <v>615</v>
       </c>
       <c r="F515" s="16" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G515" s="11"/>
       <c r="H515" s="11"/>
@@ -17303,7 +17303,7 @@
       </c>
       <c r="B516" s="11"/>
       <c r="C516" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D516" s="12">
         <v>625</v>
@@ -17312,7 +17312,7 @@
         <v>615</v>
       </c>
       <c r="F516" s="16" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G516" s="11"/>
       <c r="H516" s="11"/>
@@ -17324,7 +17324,7 @@
       </c>
       <c r="B517" s="11"/>
       <c r="C517" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D517" s="12">
         <v>600</v>
@@ -17333,7 +17333,7 @@
         <v>600</v>
       </c>
       <c r="F517" s="16" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G517" s="11"/>
       <c r="H517" s="11"/>
@@ -17345,7 +17345,7 @@
       </c>
       <c r="B518" s="11"/>
       <c r="C518" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D518" s="12">
         <v>670</v>
@@ -17354,7 +17354,7 @@
         <v>660</v>
       </c>
       <c r="F518" s="16" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G518" s="11"/>
       <c r="H518" s="11"/>
@@ -17365,7 +17365,7 @@
         <v>516</v>
       </c>
       <c r="C519" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D519" s="7">
         <v>580</v>
@@ -17379,7 +17379,7 @@
         <v>517</v>
       </c>
       <c r="C520" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D520" s="7">
         <v>660</v>
@@ -17388,7 +17388,7 @@
         <v>650</v>
       </c>
       <c r="F520" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.2">
@@ -17397,7 +17397,7 @@
       </c>
       <c r="B521" s="11"/>
       <c r="C521" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D521" s="12">
         <v>590</v>
@@ -17406,7 +17406,7 @@
         <v>590</v>
       </c>
       <c r="F521" s="16" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G521" s="11"/>
       <c r="H521" s="11"/>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="B522" s="11"/>
       <c r="C522" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D522" s="12">
         <v>650</v>
@@ -17427,7 +17427,7 @@
         <v>640</v>
       </c>
       <c r="F522" s="16" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G522" s="11"/>
       <c r="H522" s="11"/>
@@ -17439,7 +17439,7 @@
       </c>
       <c r="B523" s="11"/>
       <c r="C523" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D523" s="12">
         <v>610</v>
@@ -17448,7 +17448,7 @@
         <v>610</v>
       </c>
       <c r="F523" s="16" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G523" s="11"/>
       <c r="H523" s="11"/>
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B524" s="11"/>
       <c r="C524" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D524" s="12">
         <v>670</v>
@@ -17469,7 +17469,7 @@
         <v>660</v>
       </c>
       <c r="F524" s="16" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G524" s="11"/>
       <c r="H524" s="11"/>
@@ -17481,7 +17481,7 @@
       </c>
       <c r="B525" s="11"/>
       <c r="C525" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D525" s="12">
         <v>620</v>
@@ -17490,7 +17490,7 @@
         <v>610</v>
       </c>
       <c r="F525" s="16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G525" s="11"/>
       <c r="H525" s="11"/>
@@ -17502,7 +17502,7 @@
       </c>
       <c r="B526" s="11"/>
       <c r="C526" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D526" s="12">
         <v>635</v>
@@ -17511,7 +17511,7 @@
         <v>625</v>
       </c>
       <c r="F526" s="16" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G526" s="11"/>
       <c r="H526" s="11"/>
@@ -17523,7 +17523,7 @@
       </c>
       <c r="B527" s="11"/>
       <c r="C527" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D527" s="12">
         <v>710</v>
@@ -17532,7 +17532,7 @@
         <v>700</v>
       </c>
       <c r="F527" s="16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G527" s="11"/>
       <c r="H527" s="11"/>
@@ -17544,7 +17544,7 @@
       </c>
       <c r="B528" s="11"/>
       <c r="C528" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D528" s="12">
         <v>610</v>
@@ -17563,7 +17563,7 @@
       </c>
       <c r="B529" s="11"/>
       <c r="C529" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D529" s="12">
         <v>710</v>
@@ -17572,7 +17572,7 @@
         <v>700</v>
       </c>
       <c r="F529" s="16" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G529" s="11"/>
       <c r="H529" s="11"/>
@@ -17584,7 +17584,7 @@
       </c>
       <c r="B530" s="11"/>
       <c r="C530" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D530" s="12">
         <v>630</v>
@@ -17593,7 +17593,7 @@
         <v>620</v>
       </c>
       <c r="F530" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G530" s="11"/>
       <c r="H530" s="11"/>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="B531" s="11"/>
       <c r="C531" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D531" s="12">
         <v>670</v>
@@ -17624,7 +17624,7 @@
       </c>
       <c r="B532" s="11"/>
       <c r="C532" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D532" s="12">
         <v>775</v>
@@ -17643,7 +17643,7 @@
       </c>
       <c r="B533" s="11"/>
       <c r="C533" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D533" s="12">
         <v>630</v>
@@ -17662,7 +17662,7 @@
       </c>
       <c r="B534" s="11"/>
       <c r="C534" s="11" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D534" s="12">
         <v>760</v>
@@ -17681,7 +17681,7 @@
       </c>
       <c r="B535" s="11"/>
       <c r="C535" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D535" s="12">
         <v>740</v>
@@ -17690,7 +17690,7 @@
         <v>735</v>
       </c>
       <c r="F535" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G535" s="11"/>
       <c r="H535" s="11"/>
@@ -17702,7 +17702,7 @@
       </c>
       <c r="B536" s="11"/>
       <c r="C536" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D536" s="12">
         <v>640</v>
@@ -17721,7 +17721,7 @@
       </c>
       <c r="B537" s="11"/>
       <c r="C537" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D537" s="12">
         <v>700</v>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="B538" s="11"/>
       <c r="C538" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D538" s="12">
         <v>720</v>
@@ -17749,7 +17749,7 @@
         <v>705</v>
       </c>
       <c r="F538" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G538" s="11"/>
       <c r="H538" s="11"/>
@@ -17761,7 +17761,7 @@
       </c>
       <c r="B539" s="11"/>
       <c r="C539" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D539" s="12">
         <v>720</v>
@@ -17770,7 +17770,7 @@
         <v>710</v>
       </c>
       <c r="F539" s="16" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G539" s="11"/>
       <c r="H539" s="11"/>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="B540" s="11"/>
       <c r="C540" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D540" s="12">
         <v>640</v>
@@ -17791,7 +17791,7 @@
         <v>630</v>
       </c>
       <c r="F540" s="16" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G540" s="11"/>
       <c r="H540" s="11"/>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="B541" s="11"/>
       <c r="C541" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D541" s="12">
         <v>730</v>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="B542" s="11"/>
       <c r="C542" s="11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D542" s="12">
         <v>625</v>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="B543" s="11"/>
       <c r="C543" s="11" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D543" s="12">
         <v>690</v>
@@ -17850,7 +17850,7 @@
         <v>680</v>
       </c>
       <c r="F543" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G543" s="11"/>
       <c r="H543" s="11"/>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="B544" s="11"/>
       <c r="C544" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D544" s="12">
         <v>630</v>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="B545" s="11"/>
       <c r="C545" s="11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D545" s="12">
         <v>725</v>
@@ -17900,7 +17900,7 @@
       </c>
       <c r="B546" s="11"/>
       <c r="C546" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D546" s="12">
         <v>670</v>
@@ -17919,7 +17919,7 @@
       </c>
       <c r="B547" s="11"/>
       <c r="C547" s="11" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D547" s="12">
         <v>670</v>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="B548" s="11"/>
       <c r="C548" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D548" s="12">
         <v>725</v>
@@ -17957,7 +17957,7 @@
       </c>
       <c r="B549" s="11"/>
       <c r="C549" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D549" s="12">
         <v>625</v>
@@ -17966,7 +17966,7 @@
         <v>615</v>
       </c>
       <c r="F549" s="16" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G549" s="11"/>
       <c r="H549" s="11"/>
@@ -17978,7 +17978,7 @@
       </c>
       <c r="B550" s="11"/>
       <c r="C550" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D550" s="12">
         <v>630</v>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="B551" s="11"/>
       <c r="C551" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D551" s="12">
         <v>690</v>
@@ -18006,7 +18006,7 @@
         <v>675</v>
       </c>
       <c r="F551" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G551" s="11"/>
       <c r="H551" s="11"/>
@@ -18018,7 +18018,7 @@
       </c>
       <c r="B552" s="11"/>
       <c r="C552" s="11" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D552" s="12">
         <v>700</v>
@@ -18027,7 +18027,7 @@
         <v>690</v>
       </c>
       <c r="F552" s="16" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G552" s="11"/>
       <c r="H552" s="11"/>
@@ -18039,7 +18039,7 @@
       </c>
       <c r="B553" s="11"/>
       <c r="C553" s="11" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D553" s="12">
         <v>630</v>
@@ -18058,7 +18058,7 @@
       </c>
       <c r="B554" s="11"/>
       <c r="C554" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D554" s="12">
         <v>660</v>
@@ -18067,7 +18067,7 @@
         <v>650</v>
       </c>
       <c r="F554" s="16" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G554" s="11"/>
       <c r="H554" s="11"/>
@@ -18079,13 +18079,13 @@
       </c>
       <c r="B555" s="11"/>
       <c r="C555" s="11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D555" s="12">
         <v>620</v>
       </c>
       <c r="E555" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F555" s="11"/>
       <c r="G555" s="11"/>
@@ -18098,7 +18098,7 @@
       </c>
       <c r="B556" s="11"/>
       <c r="C556" s="11" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D556" s="12">
         <v>650</v>
@@ -18107,7 +18107,7 @@
         <v>645</v>
       </c>
       <c r="F556" s="16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G556" s="11"/>
       <c r="H556" s="11"/>
@@ -18119,7 +18119,7 @@
       </c>
       <c r="B557" s="11"/>
       <c r="C557" s="11" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D557" s="12">
         <v>625</v>
@@ -18128,7 +18128,7 @@
         <v>620</v>
       </c>
       <c r="F557" s="16" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G557" s="11"/>
       <c r="H557" s="11"/>
@@ -18139,7 +18139,7 @@
         <v>555</v>
       </c>
       <c r="C558" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D558" s="7">
         <v>580</v>
@@ -18153,7 +18153,7 @@
         <v>556</v>
       </c>
       <c r="C559" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D559" s="7">
         <v>620</v>
@@ -18162,7 +18162,7 @@
         <v>615</v>
       </c>
       <c r="F559" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.2">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="B560" s="11"/>
       <c r="C560" s="11" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D560" s="12">
         <v>775</v>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B561" s="11"/>
       <c r="C561" s="11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D561" s="12">
         <v>635</v>
@@ -18199,7 +18199,7 @@
         <v>630</v>
       </c>
       <c r="F561" s="16" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G561" s="11"/>
       <c r="H561" s="11"/>
@@ -18211,7 +18211,7 @@
       </c>
       <c r="B562" s="11"/>
       <c r="C562" s="11" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D562" s="12">
         <v>610</v>
@@ -18230,7 +18230,7 @@
       </c>
       <c r="B563" s="11"/>
       <c r="C563" s="11" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D563" s="12">
         <v>640</v>
@@ -18249,7 +18249,7 @@
       </c>
       <c r="B564" s="11"/>
       <c r="C564" s="11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D564" s="12">
         <v>650</v>
@@ -18267,7 +18267,7 @@
         <v>562</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D565" s="5">
         <v>670</v>
@@ -18282,7 +18282,7 @@
       </c>
       <c r="B566" s="11"/>
       <c r="C566" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D566" s="12">
         <v>635</v>
@@ -18291,7 +18291,7 @@
         <v>625</v>
       </c>
       <c r="F566" s="16" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G566" s="11"/>
       <c r="H566" s="11"/>
@@ -18303,7 +18303,7 @@
       </c>
       <c r="B567" s="11"/>
       <c r="C567" s="11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D567" s="12">
         <v>600</v>
@@ -18322,7 +18322,7 @@
       </c>
       <c r="B568" s="11"/>
       <c r="C568" s="11" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D568" s="12">
         <v>645</v>
@@ -18331,7 +18331,7 @@
         <v>640</v>
       </c>
       <c r="F568" s="16" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G568" s="11"/>
       <c r="H568" s="11"/>
@@ -18343,7 +18343,7 @@
       </c>
       <c r="B569" s="11"/>
       <c r="C569" s="11" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D569" s="12">
         <v>630</v>
@@ -18352,7 +18352,7 @@
         <v>625</v>
       </c>
       <c r="F569" s="16" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G569" s="11"/>
       <c r="H569" s="11"/>
@@ -18364,7 +18364,7 @@
       </c>
       <c r="B570" s="11"/>
       <c r="C570" s="11" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D570" s="12">
         <v>660</v>
@@ -18373,7 +18373,7 @@
         <v>650</v>
       </c>
       <c r="F570" s="16" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G570" s="11"/>
       <c r="H570" s="11"/>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="B571" s="11"/>
       <c r="C571" s="11" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D571" s="12">
         <v>640</v>
@@ -18394,7 +18394,7 @@
         <v>635</v>
       </c>
       <c r="F571" s="16" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G571" s="11"/>
       <c r="H571" s="11"/>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="B572" s="11"/>
       <c r="C572" s="11" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D572" s="12">
         <v>690</v>
@@ -18415,7 +18415,7 @@
         <v>680</v>
       </c>
       <c r="F572" s="16" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G572" s="11"/>
       <c r="H572" s="11"/>
@@ -18427,7 +18427,7 @@
       </c>
       <c r="B573" s="11"/>
       <c r="C573" s="11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D573" s="12">
         <v>640</v>
@@ -18446,7 +18446,7 @@
       </c>
       <c r="B574" s="11"/>
       <c r="C574" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D574" s="12">
         <v>645</v>
@@ -18455,7 +18455,7 @@
         <v>640</v>
       </c>
       <c r="F574" s="16" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G574" s="11"/>
       <c r="H574" s="11"/>
@@ -18467,7 +18467,7 @@
       </c>
       <c r="B575" s="11"/>
       <c r="C575" s="11" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D575" s="12">
         <v>670</v>
@@ -18476,7 +18476,7 @@
         <v>640</v>
       </c>
       <c r="F575" s="16" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G575" s="11"/>
       <c r="H575" s="11"/>
@@ -18488,7 +18488,7 @@
       </c>
       <c r="B576" s="11"/>
       <c r="C576" s="11" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D576" s="12">
         <v>690</v>
@@ -18507,7 +18507,7 @@
       </c>
       <c r="B577" s="11"/>
       <c r="C577" s="11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D577" s="12">
         <v>675</v>
@@ -18516,7 +18516,7 @@
         <v>665</v>
       </c>
       <c r="F577" s="16" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G577" s="11"/>
       <c r="H577" s="11"/>
@@ -18527,7 +18527,7 @@
         <v>575</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D578" s="7">
         <v>585</v>
@@ -18542,7 +18542,7 @@
       </c>
       <c r="B579" s="11"/>
       <c r="C579" s="11" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D579" s="12">
         <v>580</v>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="B580" s="11"/>
       <c r="C580" s="11" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D580" s="12">
         <v>580</v>
@@ -18580,7 +18580,7 @@
       </c>
       <c r="B581" s="11"/>
       <c r="C581" s="11" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D581" s="12">
         <v>580</v>
@@ -18589,7 +18589,7 @@
         <v>580</v>
       </c>
       <c r="F581" s="16" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G581" s="11"/>
       <c r="H581" s="11"/>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="B582" s="11"/>
       <c r="C582" s="11" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D582" s="12">
         <v>635</v>
@@ -18620,7 +18620,7 @@
       </c>
       <c r="B583" s="11"/>
       <c r="C583" s="11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D583" s="12">
         <v>610</v>
@@ -18629,7 +18629,7 @@
         <v>600</v>
       </c>
       <c r="F583" s="20" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G583" s="11"/>
       <c r="H583" s="11"/>
@@ -18641,7 +18641,7 @@
       </c>
       <c r="B584" s="11"/>
       <c r="C584" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D584" s="12">
         <v>605</v>
@@ -18650,11 +18650,11 @@
         <v>600</v>
       </c>
       <c r="F584" s="20" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G584" s="11"/>
       <c r="H584" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I584" s="11"/>
     </row>
@@ -18664,7 +18664,7 @@
       </c>
       <c r="B585" s="11"/>
       <c r="C585" s="11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D585" s="12">
         <v>690</v>
@@ -18682,7 +18682,7 @@
         <v>583</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D586" s="5">
         <v>610</v>
@@ -18696,7 +18696,7 @@
         <v>584</v>
       </c>
       <c r="C587" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D587" s="14">
         <v>600</v>
@@ -18710,7 +18710,7 @@
         <v>585</v>
       </c>
       <c r="C588" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D588" s="14">
         <v>620</v>
@@ -18724,7 +18724,7 @@
         <v>586</v>
       </c>
       <c r="C589" s="11" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D589" s="14">
         <v>620</v>
@@ -18738,7 +18738,7 @@
         <v>587</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D590" s="5">
         <v>680</v>
@@ -18747,7 +18747,7 @@
         <v>670</v>
       </c>
       <c r="F590" s="10" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
@@ -18755,7 +18755,7 @@
         <v>588</v>
       </c>
       <c r="C591" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D591" s="14">
         <v>745</v>
@@ -18769,7 +18769,7 @@
         <v>589</v>
       </c>
       <c r="C592" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D592" s="14">
         <v>725</v>
@@ -18778,7 +18778,7 @@
         <v>715</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
@@ -18786,7 +18786,7 @@
         <v>590</v>
       </c>
       <c r="C593" s="11" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D593" s="14">
         <v>740</v>
@@ -18795,7 +18795,7 @@
         <v>730</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
@@ -18803,7 +18803,7 @@
         <v>591</v>
       </c>
       <c r="C594" s="11" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D594" s="14">
         <v>700</v>
@@ -18812,7 +18812,7 @@
         <v>690</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
@@ -18820,7 +18820,7 @@
         <v>592</v>
       </c>
       <c r="C595" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D595" s="14">
         <v>750</v>
@@ -18829,7 +18829,7 @@
         <v>735</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.2">
@@ -18837,7 +18837,7 @@
         <v>593</v>
       </c>
       <c r="C596" s="11" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D596" s="14">
         <v>600</v>
@@ -18846,7 +18846,7 @@
         <v>600</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.2">
@@ -18854,7 +18854,7 @@
         <v>594</v>
       </c>
       <c r="C597" s="11" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D597" s="14">
         <v>760</v>
@@ -18863,7 +18863,7 @@
         <v>750</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
@@ -18871,7 +18871,7 @@
         <v>595</v>
       </c>
       <c r="C598" s="11" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D598" s="14">
         <v>600</v>
@@ -18880,7 +18880,7 @@
         <v>600</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.2">
@@ -18888,7 +18888,7 @@
         <v>597</v>
       </c>
       <c r="C599" s="11" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D599" s="14">
         <v>720</v>
@@ -18897,7 +18897,7 @@
         <v>710</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="600" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -18905,7 +18905,7 @@
         <v>598</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D600" s="5">
         <v>655</v>
@@ -18914,7 +18914,7 @@
         <v>640</v>
       </c>
       <c r="F600" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="601" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -18922,7 +18922,7 @@
         <v>599</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D601" s="5">
         <v>750</v>
@@ -18936,7 +18936,7 @@
         <v>600</v>
       </c>
       <c r="C602" s="11" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D602" s="14">
         <v>760</v>
@@ -18945,7 +18945,7 @@
         <v>740</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
@@ -18953,7 +18953,7 @@
         <v>601</v>
       </c>
       <c r="C603" s="11" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D603" s="14">
         <v>630</v>
@@ -18967,7 +18967,7 @@
         <v>602</v>
       </c>
       <c r="C604" s="11" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D604" s="14">
         <v>730</v>
@@ -18976,7 +18976,7 @@
         <v>715</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.2">
@@ -18984,7 +18984,7 @@
         <v>603</v>
       </c>
       <c r="C605" s="11" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D605" s="14">
         <v>610</v>
@@ -18993,7 +18993,7 @@
         <v>600</v>
       </c>
       <c r="F605" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.2">
@@ -19001,7 +19001,7 @@
         <v>604</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D606" s="14">
         <v>730</v>
@@ -19015,7 +19015,7 @@
         <v>605</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D607" s="5">
         <v>685</v>
@@ -19029,7 +19029,7 @@
         <v>606</v>
       </c>
       <c r="C608" s="11" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D608" s="14">
         <v>625</v>
@@ -19038,7 +19038,7 @@
         <v>615</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
@@ -19046,7 +19046,7 @@
         <v>607</v>
       </c>
       <c r="C609" s="11" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D609" s="14">
         <v>645</v>
@@ -19055,7 +19055,7 @@
         <v>635</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
@@ -19063,7 +19063,7 @@
         <v>608</v>
       </c>
       <c r="C610" s="11" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D610" s="14">
         <v>600</v>
@@ -19077,7 +19077,7 @@
         <v>609</v>
       </c>
       <c r="C611" s="11" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D611" s="14">
         <v>660</v>
@@ -19086,7 +19086,7 @@
         <v>655</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.2">
@@ -19094,7 +19094,7 @@
         <v>610</v>
       </c>
       <c r="C612" s="11" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D612" s="14">
         <v>590</v>
@@ -19103,7 +19103,7 @@
         <v>590</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
@@ -19111,7 +19111,7 @@
         <v>611</v>
       </c>
       <c r="C613" s="11" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D613" s="14">
         <v>620</v>
@@ -19120,7 +19120,7 @@
         <v>600</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
@@ -19128,7 +19128,7 @@
         <v>612</v>
       </c>
       <c r="C614" s="11" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D614" s="14">
         <v>640</v>
@@ -19137,7 +19137,7 @@
         <v>630</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
@@ -19145,7 +19145,7 @@
         <v>613</v>
       </c>
       <c r="C615" s="11" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D615" s="14">
         <v>640</v>
@@ -19154,7 +19154,7 @@
         <v>630</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
@@ -19162,7 +19162,7 @@
         <v>614</v>
       </c>
       <c r="C616" s="11" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D616" s="14">
         <v>640</v>
@@ -19176,7 +19176,7 @@
         <v>615</v>
       </c>
       <c r="C617" s="11" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D617" s="14">
         <v>615</v>
@@ -19185,7 +19185,7 @@
         <v>605</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
@@ -19193,7 +19193,7 @@
         <v>616</v>
       </c>
       <c r="C618" s="11" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D618" s="14">
         <v>625</v>
@@ -19207,7 +19207,7 @@
         <v>617</v>
       </c>
       <c r="C619" s="11" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D619" s="14">
         <v>625</v>
@@ -19221,7 +19221,7 @@
         <v>618</v>
       </c>
       <c r="C620" s="11" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D620" s="14">
         <v>600</v>
@@ -19230,7 +19230,7 @@
         <v>600</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
@@ -19238,7 +19238,7 @@
         <v>619</v>
       </c>
       <c r="C621" s="11" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D621" s="14">
         <v>625</v>
@@ -19252,7 +19252,7 @@
         <v>620</v>
       </c>
       <c r="C622" s="11" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D622" s="14">
         <v>600</v>
@@ -19266,7 +19266,7 @@
         <v>621</v>
       </c>
       <c r="C623" s="11" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D623" s="14">
         <v>610</v>
@@ -19275,7 +19275,7 @@
         <v>600</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
@@ -19283,7 +19283,7 @@
         <v>622</v>
       </c>
       <c r="C624" s="11" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D624" s="14">
         <v>635</v>
@@ -19292,7 +19292,7 @@
         <v>620</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
@@ -19300,7 +19300,7 @@
         <v>623</v>
       </c>
       <c r="C625" s="11" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D625" s="14">
         <v>600</v>
@@ -19314,7 +19314,7 @@
         <v>624</v>
       </c>
       <c r="C626" s="11" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D626" s="14">
         <v>605</v>
@@ -19328,7 +19328,7 @@
         <v>625</v>
       </c>
       <c r="C627" s="11" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D627" s="14">
         <v>635</v>
@@ -19342,7 +19342,7 @@
         <v>626</v>
       </c>
       <c r="C628" s="11" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D628" s="14">
         <v>605</v>
@@ -19351,7 +19351,7 @@
         <v>600</v>
       </c>
       <c r="F628" s="2" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
@@ -19359,7 +19359,7 @@
         <v>627</v>
       </c>
       <c r="C629" s="11" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D629" s="14">
         <v>650</v>
@@ -19368,7 +19368,7 @@
         <v>640</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
@@ -19376,7 +19376,7 @@
         <v>628</v>
       </c>
       <c r="C630" s="11" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D630" s="14">
         <v>640</v>
@@ -19390,7 +19390,7 @@
         <v>629</v>
       </c>
       <c r="C631" s="11" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D631" s="14">
         <v>600</v>
@@ -19404,7 +19404,7 @@
         <v>630</v>
       </c>
       <c r="C632" s="11" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D632" s="14">
         <v>605</v>
@@ -19418,7 +19418,7 @@
         <v>631</v>
       </c>
       <c r="C633" s="11" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D633" s="14">
         <v>640</v>
@@ -19427,7 +19427,7 @@
         <v>635</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
@@ -19435,7 +19435,7 @@
         <v>632</v>
       </c>
       <c r="C634" s="11" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D634" s="14">
         <v>635</v>
@@ -19449,7 +19449,7 @@
         <v>633</v>
       </c>
       <c r="C635" s="11" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D635" s="14">
         <v>600</v>
@@ -19463,7 +19463,7 @@
         <v>634</v>
       </c>
       <c r="C636" s="11" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D636" s="14">
         <v>605</v>
@@ -19472,7 +19472,7 @@
         <v>600</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
@@ -19480,7 +19480,7 @@
         <v>635</v>
       </c>
       <c r="C637" s="11" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D637" s="14">
         <v>630</v>
@@ -19489,7 +19489,7 @@
         <v>620</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
@@ -19497,7 +19497,7 @@
         <v>636</v>
       </c>
       <c r="C638" s="11" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D638" s="14">
         <v>620</v>
@@ -19506,7 +19506,7 @@
         <v>610</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
@@ -19514,7 +19514,7 @@
         <v>637</v>
       </c>
       <c r="C639" s="11" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D639" s="14">
         <v>625</v>
@@ -19528,7 +19528,7 @@
         <v>638</v>
       </c>
       <c r="C640" s="11" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D640" s="14">
         <v>680</v>
@@ -19642,7 +19642,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D6" s="1">
         <v>560</v>
@@ -19651,7 +19651,7 @@
         <v>560</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -19659,7 +19659,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" s="1">
         <v>685</v>
@@ -19674,7 +19674,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" s="1">
         <v>645</v>
@@ -19689,7 +19689,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D9" s="22">
         <v>635</v>
@@ -19703,7 +19703,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" s="7">
         <v>645</v>
@@ -19718,7 +19718,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="1">
         <v>580</v>
@@ -19727,7 +19727,7 @@
         <v>570</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -19735,7 +19735,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1">
         <v>660</v>
@@ -19749,7 +19749,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="1">
         <v>640</v>
@@ -19758,7 +19758,7 @@
         <v>630</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -19766,7 +19766,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D14" s="1">
         <v>700</v>
@@ -19781,7 +19781,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D15" s="12">
         <v>600</v>
@@ -19795,7 +19795,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D16" s="1">
         <v>645</v>
@@ -19809,7 +19809,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D17" s="7">
         <v>690</v>
@@ -19818,7 +19818,7 @@
         <v>670</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -19826,7 +19826,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D18" s="5">
         <v>675</v>
@@ -19840,7 +19840,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" s="1">
         <v>660</v>
@@ -19855,7 +19855,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D20" s="7">
         <v>575</v>
@@ -19864,7 +19864,7 @@
         <v>570</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -19872,7 +19872,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D21" s="1">
         <v>570</v>
@@ -19887,7 +19887,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D22" s="1">
         <v>590</v>
@@ -19896,7 +19896,7 @@
         <v>580</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -19904,7 +19904,7 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D23" s="1">
         <v>600</v>
@@ -19913,7 +19913,7 @@
         <v>580</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -19921,7 +19921,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D24" s="1">
         <v>730</v>
@@ -19930,7 +19930,7 @@
         <v>710</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -19938,7 +19938,7 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D25" s="1">
         <v>625</v>
@@ -19953,7 +19953,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D26" s="7">
         <v>685</v>
@@ -19962,7 +19962,7 @@
         <v>670</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -19970,7 +19970,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="7">
         <v>640</v>
@@ -19985,7 +19985,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D28" s="1">
         <v>620</v>
@@ -19994,7 +19994,7 @@
         <v>610</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -20002,7 +20002,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D29" s="1">
         <v>580</v>
@@ -20017,7 +20017,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D30" s="1">
         <v>680</v>
@@ -20032,7 +20032,7 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D31" s="1">
         <v>630</v>
@@ -20041,7 +20041,7 @@
         <v>610</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -20049,7 +20049,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D32" s="7">
         <v>575</v>
@@ -20063,7 +20063,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D33" s="1">
         <v>575</v>
@@ -20079,7 +20079,7 @@
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D34" s="7">
         <v>670</v>
@@ -20093,7 +20093,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D35" s="1">
         <v>570</v>
@@ -20102,7 +20102,7 @@
         <v>570</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -20110,7 +20110,7 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D36" s="1">
         <v>740</v>
@@ -20119,7 +20119,7 @@
         <v>730</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -20127,7 +20127,7 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D37" s="1">
         <v>600</v>
@@ -20136,7 +20136,7 @@
         <v>730</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -20144,7 +20144,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D38" s="1">
         <v>610</v>
@@ -20159,7 +20159,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D39" s="1">
         <v>620</v>
@@ -20168,7 +20168,7 @@
         <v>600</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -20176,7 +20176,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D40" s="5">
         <v>665</v>
@@ -20190,7 +20190,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D41" s="5">
         <v>660</v>
@@ -20205,7 +20205,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D42" s="1">
         <v>665</v>
@@ -20220,7 +20220,7 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D43" s="1">
         <v>680</v>
@@ -20234,7 +20234,7 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D44" s="1">
         <v>645</v>
@@ -20248,7 +20248,7 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D45" s="1">
         <v>605</v>
@@ -20265,7 +20265,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D46" s="1">
         <v>645</v>
@@ -20279,7 +20279,7 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D47" s="1">
         <v>570</v>
@@ -20294,7 +20294,7 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D48" s="1">
         <v>625</v>
@@ -20309,7 +20309,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D49" s="7">
         <v>635</v>
@@ -20318,7 +20318,7 @@
         <v>630</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -20326,7 +20326,7 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D50" s="1">
         <v>575</v>
@@ -20340,7 +20340,7 @@
         <v>46</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D51" s="5">
         <v>590</v>
@@ -20349,7 +20349,7 @@
         <v>580</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -20357,7 +20357,7 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D52" s="3">
         <v>610</v>
@@ -20371,7 +20371,7 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D53" s="3">
         <v>620</v>
@@ -20386,7 +20386,7 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D54" s="3">
         <v>695</v>
@@ -20400,7 +20400,7 @@
         <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D55" s="1">
         <v>640</v>
@@ -20414,7 +20414,7 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D56" s="1">
         <v>610</v>
@@ -20428,7 +20428,7 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D57" s="1">
         <v>685</v>
@@ -20442,7 +20442,7 @@
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D58" s="1">
         <v>625</v>
@@ -20451,7 +20451,7 @@
         <v>615</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -20459,7 +20459,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D59" s="5">
         <v>630</v>
@@ -20474,7 +20474,7 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D60" s="1">
         <v>580</v>
@@ -20489,7 +20489,7 @@
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D61" s="1">
         <v>655</v>
@@ -20503,7 +20503,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D62" s="5">
         <v>595</v>
@@ -20517,7 +20517,7 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D63" s="1">
         <v>600</v>
@@ -20526,7 +20526,7 @@
         <v>590</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -20534,7 +20534,7 @@
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D64" s="1">
         <v>590</v>
@@ -20543,7 +20543,7 @@
         <v>580</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -20551,7 +20551,7 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D65" s="1">
         <v>725</v>
@@ -20565,7 +20565,7 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D66" s="1">
         <v>720</v>
@@ -20574,7 +20574,7 @@
         <v>700</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -20582,7 +20582,7 @@
         <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D67" s="1">
         <v>600</v>
@@ -20591,7 +20591,7 @@
         <v>585</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -20599,7 +20599,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D68" s="7">
         <v>645</v>
@@ -20608,7 +20608,7 @@
         <v>640</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -20616,7 +20616,7 @@
         <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D69" s="1">
         <v>585</v>
@@ -20625,7 +20625,7 @@
         <v>575</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -20633,7 +20633,7 @@
         <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D70" s="1">
         <v>615</v>
@@ -20642,7 +20642,7 @@
         <v>610</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -20650,7 +20650,7 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D71" s="1">
         <v>620</v>
@@ -20659,7 +20659,7 @@
         <v>610</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -20667,7 +20667,7 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D72" s="1">
         <v>610</v>
@@ -20682,7 +20682,7 @@
         <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D73" s="1">
         <v>650</v>
@@ -20697,7 +20697,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D74" s="5">
         <v>615</v>
@@ -20712,7 +20712,7 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D75" s="1">
         <v>640</v>
@@ -20727,7 +20727,7 @@
         <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D76" s="1">
         <v>615</v>
@@ -20736,7 +20736,7 @@
         <v>600</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -20744,7 +20744,7 @@
         <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D77" s="1">
         <v>600</v>
@@ -20753,7 +20753,7 @@
         <v>590</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -20761,7 +20761,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D78" s="12">
         <v>635</v>
@@ -20775,7 +20775,7 @@
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D79" s="1">
         <v>700</v>
@@ -20790,7 +20790,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D80" s="7">
         <v>680</v>
@@ -20805,7 +20805,7 @@
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D81" s="1">
         <v>620</v>
@@ -20814,7 +20814,7 @@
         <v>610</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -20822,7 +20822,7 @@
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D82" s="1">
         <v>645</v>
@@ -20831,7 +20831,7 @@
         <v>635</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -20839,7 +20839,7 @@
         <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D83" s="1">
         <v>600</v>
@@ -20853,7 +20853,7 @@
         <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D84" s="1">
         <v>615</v>
@@ -20867,7 +20867,7 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D85" s="1">
         <v>580</v>
@@ -20876,7 +20876,7 @@
         <v>570</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -20884,7 +20884,7 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D86" s="1">
         <v>640</v>
@@ -20899,7 +20899,7 @@
         <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D87" s="1">
         <v>575</v>
@@ -20908,7 +20908,7 @@
         <v>570</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -20916,7 +20916,7 @@
         <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D88" s="1">
         <v>580</v>
@@ -20931,7 +20931,7 @@
         <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D89" s="1">
         <v>690</v>
@@ -20940,7 +20940,7 @@
         <v>670</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -20948,7 +20948,7 @@
         <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D90" s="1">
         <v>575</v>
@@ -20957,7 +20957,7 @@
         <v>570</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/per-github/project-tennis/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE95B3-40D9-FD42-80F7-181C73D8DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF8CAB-E48D-1B40-8262-64D72DD15352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25320" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="1143">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -4289,28 +4289,6 @@
   </si>
   <si>
     <r>
-      <t>Tu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>ấ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">n 276 </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>C</t>
     </r>
     <r>
@@ -6404,6 +6382,12 @@
   </si>
   <si>
     <t>La Costa</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn</t>
+  </si>
+  <si>
+    <t>Nam Sân Bay</t>
   </si>
 </sst>
 </file>
@@ -6830,10 +6814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I640"/>
+  <dimension ref="A1:I641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
+      <selection activeCell="E639" sqref="E639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7014,10 +6998,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D10" s="7">
         <v>600</v>
@@ -7110,7 +7094,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D14" s="7">
         <v>650</v>
@@ -7381,7 +7365,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D26" s="22">
         <v>640</v>
@@ -7470,7 +7454,7 @@
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D30" s="12">
         <v>605</v>
@@ -7602,7 +7586,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D36" s="5">
         <v>605</v>
@@ -7643,7 +7627,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D38" s="7">
         <v>615</v>
@@ -8046,7 +8030,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D58" s="5">
         <v>650</v>
@@ -9068,7 +9052,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D107" s="7">
         <v>605</v>
@@ -9309,7 +9293,7 @@
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11" t="s">
-        <v>975</v>
+        <v>1141</v>
       </c>
       <c r="D119" s="12">
         <v>600</v>
@@ -9332,7 +9316,7 @@
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D120" s="12">
         <v>600</v>
@@ -9376,7 +9360,7 @@
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D122" s="12">
         <v>645</v>
@@ -9399,7 +9383,7 @@
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D123" s="12">
         <v>590</v>
@@ -9418,7 +9402,7 @@
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D124" s="12">
         <v>615</v>
@@ -9437,7 +9421,7 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D125" s="12">
         <v>635</v>
@@ -9499,7 +9483,7 @@
         <v>123</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D128" s="5">
         <v>635</v>
@@ -9517,7 +9501,7 @@
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D129" s="12">
         <v>610</v>
@@ -9555,7 +9539,7 @@
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D131" s="12">
         <v>680</v>
@@ -9574,7 +9558,7 @@
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D132" s="12">
         <v>590</v>
@@ -9616,7 +9600,7 @@
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D134" s="12">
         <v>635</v>
@@ -9637,7 +9621,7 @@
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="11" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D135" s="12">
         <v>610</v>
@@ -9754,7 +9738,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D141" s="7">
         <v>765</v>
@@ -9772,7 +9756,7 @@
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D142" s="12">
         <v>785</v>
@@ -9810,7 +9794,7 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D144" s="12">
         <v>985</v>
@@ -9850,7 +9834,7 @@
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D146" s="12">
         <v>850</v>
@@ -9888,7 +9872,7 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D148" s="12">
         <v>790</v>
@@ -9906,7 +9890,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D149" s="7">
         <v>760</v>
@@ -9961,7 +9945,7 @@
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D152" s="12">
         <v>840</v>
@@ -9982,7 +9966,7 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="11" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D153" s="12">
         <v>785</v>
@@ -10001,7 +9985,7 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D154" s="12">
         <v>880</v>
@@ -10041,7 +10025,7 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D156" s="12">
         <v>830</v>
@@ -10062,7 +10046,7 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D157" s="12">
         <v>935</v>
@@ -10121,7 +10105,7 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D160" s="12">
         <v>920</v>
@@ -10180,7 +10164,7 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D163" s="12">
         <v>810</v>
@@ -10201,7 +10185,7 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D164" s="12">
         <v>755</v>
@@ -10222,7 +10206,7 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D165" s="12">
         <v>605</v>
@@ -10241,7 +10225,7 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D166" s="12">
         <v>990</v>
@@ -10280,7 +10264,7 @@
         <v>163</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D168" s="7">
         <v>735</v>
@@ -10298,7 +10282,7 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D169" s="12">
         <v>630</v>
@@ -10340,7 +10324,7 @@
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D171" s="12">
         <v>750</v>
@@ -10422,7 +10406,7 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D175" s="12">
         <v>910</v>
@@ -10462,7 +10446,7 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D177" s="12">
         <v>930</v>
@@ -10483,7 +10467,7 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D178" s="12">
         <v>955</v>
@@ -10504,7 +10488,7 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D179" s="12">
         <v>1010</v>
@@ -10525,7 +10509,7 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D180" s="12">
         <v>670</v>
@@ -10565,7 +10549,7 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D182" s="12">
         <v>890</v>
@@ -10584,7 +10568,7 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D183" s="12">
         <v>815</v>
@@ -10603,7 +10587,7 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D184" s="12">
         <v>835</v>
@@ -10624,7 +10608,7 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D185" s="12">
         <v>735</v>
@@ -10645,7 +10629,7 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D186" s="12">
         <v>780</v>
@@ -10664,7 +10648,7 @@
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D187" s="12">
         <v>810</v>
@@ -10683,7 +10667,7 @@
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D188" s="12">
         <v>880</v>
@@ -10704,7 +10688,7 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D189" s="12">
         <v>885</v>
@@ -10724,7 +10708,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D190" s="7">
         <v>695</v>
@@ -10758,7 +10742,7 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D192" s="12">
         <v>880</v>
@@ -10779,7 +10763,7 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D193" s="12">
         <v>745</v>
@@ -10838,7 +10822,7 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D196" s="12">
         <v>790</v>
@@ -10874,7 +10858,7 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D198" s="12">
         <v>740</v>
@@ -10893,7 +10877,7 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D199" s="12">
         <v>730</v>
@@ -10912,7 +10896,7 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D200" s="12">
         <v>745</v>
@@ -10945,7 +10929,7 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D202" s="12">
         <v>660</v>
@@ -11022,7 +11006,7 @@
         <v>201</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D206" s="7">
         <v>690</v>
@@ -11056,7 +11040,7 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D208" s="12">
         <v>760</v>
@@ -11075,7 +11059,7 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="11" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D209" s="12">
         <v>725</v>
@@ -12107,7 +12091,7 @@
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="11" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D256" s="12">
         <v>645</v>
@@ -16247,7 +16231,7 @@
       </c>
       <c r="B462" s="11"/>
       <c r="C462" s="11" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D462" s="12">
         <v>615</v>
@@ -16256,7 +16240,7 @@
         <v>615</v>
       </c>
       <c r="F462" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G462" s="11"/>
       <c r="H462" s="11"/>
@@ -17662,7 +17646,7 @@
       </c>
       <c r="B534" s="11"/>
       <c r="C534" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D534" s="12">
         <v>760</v>
@@ -18682,7 +18666,7 @@
         <v>583</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D586" s="5">
         <v>610</v>
@@ -18696,7 +18680,7 @@
         <v>584</v>
       </c>
       <c r="C587" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D587" s="14">
         <v>600</v>
@@ -18710,7 +18694,7 @@
         <v>585</v>
       </c>
       <c r="C588" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D588" s="14">
         <v>620</v>
@@ -18724,7 +18708,7 @@
         <v>586</v>
       </c>
       <c r="C589" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D589" s="14">
         <v>620</v>
@@ -18738,7 +18722,7 @@
         <v>587</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D590" s="5">
         <v>680</v>
@@ -18747,7 +18731,7 @@
         <v>670</v>
       </c>
       <c r="F590" s="10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
@@ -18755,7 +18739,7 @@
         <v>588</v>
       </c>
       <c r="C591" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D591" s="14">
         <v>745</v>
@@ -18769,7 +18753,7 @@
         <v>589</v>
       </c>
       <c r="C592" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D592" s="14">
         <v>725</v>
@@ -18778,7 +18762,7 @@
         <v>715</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
@@ -18786,7 +18770,7 @@
         <v>590</v>
       </c>
       <c r="C593" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D593" s="14">
         <v>740</v>
@@ -18795,7 +18779,7 @@
         <v>730</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
@@ -18803,7 +18787,7 @@
         <v>591</v>
       </c>
       <c r="C594" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D594" s="14">
         <v>700</v>
@@ -18812,7 +18796,7 @@
         <v>690</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
@@ -18820,7 +18804,7 @@
         <v>592</v>
       </c>
       <c r="C595" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D595" s="14">
         <v>750</v>
@@ -18829,7 +18813,7 @@
         <v>735</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.2">
@@ -18837,7 +18821,7 @@
         <v>593</v>
       </c>
       <c r="C596" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D596" s="14">
         <v>600</v>
@@ -18846,7 +18830,7 @@
         <v>600</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.2">
@@ -18854,7 +18838,7 @@
         <v>594</v>
       </c>
       <c r="C597" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D597" s="14">
         <v>760</v>
@@ -18863,7 +18847,7 @@
         <v>750</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
@@ -18871,7 +18855,7 @@
         <v>595</v>
       </c>
       <c r="C598" s="11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D598" s="14">
         <v>600</v>
@@ -18880,7 +18864,7 @@
         <v>600</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.2">
@@ -18888,7 +18872,7 @@
         <v>597</v>
       </c>
       <c r="C599" s="11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D599" s="14">
         <v>720</v>
@@ -18897,7 +18881,7 @@
         <v>710</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="600" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -18905,7 +18889,7 @@
         <v>598</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D600" s="5">
         <v>655</v>
@@ -18922,7 +18906,7 @@
         <v>599</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D601" s="5">
         <v>750</v>
@@ -18936,7 +18920,7 @@
         <v>600</v>
       </c>
       <c r="C602" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D602" s="14">
         <v>760</v>
@@ -18945,7 +18929,7 @@
         <v>740</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
@@ -18953,7 +18937,7 @@
         <v>601</v>
       </c>
       <c r="C603" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D603" s="14">
         <v>630</v>
@@ -18967,7 +18951,7 @@
         <v>602</v>
       </c>
       <c r="C604" s="11" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D604" s="14">
         <v>730</v>
@@ -18976,7 +18960,7 @@
         <v>715</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.2">
@@ -18984,7 +18968,7 @@
         <v>603</v>
       </c>
       <c r="C605" s="11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D605" s="14">
         <v>610</v>
@@ -18993,7 +18977,7 @@
         <v>600</v>
       </c>
       <c r="F605" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.2">
@@ -19001,7 +18985,7 @@
         <v>604</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D606" s="14">
         <v>730</v>
@@ -19015,7 +18999,7 @@
         <v>605</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D607" s="5">
         <v>685</v>
@@ -19029,7 +19013,7 @@
         <v>606</v>
       </c>
       <c r="C608" s="11" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D608" s="14">
         <v>625</v>
@@ -19038,7 +19022,7 @@
         <v>615</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
@@ -19046,7 +19030,7 @@
         <v>607</v>
       </c>
       <c r="C609" s="11" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D609" s="14">
         <v>645</v>
@@ -19055,7 +19039,7 @@
         <v>635</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
@@ -19063,7 +19047,7 @@
         <v>608</v>
       </c>
       <c r="C610" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D610" s="14">
         <v>600</v>
@@ -19077,7 +19061,7 @@
         <v>609</v>
       </c>
       <c r="C611" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D611" s="14">
         <v>660</v>
@@ -19086,7 +19070,7 @@
         <v>655</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.2">
@@ -19094,7 +19078,7 @@
         <v>610</v>
       </c>
       <c r="C612" s="11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D612" s="14">
         <v>590</v>
@@ -19103,7 +19087,7 @@
         <v>590</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
@@ -19111,7 +19095,7 @@
         <v>611</v>
       </c>
       <c r="C613" s="11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D613" s="14">
         <v>620</v>
@@ -19120,7 +19104,7 @@
         <v>600</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
@@ -19128,7 +19112,7 @@
         <v>612</v>
       </c>
       <c r="C614" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D614" s="14">
         <v>640</v>
@@ -19137,7 +19121,7 @@
         <v>630</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
@@ -19145,7 +19129,7 @@
         <v>613</v>
       </c>
       <c r="C615" s="11" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D615" s="14">
         <v>640</v>
@@ -19154,7 +19138,7 @@
         <v>630</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
@@ -19162,7 +19146,7 @@
         <v>614</v>
       </c>
       <c r="C616" s="11" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D616" s="14">
         <v>640</v>
@@ -19176,7 +19160,7 @@
         <v>615</v>
       </c>
       <c r="C617" s="11" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D617" s="14">
         <v>615</v>
@@ -19185,7 +19169,7 @@
         <v>605</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
@@ -19193,7 +19177,7 @@
         <v>616</v>
       </c>
       <c r="C618" s="11" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D618" s="14">
         <v>625</v>
@@ -19207,7 +19191,7 @@
         <v>617</v>
       </c>
       <c r="C619" s="11" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D619" s="14">
         <v>625</v>
@@ -19221,7 +19205,7 @@
         <v>618</v>
       </c>
       <c r="C620" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D620" s="14">
         <v>600</v>
@@ -19230,7 +19214,7 @@
         <v>600</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
@@ -19238,7 +19222,7 @@
         <v>619</v>
       </c>
       <c r="C621" s="11" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D621" s="14">
         <v>625</v>
@@ -19252,7 +19236,7 @@
         <v>620</v>
       </c>
       <c r="C622" s="11" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D622" s="14">
         <v>600</v>
@@ -19266,7 +19250,7 @@
         <v>621</v>
       </c>
       <c r="C623" s="11" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D623" s="14">
         <v>610</v>
@@ -19275,7 +19259,7 @@
         <v>600</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
@@ -19283,7 +19267,7 @@
         <v>622</v>
       </c>
       <c r="C624" s="11" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D624" s="14">
         <v>635</v>
@@ -19292,7 +19276,7 @@
         <v>620</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
@@ -19300,7 +19284,7 @@
         <v>623</v>
       </c>
       <c r="C625" s="11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D625" s="14">
         <v>600</v>
@@ -19314,7 +19298,7 @@
         <v>624</v>
       </c>
       <c r="C626" s="11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D626" s="14">
         <v>605</v>
@@ -19328,7 +19312,7 @@
         <v>625</v>
       </c>
       <c r="C627" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D627" s="14">
         <v>635</v>
@@ -19342,7 +19326,7 @@
         <v>626</v>
       </c>
       <c r="C628" s="11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D628" s="14">
         <v>605</v>
@@ -19351,7 +19335,7 @@
         <v>600</v>
       </c>
       <c r="F628" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
@@ -19359,7 +19343,7 @@
         <v>627</v>
       </c>
       <c r="C629" s="11" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D629" s="14">
         <v>650</v>
@@ -19368,7 +19352,7 @@
         <v>640</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
@@ -19376,7 +19360,7 @@
         <v>628</v>
       </c>
       <c r="C630" s="11" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D630" s="14">
         <v>640</v>
@@ -19390,7 +19374,7 @@
         <v>629</v>
       </c>
       <c r="C631" s="11" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D631" s="14">
         <v>600</v>
@@ -19404,7 +19388,7 @@
         <v>630</v>
       </c>
       <c r="C632" s="11" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D632" s="14">
         <v>605</v>
@@ -19418,7 +19402,7 @@
         <v>631</v>
       </c>
       <c r="C633" s="11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D633" s="14">
         <v>640</v>
@@ -19427,7 +19411,7 @@
         <v>635</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
@@ -19435,7 +19419,7 @@
         <v>632</v>
       </c>
       <c r="C634" s="11" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D634" s="14">
         <v>635</v>
@@ -19449,7 +19433,7 @@
         <v>633</v>
       </c>
       <c r="C635" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D635" s="14">
         <v>600</v>
@@ -19463,7 +19447,7 @@
         <v>634</v>
       </c>
       <c r="C636" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D636" s="14">
         <v>605</v>
@@ -19472,7 +19456,7 @@
         <v>600</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
@@ -19480,7 +19464,7 @@
         <v>635</v>
       </c>
       <c r="C637" s="11" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D637" s="14">
         <v>630</v>
@@ -19489,7 +19473,7 @@
         <v>620</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
@@ -19497,7 +19481,7 @@
         <v>636</v>
       </c>
       <c r="C638" s="11" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D638" s="14">
         <v>620</v>
@@ -19506,7 +19490,7 @@
         <v>610</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
@@ -19514,7 +19498,7 @@
         <v>637</v>
       </c>
       <c r="C639" s="11" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D639" s="14">
         <v>625</v>
@@ -19528,13 +19512,27 @@
         <v>638</v>
       </c>
       <c r="C640" s="11" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D640" s="14">
         <v>680</v>
       </c>
       <c r="E640" s="1">
         <v>660</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641" s="11">
+        <v>639</v>
+      </c>
+      <c r="C641" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D641" s="14">
+        <v>625</v>
+      </c>
+      <c r="E641" s="1">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -19689,7 +19687,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D9" s="22">
         <v>635</v>
@@ -19809,7 +19807,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D17" s="7">
         <v>690</v>
@@ -19826,7 +19824,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D18" s="5">
         <v>675</v>
@@ -20822,7 +20820,7 @@
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D82" s="1">
         <v>645</v>
@@ -20831,7 +20829,7 @@
         <v>635</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -20839,7 +20837,7 @@
         <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D83" s="1">
         <v>600</v>
@@ -20853,7 +20851,7 @@
         <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D84" s="1">
         <v>615</v>
@@ -20867,7 +20865,7 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D85" s="1">
         <v>580</v>
@@ -20876,7 +20874,7 @@
         <v>570</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -20884,7 +20882,7 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D86" s="1">
         <v>640</v>
@@ -20899,7 +20897,7 @@
         <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D87" s="1">
         <v>575</v>
@@ -20908,7 +20906,7 @@
         <v>570</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -20916,7 +20914,7 @@
         <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D88" s="1">
         <v>580</v>
@@ -20931,7 +20929,7 @@
         <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D89" s="1">
         <v>690</v>
@@ -20940,7 +20938,7 @@
         <v>670</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -20948,7 +20946,7 @@
         <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D90" s="1">
         <v>575</v>
@@ -20957,7 +20955,7 @@
         <v>570</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/per-github/project-tennis/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF8CAB-E48D-1B40-8262-64D72DD15352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4612AD0B-1B8E-9849-B9DE-09301F270BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25320" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="760" windowWidth="28220" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -3272,9 +3272,6 @@
     <t>0903132099</t>
   </si>
   <si>
-    <t>Bé Chuột</t>
-  </si>
-  <si>
     <t>Ty Gia Long</t>
   </si>
   <si>
@@ -3288,9 +3285,6 @@
   </si>
   <si>
     <t>0913639634</t>
-  </si>
-  <si>
-    <t>Dũng Đầu Kéo</t>
   </si>
   <si>
     <t>Ngô Anh Đào</t>
@@ -6388,6 +6382,12 @@
   </si>
   <si>
     <t>Nam Sân Bay</t>
+  </si>
+  <si>
+    <t>Thanh Nhã ĐN</t>
+  </si>
+  <si>
+    <t>Dũng - Vận Tải - Việt Onion</t>
   </si>
 </sst>
 </file>
@@ -6816,8 +6816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
-      <selection activeCell="E639" sqref="E639"/>
+    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
+      <selection activeCell="C581" sqref="C581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6998,10 +6998,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D10" s="7">
         <v>600</v>
@@ -7094,7 +7094,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D14" s="7">
         <v>650</v>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D19" s="12">
         <v>635</v>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D20" s="12">
         <v>640</v>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D21" s="12">
         <v>630</v>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D22" s="12">
         <v>635</v>
@@ -7296,10 +7296,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D23" s="12">
         <v>640</v>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D24" s="12">
         <v>650</v>
@@ -7365,7 +7365,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D26" s="22">
         <v>640</v>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D30" s="12">
         <v>605</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D35" s="12">
         <v>610</v>
@@ -7586,7 +7586,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D36" s="5">
         <v>605</v>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D37" s="12">
         <v>665</v>
@@ -7627,7 +7627,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D38" s="7">
         <v>615</v>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D41" s="12">
         <v>600</v>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D42" s="12">
         <v>650</v>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D44" s="12">
         <v>630</v>
@@ -7972,7 +7972,7 @@
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D55" s="12">
         <v>625</v>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D56" s="12">
         <v>610</v>
@@ -8030,7 +8030,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D58" s="5">
         <v>650</v>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D59" s="12">
         <v>600</v>
@@ -8086,10 +8086,10 @@
         <v>56</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D61" s="12">
         <v>625</v>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D62" s="12">
         <v>630</v>
@@ -8205,10 +8205,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D67" s="12">
         <v>615</v>
@@ -8245,10 +8245,10 @@
         <v>64</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D69" s="12">
         <v>600</v>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D70" s="12">
         <v>605</v>
@@ -8396,7 +8396,7 @@
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D76" s="12">
         <v>660</v>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D80" s="12">
         <v>600</v>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D82" s="12">
         <v>670</v>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D84" s="12">
         <v>615</v>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D85" s="12">
         <v>635</v>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D86" s="12">
         <v>690</v>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D87" s="12">
         <v>610</v>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D92" s="12">
         <v>655</v>
@@ -8760,10 +8760,10 @@
         <v>88</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D93" s="12">
         <v>605</v>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D98" s="12">
         <v>645</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D104" s="12">
         <v>630</v>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D106" s="12">
         <v>660</v>
@@ -9052,7 +9052,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D107" s="7">
         <v>605</v>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D110" s="12">
         <v>600</v>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D111" s="12">
         <v>625</v>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D115" s="12">
         <v>600</v>
@@ -9234,7 +9234,7 @@
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D116" s="12">
         <v>675</v>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D118" s="12">
         <v>675</v>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D119" s="12">
         <v>600</v>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D120" s="12">
         <v>600</v>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D122" s="12">
         <v>645</v>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D123" s="12">
         <v>590</v>
@@ -9402,7 +9402,7 @@
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D124" s="12">
         <v>615</v>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D125" s="12">
         <v>635</v>
@@ -9483,7 +9483,7 @@
         <v>123</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D128" s="5">
         <v>635</v>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D129" s="12">
         <v>610</v>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D131" s="12">
         <v>680</v>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D132" s="12">
         <v>590</v>
@@ -9600,7 +9600,7 @@
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D134" s="12">
         <v>635</v>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="11" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D135" s="12">
         <v>610</v>
@@ -9738,7 +9738,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D141" s="7">
         <v>765</v>
@@ -9756,7 +9756,7 @@
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D142" s="12">
         <v>785</v>
@@ -9794,7 +9794,7 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D144" s="12">
         <v>985</v>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D146" s="12">
         <v>850</v>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D148" s="12">
         <v>790</v>
@@ -9890,7 +9890,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D149" s="7">
         <v>760</v>
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="11" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D152" s="12">
         <v>840</v>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D153" s="12">
         <v>785</v>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D154" s="12">
         <v>880</v>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D156" s="12">
         <v>830</v>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D157" s="12">
         <v>935</v>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D160" s="12">
         <v>920</v>
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D163" s="12">
         <v>810</v>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D164" s="12">
         <v>755</v>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D165" s="12">
         <v>605</v>
@@ -10225,7 +10225,7 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D166" s="12">
         <v>990</v>
@@ -10264,7 +10264,7 @@
         <v>163</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D168" s="7">
         <v>735</v>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D169" s="12">
         <v>630</v>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D171" s="12">
         <v>750</v>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="11" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D175" s="12">
         <v>910</v>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D177" s="12">
         <v>930</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D178" s="12">
         <v>955</v>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D179" s="12">
         <v>1010</v>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D180" s="12">
         <v>670</v>
@@ -10549,7 +10549,7 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D182" s="12">
         <v>890</v>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D183" s="12">
         <v>815</v>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D184" s="12">
         <v>835</v>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D185" s="12">
         <v>735</v>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D186" s="12">
         <v>780</v>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D187" s="12">
         <v>810</v>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D188" s="12">
         <v>880</v>
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D189" s="12">
         <v>885</v>
@@ -10708,7 +10708,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D190" s="7">
         <v>695</v>
@@ -10742,7 +10742,7 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D192" s="12">
         <v>880</v>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D193" s="12">
         <v>745</v>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D196" s="12">
         <v>790</v>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D198" s="12">
         <v>740</v>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D199" s="12">
         <v>730</v>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D200" s="12">
         <v>745</v>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D202" s="12">
         <v>660</v>
@@ -11006,7 +11006,7 @@
         <v>201</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D206" s="7">
         <v>690</v>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D208" s="12">
         <v>760</v>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D209" s="12">
         <v>725</v>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="11" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D256" s="12">
         <v>645</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="F423" s="11"/>
       <c r="G423" s="11" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H423" s="11"/>
       <c r="I423" s="11"/>
@@ -15626,7 +15626,7 @@
         <v>595</v>
       </c>
       <c r="F431" s="10" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
@@ -16155,7 +16155,7 @@
         <v>716</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D458" s="12">
         <v>640</v>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="B462" s="11"/>
       <c r="C462" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D462" s="12">
         <v>615</v>
@@ -16240,7 +16240,7 @@
         <v>615</v>
       </c>
       <c r="F462" s="16" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="G462" s="11"/>
       <c r="H462" s="11"/>
@@ -17646,7 +17646,7 @@
       </c>
       <c r="B534" s="11"/>
       <c r="C534" s="11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D534" s="12">
         <v>760</v>
@@ -17903,7 +17903,7 @@
       </c>
       <c r="B547" s="11"/>
       <c r="C547" s="11" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D547" s="12">
         <v>670</v>
@@ -18002,7 +18002,7 @@
       </c>
       <c r="B552" s="11"/>
       <c r="C552" s="11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D552" s="12">
         <v>700</v>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="B560" s="11"/>
       <c r="C560" s="11" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D560" s="12">
         <v>775</v>
@@ -18491,7 +18491,7 @@
       </c>
       <c r="B577" s="11"/>
       <c r="C577" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D577" s="12">
         <v>675</v>
@@ -18500,7 +18500,7 @@
         <v>665</v>
       </c>
       <c r="F577" s="16" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G577" s="11"/>
       <c r="H577" s="11"/>
@@ -18511,7 +18511,7 @@
         <v>575</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D578" s="7">
         <v>585</v>
@@ -18526,7 +18526,7 @@
       </c>
       <c r="B579" s="11"/>
       <c r="C579" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D579" s="12">
         <v>580</v>
@@ -18545,7 +18545,7 @@
       </c>
       <c r="B580" s="11"/>
       <c r="C580" s="11" t="s">
-        <v>918</v>
+        <v>1142</v>
       </c>
       <c r="D580" s="12">
         <v>580</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="B581" s="11"/>
       <c r="C581" s="11" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D581" s="12">
         <v>580</v>
@@ -18573,7 +18573,7 @@
         <v>580</v>
       </c>
       <c r="F581" s="16" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G581" s="11"/>
       <c r="H581" s="11"/>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="B582" s="11"/>
       <c r="C582" s="11" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D582" s="12">
         <v>635</v>
@@ -18604,7 +18604,7 @@
       </c>
       <c r="B583" s="11"/>
       <c r="C583" s="11" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D583" s="12">
         <v>610</v>
@@ -18613,7 +18613,7 @@
         <v>600</v>
       </c>
       <c r="F583" s="20" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G583" s="11"/>
       <c r="H583" s="11"/>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="B584" s="11"/>
       <c r="C584" s="11" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D584" s="12">
         <v>605</v>
@@ -18634,11 +18634,11 @@
         <v>600</v>
       </c>
       <c r="F584" s="20" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G584" s="11"/>
       <c r="H584" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I584" s="11"/>
     </row>
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B585" s="11"/>
       <c r="C585" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D585" s="12">
         <v>690</v>
@@ -18666,7 +18666,7 @@
         <v>583</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D586" s="5">
         <v>610</v>
@@ -18680,7 +18680,7 @@
         <v>584</v>
       </c>
       <c r="C587" s="11" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D587" s="14">
         <v>600</v>
@@ -18694,7 +18694,7 @@
         <v>585</v>
       </c>
       <c r="C588" s="11" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D588" s="14">
         <v>620</v>
@@ -18708,7 +18708,7 @@
         <v>586</v>
       </c>
       <c r="C589" s="11" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D589" s="14">
         <v>620</v>
@@ -18722,7 +18722,7 @@
         <v>587</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D590" s="5">
         <v>680</v>
@@ -18731,7 +18731,7 @@
         <v>670</v>
       </c>
       <c r="F590" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
@@ -18739,7 +18739,7 @@
         <v>588</v>
       </c>
       <c r="C591" s="11" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D591" s="14">
         <v>745</v>
@@ -18753,7 +18753,7 @@
         <v>589</v>
       </c>
       <c r="C592" s="11" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D592" s="14">
         <v>725</v>
@@ -18762,7 +18762,7 @@
         <v>715</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
@@ -18770,7 +18770,7 @@
         <v>590</v>
       </c>
       <c r="C593" s="11" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D593" s="14">
         <v>740</v>
@@ -18779,7 +18779,7 @@
         <v>730</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
@@ -18787,7 +18787,7 @@
         <v>591</v>
       </c>
       <c r="C594" s="11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D594" s="14">
         <v>700</v>
@@ -18796,7 +18796,7 @@
         <v>690</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
@@ -18804,7 +18804,7 @@
         <v>592</v>
       </c>
       <c r="C595" s="11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D595" s="14">
         <v>750</v>
@@ -18813,7 +18813,7 @@
         <v>735</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.2">
@@ -18821,7 +18821,7 @@
         <v>593</v>
       </c>
       <c r="C596" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D596" s="14">
         <v>600</v>
@@ -18830,7 +18830,7 @@
         <v>600</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.2">
@@ -18838,7 +18838,7 @@
         <v>594</v>
       </c>
       <c r="C597" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D597" s="14">
         <v>760</v>
@@ -18847,7 +18847,7 @@
         <v>750</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
@@ -18855,7 +18855,7 @@
         <v>595</v>
       </c>
       <c r="C598" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D598" s="14">
         <v>600</v>
@@ -18864,7 +18864,7 @@
         <v>600</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.2">
@@ -18872,7 +18872,7 @@
         <v>597</v>
       </c>
       <c r="C599" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D599" s="14">
         <v>720</v>
@@ -18881,7 +18881,7 @@
         <v>710</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="600" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -18889,7 +18889,7 @@
         <v>598</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D600" s="5">
         <v>655</v>
@@ -18906,7 +18906,7 @@
         <v>599</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D601" s="5">
         <v>750</v>
@@ -18920,7 +18920,7 @@
         <v>600</v>
       </c>
       <c r="C602" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D602" s="14">
         <v>760</v>
@@ -18929,7 +18929,7 @@
         <v>740</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
@@ -18937,7 +18937,7 @@
         <v>601</v>
       </c>
       <c r="C603" s="11" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D603" s="14">
         <v>630</v>
@@ -18951,7 +18951,7 @@
         <v>602</v>
       </c>
       <c r="C604" s="11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D604" s="14">
         <v>730</v>
@@ -18960,7 +18960,7 @@
         <v>715</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.2">
@@ -18968,7 +18968,7 @@
         <v>603</v>
       </c>
       <c r="C605" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D605" s="14">
         <v>610</v>
@@ -18977,7 +18977,7 @@
         <v>600</v>
       </c>
       <c r="F605" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.2">
@@ -18985,7 +18985,7 @@
         <v>604</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D606" s="14">
         <v>730</v>
@@ -18999,7 +18999,7 @@
         <v>605</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D607" s="5">
         <v>685</v>
@@ -19013,7 +19013,7 @@
         <v>606</v>
       </c>
       <c r="C608" s="11" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D608" s="14">
         <v>625</v>
@@ -19022,7 +19022,7 @@
         <v>615</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
@@ -19030,7 +19030,7 @@
         <v>607</v>
       </c>
       <c r="C609" s="11" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D609" s="14">
         <v>645</v>
@@ -19039,7 +19039,7 @@
         <v>635</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
@@ -19047,7 +19047,7 @@
         <v>608</v>
       </c>
       <c r="C610" s="11" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D610" s="14">
         <v>600</v>
@@ -19061,7 +19061,7 @@
         <v>609</v>
       </c>
       <c r="C611" s="11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D611" s="14">
         <v>660</v>
@@ -19070,7 +19070,7 @@
         <v>655</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.2">
@@ -19078,7 +19078,7 @@
         <v>610</v>
       </c>
       <c r="C612" s="11" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D612" s="14">
         <v>590</v>
@@ -19087,7 +19087,7 @@
         <v>590</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
@@ -19095,7 +19095,7 @@
         <v>611</v>
       </c>
       <c r="C613" s="11" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D613" s="14">
         <v>620</v>
@@ -19104,7 +19104,7 @@
         <v>600</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
@@ -19112,7 +19112,7 @@
         <v>612</v>
       </c>
       <c r="C614" s="11" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D614" s="14">
         <v>640</v>
@@ -19121,7 +19121,7 @@
         <v>630</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
@@ -19129,7 +19129,7 @@
         <v>613</v>
       </c>
       <c r="C615" s="11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D615" s="14">
         <v>640</v>
@@ -19138,7 +19138,7 @@
         <v>630</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
@@ -19146,7 +19146,7 @@
         <v>614</v>
       </c>
       <c r="C616" s="11" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D616" s="14">
         <v>640</v>
@@ -19160,7 +19160,7 @@
         <v>615</v>
       </c>
       <c r="C617" s="11" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D617" s="14">
         <v>615</v>
@@ -19169,7 +19169,7 @@
         <v>605</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
@@ -19177,7 +19177,7 @@
         <v>616</v>
       </c>
       <c r="C618" s="11" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D618" s="14">
         <v>625</v>
@@ -19191,7 +19191,7 @@
         <v>617</v>
       </c>
       <c r="C619" s="11" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D619" s="14">
         <v>625</v>
@@ -19205,7 +19205,7 @@
         <v>618</v>
       </c>
       <c r="C620" s="11" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D620" s="14">
         <v>600</v>
@@ -19214,7 +19214,7 @@
         <v>600</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
@@ -19222,7 +19222,7 @@
         <v>619</v>
       </c>
       <c r="C621" s="11" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D621" s="14">
         <v>625</v>
@@ -19236,7 +19236,7 @@
         <v>620</v>
       </c>
       <c r="C622" s="11" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D622" s="14">
         <v>600</v>
@@ -19250,7 +19250,7 @@
         <v>621</v>
       </c>
       <c r="C623" s="11" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D623" s="14">
         <v>610</v>
@@ -19259,7 +19259,7 @@
         <v>600</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
@@ -19267,7 +19267,7 @@
         <v>622</v>
       </c>
       <c r="C624" s="11" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D624" s="14">
         <v>635</v>
@@ -19276,7 +19276,7 @@
         <v>620</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
@@ -19284,7 +19284,7 @@
         <v>623</v>
       </c>
       <c r="C625" s="11" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D625" s="14">
         <v>600</v>
@@ -19298,7 +19298,7 @@
         <v>624</v>
       </c>
       <c r="C626" s="11" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D626" s="14">
         <v>605</v>
@@ -19312,7 +19312,7 @@
         <v>625</v>
       </c>
       <c r="C627" s="11" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D627" s="14">
         <v>635</v>
@@ -19326,7 +19326,7 @@
         <v>626</v>
       </c>
       <c r="C628" s="11" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D628" s="14">
         <v>605</v>
@@ -19335,7 +19335,7 @@
         <v>600</v>
       </c>
       <c r="F628" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
@@ -19343,7 +19343,7 @@
         <v>627</v>
       </c>
       <c r="C629" s="11" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D629" s="14">
         <v>650</v>
@@ -19352,7 +19352,7 @@
         <v>640</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
@@ -19360,7 +19360,7 @@
         <v>628</v>
       </c>
       <c r="C630" s="11" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D630" s="14">
         <v>640</v>
@@ -19374,7 +19374,7 @@
         <v>629</v>
       </c>
       <c r="C631" s="11" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D631" s="14">
         <v>600</v>
@@ -19388,7 +19388,7 @@
         <v>630</v>
       </c>
       <c r="C632" s="11" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D632" s="14">
         <v>605</v>
@@ -19402,7 +19402,7 @@
         <v>631</v>
       </c>
       <c r="C633" s="11" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D633" s="14">
         <v>640</v>
@@ -19411,7 +19411,7 @@
         <v>635</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
@@ -19419,7 +19419,7 @@
         <v>632</v>
       </c>
       <c r="C634" s="11" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D634" s="14">
         <v>635</v>
@@ -19433,7 +19433,7 @@
         <v>633</v>
       </c>
       <c r="C635" s="11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D635" s="14">
         <v>600</v>
@@ -19447,7 +19447,7 @@
         <v>634</v>
       </c>
       <c r="C636" s="11" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D636" s="14">
         <v>605</v>
@@ -19456,7 +19456,7 @@
         <v>600</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
@@ -19464,7 +19464,7 @@
         <v>635</v>
       </c>
       <c r="C637" s="11" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D637" s="14">
         <v>630</v>
@@ -19473,7 +19473,7 @@
         <v>620</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
@@ -19481,7 +19481,7 @@
         <v>636</v>
       </c>
       <c r="C638" s="11" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D638" s="14">
         <v>620</v>
@@ -19490,7 +19490,7 @@
         <v>610</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
@@ -19498,7 +19498,7 @@
         <v>637</v>
       </c>
       <c r="C639" s="11" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D639" s="14">
         <v>625</v>
@@ -19512,7 +19512,7 @@
         <v>638</v>
       </c>
       <c r="C640" s="11" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D640" s="14">
         <v>680</v>
@@ -19526,13 +19526,13 @@
         <v>639</v>
       </c>
       <c r="C641" s="11" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D641" s="14">
         <v>625</v>
       </c>
       <c r="E641" s="1">
-        <v>625</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -19550,8 +19550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I243"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19649,7 +19649,7 @@
         <v>560</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -19687,7 +19687,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D9" s="22">
         <v>635</v>
@@ -19807,7 +19807,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D17" s="7">
         <v>690</v>
@@ -19824,7 +19824,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="5">
         <v>675</v>
@@ -20759,7 +20759,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>912</v>
+        <v>1141</v>
       </c>
       <c r="D78" s="12">
         <v>635</v>
@@ -20773,7 +20773,7 @@
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D79" s="1">
         <v>700</v>
@@ -20788,7 +20788,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D80" s="7">
         <v>680</v>
@@ -20803,7 +20803,7 @@
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D81" s="1">
         <v>620</v>
@@ -20812,7 +20812,7 @@
         <v>610</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -20820,7 +20820,7 @@
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D82" s="1">
         <v>645</v>
@@ -20829,7 +20829,7 @@
         <v>635</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -20837,7 +20837,7 @@
         <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D83" s="1">
         <v>600</v>
@@ -20851,7 +20851,7 @@
         <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D84" s="1">
         <v>615</v>
@@ -20865,7 +20865,7 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D85" s="1">
         <v>580</v>
@@ -20874,7 +20874,7 @@
         <v>570</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -20882,7 +20882,7 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D86" s="1">
         <v>640</v>
@@ -20897,7 +20897,7 @@
         <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D87" s="1">
         <v>575</v>
@@ -20906,7 +20906,7 @@
         <v>570</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -20914,7 +20914,7 @@
         <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D88" s="1">
         <v>580</v>
@@ -20929,7 +20929,7 @@
         <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D89" s="1">
         <v>690</v>
@@ -20938,7 +20938,7 @@
         <v>670</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -20946,7 +20946,7 @@
         <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D90" s="1">
         <v>575</v>
@@ -20955,7 +20955,7 @@
         <v>570</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/per-github/project-tennis/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D28B08-4803-F540-B27D-C5AD756B065D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B91C7F-F24C-D54B-97D8-83620BD701A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30200" windowHeight="21280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30200" windowHeight="21280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -5680,17 +5680,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5973,8 +5973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I640"/>
   <sheetViews>
-    <sheetView topLeftCell="A580" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I640"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="A641" sqref="A641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5991,30 +5991,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -6026,10 +6026,10 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6059,34 +6059,34 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>670</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>650</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>909397123</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
       <c r="C7" t="s">
@@ -6106,82 +6106,84 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>620</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>610</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>889056789</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>685</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>670</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="F9" s="10">
+        <v>945794799</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>600</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>600</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>903371177</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
       <c r="C11" t="s">
@@ -6198,7 +6200,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>7</v>
       </c>
       <c r="C12" t="s">
@@ -6218,7 +6220,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>8</v>
       </c>
       <c r="C13" t="s">
@@ -6241,32 +6243,32 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>9</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>650</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>635</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>913632012</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
       <c r="B15"/>
@@ -6289,7 +6291,7 @@
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>11</v>
       </c>
       <c r="B16"/>
@@ -6310,7 +6312,7 @@
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>12</v>
       </c>
       <c r="C17" t="s">
@@ -6327,7 +6329,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>13</v>
       </c>
       <c r="C18" t="s">
@@ -6341,7 +6343,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>14</v>
       </c>
       <c r="C19" t="s">
@@ -6361,7 +6363,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="A20" s="10">
         <v>15</v>
       </c>
       <c r="C20" t="s">
@@ -6381,7 +6383,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="A21" s="10">
         <v>16</v>
       </c>
       <c r="C21" t="s">
@@ -6404,7 +6406,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>17</v>
       </c>
       <c r="C22" t="s">
@@ -6421,7 +6423,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>18</v>
       </c>
       <c r="B23" t="s">
@@ -6444,7 +6446,7 @@
       <c r="I23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>19</v>
       </c>
       <c r="C24" t="s">
@@ -6461,7 +6463,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="10">
         <v>20</v>
       </c>
       <c r="B25"/>
@@ -6486,7 +6488,7 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>21</v>
       </c>
       <c r="B26"/>
@@ -6509,7 +6511,7 @@
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="10">
         <v>22</v>
       </c>
       <c r="C27" t="s">
@@ -6532,7 +6534,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="10">
         <v>23</v>
       </c>
       <c r="C28" t="s">
@@ -6549,7 +6551,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="10">
         <v>24</v>
       </c>
       <c r="C29" t="s">
@@ -6566,7 +6568,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="10">
         <v>25</v>
       </c>
       <c r="C30" t="s">
@@ -6586,7 +6588,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>26</v>
       </c>
       <c r="B31"/>
@@ -6609,7 +6611,7 @@
       <c r="I31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="10">
         <v>27</v>
       </c>
       <c r="C32" t="s">
@@ -6626,7 +6628,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>28</v>
       </c>
       <c r="C33" t="s">
@@ -6646,7 +6648,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+      <c r="A34" s="10">
         <v>29</v>
       </c>
       <c r="C34" t="s">
@@ -6663,7 +6665,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="A35" s="10">
         <v>30</v>
       </c>
       <c r="C35" t="s">
@@ -6683,7 +6685,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+      <c r="A36" s="10">
         <v>31</v>
       </c>
       <c r="B36"/>
@@ -6706,7 +6708,7 @@
       <c r="I36"/>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="A37" s="10">
         <v>32</v>
       </c>
       <c r="B37"/>
@@ -6727,51 +6729,51 @@
       <c r="I37"/>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="A38" s="10">
         <v>33</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="10">
         <v>615</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <v>610</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="10">
         <v>918596416</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12" t="s">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="12"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+      <c r="A39" s="10">
         <v>34</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="10">
         <v>620</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <v>610</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="12"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>35</v>
       </c>
       <c r="B40"/>
@@ -6792,7 +6794,7 @@
       <c r="I40"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+      <c r="A41" s="10">
         <v>36</v>
       </c>
       <c r="C41" t="s">
@@ -6812,7 +6814,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+      <c r="A42" s="10">
         <v>37</v>
       </c>
       <c r="C42" t="s">
@@ -6832,7 +6834,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+      <c r="A43" s="10">
         <v>38</v>
       </c>
       <c r="C43" t="s">
@@ -6846,7 +6848,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+      <c r="A44" s="10">
         <v>39</v>
       </c>
       <c r="C44" t="s">
@@ -6863,7 +6865,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+      <c r="A45" s="10">
         <v>40</v>
       </c>
       <c r="C45" t="s">
@@ -6877,26 +6879,26 @@
       </c>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+      <c r="A46" s="10">
         <v>41</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="10">
         <v>620</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="10">
         <v>615</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+      <c r="A47" s="10">
         <v>42</v>
       </c>
       <c r="C47" t="s">
@@ -6916,7 +6918,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+      <c r="A48" s="10">
         <v>43</v>
       </c>
       <c r="C48" t="s">
@@ -6933,7 +6935,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+      <c r="A49" s="10">
         <v>44</v>
       </c>
       <c r="C49" t="s">
@@ -6950,7 +6952,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
+      <c r="A50" s="10">
         <v>45</v>
       </c>
       <c r="C50" t="s">
@@ -6964,7 +6966,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
+      <c r="A51" s="10">
         <v>46</v>
       </c>
       <c r="C51" t="s">
@@ -6978,7 +6980,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
+      <c r="A52" s="10">
         <v>47</v>
       </c>
       <c r="C52" t="s">
@@ -6992,7 +6994,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="12">
+      <c r="A53" s="10">
         <v>48</v>
       </c>
       <c r="C53" t="s">
@@ -7006,7 +7008,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="12">
+      <c r="A54" s="10">
         <v>49</v>
       </c>
       <c r="C54" t="s">
@@ -7029,7 +7031,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
+      <c r="A55" s="10">
         <v>50</v>
       </c>
       <c r="C55" t="s">
@@ -7046,7 +7048,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
+      <c r="A56" s="10">
         <v>51</v>
       </c>
       <c r="C56" t="s">
@@ -7060,7 +7062,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
+      <c r="A57" s="10">
         <v>52</v>
       </c>
       <c r="C57" t="s">
@@ -7074,7 +7076,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12">
+      <c r="A58" s="10">
         <v>53</v>
       </c>
       <c r="B58"/>
@@ -7093,7 +7095,7 @@
       <c r="I58"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
+      <c r="A59" s="10">
         <v>54</v>
       </c>
       <c r="C59" t="s">
@@ -7107,7 +7109,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="12">
+      <c r="A60" s="10">
         <v>55</v>
       </c>
       <c r="B60" t="s">
@@ -7127,7 +7129,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="12">
+      <c r="A61" s="10">
         <v>56</v>
       </c>
       <c r="B61" t="s">
@@ -7147,7 +7149,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="12">
+      <c r="A62" s="10">
         <v>57</v>
       </c>
       <c r="C62" t="s">
@@ -7161,7 +7163,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="12">
+      <c r="A63" s="10">
         <v>58</v>
       </c>
       <c r="B63" t="s">
@@ -7178,7 +7180,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="12">
+      <c r="A64" s="10">
         <v>59</v>
       </c>
       <c r="B64" t="s">
@@ -7198,7 +7200,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12">
+      <c r="A65" s="10">
         <v>60</v>
       </c>
       <c r="B65"/>
@@ -7217,7 +7219,7 @@
       <c r="I65"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="12">
+      <c r="A66" s="10">
         <v>61</v>
       </c>
       <c r="C66" t="s">
@@ -7231,7 +7233,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="12">
+      <c r="A67" s="10">
         <v>62</v>
       </c>
       <c r="B67" t="s">
@@ -7248,7 +7250,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="12">
+      <c r="A68" s="10">
         <v>63</v>
       </c>
       <c r="C68" t="s">
@@ -7262,7 +7264,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="12">
+      <c r="A69" s="10">
         <v>64</v>
       </c>
       <c r="B69" t="s">
@@ -7282,7 +7284,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="12">
+      <c r="A70" s="10">
         <v>65</v>
       </c>
       <c r="C70" t="s">
@@ -7302,7 +7304,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="12">
+      <c r="A71" s="10">
         <v>66</v>
       </c>
       <c r="C71" t="s">
@@ -7316,7 +7318,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="12">
+      <c r="A72" s="10">
         <v>67</v>
       </c>
       <c r="C72" t="s">
@@ -7336,7 +7338,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="12">
+      <c r="A73" s="10">
         <v>68</v>
       </c>
       <c r="B73"/>
@@ -7359,7 +7361,7 @@
       <c r="I73"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="12">
+      <c r="A74" s="10">
         <v>69</v>
       </c>
       <c r="C74" t="s">
@@ -7376,7 +7378,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="12">
+      <c r="A75" s="10">
         <v>70</v>
       </c>
       <c r="C75" t="s">
@@ -7393,7 +7395,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="12">
+      <c r="A76" s="10">
         <v>71</v>
       </c>
       <c r="C76" t="s">
@@ -7410,7 +7412,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="12">
+      <c r="A77" s="10">
         <v>72</v>
       </c>
       <c r="C77" t="s">
@@ -7424,7 +7426,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="12">
+      <c r="A78" s="10">
         <v>73</v>
       </c>
       <c r="C78" t="s">
@@ -7444,7 +7446,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="12">
+      <c r="A79" s="10">
         <v>74</v>
       </c>
       <c r="C79" t="s">
@@ -7461,7 +7463,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="12">
+      <c r="A80" s="10">
         <v>75</v>
       </c>
       <c r="C80" t="s">
@@ -7481,7 +7483,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="12">
+      <c r="A81" s="10">
         <v>76</v>
       </c>
       <c r="C81" t="s">
@@ -7501,7 +7503,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="12">
+      <c r="A82" s="10">
         <v>77</v>
       </c>
       <c r="C82" t="s">
@@ -7521,7 +7523,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="12">
+      <c r="A83" s="10">
         <v>78</v>
       </c>
       <c r="C83" t="s">
@@ -7538,7 +7540,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="12">
+      <c r="A84" s="10">
         <v>79</v>
       </c>
       <c r="C84" t="s">
@@ -7552,7 +7554,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="12">
+      <c r="A85" s="10">
         <v>80</v>
       </c>
       <c r="C85" t="s">
@@ -7566,7 +7568,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="12">
+      <c r="A86" s="10">
         <v>81</v>
       </c>
       <c r="C86" t="s">
@@ -7586,10 +7588,10 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="12">
+      <c r="A87" s="10">
         <v>82</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="11" t="s">
         <v>626</v>
       </c>
       <c r="D87">
@@ -7609,7 +7611,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="12">
+      <c r="A88" s="10">
         <v>83</v>
       </c>
       <c r="C88" t="s">
@@ -7629,7 +7631,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="12">
+      <c r="A89" s="10">
         <v>84</v>
       </c>
       <c r="C89" t="s">
@@ -7649,7 +7651,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="12">
+      <c r="A90" s="10">
         <v>85</v>
       </c>
       <c r="C90" t="s">
@@ -7663,7 +7665,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="12">
+      <c r="A91" s="10">
         <v>86</v>
       </c>
       <c r="C91" t="s">
@@ -7677,7 +7679,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="12">
+      <c r="A92" s="10">
         <v>87</v>
       </c>
       <c r="C92" t="s">
@@ -7694,7 +7696,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="12">
+      <c r="A93" s="10">
         <v>88</v>
       </c>
       <c r="B93" t="s">
@@ -7714,28 +7716,28 @@
       </c>
     </row>
     <row r="94" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12">
+      <c r="A94" s="10">
         <v>89</v>
       </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12" t="s">
+      <c r="B94" s="10"/>
+      <c r="C94" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="10">
         <v>600</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="10">
         <v>600</v>
       </c>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12" t="s">
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I94" s="12"/>
+      <c r="I94" s="10"/>
     </row>
     <row r="95" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12">
+      <c r="A95" s="10">
         <v>90</v>
       </c>
       <c r="B95"/>
@@ -7756,7 +7758,7 @@
       <c r="I95"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="12">
+      <c r="A96" s="10">
         <v>91</v>
       </c>
       <c r="C96" t="s">
@@ -7770,7 +7772,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="12">
+      <c r="A97" s="10">
         <v>92</v>
       </c>
       <c r="C97" t="s">
@@ -7784,7 +7786,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="12">
+      <c r="A98" s="10">
         <v>93</v>
       </c>
       <c r="C98" t="s">
@@ -7801,7 +7803,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="12">
+      <c r="A99" s="10">
         <v>94</v>
       </c>
       <c r="C99" t="s">
@@ -7818,7 +7820,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="12">
+      <c r="A100" s="10">
         <v>95</v>
       </c>
       <c r="C100" t="s">
@@ -7835,7 +7837,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="12">
+      <c r="A101" s="10">
         <v>96</v>
       </c>
       <c r="B101"/>
@@ -7858,7 +7860,7 @@
       <c r="I101"/>
     </row>
     <row r="102" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="12">
+      <c r="A102" s="10">
         <v>97</v>
       </c>
       <c r="B102"/>
@@ -7879,7 +7881,7 @@
       <c r="I102"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="12">
+      <c r="A103" s="10">
         <v>98</v>
       </c>
       <c r="C103" t="s">
@@ -7896,7 +7898,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="12">
+      <c r="A104" s="10">
         <v>99</v>
       </c>
       <c r="B104"/>
@@ -7917,7 +7919,7 @@
       <c r="I104"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="12">
+      <c r="A105" s="10">
         <v>100</v>
       </c>
       <c r="C105" t="s">
@@ -7937,7 +7939,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="12">
+      <c r="A106" s="10">
         <v>101</v>
       </c>
       <c r="C106" t="s">
@@ -7954,28 +7956,28 @@
       </c>
     </row>
     <row r="107" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="12">
+      <c r="A107" s="10">
         <v>102</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12" t="s">
+      <c r="B107" s="10"/>
+      <c r="C107" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="10">
         <v>605</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E107" s="10">
         <v>600</v>
       </c>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12" t="s">
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I107" s="12"/>
+      <c r="I107" s="10"/>
     </row>
     <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="12">
+      <c r="A108" s="10">
         <v>103</v>
       </c>
       <c r="B108"/>
@@ -8000,7 +8002,7 @@
       <c r="I108"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="12">
+      <c r="A109" s="10">
         <v>104</v>
       </c>
       <c r="C109" t="s">
@@ -8020,7 +8022,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="12">
+      <c r="A110" s="10">
         <v>105</v>
       </c>
       <c r="C110" t="s">
@@ -8034,7 +8036,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="12">
+      <c r="A111" s="10">
         <v>106</v>
       </c>
       <c r="B111"/>
@@ -8053,7 +8055,7 @@
       <c r="I111"/>
     </row>
     <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="12">
+      <c r="A112" s="10">
         <v>107</v>
       </c>
       <c r="B112"/>
@@ -8072,7 +8074,7 @@
       <c r="I112"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="12">
+      <c r="A113" s="10">
         <v>108</v>
       </c>
       <c r="C113" t="s">
@@ -8089,7 +8091,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="12">
+      <c r="A114" s="10">
         <v>109</v>
       </c>
       <c r="C114" t="s">
@@ -8103,7 +8105,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="12">
+      <c r="A115" s="10">
         <v>110</v>
       </c>
       <c r="C115" t="s">
@@ -8120,7 +8122,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="12">
+      <c r="A116" s="10">
         <v>111</v>
       </c>
       <c r="C116" t="s">
@@ -8134,7 +8136,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="12">
+      <c r="A117" s="10">
         <v>112</v>
       </c>
       <c r="C117" t="s">
@@ -8151,7 +8153,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="12">
+      <c r="A118" s="10">
         <v>113</v>
       </c>
       <c r="C118" t="s">
@@ -8165,7 +8167,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="12">
+      <c r="A119" s="10">
         <v>114</v>
       </c>
       <c r="C119" t="s">
@@ -8185,7 +8187,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="12">
+      <c r="A120" s="10">
         <v>115</v>
       </c>
       <c r="C120" t="s">
@@ -8202,7 +8204,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="12">
+      <c r="A121" s="10">
         <v>116</v>
       </c>
       <c r="C121" t="s">
@@ -8222,7 +8224,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="12">
+      <c r="A122" s="10">
         <v>117</v>
       </c>
       <c r="C122" t="s">
@@ -8242,7 +8244,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="12">
+      <c r="A123" s="10">
         <v>118</v>
       </c>
       <c r="C123" t="s">
@@ -8256,7 +8258,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="12">
+      <c r="A124" s="10">
         <v>119</v>
       </c>
       <c r="C124" t="s">
@@ -8270,7 +8272,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="12">
+      <c r="A125" s="10">
         <v>120</v>
       </c>
       <c r="C125" t="s">
@@ -8287,7 +8289,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="12">
+      <c r="A126" s="10">
         <v>121</v>
       </c>
       <c r="B126" t="s">
@@ -8310,7 +8312,7 @@
       <c r="I126"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="12">
+      <c r="A127" s="10">
         <v>122</v>
       </c>
       <c r="C127" t="s">
@@ -8324,7 +8326,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="12">
+      <c r="A128" s="10">
         <v>123</v>
       </c>
       <c r="B128"/>
@@ -8345,7 +8347,7 @@
       <c r="I128"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="12">
+      <c r="A129" s="10">
         <v>124</v>
       </c>
       <c r="C129" t="s">
@@ -8359,7 +8361,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="12">
+      <c r="A130" s="10">
         <v>125</v>
       </c>
       <c r="B130"/>
@@ -8378,7 +8380,7 @@
       <c r="I130"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="12">
+      <c r="A131" s="10">
         <v>126</v>
       </c>
       <c r="C131" t="s">
@@ -8392,7 +8394,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="12">
+      <c r="A132" s="10">
         <v>127</v>
       </c>
       <c r="C132" t="s">
@@ -8409,7 +8411,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="12">
+      <c r="A133" s="10">
         <v>128</v>
       </c>
       <c r="C133" t="s">
@@ -8426,7 +8428,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="12">
+      <c r="A134" s="10">
         <v>129</v>
       </c>
       <c r="C134" t="s">
@@ -8443,7 +8445,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="12">
+      <c r="A135" s="10">
         <v>130</v>
       </c>
       <c r="C135" t="s">
@@ -8460,7 +8462,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="12">
+      <c r="A136" s="10">
         <v>131</v>
       </c>
       <c r="B136" t="s">
@@ -8480,28 +8482,28 @@
       </c>
     </row>
     <row r="137" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="12">
+      <c r="A137" s="10">
         <v>132</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12" t="s">
+      <c r="B137" s="10"/>
+      <c r="C137" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D137" s="10">
         <v>655</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E137" s="10">
         <v>650</v>
       </c>
-      <c r="F137" s="12">
+      <c r="F137" s="10">
         <v>936547789</v>
       </c>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="12">
+      <c r="A138" s="10">
         <v>133</v>
       </c>
       <c r="C138" t="s">
@@ -8515,7 +8517,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="12">
+      <c r="A139" s="10">
         <v>134</v>
       </c>
       <c r="C139" t="s">
@@ -8532,49 +8534,49 @@
       </c>
     </row>
     <row r="140" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="12">
+      <c r="A140" s="10">
         <v>135</v>
       </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12" t="s">
+      <c r="B140" s="10"/>
+      <c r="C140" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="D140" s="12">
+      <c r="D140" s="10">
         <v>775</v>
       </c>
-      <c r="E140" s="12">
+      <c r="E140" s="10">
         <v>760</v>
       </c>
-      <c r="F140" s="12">
+      <c r="F140" s="10">
         <v>983498019</v>
       </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
     </row>
     <row r="141" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="12">
+      <c r="A141" s="10">
         <v>136</v>
       </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12" t="s">
+      <c r="B141" s="10"/>
+      <c r="C141" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D141" s="10">
         <v>765</v>
       </c>
-      <c r="E141" s="12">
+      <c r="E141" s="10">
         <v>750</v>
       </c>
-      <c r="F141" s="12">
+      <c r="F141" s="10">
         <v>933526287</v>
       </c>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="12">
+      <c r="A142" s="10">
         <v>137</v>
       </c>
       <c r="C142" t="s">
@@ -8591,28 +8593,28 @@
       </c>
     </row>
     <row r="143" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="12">
+      <c r="A143" s="10">
         <v>138</v>
       </c>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12" t="s">
+      <c r="B143" s="10"/>
+      <c r="C143" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="D143" s="12">
+      <c r="D143" s="10">
         <v>805</v>
       </c>
-      <c r="E143" s="12">
+      <c r="E143" s="10">
         <v>800</v>
       </c>
-      <c r="F143" s="12" t="s">
+      <c r="F143" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="12">
+      <c r="A144" s="10">
         <v>139</v>
       </c>
       <c r="C144" t="s">
@@ -8626,7 +8628,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="12">
+      <c r="A145" s="10">
         <v>140</v>
       </c>
       <c r="C145" t="s">
@@ -8643,7 +8645,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="12">
+      <c r="A146" s="10">
         <v>141</v>
       </c>
       <c r="C146" t="s">
@@ -8657,7 +8659,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="12">
+      <c r="A147" s="10">
         <v>142</v>
       </c>
       <c r="C147" t="s">
@@ -8671,7 +8673,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="12">
+      <c r="A148" s="10">
         <v>143</v>
       </c>
       <c r="C148" t="s">
@@ -8685,26 +8687,26 @@
       </c>
     </row>
     <row r="149" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="12">
+      <c r="A149" s="10">
         <v>144</v>
       </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12" t="s">
+      <c r="B149" s="10"/>
+      <c r="C149" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="D149" s="12">
+      <c r="D149" s="10">
         <v>760</v>
       </c>
-      <c r="E149" s="12">
+      <c r="E149" s="10">
         <v>750</v>
       </c>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="12">
+      <c r="A150" s="10">
         <v>145</v>
       </c>
       <c r="C150" t="s">
@@ -8721,7 +8723,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="12">
+      <c r="A151" s="10">
         <v>146</v>
       </c>
       <c r="C151" t="s">
@@ -8735,7 +8737,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="12">
+      <c r="A152" s="10">
         <v>147</v>
       </c>
       <c r="C152" t="s">
@@ -8752,7 +8754,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="12">
+      <c r="A153" s="10">
         <v>148</v>
       </c>
       <c r="C153" t="s">
@@ -8766,7 +8768,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="12">
+      <c r="A154" s="10">
         <v>149</v>
       </c>
       <c r="C154" t="s">
@@ -8783,7 +8785,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="12">
+      <c r="A155" s="10">
         <v>150</v>
       </c>
       <c r="C155" t="s">
@@ -8797,7 +8799,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="12">
+      <c r="A156" s="10">
         <v>151</v>
       </c>
       <c r="C156" t="s">
@@ -8814,7 +8816,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="12">
+      <c r="A157" s="10">
         <v>152</v>
       </c>
       <c r="C157" t="s">
@@ -8828,7 +8830,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" s="12">
+      <c r="A158" s="10">
         <v>153</v>
       </c>
       <c r="C158" t="s">
@@ -8842,7 +8844,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="12">
+      <c r="A159" s="10">
         <v>154</v>
       </c>
       <c r="C159" t="s">
@@ -8859,7 +8861,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="12">
+      <c r="A160" s="10">
         <v>155</v>
       </c>
       <c r="C160" t="s">
@@ -8876,7 +8878,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="12">
+      <c r="A161" s="10">
         <v>156</v>
       </c>
       <c r="C161" t="s">
@@ -8890,7 +8892,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="12">
+      <c r="A162" s="10">
         <v>157</v>
       </c>
       <c r="C162" t="s">
@@ -8904,7 +8906,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="12">
+      <c r="A163" s="10">
         <v>158</v>
       </c>
       <c r="C163" t="s">
@@ -8921,7 +8923,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="12">
+      <c r="A164" s="10">
         <v>159</v>
       </c>
       <c r="C164" t="s">
@@ -8938,7 +8940,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="12">
+      <c r="A165" s="10">
         <v>160</v>
       </c>
       <c r="C165" t="s">
@@ -8952,7 +8954,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="12">
+      <c r="A166" s="10">
         <v>161</v>
       </c>
       <c r="C166" t="s">
@@ -8966,7 +8968,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" s="12">
+      <c r="A167" s="10">
         <v>162</v>
       </c>
       <c r="C167" t="s">
@@ -8983,28 +8985,28 @@
       </c>
     </row>
     <row r="168" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="12">
+      <c r="A168" s="10">
         <v>163</v>
       </c>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12" t="s">
+      <c r="B168" s="10"/>
+      <c r="C168" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="D168" s="12">
+      <c r="D168" s="10">
         <v>735</v>
       </c>
-      <c r="E168" s="12">
+      <c r="E168" s="10">
         <v>730</v>
       </c>
-      <c r="F168" s="12">
+      <c r="F168" s="10">
         <v>898418437</v>
       </c>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="12">
+      <c r="A169" s="10">
         <v>164</v>
       </c>
       <c r="C169" t="s">
@@ -9021,7 +9023,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="12">
+      <c r="A170" s="10">
         <v>165</v>
       </c>
       <c r="C170" t="s">
@@ -9038,7 +9040,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" s="12">
+      <c r="A171" s="10">
         <v>166</v>
       </c>
       <c r="C171" t="s">
@@ -9055,7 +9057,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" s="12">
+      <c r="A172" s="10">
         <v>167</v>
       </c>
       <c r="C172" t="s">
@@ -9072,7 +9074,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="12">
+      <c r="A173" s="10">
         <v>168</v>
       </c>
       <c r="C173" t="s">
@@ -9089,7 +9091,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="12">
+      <c r="A174" s="10">
         <v>169</v>
       </c>
       <c r="C174" t="s">
@@ -9103,7 +9105,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="12">
+      <c r="A175" s="10">
         <v>170</v>
       </c>
       <c r="C175" t="s">
@@ -9120,7 +9122,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" s="12">
+      <c r="A176" s="10">
         <v>171</v>
       </c>
       <c r="C176" t="s">
@@ -9134,7 +9136,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="12">
+      <c r="A177" s="10">
         <v>172</v>
       </c>
       <c r="C177" t="s">
@@ -9151,7 +9153,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="12">
+      <c r="A178" s="10">
         <v>173</v>
       </c>
       <c r="C178" t="s">
@@ -9168,7 +9170,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="12">
+      <c r="A179" s="10">
         <v>174</v>
       </c>
       <c r="C179" t="s">
@@ -9185,7 +9187,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="12">
+      <c r="A180" s="10">
         <v>175</v>
       </c>
       <c r="C180" t="s">
@@ -9202,7 +9204,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="12">
+      <c r="A181" s="10">
         <v>176</v>
       </c>
       <c r="C181" t="s">
@@ -9216,7 +9218,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="12">
+      <c r="A182" s="10">
         <v>177</v>
       </c>
       <c r="C182" t="s">
@@ -9230,7 +9232,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="12">
+      <c r="A183" s="10">
         <v>178</v>
       </c>
       <c r="C183" t="s">
@@ -9244,7 +9246,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184" s="12">
+      <c r="A184" s="10">
         <v>179</v>
       </c>
       <c r="C184" t="s">
@@ -9261,7 +9263,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="12">
+      <c r="A185" s="10">
         <v>180</v>
       </c>
       <c r="B185"/>
@@ -9282,7 +9284,7 @@
       <c r="I185"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" s="12">
+      <c r="A186" s="10">
         <v>181</v>
       </c>
       <c r="C186" t="s">
@@ -9296,10 +9298,10 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" s="12">
+      <c r="A187" s="10">
         <v>182</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="11" t="s">
         <v>704</v>
       </c>
       <c r="D187">
@@ -9310,7 +9312,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A188" s="12">
+      <c r="A188" s="10">
         <v>183</v>
       </c>
       <c r="C188" t="s">
@@ -9327,7 +9329,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" s="12">
+      <c r="A189" s="10">
         <v>184</v>
       </c>
       <c r="C189" t="s">
@@ -9344,26 +9346,26 @@
       </c>
     </row>
     <row r="190" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="12">
+      <c r="A190" s="10">
         <v>185</v>
       </c>
-      <c r="B190" s="12"/>
-      <c r="C190" s="12" t="s">
+      <c r="B190" s="10"/>
+      <c r="C190" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="D190" s="12">
+      <c r="D190" s="10">
         <v>695</v>
       </c>
-      <c r="E190" s="12">
+      <c r="E190" s="10">
         <v>680</v>
       </c>
-      <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="12"/>
-      <c r="I190" s="12"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="12">
+      <c r="A191" s="10">
         <v>186</v>
       </c>
       <c r="C191" t="s">
@@ -9377,7 +9379,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="12">
+      <c r="A192" s="10">
         <v>187</v>
       </c>
       <c r="C192" t="s">
@@ -9394,7 +9396,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="12">
+      <c r="A193" s="10">
         <v>188</v>
       </c>
       <c r="B193"/>
@@ -9415,7 +9417,7 @@
       <c r="I193"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" s="12">
+      <c r="A194" s="10">
         <v>189</v>
       </c>
       <c r="C194" t="s">
@@ -9429,7 +9431,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="12">
+      <c r="A195" s="10">
         <v>190</v>
       </c>
       <c r="C195" t="s">
@@ -9443,7 +9445,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" s="12">
+      <c r="A196" s="10">
         <v>191</v>
       </c>
       <c r="C196" t="s">
@@ -9457,28 +9459,28 @@
       </c>
     </row>
     <row r="197" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="12">
+      <c r="A197" s="10">
         <v>192</v>
       </c>
-      <c r="B197" s="12"/>
-      <c r="C197" s="12" t="s">
+      <c r="B197" s="10"/>
+      <c r="C197" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="D197" s="12">
+      <c r="D197" s="10">
         <v>710</v>
       </c>
-      <c r="E197" s="12">
+      <c r="E197" s="10">
         <v>700</v>
       </c>
-      <c r="F197" s="12" t="s">
+      <c r="F197" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" s="12">
+      <c r="A198" s="10">
         <v>193</v>
       </c>
       <c r="C198" t="s">
@@ -9492,7 +9494,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" s="12">
+      <c r="A199" s="10">
         <v>194</v>
       </c>
       <c r="C199" t="s">
@@ -9506,7 +9508,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A200" s="12">
+      <c r="A200" s="10">
         <v>195</v>
       </c>
       <c r="C200" t="s">
@@ -9520,26 +9522,26 @@
       </c>
     </row>
     <row r="201" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="12">
+      <c r="A201" s="10">
         <v>196</v>
       </c>
-      <c r="B201" s="12"/>
-      <c r="C201" s="12" t="s">
+      <c r="B201" s="10"/>
+      <c r="C201" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="D201" s="12">
+      <c r="D201" s="10">
         <v>750</v>
       </c>
-      <c r="E201" s="12">
+      <c r="E201" s="10">
         <v>745</v>
       </c>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" s="12">
+      <c r="A202" s="10">
         <v>197</v>
       </c>
       <c r="C202" t="s">
@@ -9556,7 +9558,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A203" s="12">
+      <c r="A203" s="10">
         <v>198</v>
       </c>
       <c r="C203" t="s">
@@ -9570,7 +9572,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204" s="12">
+      <c r="A204" s="10">
         <v>199</v>
       </c>
       <c r="C204" t="s">
@@ -9584,7 +9586,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A205" s="12">
+      <c r="A205" s="10">
         <v>200</v>
       </c>
       <c r="C205" t="s">
@@ -9598,26 +9600,26 @@
       </c>
     </row>
     <row r="206" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="12">
+      <c r="A206" s="10">
         <v>201</v>
       </c>
-      <c r="B206" s="12"/>
-      <c r="C206" s="12" t="s">
+      <c r="B206" s="10"/>
+      <c r="C206" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="D206" s="12">
+      <c r="D206" s="10">
         <v>690</v>
       </c>
-      <c r="E206" s="12">
+      <c r="E206" s="10">
         <v>690</v>
       </c>
-      <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
-      <c r="H206" s="12"/>
-      <c r="I206" s="12"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207" s="12">
+      <c r="A207" s="10">
         <v>202</v>
       </c>
       <c r="C207" t="s">
@@ -9631,7 +9633,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208" s="12">
+      <c r="A208" s="10">
         <v>203</v>
       </c>
       <c r="C208" t="s">
@@ -9645,7 +9647,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="12">
+      <c r="A209" s="10">
         <v>204</v>
       </c>
       <c r="C209" t="s">
@@ -9659,7 +9661,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="12">
+      <c r="A210" s="10">
         <v>205</v>
       </c>
       <c r="C210" t="s">
@@ -9676,7 +9678,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="12">
+      <c r="A211" s="10">
         <v>206</v>
       </c>
       <c r="B211" t="s">
@@ -9696,7 +9698,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="12">
+      <c r="A212" s="10">
         <v>207</v>
       </c>
       <c r="B212" t="s">
@@ -9716,7 +9718,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="12">
+      <c r="A213" s="10">
         <v>208</v>
       </c>
       <c r="B213" t="s">
@@ -9736,7 +9738,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="12">
+      <c r="A214" s="10">
         <v>209</v>
       </c>
       <c r="B214" t="s">
@@ -9756,7 +9758,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="12">
+      <c r="A215" s="10">
         <v>210</v>
       </c>
       <c r="B215" t="s">
@@ -9776,7 +9778,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="12">
+      <c r="A216" s="10">
         <v>211</v>
       </c>
       <c r="B216" t="s">
@@ -9796,7 +9798,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="12">
+      <c r="A217" s="10">
         <v>212</v>
       </c>
       <c r="B217" t="s">
@@ -9816,7 +9818,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="12">
+      <c r="A218" s="10">
         <v>213</v>
       </c>
       <c r="B218" t="s">
@@ -9836,7 +9838,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="12">
+      <c r="A219" s="10">
         <v>214</v>
       </c>
       <c r="B219" t="s">
@@ -9856,7 +9858,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="12">
+      <c r="A220" s="10">
         <v>215</v>
       </c>
       <c r="B220" t="s">
@@ -9876,7 +9878,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="12">
+      <c r="A221" s="10">
         <v>216</v>
       </c>
       <c r="C221" t="s">
@@ -9896,7 +9898,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="12">
+      <c r="A222" s="10">
         <v>217</v>
       </c>
       <c r="C222" t="s">
@@ -9916,7 +9918,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="12">
+      <c r="A223" s="10">
         <v>218</v>
       </c>
       <c r="C223" t="s">
@@ -9936,7 +9938,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="12">
+      <c r="A224" s="10">
         <v>219</v>
       </c>
       <c r="C224" t="s">
@@ -9953,7 +9955,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225" s="12">
+      <c r="A225" s="10">
         <v>220</v>
       </c>
       <c r="C225" t="s">
@@ -9973,7 +9975,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A226" s="12">
+      <c r="A226" s="10">
         <v>221</v>
       </c>
       <c r="C226" t="s">
@@ -9993,7 +9995,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A227" s="12">
+      <c r="A227" s="10">
         <v>222</v>
       </c>
       <c r="B227" t="s">
@@ -10016,7 +10018,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="12">
+      <c r="A228" s="10">
         <v>223</v>
       </c>
       <c r="B228"/>
@@ -10039,7 +10041,7 @@
       <c r="I228"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" s="12">
+      <c r="A229" s="10">
         <v>224</v>
       </c>
       <c r="C229" t="s">
@@ -10059,7 +10061,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" s="12">
+      <c r="A230" s="10">
         <v>225</v>
       </c>
       <c r="C230" t="s">
@@ -10073,30 +10075,30 @@
       </c>
     </row>
     <row r="231" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="12">
+      <c r="A231" s="10">
         <v>226</v>
       </c>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12" t="s">
+      <c r="B231" s="10"/>
+      <c r="C231" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D231" s="12">
+      <c r="D231" s="10">
         <v>640</v>
       </c>
-      <c r="E231" s="12">
+      <c r="E231" s="10">
         <v>640</v>
       </c>
-      <c r="F231" s="12">
+      <c r="F231" s="10">
         <v>908951346</v>
       </c>
-      <c r="G231" s="12" t="s">
+      <c r="G231" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
     </row>
     <row r="232" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="12">
+      <c r="A232" s="10">
         <v>227</v>
       </c>
       <c r="B232"/>
@@ -10119,7 +10121,7 @@
       <c r="I232"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" s="12">
+      <c r="A233" s="10">
         <v>228</v>
       </c>
       <c r="C233" t="s">
@@ -10136,7 +10138,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="12">
+      <c r="A234" s="10">
         <v>229</v>
       </c>
       <c r="C234" t="s">
@@ -10156,7 +10158,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" s="12">
+      <c r="A235" s="10">
         <v>230</v>
       </c>
       <c r="C235" t="s">
@@ -10176,7 +10178,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A236" s="12">
+      <c r="A236" s="10">
         <v>231</v>
       </c>
       <c r="C236" t="s">
@@ -10196,7 +10198,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A237" s="12">
+      <c r="A237" s="10">
         <v>232</v>
       </c>
       <c r="C237" t="s">
@@ -10216,7 +10218,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A238" s="12">
+      <c r="A238" s="10">
         <v>233</v>
       </c>
       <c r="C238" t="s">
@@ -10236,7 +10238,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="12">
+      <c r="A239" s="10">
         <v>234</v>
       </c>
       <c r="C239" t="s">
@@ -10256,7 +10258,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A240" s="12">
+      <c r="A240" s="10">
         <v>235</v>
       </c>
       <c r="C240" t="s">
@@ -10273,7 +10275,7 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="12">
+      <c r="A241" s="10">
         <v>236</v>
       </c>
       <c r="C241" t="s">
@@ -10290,10 +10292,10 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="12">
+      <c r="A242" s="10">
         <v>237</v>
       </c>
-      <c r="C242" s="14" t="s">
+      <c r="C242" s="12" t="s">
         <v>735</v>
       </c>
       <c r="D242">
@@ -10307,7 +10309,7 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="12">
+      <c r="A243" s="10">
         <v>238</v>
       </c>
       <c r="C243" t="s">
@@ -10324,10 +10326,10 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="12">
+      <c r="A244" s="10">
         <v>239</v>
       </c>
-      <c r="C244" s="14" t="s">
+      <c r="C244" s="12" t="s">
         <v>737</v>
       </c>
       <c r="D244">
@@ -10341,10 +10343,10 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="12">
+      <c r="A245" s="10">
         <v>240</v>
       </c>
-      <c r="C245" s="14" t="s">
+      <c r="C245" s="12" t="s">
         <v>153</v>
       </c>
       <c r="D245">
@@ -10358,10 +10360,10 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="12">
+      <c r="A246" s="10">
         <v>241</v>
       </c>
-      <c r="C246" s="14" t="s">
+      <c r="C246" s="12" t="s">
         <v>738</v>
       </c>
       <c r="D246">
@@ -10372,7 +10374,7 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="12">
+      <c r="A247" s="10">
         <v>242</v>
       </c>
       <c r="C247" t="s">
@@ -10392,7 +10394,7 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="12">
+      <c r="A248" s="10">
         <v>243</v>
       </c>
       <c r="C248" t="s">
@@ -10409,7 +10411,7 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="12">
+      <c r="A249" s="10">
         <v>244</v>
       </c>
       <c r="C249" t="s">
@@ -10426,7 +10428,7 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" s="12">
+      <c r="A250" s="10">
         <v>245</v>
       </c>
       <c r="C250" t="s">
@@ -10443,7 +10445,7 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="12">
+      <c r="A251" s="10">
         <v>246</v>
       </c>
       <c r="C251" t="s">
@@ -10460,7 +10462,7 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="12">
+      <c r="A252" s="10">
         <v>247</v>
       </c>
       <c r="C252" t="s">
@@ -10474,7 +10476,7 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="12">
+      <c r="A253" s="10">
         <v>248</v>
       </c>
       <c r="C253" t="s">
@@ -10491,7 +10493,7 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" s="12">
+      <c r="A254" s="10">
         <v>249</v>
       </c>
       <c r="C254" t="s">
@@ -10508,7 +10510,7 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A255" s="12">
+      <c r="A255" s="10">
         <v>250</v>
       </c>
       <c r="C255" t="s">
@@ -10525,7 +10527,7 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A256" s="12">
+      <c r="A256" s="10">
         <v>251</v>
       </c>
       <c r="C256" t="s">
@@ -10545,7 +10547,7 @@
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A257" s="12">
+      <c r="A257" s="10">
         <v>252</v>
       </c>
       <c r="C257" t="s">
@@ -10562,7 +10564,7 @@
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A258" s="12">
+      <c r="A258" s="10">
         <v>253</v>
       </c>
       <c r="C258" t="s">
@@ -10579,7 +10581,7 @@
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A259" s="12">
+      <c r="A259" s="10">
         <v>254</v>
       </c>
       <c r="C259" t="s">
@@ -10599,7 +10601,7 @@
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A260" s="12">
+      <c r="A260" s="10">
         <v>255</v>
       </c>
       <c r="C260" t="s">
@@ -10616,7 +10618,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A261" s="12">
+      <c r="A261" s="10">
         <v>256</v>
       </c>
       <c r="C261" t="s">
@@ -10636,7 +10638,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A262" s="12">
+      <c r="A262" s="10">
         <v>257</v>
       </c>
       <c r="C262" t="s">
@@ -10653,7 +10655,7 @@
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A263" s="12">
+      <c r="A263" s="10">
         <v>258</v>
       </c>
       <c r="C263" t="s">
@@ -10667,7 +10669,7 @@
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A264" s="12">
+      <c r="A264" s="10">
         <v>259</v>
       </c>
       <c r="C264" t="s">
@@ -10681,7 +10683,7 @@
       </c>
     </row>
     <row r="265" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="12">
+      <c r="A265" s="10">
         <v>260</v>
       </c>
       <c r="B265"/>
@@ -10700,7 +10702,7 @@
       <c r="I265"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A266" s="12">
+      <c r="A266" s="10">
         <v>261</v>
       </c>
       <c r="C266" t="s">
@@ -10717,7 +10719,7 @@
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A267" s="12">
+      <c r="A267" s="10">
         <v>262</v>
       </c>
       <c r="C267" t="s">
@@ -10734,7 +10736,7 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A268" s="12">
+      <c r="A268" s="10">
         <v>263</v>
       </c>
       <c r="C268" t="s">
@@ -10751,7 +10753,7 @@
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A269" s="12">
+      <c r="A269" s="10">
         <v>264</v>
       </c>
       <c r="C269" t="s">
@@ -10765,7 +10767,7 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A270" s="12">
+      <c r="A270" s="10">
         <v>265</v>
       </c>
       <c r="C270" t="s">
@@ -10779,7 +10781,7 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A271" s="12">
+      <c r="A271" s="10">
         <v>266</v>
       </c>
       <c r="C271" t="s">
@@ -10796,7 +10798,7 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A272" s="12">
+      <c r="A272" s="10">
         <v>267</v>
       </c>
       <c r="C272" t="s">
@@ -10810,7 +10812,7 @@
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A273" s="12">
+      <c r="A273" s="10">
         <v>268</v>
       </c>
       <c r="C273" t="s">
@@ -10827,7 +10829,7 @@
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A274" s="12">
+      <c r="A274" s="10">
         <v>269</v>
       </c>
       <c r="C274" t="s">
@@ -10844,7 +10846,7 @@
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A275" s="12">
+      <c r="A275" s="10">
         <v>270</v>
       </c>
       <c r="C275" t="s">
@@ -10861,7 +10863,7 @@
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A276" s="12">
+      <c r="A276" s="10">
         <v>271</v>
       </c>
       <c r="C276" t="s">
@@ -10878,7 +10880,7 @@
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A277" s="12">
+      <c r="A277" s="10">
         <v>272</v>
       </c>
       <c r="C277" t="s">
@@ -10895,7 +10897,7 @@
       </c>
     </row>
     <row r="278" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="12">
+      <c r="A278" s="10">
         <v>273</v>
       </c>
       <c r="B278"/>
@@ -10918,7 +10920,7 @@
       <c r="I278"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A279" s="12">
+      <c r="A279" s="10">
         <v>274</v>
       </c>
       <c r="C279" t="s">
@@ -10935,7 +10937,7 @@
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A280" s="12">
+      <c r="A280" s="10">
         <v>275</v>
       </c>
       <c r="C280" t="s">
@@ -10952,7 +10954,7 @@
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A281" s="12">
+      <c r="A281" s="10">
         <v>276</v>
       </c>
       <c r="C281" t="s">
@@ -10969,7 +10971,7 @@
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A282" s="12">
+      <c r="A282" s="10">
         <v>277</v>
       </c>
       <c r="C282" t="s">
@@ -10989,7 +10991,7 @@
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A283" s="12">
+      <c r="A283" s="10">
         <v>278</v>
       </c>
       <c r="C283" t="s">
@@ -11006,7 +11008,7 @@
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A284" s="12">
+      <c r="A284" s="10">
         <v>279</v>
       </c>
       <c r="C284" t="s">
@@ -11023,7 +11025,7 @@
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A285" s="12">
+      <c r="A285" s="10">
         <v>280</v>
       </c>
       <c r="C285" t="s">
@@ -11037,7 +11039,7 @@
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A286" s="12">
+      <c r="A286" s="10">
         <v>281</v>
       </c>
       <c r="C286" t="s">
@@ -11054,7 +11056,7 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A287" s="12">
+      <c r="A287" s="10">
         <v>282</v>
       </c>
       <c r="C287" t="s">
@@ -11071,7 +11073,7 @@
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A288" s="12">
+      <c r="A288" s="10">
         <v>283</v>
       </c>
       <c r="C288" t="s">
@@ -11091,7 +11093,7 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A289" s="12">
+      <c r="A289" s="10">
         <v>284</v>
       </c>
       <c r="C289" t="s">
@@ -11111,7 +11113,7 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A290" s="12">
+      <c r="A290" s="10">
         <v>285</v>
       </c>
       <c r="C290" t="s">
@@ -11128,7 +11130,7 @@
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A291" s="12">
+      <c r="A291" s="10">
         <v>286</v>
       </c>
       <c r="C291" t="s">
@@ -11145,7 +11147,7 @@
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A292" s="12">
+      <c r="A292" s="10">
         <v>287</v>
       </c>
       <c r="C292" t="s">
@@ -11162,7 +11164,7 @@
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A293" s="12">
+      <c r="A293" s="10">
         <v>288</v>
       </c>
       <c r="C293" t="s">
@@ -11179,7 +11181,7 @@
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A294" s="12">
+      <c r="A294" s="10">
         <v>289</v>
       </c>
       <c r="C294" t="s">
@@ -11196,7 +11198,7 @@
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A295" s="12">
+      <c r="A295" s="10">
         <v>290</v>
       </c>
       <c r="C295" t="s">
@@ -11213,7 +11215,7 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A296" s="12">
+      <c r="A296" s="10">
         <v>291</v>
       </c>
       <c r="C296" t="s">
@@ -11230,7 +11232,7 @@
       </c>
     </row>
     <row r="297" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="12">
+      <c r="A297" s="10">
         <v>292</v>
       </c>
       <c r="B297"/>
@@ -11251,7 +11253,7 @@
       <c r="I297"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A298" s="12">
+      <c r="A298" s="10">
         <v>293</v>
       </c>
       <c r="C298" t="s">
@@ -11268,7 +11270,7 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A299" s="12">
+      <c r="A299" s="10">
         <v>294</v>
       </c>
       <c r="C299" t="s">
@@ -11285,7 +11287,7 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A300" s="12">
+      <c r="A300" s="10">
         <v>295</v>
       </c>
       <c r="C300" t="s">
@@ -11302,7 +11304,7 @@
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A301" s="12">
+      <c r="A301" s="10">
         <v>296</v>
       </c>
       <c r="C301" t="s">
@@ -11319,7 +11321,7 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A302" s="12">
+      <c r="A302" s="10">
         <v>297</v>
       </c>
       <c r="C302" t="s">
@@ -11336,7 +11338,7 @@
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A303" s="12">
+      <c r="A303" s="10">
         <v>298</v>
       </c>
       <c r="C303" t="s">
@@ -11350,7 +11352,7 @@
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A304" s="12">
+      <c r="A304" s="10">
         <v>299</v>
       </c>
       <c r="C304" t="s">
@@ -11364,7 +11366,7 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A305" s="12">
+      <c r="A305" s="10">
         <v>300</v>
       </c>
       <c r="C305" t="s">
@@ -11378,7 +11380,7 @@
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A306" s="12">
+      <c r="A306" s="10">
         <v>301</v>
       </c>
       <c r="C306" t="s">
@@ -11392,7 +11394,7 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A307" s="12">
+      <c r="A307" s="10">
         <v>302</v>
       </c>
       <c r="C307" t="s">
@@ -11406,7 +11408,7 @@
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A308" s="12">
+      <c r="A308" s="10">
         <v>303</v>
       </c>
       <c r="C308" t="s">
@@ -11420,7 +11422,7 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A309" s="12">
+      <c r="A309" s="10">
         <v>304</v>
       </c>
       <c r="C309" t="s">
@@ -11437,7 +11439,7 @@
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A310" s="12">
+      <c r="A310" s="10">
         <v>305</v>
       </c>
       <c r="C310" t="s">
@@ -11451,7 +11453,7 @@
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A311" s="12">
+      <c r="A311" s="10">
         <v>306</v>
       </c>
       <c r="C311" t="s">
@@ -11465,7 +11467,7 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A312" s="12">
+      <c r="A312" s="10">
         <v>307</v>
       </c>
       <c r="C312" t="s">
@@ -11479,7 +11481,7 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A313" s="12">
+      <c r="A313" s="10">
         <v>308</v>
       </c>
       <c r="C313" t="s">
@@ -11493,7 +11495,7 @@
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A314" s="12">
+      <c r="A314" s="10">
         <v>309</v>
       </c>
       <c r="C314" t="s">
@@ -11507,7 +11509,7 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A315" s="12">
+      <c r="A315" s="10">
         <v>310</v>
       </c>
       <c r="C315" t="s">
@@ -11524,7 +11526,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A316" s="12">
+      <c r="A316" s="10">
         <v>311</v>
       </c>
       <c r="C316" t="s">
@@ -11538,7 +11540,7 @@
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A317" s="12">
+      <c r="A317" s="10">
         <v>312</v>
       </c>
       <c r="C317" t="s">
@@ -11555,7 +11557,7 @@
       </c>
     </row>
     <row r="318" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="12">
+      <c r="A318" s="10">
         <v>313</v>
       </c>
       <c r="B318"/>
@@ -11574,7 +11576,7 @@
       <c r="I318"/>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A319" s="12">
+      <c r="A319" s="10">
         <v>314</v>
       </c>
       <c r="C319" t="s">
@@ -11588,7 +11590,7 @@
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A320" s="12">
+      <c r="A320" s="10">
         <v>315</v>
       </c>
       <c r="C320" t="s">
@@ -11605,7 +11607,7 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A321" s="12">
+      <c r="A321" s="10">
         <v>316</v>
       </c>
       <c r="C321" t="s">
@@ -11619,7 +11621,7 @@
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A322" s="12">
+      <c r="A322" s="10">
         <v>317</v>
       </c>
       <c r="C322" t="s">
@@ -11633,7 +11635,7 @@
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A323" s="12">
+      <c r="A323" s="10">
         <v>318</v>
       </c>
       <c r="C323" t="s">
@@ -11647,7 +11649,7 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A324" s="12">
+      <c r="A324" s="10">
         <v>319</v>
       </c>
       <c r="C324" t="s">
@@ -11661,7 +11663,7 @@
       </c>
     </row>
     <row r="325" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="12">
+      <c r="A325" s="10">
         <v>320</v>
       </c>
       <c r="B325"/>
@@ -11680,7 +11682,7 @@
       <c r="I325"/>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A326" s="12">
+      <c r="A326" s="10">
         <v>321</v>
       </c>
       <c r="C326" t="s">
@@ -11694,7 +11696,7 @@
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A327" s="12">
+      <c r="A327" s="10">
         <v>322</v>
       </c>
       <c r="C327" t="s">
@@ -11708,7 +11710,7 @@
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A328" s="12">
+      <c r="A328" s="10">
         <v>323</v>
       </c>
       <c r="C328" t="s">
@@ -11722,7 +11724,7 @@
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A329" s="12">
+      <c r="A329" s="10">
         <v>324</v>
       </c>
       <c r="C329" t="s">
@@ -11739,7 +11741,7 @@
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A330" s="12">
+      <c r="A330" s="10">
         <v>325</v>
       </c>
       <c r="C330" t="s">
@@ -11756,7 +11758,7 @@
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A331" s="12">
+      <c r="A331" s="10">
         <v>326</v>
       </c>
       <c r="C331" t="s">
@@ -11770,7 +11772,7 @@
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A332" s="12">
+      <c r="A332" s="10">
         <v>327</v>
       </c>
       <c r="C332" t="s">
@@ -11784,7 +11786,7 @@
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A333" s="12">
+      <c r="A333" s="10">
         <v>328</v>
       </c>
       <c r="C333" t="s">
@@ -11801,26 +11803,26 @@
       </c>
     </row>
     <row r="334" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="12">
+      <c r="A334" s="10">
         <v>329</v>
       </c>
-      <c r="B334" s="12"/>
-      <c r="C334" s="12" t="s">
+      <c r="B334" s="10"/>
+      <c r="C334" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D334" s="12">
+      <c r="D334" s="10">
         <v>685</v>
       </c>
-      <c r="E334" s="12">
+      <c r="E334" s="10">
         <v>670</v>
       </c>
-      <c r="F334" s="12"/>
-      <c r="G334" s="12"/>
-      <c r="H334" s="12"/>
-      <c r="I334" s="12"/>
+      <c r="F334" s="10"/>
+      <c r="G334" s="10"/>
+      <c r="H334" s="10"/>
+      <c r="I334" s="10"/>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A335" s="12">
+      <c r="A335" s="10">
         <v>330</v>
       </c>
       <c r="C335" t="s">
@@ -11837,7 +11839,7 @@
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A336" s="12">
+      <c r="A336" s="10">
         <v>331</v>
       </c>
       <c r="C336" t="s">
@@ -11851,7 +11853,7 @@
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A337" s="12">
+      <c r="A337" s="10">
         <v>332</v>
       </c>
       <c r="C337" t="s">
@@ -11868,7 +11870,7 @@
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A338" s="12">
+      <c r="A338" s="10">
         <v>333</v>
       </c>
       <c r="C338" t="s">
@@ -11882,7 +11884,7 @@
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A339" s="12">
+      <c r="A339" s="10">
         <v>334</v>
       </c>
       <c r="C339" t="s">
@@ -11896,7 +11898,7 @@
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A340" s="12">
+      <c r="A340" s="10">
         <v>335</v>
       </c>
       <c r="C340" t="s">
@@ -11910,7 +11912,7 @@
       </c>
     </row>
     <row r="341" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="12">
+      <c r="A341" s="10">
         <v>336</v>
       </c>
       <c r="B341"/>
@@ -11929,7 +11931,7 @@
       <c r="I341"/>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A342" s="12">
+      <c r="A342" s="10">
         <v>337</v>
       </c>
       <c r="C342" t="s">
@@ -11946,7 +11948,7 @@
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A343" s="12">
+      <c r="A343" s="10">
         <v>338</v>
       </c>
       <c r="C343" t="s">
@@ -11963,7 +11965,7 @@
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A344" s="12">
+      <c r="A344" s="10">
         <v>339</v>
       </c>
       <c r="C344" t="s">
@@ -11980,7 +11982,7 @@
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A345" s="12">
+      <c r="A345" s="10">
         <v>340</v>
       </c>
       <c r="C345" t="s">
@@ -11997,7 +11999,7 @@
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A346" s="12">
+      <c r="A346" s="10">
         <v>341</v>
       </c>
       <c r="C346" t="s">
@@ -12014,7 +12016,7 @@
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A347" s="12">
+      <c r="A347" s="10">
         <v>342</v>
       </c>
       <c r="C347" t="s">
@@ -12031,10 +12033,10 @@
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A348" s="12">
+      <c r="A348" s="10">
         <v>343</v>
       </c>
-      <c r="C348" s="14" t="s">
+      <c r="C348" s="12" t="s">
         <v>247</v>
       </c>
       <c r="D348">
@@ -12048,10 +12050,10 @@
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A349" s="12">
+      <c r="A349" s="10">
         <v>344</v>
       </c>
-      <c r="C349" s="14" t="s">
+      <c r="C349" s="12" t="s">
         <v>249</v>
       </c>
       <c r="D349">
@@ -12065,10 +12067,10 @@
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A350" s="12">
+      <c r="A350" s="10">
         <v>345</v>
       </c>
-      <c r="C350" s="14" t="s">
+      <c r="C350" s="12" t="s">
         <v>250</v>
       </c>
       <c r="D350">
@@ -12082,10 +12084,10 @@
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A351" s="12">
+      <c r="A351" s="10">
         <v>346</v>
       </c>
-      <c r="C351" s="14" t="s">
+      <c r="C351" s="12" t="s">
         <v>251</v>
       </c>
       <c r="D351">
@@ -12099,10 +12101,10 @@
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A352" s="12">
+      <c r="A352" s="10">
         <v>347</v>
       </c>
-      <c r="C352" s="14" t="s">
+      <c r="C352" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D352">
@@ -12116,10 +12118,10 @@
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A353" s="12">
+      <c r="A353" s="10">
         <v>348</v>
       </c>
-      <c r="C353" s="14" t="s">
+      <c r="C353" s="12" t="s">
         <v>253</v>
       </c>
       <c r="D353">
@@ -12133,10 +12135,10 @@
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A354" s="12">
+      <c r="A354" s="10">
         <v>349</v>
       </c>
-      <c r="C354" s="14" t="s">
+      <c r="C354" s="12" t="s">
         <v>254</v>
       </c>
       <c r="D354">
@@ -12150,10 +12152,10 @@
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A355" s="12">
+      <c r="A355" s="10">
         <v>350</v>
       </c>
-      <c r="C355" s="14" t="s">
+      <c r="C355" s="12" t="s">
         <v>255</v>
       </c>
       <c r="D355">
@@ -12167,10 +12169,10 @@
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A356" s="12">
+      <c r="A356" s="10">
         <v>351</v>
       </c>
-      <c r="C356" s="14" t="s">
+      <c r="C356" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D356">
@@ -12184,10 +12186,10 @@
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A357" s="12">
+      <c r="A357" s="10">
         <v>352</v>
       </c>
-      <c r="C357" s="14" t="s">
+      <c r="C357" s="12" t="s">
         <v>258</v>
       </c>
       <c r="D357">
@@ -12201,10 +12203,10 @@
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A358" s="12">
+      <c r="A358" s="10">
         <v>353</v>
       </c>
-      <c r="C358" s="14" t="s">
+      <c r="C358" s="12" t="s">
         <v>638</v>
       </c>
       <c r="D358">
@@ -12221,10 +12223,10 @@
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A359" s="12">
+      <c r="A359" s="10">
         <v>354</v>
       </c>
-      <c r="C359" s="14" t="s">
+      <c r="C359" s="12" t="s">
         <v>260</v>
       </c>
       <c r="D359">
@@ -12238,10 +12240,10 @@
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A360" s="12">
+      <c r="A360" s="10">
         <v>355</v>
       </c>
-      <c r="C360" s="14" t="s">
+      <c r="C360" s="12" t="s">
         <v>261</v>
       </c>
       <c r="D360">
@@ -12255,10 +12257,10 @@
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A361" s="12">
+      <c r="A361" s="10">
         <v>356</v>
       </c>
-      <c r="C361" s="14" t="s">
+      <c r="C361" s="12" t="s">
         <v>262</v>
       </c>
       <c r="D361">
@@ -12269,10 +12271,10 @@
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A362" s="12">
+      <c r="A362" s="10">
         <v>357</v>
       </c>
-      <c r="C362" s="14" t="s">
+      <c r="C362" s="12" t="s">
         <v>762</v>
       </c>
       <c r="D362">
@@ -12286,10 +12288,10 @@
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A363" s="12">
+      <c r="A363" s="10">
         <v>358</v>
       </c>
-      <c r="C363" s="14" t="s">
+      <c r="C363" s="12" t="s">
         <v>263</v>
       </c>
       <c r="D363">
@@ -12303,10 +12305,10 @@
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A364" s="12">
+      <c r="A364" s="10">
         <v>359</v>
       </c>
-      <c r="C364" s="14" t="s">
+      <c r="C364" s="12" t="s">
         <v>264</v>
       </c>
       <c r="D364">
@@ -12320,10 +12322,10 @@
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A365" s="12">
+      <c r="A365" s="10">
         <v>360</v>
       </c>
-      <c r="C365" s="14" t="s">
+      <c r="C365" s="12" t="s">
         <v>265</v>
       </c>
       <c r="D365">
@@ -12337,10 +12339,10 @@
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A366" s="12">
+      <c r="A366" s="10">
         <v>361</v>
       </c>
-      <c r="C366" s="14" t="s">
+      <c r="C366" s="12" t="s">
         <v>763</v>
       </c>
       <c r="D366">
@@ -12354,31 +12356,31 @@
       </c>
     </row>
     <row r="367" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="12">
+      <c r="A367" s="10">
         <v>362</v>
       </c>
-      <c r="B367" s="12"/>
-      <c r="C367" s="12" t="s">
+      <c r="B367" s="10"/>
+      <c r="C367" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D367" s="12">
+      <c r="D367" s="10">
         <v>625</v>
       </c>
-      <c r="E367" s="12">
+      <c r="E367" s="10">
         <v>615</v>
       </c>
-      <c r="F367" s="12">
+      <c r="F367" s="10">
         <v>931839884</v>
       </c>
-      <c r="G367" s="12"/>
-      <c r="H367" s="12"/>
-      <c r="I367" s="12"/>
+      <c r="G367" s="10"/>
+      <c r="H367" s="10"/>
+      <c r="I367" s="10"/>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A368" s="12">
+      <c r="A368" s="10">
         <v>363</v>
       </c>
-      <c r="C368" s="14" t="s">
+      <c r="C368" s="12" t="s">
         <v>267</v>
       </c>
       <c r="D368">
@@ -12389,10 +12391,10 @@
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A369" s="12">
+      <c r="A369" s="10">
         <v>364</v>
       </c>
-      <c r="C369" s="14" t="s">
+      <c r="C369" s="12" t="s">
         <v>268</v>
       </c>
       <c r="D369">
@@ -12403,10 +12405,10 @@
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A370" s="12">
+      <c r="A370" s="10">
         <v>365</v>
       </c>
-      <c r="C370" s="14" t="s">
+      <c r="C370" s="12" t="s">
         <v>270</v>
       </c>
       <c r="D370">
@@ -12417,10 +12419,10 @@
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A371" s="12">
+      <c r="A371" s="10">
         <v>366</v>
       </c>
-      <c r="C371" s="14" t="s">
+      <c r="C371" s="12" t="s">
         <v>271</v>
       </c>
       <c r="D371">
@@ -12431,10 +12433,10 @@
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A372" s="12">
+      <c r="A372" s="10">
         <v>367</v>
       </c>
-      <c r="C372" s="14" t="s">
+      <c r="C372" s="12" t="s">
         <v>272</v>
       </c>
       <c r="D372">
@@ -12445,10 +12447,10 @@
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A373" s="12">
+      <c r="A373" s="10">
         <v>368</v>
       </c>
-      <c r="C373" s="14" t="s">
+      <c r="C373" s="12" t="s">
         <v>273</v>
       </c>
       <c r="D373">
@@ -12462,10 +12464,10 @@
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A374" s="12">
+      <c r="A374" s="10">
         <v>369</v>
       </c>
-      <c r="C374" s="14" t="s">
+      <c r="C374" s="12" t="s">
         <v>764</v>
       </c>
       <c r="D374">
@@ -12479,31 +12481,31 @@
       </c>
     </row>
     <row r="375" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="12">
+      <c r="A375" s="10">
         <v>370</v>
       </c>
-      <c r="B375" s="12"/>
-      <c r="C375" s="15" t="s">
+      <c r="B375" s="10"/>
+      <c r="C375" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="D375" s="12">
+      <c r="D375" s="10">
         <v>720</v>
       </c>
-      <c r="E375" s="12">
+      <c r="E375" s="10">
         <v>715</v>
       </c>
-      <c r="F375" s="12">
+      <c r="F375" s="10">
         <v>946855539</v>
       </c>
-      <c r="G375" s="12"/>
-      <c r="H375" s="12"/>
-      <c r="I375" s="12"/>
+      <c r="G375" s="10"/>
+      <c r="H375" s="10"/>
+      <c r="I375" s="10"/>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A376" s="12">
+      <c r="A376" s="10">
         <v>371</v>
       </c>
-      <c r="C376" s="14" t="s">
+      <c r="C376" s="12" t="s">
         <v>274</v>
       </c>
       <c r="D376">
@@ -12517,10 +12519,10 @@
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A377" s="12">
+      <c r="A377" s="10">
         <v>372</v>
       </c>
-      <c r="C377" s="14" t="s">
+      <c r="C377" s="12" t="s">
         <v>275</v>
       </c>
       <c r="D377">
@@ -12534,10 +12536,10 @@
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A378" s="12">
+      <c r="A378" s="10">
         <v>373</v>
       </c>
-      <c r="C378" s="14" t="s">
+      <c r="C378" s="12" t="s">
         <v>276</v>
       </c>
       <c r="D378">
@@ -12551,10 +12553,10 @@
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A379" s="12">
+      <c r="A379" s="10">
         <v>374</v>
       </c>
-      <c r="C379" s="14" t="s">
+      <c r="C379" s="12" t="s">
         <v>277</v>
       </c>
       <c r="D379">
@@ -12568,10 +12570,10 @@
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A380" s="12">
+      <c r="A380" s="10">
         <v>375</v>
       </c>
-      <c r="C380" s="14" t="s">
+      <c r="C380" s="12" t="s">
         <v>278</v>
       </c>
       <c r="D380">
@@ -12585,10 +12587,10 @@
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A381" s="12">
+      <c r="A381" s="10">
         <v>376</v>
       </c>
-      <c r="C381" s="14" t="s">
+      <c r="C381" s="12" t="s">
         <v>279</v>
       </c>
       <c r="D381">
@@ -12602,10 +12604,10 @@
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A382" s="12">
+      <c r="A382" s="10">
         <v>377</v>
       </c>
-      <c r="C382" s="14" t="s">
+      <c r="C382" s="12" t="s">
         <v>280</v>
       </c>
       <c r="D382">
@@ -12619,10 +12621,10 @@
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A383" s="12">
+      <c r="A383" s="10">
         <v>378</v>
       </c>
-      <c r="C383" s="14" t="s">
+      <c r="C383" s="12" t="s">
         <v>281</v>
       </c>
       <c r="D383">
@@ -12636,10 +12638,10 @@
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A384" s="12">
+      <c r="A384" s="10">
         <v>379</v>
       </c>
-      <c r="C384" s="14" t="s">
+      <c r="C384" s="12" t="s">
         <v>282</v>
       </c>
       <c r="D384">
@@ -12653,10 +12655,10 @@
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A385" s="12">
+      <c r="A385" s="10">
         <v>380</v>
       </c>
-      <c r="C385" s="14" t="s">
+      <c r="C385" s="12" t="s">
         <v>283</v>
       </c>
       <c r="D385">
@@ -12667,10 +12669,10 @@
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A386" s="12">
+      <c r="A386" s="10">
         <v>381</v>
       </c>
-      <c r="C386" s="14" t="s">
+      <c r="C386" s="12" t="s">
         <v>766</v>
       </c>
       <c r="D386">
@@ -12681,10 +12683,10 @@
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A387" s="12">
+      <c r="A387" s="10">
         <v>382</v>
       </c>
-      <c r="C387" s="14" t="s">
+      <c r="C387" s="12" t="s">
         <v>748</v>
       </c>
       <c r="D387">
@@ -12698,10 +12700,10 @@
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A388" s="12">
+      <c r="A388" s="10">
         <v>383</v>
       </c>
-      <c r="C388" s="14" t="s">
+      <c r="C388" s="12" t="s">
         <v>286</v>
       </c>
       <c r="D388">
@@ -12715,10 +12717,10 @@
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A389" s="12">
+      <c r="A389" s="10">
         <v>384</v>
       </c>
-      <c r="C389" s="14" t="s">
+      <c r="C389" s="12" t="s">
         <v>287</v>
       </c>
       <c r="D389">
@@ -12732,10 +12734,10 @@
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A390" s="12">
+      <c r="A390" s="10">
         <v>385</v>
       </c>
-      <c r="C390" s="14" t="s">
+      <c r="C390" s="12" t="s">
         <v>288</v>
       </c>
       <c r="D390">
@@ -12749,10 +12751,10 @@
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A391" s="12">
+      <c r="A391" s="10">
         <v>386</v>
       </c>
-      <c r="C391" s="14" t="s">
+      <c r="C391" s="12" t="s">
         <v>289</v>
       </c>
       <c r="D391">
@@ -12766,7 +12768,7 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A392" s="12">
+      <c r="A392" s="10">
         <v>387</v>
       </c>
       <c r="C392" t="s">
@@ -12783,7 +12785,7 @@
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A393" s="12">
+      <c r="A393" s="10">
         <v>388</v>
       </c>
       <c r="C393" t="s">
@@ -12803,7 +12805,7 @@
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A394" s="12">
+      <c r="A394" s="10">
         <v>389</v>
       </c>
       <c r="C394" t="s">
@@ -12820,7 +12822,7 @@
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A395" s="12">
+      <c r="A395" s="10">
         <v>390</v>
       </c>
       <c r="C395" t="s">
@@ -12840,7 +12842,7 @@
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A396" s="12">
+      <c r="A396" s="10">
         <v>391</v>
       </c>
       <c r="C396" t="s">
@@ -12854,7 +12856,7 @@
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A397" s="12">
+      <c r="A397" s="10">
         <v>392</v>
       </c>
       <c r="C397" t="s">
@@ -12868,7 +12870,7 @@
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A398" s="12">
+      <c r="A398" s="10">
         <v>393</v>
       </c>
       <c r="C398" t="s">
@@ -12882,28 +12884,28 @@
       </c>
     </row>
     <row r="399" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="12">
+      <c r="A399" s="10">
         <v>394</v>
       </c>
-      <c r="B399" s="12"/>
-      <c r="C399" s="12" t="s">
+      <c r="B399" s="10"/>
+      <c r="C399" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D399" s="12">
+      <c r="D399" s="10">
         <v>580</v>
       </c>
-      <c r="E399" s="12">
+      <c r="E399" s="10">
         <v>580</v>
       </c>
-      <c r="F399" s="12">
+      <c r="F399" s="10">
         <v>901302299</v>
       </c>
-      <c r="G399" s="12"/>
-      <c r="H399" s="12"/>
-      <c r="I399" s="12"/>
+      <c r="G399" s="10"/>
+      <c r="H399" s="10"/>
+      <c r="I399" s="10"/>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A400" s="12">
+      <c r="A400" s="10">
         <v>395</v>
       </c>
       <c r="C400" t="s">
@@ -12920,7 +12922,7 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A401" s="12">
+      <c r="A401" s="10">
         <v>396</v>
       </c>
       <c r="C401" t="s">
@@ -12937,7 +12939,7 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A402" s="12">
+      <c r="A402" s="10">
         <v>397</v>
       </c>
       <c r="C402" t="s">
@@ -12954,7 +12956,7 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A403" s="12">
+      <c r="A403" s="10">
         <v>398</v>
       </c>
       <c r="C403" t="s">
@@ -12971,7 +12973,7 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A404" s="12">
+      <c r="A404" s="10">
         <v>399</v>
       </c>
       <c r="C404" t="s">
@@ -12988,7 +12990,7 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A405" s="12">
+      <c r="A405" s="10">
         <v>400</v>
       </c>
       <c r="C405" t="s">
@@ -13005,28 +13007,28 @@
       </c>
     </row>
     <row r="406" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="12">
+      <c r="A406" s="10">
         <v>401</v>
       </c>
-      <c r="B406" s="12"/>
-      <c r="C406" s="12" t="s">
+      <c r="B406" s="10"/>
+      <c r="C406" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D406" s="12">
+      <c r="D406" s="10">
         <v>625</v>
       </c>
-      <c r="E406" s="12">
+      <c r="E406" s="10">
         <v>620</v>
       </c>
-      <c r="F406" s="12">
+      <c r="F406" s="10">
         <v>903054040</v>
       </c>
-      <c r="G406" s="12"/>
-      <c r="H406" s="12"/>
-      <c r="I406" s="12"/>
+      <c r="G406" s="10"/>
+      <c r="H406" s="10"/>
+      <c r="I406" s="10"/>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A407" s="12">
+      <c r="A407" s="10">
         <v>402</v>
       </c>
       <c r="C407" t="s">
@@ -13040,7 +13042,7 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A408" s="12">
+      <c r="A408" s="10">
         <v>403</v>
       </c>
       <c r="C408" t="s">
@@ -13054,7 +13056,7 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A409" s="12">
+      <c r="A409" s="10">
         <v>404</v>
       </c>
       <c r="C409" t="s">
@@ -13071,7 +13073,7 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A410" s="12">
+      <c r="A410" s="10">
         <v>405</v>
       </c>
       <c r="C410" t="s">
@@ -13085,28 +13087,28 @@
       </c>
     </row>
     <row r="411" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="12">
+      <c r="A411" s="10">
         <v>406</v>
       </c>
-      <c r="B411" s="12"/>
-      <c r="C411" s="12" t="s">
+      <c r="B411" s="10"/>
+      <c r="C411" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D411" s="12">
+      <c r="D411" s="10">
         <v>590</v>
       </c>
-      <c r="E411" s="12">
+      <c r="E411" s="10">
         <v>590</v>
       </c>
-      <c r="F411" s="12">
+      <c r="F411" s="10">
         <v>911594969</v>
       </c>
-      <c r="G411" s="12"/>
-      <c r="H411" s="12"/>
-      <c r="I411" s="12"/>
+      <c r="G411" s="10"/>
+      <c r="H411" s="10"/>
+      <c r="I411" s="10"/>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A412" s="12">
+      <c r="A412" s="10">
         <v>407</v>
       </c>
       <c r="C412" t="s">
@@ -13120,7 +13122,7 @@
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A413" s="12">
+      <c r="A413" s="10">
         <v>408</v>
       </c>
       <c r="C413" t="s">
@@ -13137,7 +13139,7 @@
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A414" s="12">
+      <c r="A414" s="10">
         <v>409</v>
       </c>
       <c r="C414" t="s">
@@ -13151,7 +13153,7 @@
       </c>
     </row>
     <row r="415" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="12">
+      <c r="A415" s="10">
         <v>410</v>
       </c>
       <c r="B415"/>
@@ -13170,7 +13172,7 @@
       <c r="I415"/>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A416" s="12">
+      <c r="A416" s="10">
         <v>411</v>
       </c>
       <c r="C416" t="s">
@@ -13187,7 +13189,7 @@
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A417" s="12">
+      <c r="A417" s="10">
         <v>412</v>
       </c>
       <c r="C417" t="s">
@@ -13201,7 +13203,7 @@
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A418" s="12">
+      <c r="A418" s="10">
         <v>413</v>
       </c>
       <c r="C418" t="s">
@@ -13218,7 +13220,7 @@
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A419" s="12">
+      <c r="A419" s="10">
         <v>414</v>
       </c>
       <c r="C419" t="s">
@@ -13235,7 +13237,7 @@
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A420" s="12">
+      <c r="A420" s="10">
         <v>415</v>
       </c>
       <c r="C420" t="s">
@@ -13252,7 +13254,7 @@
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A421" s="12">
+      <c r="A421" s="10">
         <v>416</v>
       </c>
       <c r="C421" t="s">
@@ -13269,7 +13271,7 @@
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A422" s="12">
+      <c r="A422" s="10">
         <v>417</v>
       </c>
       <c r="C422" t="s">
@@ -13286,7 +13288,7 @@
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A423" s="12">
+      <c r="A423" s="10">
         <v>418</v>
       </c>
       <c r="C423" t="s">
@@ -13300,7 +13302,7 @@
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A424" s="12">
+      <c r="A424" s="10">
         <v>419</v>
       </c>
       <c r="C424" t="s">
@@ -13314,7 +13316,7 @@
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A425" s="12">
+      <c r="A425" s="10">
         <v>420</v>
       </c>
       <c r="C425" t="s">
@@ -13328,7 +13330,7 @@
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A426" s="12">
+      <c r="A426" s="10">
         <v>421</v>
       </c>
       <c r="C426" t="s">
@@ -13345,7 +13347,7 @@
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A427" s="12">
+      <c r="A427" s="10">
         <v>422</v>
       </c>
       <c r="C427" t="s">
@@ -13359,7 +13361,7 @@
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A428" s="12">
+      <c r="A428" s="10">
         <v>423</v>
       </c>
       <c r="C428" t="s">
@@ -13376,7 +13378,7 @@
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A429" s="12">
+      <c r="A429" s="10">
         <v>424</v>
       </c>
       <c r="C429" t="s">
@@ -13393,7 +13395,7 @@
       </c>
     </row>
     <row r="430" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="12">
+      <c r="A430" s="10">
         <v>425</v>
       </c>
       <c r="B430"/>
@@ -13414,7 +13416,7 @@
       <c r="I430"/>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A431" s="12">
+      <c r="A431" s="10">
         <v>426</v>
       </c>
       <c r="C431" t="s">
@@ -13428,7 +13430,7 @@
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A432" s="12">
+      <c r="A432" s="10">
         <v>427</v>
       </c>
       <c r="C432" t="s">
@@ -13442,7 +13444,7 @@
       </c>
     </row>
     <row r="433" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="12">
+      <c r="A433" s="10">
         <v>428</v>
       </c>
       <c r="B433"/>
@@ -13461,7 +13463,7 @@
       <c r="I433"/>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A434" s="12">
+      <c r="A434" s="10">
         <v>429</v>
       </c>
       <c r="C434" t="s">
@@ -13475,7 +13477,7 @@
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A435" s="12">
+      <c r="A435" s="10">
         <v>430</v>
       </c>
       <c r="C435" t="s">
@@ -13492,7 +13494,7 @@
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A436" s="12">
+      <c r="A436" s="10">
         <v>431</v>
       </c>
       <c r="C436" t="s">
@@ -13506,7 +13508,7 @@
       </c>
     </row>
     <row r="437" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="12">
+      <c r="A437" s="10">
         <v>432</v>
       </c>
       <c r="B437"/>
@@ -13525,7 +13527,7 @@
       <c r="I437"/>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A438" s="12">
+      <c r="A438" s="10">
         <v>433</v>
       </c>
       <c r="C438" t="s">
@@ -13539,7 +13541,7 @@
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A439" s="12">
+      <c r="A439" s="10">
         <v>434</v>
       </c>
       <c r="C439" t="s">
@@ -13556,7 +13558,7 @@
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A440" s="12">
+      <c r="A440" s="10">
         <v>435</v>
       </c>
       <c r="C440" t="s">
@@ -13573,7 +13575,7 @@
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A441" s="12">
+      <c r="A441" s="10">
         <v>436</v>
       </c>
       <c r="C441" t="s">
@@ -13590,7 +13592,7 @@
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A442" s="12">
+      <c r="A442" s="10">
         <v>437</v>
       </c>
       <c r="C442" t="s">
@@ -13610,7 +13612,7 @@
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A443" s="12">
+      <c r="A443" s="10">
         <v>438</v>
       </c>
       <c r="C443" t="s">
@@ -13630,7 +13632,7 @@
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A444" s="12">
+      <c r="A444" s="10">
         <v>439</v>
       </c>
       <c r="C444" t="s">
@@ -13647,7 +13649,7 @@
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A445" s="12">
+      <c r="A445" s="10">
         <v>440</v>
       </c>
       <c r="C445" t="s">
@@ -13664,7 +13666,7 @@
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A446" s="12">
+      <c r="A446" s="10">
         <v>441</v>
       </c>
       <c r="C446" t="s">
@@ -13681,7 +13683,7 @@
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A447" s="12">
+      <c r="A447" s="10">
         <v>442</v>
       </c>
       <c r="C447" t="s">
@@ -13695,7 +13697,7 @@
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A448" s="12">
+      <c r="A448" s="10">
         <v>443</v>
       </c>
       <c r="C448" t="s">
@@ -13709,7 +13711,7 @@
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A449" s="12">
+      <c r="A449" s="10">
         <v>444</v>
       </c>
       <c r="C449" t="s">
@@ -13723,7 +13725,7 @@
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A450" s="12">
+      <c r="A450" s="10">
         <v>445</v>
       </c>
       <c r="C450" t="s">
@@ -13737,7 +13739,7 @@
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A451" s="12">
+      <c r="A451" s="10">
         <v>446</v>
       </c>
       <c r="C451" t="s">
@@ -13751,7 +13753,7 @@
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A452" s="12">
+      <c r="A452" s="10">
         <v>447</v>
       </c>
       <c r="C452" t="s">
@@ -13765,7 +13767,7 @@
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A453" s="12">
+      <c r="A453" s="10">
         <v>448</v>
       </c>
       <c r="C453" t="s">
@@ -13782,7 +13784,7 @@
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A454" s="12">
+      <c r="A454" s="10">
         <v>449</v>
       </c>
       <c r="C454" t="s">
@@ -13796,7 +13798,7 @@
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A455" s="12">
+      <c r="A455" s="10">
         <v>450</v>
       </c>
       <c r="C455" t="s">
@@ -13810,7 +13812,7 @@
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A456" s="12">
+      <c r="A456" s="10">
         <v>451</v>
       </c>
       <c r="C456" t="s">
@@ -13824,7 +13826,7 @@
       </c>
     </row>
     <row r="457" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="12">
+      <c r="A457" s="10">
         <v>452</v>
       </c>
       <c r="B457" t="s">
@@ -13845,7 +13847,7 @@
       <c r="I457"/>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A458" s="12">
+      <c r="A458" s="10">
         <v>453</v>
       </c>
       <c r="C458" t="s">
@@ -13859,7 +13861,7 @@
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A459" s="12">
+      <c r="A459" s="10">
         <v>454</v>
       </c>
       <c r="C459" t="s">
@@ -13873,7 +13875,7 @@
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A460" s="12">
+      <c r="A460" s="10">
         <v>455</v>
       </c>
       <c r="C460" t="s">
@@ -13887,7 +13889,7 @@
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A461" s="12">
+      <c r="A461" s="10">
         <v>456</v>
       </c>
       <c r="C461" t="s">
@@ -13904,26 +13906,26 @@
       </c>
     </row>
     <row r="462" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="12">
+      <c r="A462" s="10">
         <v>457</v>
       </c>
-      <c r="B462" s="12"/>
-      <c r="C462" s="12" t="s">
+      <c r="B462" s="10"/>
+      <c r="C462" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D462" s="12">
+      <c r="D462" s="10">
         <v>640</v>
       </c>
-      <c r="E462" s="12">
+      <c r="E462" s="10">
         <v>635</v>
       </c>
-      <c r="F462" s="12"/>
-      <c r="G462" s="12"/>
-      <c r="H462" s="12"/>
-      <c r="I462" s="12"/>
+      <c r="F462" s="10"/>
+      <c r="G462" s="10"/>
+      <c r="H462" s="10"/>
+      <c r="I462" s="10"/>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A463" s="12">
+      <c r="A463" s="10">
         <v>458</v>
       </c>
       <c r="C463" t="s">
@@ -13940,7 +13942,7 @@
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A464" s="12">
+      <c r="A464" s="10">
         <v>459</v>
       </c>
       <c r="C464" t="s">
@@ -13957,7 +13959,7 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A465" s="12">
+      <c r="A465" s="10">
         <v>460</v>
       </c>
       <c r="C465" t="s">
@@ -13971,7 +13973,7 @@
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A466" s="12">
+      <c r="A466" s="10">
         <v>461</v>
       </c>
       <c r="C466" t="s">
@@ -13988,7 +13990,7 @@
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A467" s="12">
+      <c r="A467" s="10">
         <v>462</v>
       </c>
       <c r="C467" t="s">
@@ -14002,7 +14004,7 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A468" s="12">
+      <c r="A468" s="10">
         <v>463</v>
       </c>
       <c r="C468" t="s">
@@ -14016,7 +14018,7 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A469" s="12">
+      <c r="A469" s="10">
         <v>464</v>
       </c>
       <c r="C469" t="s">
@@ -14030,7 +14032,7 @@
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A470" s="12">
+      <c r="A470" s="10">
         <v>465</v>
       </c>
       <c r="C470" t="s">
@@ -14044,7 +14046,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A471" s="12">
+      <c r="A471" s="10">
         <v>466</v>
       </c>
       <c r="C471" t="s">
@@ -14058,7 +14060,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A472" s="12">
+      <c r="A472" s="10">
         <v>467</v>
       </c>
       <c r="C472" t="s">
@@ -14072,7 +14074,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A473" s="12">
+      <c r="A473" s="10">
         <v>468</v>
       </c>
       <c r="C473" t="s">
@@ -14086,7 +14088,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A474" s="12">
+      <c r="A474" s="10">
         <v>469</v>
       </c>
       <c r="C474" t="s">
@@ -14100,7 +14102,7 @@
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A475" s="12">
+      <c r="A475" s="10">
         <v>470</v>
       </c>
       <c r="C475" t="s">
@@ -14117,7 +14119,7 @@
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A476" s="12">
+      <c r="A476" s="10">
         <v>471</v>
       </c>
       <c r="C476" t="s">
@@ -14131,7 +14133,7 @@
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A477" s="12">
+      <c r="A477" s="10">
         <v>472</v>
       </c>
       <c r="C477" t="s">
@@ -14145,7 +14147,7 @@
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A478" s="12">
+      <c r="A478" s="10">
         <v>473</v>
       </c>
       <c r="C478" t="s">
@@ -14162,7 +14164,7 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A479" s="12">
+      <c r="A479" s="10">
         <v>474</v>
       </c>
       <c r="C479" t="s">
@@ -14176,7 +14178,7 @@
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A480" s="12">
+      <c r="A480" s="10">
         <v>475</v>
       </c>
       <c r="C480" t="s">
@@ -14190,7 +14192,7 @@
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A481" s="12">
+      <c r="A481" s="10">
         <v>476</v>
       </c>
       <c r="C481" t="s">
@@ -14204,7 +14206,7 @@
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A482" s="12">
+      <c r="A482" s="10">
         <v>477</v>
       </c>
       <c r="C482" t="s">
@@ -14218,7 +14220,7 @@
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A483" s="12">
+      <c r="A483" s="10">
         <v>478</v>
       </c>
       <c r="C483" t="s">
@@ -14232,7 +14234,7 @@
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A484" s="12">
+      <c r="A484" s="10">
         <v>479</v>
       </c>
       <c r="C484" t="s">
@@ -14249,7 +14251,7 @@
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A485" s="12">
+      <c r="A485" s="10">
         <v>480</v>
       </c>
       <c r="C485" t="s">
@@ -14266,7 +14268,7 @@
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A486" s="12">
+      <c r="A486" s="10">
         <v>481</v>
       </c>
       <c r="C486" t="s">
@@ -14283,7 +14285,7 @@
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A487" s="12">
+      <c r="A487" s="10">
         <v>482</v>
       </c>
       <c r="C487" t="s">
@@ -14297,7 +14299,7 @@
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A488" s="12">
+      <c r="A488" s="10">
         <v>483</v>
       </c>
       <c r="C488" t="s">
@@ -14314,7 +14316,7 @@
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A489" s="12">
+      <c r="A489" s="10">
         <v>484</v>
       </c>
       <c r="C489" t="s">
@@ -14328,7 +14330,7 @@
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A490" s="12">
+      <c r="A490" s="10">
         <v>485</v>
       </c>
       <c r="C490" t="s">
@@ -14342,7 +14344,7 @@
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A491" s="12">
+      <c r="A491" s="10">
         <v>486</v>
       </c>
       <c r="C491" t="s">
@@ -14356,7 +14358,7 @@
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A492" s="12">
+      <c r="A492" s="10">
         <v>487</v>
       </c>
       <c r="C492" t="s">
@@ -14370,7 +14372,7 @@
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A493" s="12">
+      <c r="A493" s="10">
         <v>488</v>
       </c>
       <c r="C493" t="s">
@@ -14384,7 +14386,7 @@
       </c>
     </row>
     <row r="494" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="12">
+      <c r="A494" s="10">
         <v>489</v>
       </c>
       <c r="B494"/>
@@ -14403,7 +14405,7 @@
       <c r="I494"/>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A495" s="12">
+      <c r="A495" s="10">
         <v>490</v>
       </c>
       <c r="C495" t="s">
@@ -14420,7 +14422,7 @@
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A496" s="12">
+      <c r="A496" s="10">
         <v>491</v>
       </c>
       <c r="C496" t="s">
@@ -14434,7 +14436,7 @@
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A497" s="12">
+      <c r="A497" s="10">
         <v>492</v>
       </c>
       <c r="C497" t="s">
@@ -14448,7 +14450,7 @@
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A498" s="12">
+      <c r="A498" s="10">
         <v>493</v>
       </c>
       <c r="C498" t="s">
@@ -14462,7 +14464,7 @@
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A499" s="12">
+      <c r="A499" s="10">
         <v>494</v>
       </c>
       <c r="C499" t="s">
@@ -14476,7 +14478,7 @@
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A500" s="12">
+      <c r="A500" s="10">
         <v>495</v>
       </c>
       <c r="C500" t="s">
@@ -14490,7 +14492,7 @@
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A501" s="12">
+      <c r="A501" s="10">
         <v>496</v>
       </c>
       <c r="C501" t="s">
@@ -14507,7 +14509,7 @@
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A502" s="12">
+      <c r="A502" s="10">
         <v>497</v>
       </c>
       <c r="C502" t="s">
@@ -14521,7 +14523,7 @@
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A503" s="12">
+      <c r="A503" s="10">
         <v>498</v>
       </c>
       <c r="C503" t="s">
@@ -14535,7 +14537,7 @@
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A504" s="12">
+      <c r="A504" s="10">
         <v>499</v>
       </c>
       <c r="C504" t="s">
@@ -14549,7 +14551,7 @@
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A505" s="12">
+      <c r="A505" s="10">
         <v>500</v>
       </c>
       <c r="C505" t="s">
@@ -14566,7 +14568,7 @@
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A506" s="12">
+      <c r="A506" s="10">
         <v>501</v>
       </c>
       <c r="C506" t="s">
@@ -14583,7 +14585,7 @@
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A507" s="12">
+      <c r="A507" s="10">
         <v>502</v>
       </c>
       <c r="C507" t="s">
@@ -14600,7 +14602,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A508" s="12">
+      <c r="A508" s="10">
         <v>503</v>
       </c>
       <c r="C508" t="s">
@@ -14614,7 +14616,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A509" s="12">
+      <c r="A509" s="10">
         <v>504</v>
       </c>
       <c r="C509" t="s">
@@ -14631,7 +14633,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A510" s="12">
+      <c r="A510" s="10">
         <v>505</v>
       </c>
       <c r="C510" t="s">
@@ -14648,7 +14650,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A511" s="12">
+      <c r="A511" s="10">
         <v>506</v>
       </c>
       <c r="C511" t="s">
@@ -14665,7 +14667,7 @@
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A512" s="12">
+      <c r="A512" s="10">
         <v>507</v>
       </c>
       <c r="C512" t="s">
@@ -14682,7 +14684,7 @@
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A513" s="12">
+      <c r="A513" s="10">
         <v>508</v>
       </c>
       <c r="C513" t="s">
@@ -14696,7 +14698,7 @@
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A514" s="12">
+      <c r="A514" s="10">
         <v>509</v>
       </c>
       <c r="C514" t="s">
@@ -14713,7 +14715,7 @@
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A515" s="12">
+      <c r="A515" s="10">
         <v>510</v>
       </c>
       <c r="C515" t="s">
@@ -14730,7 +14732,7 @@
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A516" s="12">
+      <c r="A516" s="10">
         <v>511</v>
       </c>
       <c r="C516" t="s">
@@ -14747,7 +14749,7 @@
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A517" s="12">
+      <c r="A517" s="10">
         <v>512</v>
       </c>
       <c r="C517" t="s">
@@ -14764,47 +14766,47 @@
       </c>
     </row>
     <row r="518" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="12">
+      <c r="A518" s="10">
         <v>513</v>
       </c>
-      <c r="B518" s="12"/>
-      <c r="C518" s="12" t="s">
+      <c r="B518" s="10"/>
+      <c r="C518" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="D518" s="12">
+      <c r="D518" s="10">
         <v>580</v>
       </c>
-      <c r="E518" s="12">
+      <c r="E518" s="10">
         <v>580</v>
       </c>
-      <c r="F518" s="12"/>
-      <c r="G518" s="12"/>
-      <c r="H518" s="12"/>
-      <c r="I518" s="12"/>
+      <c r="F518" s="10"/>
+      <c r="G518" s="10"/>
+      <c r="H518" s="10"/>
+      <c r="I518" s="10"/>
     </row>
     <row r="519" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="12">
+      <c r="A519" s="10">
         <v>514</v>
       </c>
-      <c r="B519" s="12"/>
-      <c r="C519" s="12" t="s">
+      <c r="B519" s="10"/>
+      <c r="C519" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D519" s="12">
+      <c r="D519" s="10">
         <v>660</v>
       </c>
-      <c r="E519" s="12">
+      <c r="E519" s="10">
         <v>650</v>
       </c>
-      <c r="F519" s="12">
+      <c r="F519" s="10">
         <v>702611811</v>
       </c>
-      <c r="G519" s="12"/>
-      <c r="H519" s="12"/>
-      <c r="I519" s="12"/>
+      <c r="G519" s="10"/>
+      <c r="H519" s="10"/>
+      <c r="I519" s="10"/>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A520" s="12">
+      <c r="A520" s="10">
         <v>515</v>
       </c>
       <c r="C520" t="s">
@@ -14821,7 +14823,7 @@
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A521" s="12">
+      <c r="A521" s="10">
         <v>516</v>
       </c>
       <c r="C521" t="s">
@@ -14838,7 +14840,7 @@
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A522" s="12">
+      <c r="A522" s="10">
         <v>517</v>
       </c>
       <c r="C522" t="s">
@@ -14855,7 +14857,7 @@
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A523" s="12">
+      <c r="A523" s="10">
         <v>518</v>
       </c>
       <c r="C523" t="s">
@@ -14872,7 +14874,7 @@
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A524" s="12">
+      <c r="A524" s="10">
         <v>519</v>
       </c>
       <c r="C524" t="s">
@@ -14889,7 +14891,7 @@
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A525" s="12">
+      <c r="A525" s="10">
         <v>520</v>
       </c>
       <c r="C525" t="s">
@@ -14906,7 +14908,7 @@
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A526" s="12">
+      <c r="A526" s="10">
         <v>521</v>
       </c>
       <c r="C526" t="s">
@@ -14923,7 +14925,7 @@
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A527" s="12">
+      <c r="A527" s="10">
         <v>522</v>
       </c>
       <c r="C527" t="s">
@@ -14937,7 +14939,7 @@
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A528" s="12">
+      <c r="A528" s="10">
         <v>523</v>
       </c>
       <c r="C528" t="s">
@@ -14954,7 +14956,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A529" s="12">
+      <c r="A529" s="10">
         <v>524</v>
       </c>
       <c r="C529" t="s">
@@ -14971,7 +14973,7 @@
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A530" s="12">
+      <c r="A530" s="10">
         <v>525</v>
       </c>
       <c r="C530" t="s">
@@ -14985,7 +14987,7 @@
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A531" s="12">
+      <c r="A531" s="10">
         <v>526</v>
       </c>
       <c r="C531" t="s">
@@ -14999,7 +15001,7 @@
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A532" s="12">
+      <c r="A532" s="10">
         <v>527</v>
       </c>
       <c r="C532" t="s">
@@ -15013,7 +15015,7 @@
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A533" s="12">
+      <c r="A533" s="10">
         <v>528</v>
       </c>
       <c r="C533" t="s">
@@ -15027,7 +15029,7 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A534" s="12">
+      <c r="A534" s="10">
         <v>529</v>
       </c>
       <c r="C534" t="s">
@@ -15044,7 +15046,7 @@
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A535" s="12">
+      <c r="A535" s="10">
         <v>530</v>
       </c>
       <c r="C535" t="s">
@@ -15058,7 +15060,7 @@
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A536" s="12">
+      <c r="A536" s="10">
         <v>531</v>
       </c>
       <c r="C536" t="s">
@@ -15072,7 +15074,7 @@
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A537" s="12">
+      <c r="A537" s="10">
         <v>532</v>
       </c>
       <c r="C537" t="s">
@@ -15089,7 +15091,7 @@
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A538" s="12">
+      <c r="A538" s="10">
         <v>533</v>
       </c>
       <c r="C538" t="s">
@@ -15106,7 +15108,7 @@
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A539" s="12">
+      <c r="A539" s="10">
         <v>534</v>
       </c>
       <c r="C539" t="s">
@@ -15123,7 +15125,7 @@
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A540" s="12">
+      <c r="A540" s="10">
         <v>535</v>
       </c>
       <c r="C540" t="s">
@@ -15137,7 +15139,7 @@
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A541" s="12">
+      <c r="A541" s="10">
         <v>536</v>
       </c>
       <c r="C541" t="s">
@@ -15151,7 +15153,7 @@
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A542" s="12">
+      <c r="A542" s="10">
         <v>537</v>
       </c>
       <c r="C542" t="s">
@@ -15168,7 +15170,7 @@
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A543" s="12">
+      <c r="A543" s="10">
         <v>538</v>
       </c>
       <c r="C543" t="s">
@@ -15182,7 +15184,7 @@
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A544" s="12">
+      <c r="A544" s="10">
         <v>539</v>
       </c>
       <c r="C544" t="s">
@@ -15196,7 +15198,7 @@
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A545" s="12">
+      <c r="A545" s="10">
         <v>540</v>
       </c>
       <c r="C545" t="s">
@@ -15210,7 +15212,7 @@
       </c>
     </row>
     <row r="546" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="12">
+      <c r="A546" s="10">
         <v>541</v>
       </c>
       <c r="B546"/>
@@ -15229,7 +15231,7 @@
       <c r="I546"/>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A547" s="12">
+      <c r="A547" s="10">
         <v>542</v>
       </c>
       <c r="C547" t="s">
@@ -15243,7 +15245,7 @@
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A548" s="12">
+      <c r="A548" s="10">
         <v>543</v>
       </c>
       <c r="C548" t="s">
@@ -15260,7 +15262,7 @@
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A549" s="12">
+      <c r="A549" s="10">
         <v>544</v>
       </c>
       <c r="C549" t="s">
@@ -15274,7 +15276,7 @@
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A550" s="12">
+      <c r="A550" s="10">
         <v>545</v>
       </c>
       <c r="C550" t="s">
@@ -15291,7 +15293,7 @@
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A551" s="12">
+      <c r="A551" s="10">
         <v>546</v>
       </c>
       <c r="C551" t="s">
@@ -15308,7 +15310,7 @@
       </c>
     </row>
     <row r="552" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="12">
+      <c r="A552" s="10">
         <v>547</v>
       </c>
       <c r="B552"/>
@@ -15327,7 +15329,7 @@
       <c r="I552"/>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A553" s="12">
+      <c r="A553" s="10">
         <v>548</v>
       </c>
       <c r="C553" t="s">
@@ -15344,7 +15346,7 @@
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A554" s="12">
+      <c r="A554" s="10">
         <v>549</v>
       </c>
       <c r="C554" t="s">
@@ -15358,7 +15360,7 @@
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A555" s="12">
+      <c r="A555" s="10">
         <v>550</v>
       </c>
       <c r="C555" t="s">
@@ -15375,7 +15377,7 @@
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A556" s="12">
+      <c r="A556" s="10">
         <v>551</v>
       </c>
       <c r="C556" t="s">
@@ -15392,47 +15394,47 @@
       </c>
     </row>
     <row r="557" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="12">
+      <c r="A557" s="10">
         <v>552</v>
       </c>
-      <c r="B557" s="12"/>
-      <c r="C557" s="12" t="s">
+      <c r="B557" s="10"/>
+      <c r="C557" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D557" s="12">
+      <c r="D557" s="10">
         <v>580</v>
       </c>
-      <c r="E557" s="12">
+      <c r="E557" s="10">
         <v>580</v>
       </c>
-      <c r="F557" s="12"/>
-      <c r="G557" s="12"/>
-      <c r="H557" s="12"/>
-      <c r="I557" s="12"/>
+      <c r="F557" s="10"/>
+      <c r="G557" s="10"/>
+      <c r="H557" s="10"/>
+      <c r="I557" s="10"/>
     </row>
     <row r="558" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="12">
+      <c r="A558" s="10">
         <v>553</v>
       </c>
-      <c r="B558" s="12"/>
-      <c r="C558" s="12" t="s">
+      <c r="B558" s="10"/>
+      <c r="C558" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="D558" s="12">
+      <c r="D558" s="10">
         <v>620</v>
       </c>
-      <c r="E558" s="12">
+      <c r="E558" s="10">
         <v>615</v>
       </c>
-      <c r="F558" s="12">
+      <c r="F558" s="10">
         <v>938061984</v>
       </c>
-      <c r="G558" s="12"/>
-      <c r="H558" s="12"/>
-      <c r="I558" s="12"/>
+      <c r="G558" s="10"/>
+      <c r="H558" s="10"/>
+      <c r="I558" s="10"/>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A559" s="12">
+      <c r="A559" s="10">
         <v>554</v>
       </c>
       <c r="C559" t="s">
@@ -15446,7 +15448,7 @@
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A560" s="12">
+      <c r="A560" s="10">
         <v>555</v>
       </c>
       <c r="C560" t="s">
@@ -15463,7 +15465,7 @@
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A561" s="12">
+      <c r="A561" s="10">
         <v>556</v>
       </c>
       <c r="C561" t="s">
@@ -15477,7 +15479,7 @@
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A562" s="12">
+      <c r="A562" s="10">
         <v>557</v>
       </c>
       <c r="C562" t="s">
@@ -15491,7 +15493,7 @@
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A563" s="12">
+      <c r="A563" s="10">
         <v>558</v>
       </c>
       <c r="C563" t="s">
@@ -15505,7 +15507,7 @@
       </c>
     </row>
     <row r="564" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="12">
+      <c r="A564" s="10">
         <v>559</v>
       </c>
       <c r="B564"/>
@@ -15524,7 +15526,7 @@
       <c r="I564"/>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A565" s="12">
+      <c r="A565" s="10">
         <v>560</v>
       </c>
       <c r="C565" t="s">
@@ -15541,7 +15543,7 @@
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A566" s="12">
+      <c r="A566" s="10">
         <v>561</v>
       </c>
       <c r="C566" t="s">
@@ -15555,7 +15557,7 @@
       </c>
     </row>
     <row r="567" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="12">
+      <c r="A567" s="10">
         <v>562</v>
       </c>
       <c r="B567"/>
@@ -15576,7 +15578,7 @@
       <c r="I567"/>
     </row>
     <row r="568" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="12">
+      <c r="A568" s="10">
         <v>563</v>
       </c>
       <c r="B568"/>
@@ -15597,7 +15599,7 @@
       <c r="I568"/>
     </row>
     <row r="569" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="12">
+      <c r="A569" s="10">
         <v>564</v>
       </c>
       <c r="B569"/>
@@ -15618,7 +15620,7 @@
       <c r="I569"/>
     </row>
     <row r="570" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="12">
+      <c r="A570" s="10">
         <v>565</v>
       </c>
       <c r="B570"/>
@@ -15639,7 +15641,7 @@
       <c r="I570"/>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A571" s="12">
+      <c r="A571" s="10">
         <v>566</v>
       </c>
       <c r="C571" t="s">
@@ -15656,7 +15658,7 @@
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A572" s="12">
+      <c r="A572" s="10">
         <v>567</v>
       </c>
       <c r="C572" t="s">
@@ -15670,7 +15672,7 @@
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A573" s="12">
+      <c r="A573" s="10">
         <v>568</v>
       </c>
       <c r="C573" t="s">
@@ -15687,7 +15689,7 @@
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A574" s="12">
+      <c r="A574" s="10">
         <v>569</v>
       </c>
       <c r="C574" t="s">
@@ -15704,7 +15706,7 @@
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A575" s="12">
+      <c r="A575" s="10">
         <v>570</v>
       </c>
       <c r="C575" t="s">
@@ -15718,7 +15720,7 @@
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A576" s="12">
+      <c r="A576" s="10">
         <v>571</v>
       </c>
       <c r="C576" t="s">
@@ -15735,26 +15737,26 @@
       </c>
     </row>
     <row r="577" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="12">
+      <c r="A577" s="10">
         <v>572</v>
       </c>
-      <c r="B577" s="12"/>
-      <c r="C577" s="12" t="s">
+      <c r="B577" s="10"/>
+      <c r="C577" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="D577" s="12">
+      <c r="D577" s="10">
         <v>585</v>
       </c>
-      <c r="E577" s="12">
+      <c r="E577" s="10">
         <v>585</v>
       </c>
-      <c r="F577" s="12"/>
-      <c r="G577" s="12"/>
-      <c r="H577" s="12"/>
-      <c r="I577" s="12"/>
+      <c r="F577" s="10"/>
+      <c r="G577" s="10"/>
+      <c r="H577" s="10"/>
+      <c r="I577" s="10"/>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A578" s="12">
+      <c r="A578" s="10">
         <v>573</v>
       </c>
       <c r="C578" t="s">
@@ -15768,7 +15770,7 @@
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A579" s="12">
+      <c r="A579" s="10">
         <v>574</v>
       </c>
       <c r="C579" t="s">
@@ -15782,7 +15784,7 @@
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A580" s="12">
+      <c r="A580" s="10">
         <v>575</v>
       </c>
       <c r="C580" t="s">
@@ -15799,7 +15801,7 @@
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A581" s="12">
+      <c r="A581" s="10">
         <v>576</v>
       </c>
       <c r="C581" t="s">
@@ -15813,7 +15815,7 @@
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A582" s="12">
+      <c r="A582" s="10">
         <v>577</v>
       </c>
       <c r="C582" t="s">
@@ -15830,7 +15832,7 @@
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A583" s="12">
+      <c r="A583" s="10">
         <v>578</v>
       </c>
       <c r="C583" t="s">
@@ -15850,7 +15852,7 @@
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A584" s="12">
+      <c r="A584" s="10">
         <v>579</v>
       </c>
       <c r="C584" t="s">
@@ -15864,7 +15866,7 @@
       </c>
     </row>
     <row r="585" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="12">
+      <c r="A585" s="10">
         <v>580</v>
       </c>
       <c r="B585"/>
@@ -15883,7 +15885,7 @@
       <c r="I585"/>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A586" s="12">
+      <c r="A586" s="10">
         <v>581</v>
       </c>
       <c r="C586" t="s">
@@ -15897,7 +15899,7 @@
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A587" s="12">
+      <c r="A587" s="10">
         <v>582</v>
       </c>
       <c r="C587" t="s">
@@ -15911,7 +15913,7 @@
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A588" s="12">
+      <c r="A588" s="10">
         <v>583</v>
       </c>
       <c r="C588" t="s">
@@ -15925,7 +15927,7 @@
       </c>
     </row>
     <row r="589" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="12">
+      <c r="A589" s="10">
         <v>584</v>
       </c>
       <c r="B589"/>
@@ -15946,7 +15948,7 @@
       <c r="I589"/>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A590" s="12">
+      <c r="A590" s="10">
         <v>585</v>
       </c>
       <c r="C590" t="s">
@@ -15960,7 +15962,7 @@
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A591" s="12">
+      <c r="A591" s="10">
         <v>586</v>
       </c>
       <c r="C591" t="s">
@@ -15977,7 +15979,7 @@
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A592" s="12">
+      <c r="A592" s="10">
         <v>587</v>
       </c>
       <c r="C592" t="s">
@@ -15994,7 +15996,7 @@
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A593" s="12">
+      <c r="A593" s="10">
         <v>588</v>
       </c>
       <c r="C593" t="s">
@@ -16011,7 +16013,7 @@
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A594" s="12">
+      <c r="A594" s="10">
         <v>589</v>
       </c>
       <c r="C594" t="s">
@@ -16028,7 +16030,7 @@
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A595" s="12">
+      <c r="A595" s="10">
         <v>590</v>
       </c>
       <c r="C595" t="s">
@@ -16045,7 +16047,7 @@
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A596" s="12">
+      <c r="A596" s="10">
         <v>591</v>
       </c>
       <c r="C596" t="s">
@@ -16062,7 +16064,7 @@
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A597" s="12">
+      <c r="A597" s="10">
         <v>592</v>
       </c>
       <c r="C597" t="s">
@@ -16079,7 +16081,7 @@
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A598" s="12">
+      <c r="A598" s="10">
         <v>593</v>
       </c>
       <c r="C598" t="s">
@@ -16096,7 +16098,7 @@
       </c>
     </row>
     <row r="599" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="12">
+      <c r="A599" s="10">
         <v>594</v>
       </c>
       <c r="B599"/>
@@ -16117,7 +16119,7 @@
       <c r="I599"/>
     </row>
     <row r="600" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="12">
+      <c r="A600" s="10">
         <v>595</v>
       </c>
       <c r="B600"/>
@@ -16136,7 +16138,7 @@
       <c r="I600"/>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A601" s="12">
+      <c r="A601" s="10">
         <v>596</v>
       </c>
       <c r="C601" t="s">
@@ -16153,7 +16155,7 @@
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A602" s="12">
+      <c r="A602" s="10">
         <v>597</v>
       </c>
       <c r="C602" t="s">
@@ -16167,7 +16169,7 @@
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A603" s="12">
+      <c r="A603" s="10">
         <v>598</v>
       </c>
       <c r="C603" t="s">
@@ -16184,7 +16186,7 @@
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A604" s="12">
+      <c r="A604" s="10">
         <v>599</v>
       </c>
       <c r="C604" t="s">
@@ -16201,7 +16203,7 @@
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A605" s="12">
+      <c r="A605" s="10">
         <v>600</v>
       </c>
       <c r="C605" t="s">
@@ -16215,7 +16217,7 @@
       </c>
     </row>
     <row r="606" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A606" s="12">
+      <c r="A606" s="10">
         <v>601</v>
       </c>
       <c r="B606"/>
@@ -16234,7 +16236,7 @@
       <c r="I606"/>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A607" s="12">
+      <c r="A607" s="10">
         <v>602</v>
       </c>
       <c r="C607" t="s">
@@ -16251,7 +16253,7 @@
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A608" s="12">
+      <c r="A608" s="10">
         <v>603</v>
       </c>
       <c r="C608" t="s">
@@ -16268,7 +16270,7 @@
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A609" s="12">
+      <c r="A609" s="10">
         <v>604</v>
       </c>
       <c r="C609" t="s">
@@ -16282,7 +16284,7 @@
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A610" s="12">
+      <c r="A610" s="10">
         <v>605</v>
       </c>
       <c r="C610" t="s">
@@ -16299,7 +16301,7 @@
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A611" s="12">
+      <c r="A611" s="10">
         <v>606</v>
       </c>
       <c r="C611" t="s">
@@ -16316,7 +16318,7 @@
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A612" s="12">
+      <c r="A612" s="10">
         <v>607</v>
       </c>
       <c r="C612" t="s">
@@ -16333,7 +16335,7 @@
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A613" s="12">
+      <c r="A613" s="10">
         <v>608</v>
       </c>
       <c r="C613" t="s">
@@ -16350,7 +16352,7 @@
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A614" s="12">
+      <c r="A614" s="10">
         <v>609</v>
       </c>
       <c r="C614" t="s">
@@ -16367,7 +16369,7 @@
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A615" s="12">
+      <c r="A615" s="10">
         <v>610</v>
       </c>
       <c r="C615" t="s">
@@ -16381,7 +16383,7 @@
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A616" s="12">
+      <c r="A616" s="10">
         <v>611</v>
       </c>
       <c r="C616" t="s">
@@ -16398,7 +16400,7 @@
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A617" s="12">
+      <c r="A617" s="10">
         <v>612</v>
       </c>
       <c r="C617" t="s">
@@ -16412,7 +16414,7 @@
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A618" s="12">
+      <c r="A618" s="10">
         <v>613</v>
       </c>
       <c r="C618" t="s">
@@ -16426,7 +16428,7 @@
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A619" s="12">
+      <c r="A619" s="10">
         <v>614</v>
       </c>
       <c r="C619" t="s">
@@ -16443,7 +16445,7 @@
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A620" s="12">
+      <c r="A620" s="10">
         <v>615</v>
       </c>
       <c r="C620" t="s">
@@ -16457,7 +16459,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A621" s="12">
+      <c r="A621" s="10">
         <v>616</v>
       </c>
       <c r="C621" t="s">
@@ -16471,7 +16473,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A622" s="12">
+      <c r="A622" s="10">
         <v>617</v>
       </c>
       <c r="C622" t="s">
@@ -16488,7 +16490,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A623" s="12">
+      <c r="A623" s="10">
         <v>618</v>
       </c>
       <c r="C623" t="s">
@@ -16505,7 +16507,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A624" s="12">
+      <c r="A624" s="10">
         <v>619</v>
       </c>
       <c r="C624" t="s">
@@ -16519,7 +16521,7 @@
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A625" s="12">
+      <c r="A625" s="10">
         <v>620</v>
       </c>
       <c r="C625" t="s">
@@ -16533,7 +16535,7 @@
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A626" s="12">
+      <c r="A626" s="10">
         <v>621</v>
       </c>
       <c r="C626" t="s">
@@ -16547,7 +16549,7 @@
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A627" s="12">
+      <c r="A627" s="10">
         <v>622</v>
       </c>
       <c r="C627" t="s">
@@ -16564,7 +16566,7 @@
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A628" s="12">
+      <c r="A628" s="10">
         <v>623</v>
       </c>
       <c r="C628" t="s">
@@ -16581,7 +16583,7 @@
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A629" s="12">
+      <c r="A629" s="10">
         <v>624</v>
       </c>
       <c r="C629" t="s">
@@ -16595,7 +16597,7 @@
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A630" s="12">
+      <c r="A630" s="10">
         <v>625</v>
       </c>
       <c r="C630" t="s">
@@ -16609,7 +16611,7 @@
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A631" s="12">
+      <c r="A631" s="10">
         <v>626</v>
       </c>
       <c r="C631" t="s">
@@ -16623,7 +16625,7 @@
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A632" s="12">
+      <c r="A632" s="10">
         <v>627</v>
       </c>
       <c r="C632" t="s">
@@ -16640,7 +16642,7 @@
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A633" s="12">
+      <c r="A633" s="10">
         <v>628</v>
       </c>
       <c r="C633" t="s">
@@ -16654,7 +16656,7 @@
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A634" s="12">
+      <c r="A634" s="10">
         <v>629</v>
       </c>
       <c r="C634" t="s">
@@ -16668,14 +16670,14 @@
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A635" s="12">
+      <c r="A635" s="10">
         <v>630</v>
       </c>
       <c r="C635" t="s">
         <v>565</v>
       </c>
       <c r="D635">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E635">
         <v>600</v>
@@ -16685,7 +16687,7 @@
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A636" s="12">
+      <c r="A636" s="10">
         <v>631</v>
       </c>
       <c r="C636" t="s">
@@ -16702,7 +16704,7 @@
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A637" s="12">
+      <c r="A637" s="10">
         <v>632</v>
       </c>
       <c r="C637" t="s">
@@ -16719,7 +16721,7 @@
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A638" s="12">
+      <c r="A638" s="10">
         <v>633</v>
       </c>
       <c r="C638" t="s">
@@ -16733,7 +16735,7 @@
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A639" s="12">
+      <c r="A639" s="10">
         <v>634</v>
       </c>
       <c r="C639" t="s">
@@ -16747,7 +16749,7 @@
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A640" s="12">
+      <c r="A640" s="10">
         <v>635</v>
       </c>
       <c r="C640" t="s">
@@ -16775,7 +16777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I243"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -16793,30 +16795,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -16828,10 +16830,10 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
@@ -16928,13 +16930,13 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>645</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>640</v>
       </c>
     </row>
@@ -17034,17 +17036,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>12</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>690</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>670</v>
       </c>
       <c r="F17">
@@ -17091,13 +17093,13 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>575</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>570</v>
       </c>
       <c r="F20">
@@ -17187,13 +17189,13 @@
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>685</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>670</v>
       </c>
       <c r="F26">
@@ -17207,10 +17209,10 @@
       <c r="C27" t="s">
         <v>794</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>640</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>630</v>
       </c>
     </row>
@@ -17272,7 +17274,7 @@
       <c r="E31">
         <v>610</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="14">
         <v>908908333</v>
       </c>
     </row>
@@ -17283,10 +17285,10 @@
       <c r="C32" t="s">
         <v>799</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>575</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <v>570</v>
       </c>
     </row>
@@ -17305,16 +17307,16 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+      <c r="A34" s="10">
         <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>801</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="10">
         <v>670</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="10">
         <v>670</v>
       </c>
     </row>
@@ -17540,17 +17542,17 @@
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+      <c r="A49" s="10">
         <v>44</v>
       </c>
       <c r="B49"/>
       <c r="C49" t="s">
         <v>211</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="10">
         <v>635</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="10">
         <v>630</v>
       </c>
       <c r="F49">
@@ -17831,17 +17833,17 @@
       </c>
     </row>
     <row r="68" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12">
+      <c r="A68" s="10">
         <v>63</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="s">
         <v>447</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="10">
         <v>645</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="10">
         <v>640</v>
       </c>
       <c r="F68">
@@ -18031,17 +18033,17 @@
       </c>
     </row>
     <row r="80" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="12">
+      <c r="A80" s="10">
         <v>75</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="s">
         <v>489</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="10">
         <v>680</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="10">
         <v>670</v>
       </c>
       <c r="F80"/>

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{914D047E-E3F0-904C-914F-9B614DBAE5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7FAFED-218C-BC4B-A3F2-8557017D2A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="760" windowWidth="17980" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19700" yWindow="500" windowWidth="17980" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
     <sheet name="Nữ " sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="1282">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -6751,6 +6764,9 @@
   </si>
   <si>
     <t>610</t>
+  </si>
+  <si>
+    <t>Huân 276</t>
   </si>
 </sst>
 </file>
@@ -7151,6 +7167,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7167,10 +7187,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8334,8 +8350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A661" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E714"/>
+    <sheetView showGridLines="0" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8355,17 +8371,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="28"/>
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
@@ -8385,17 +8401,17 @@
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="28"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
@@ -8452,10 +8468,10 @@
       <c r="C4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="80"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="34" t="s">
         <v>6</v>
       </c>
@@ -11669,7 +11685,7 @@
         <v>131</v>
       </c>
       <c r="D87" s="44">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E87" s="44">
         <v>625</v>
@@ -12515,7 +12531,7 @@
         <v>1080</v>
       </c>
       <c r="D109" s="44">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E109" s="44">
         <v>700</v>
@@ -12627,7 +12643,7 @@
         <v>1082</v>
       </c>
       <c r="D112" s="44">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E112" s="44">
         <v>700</v>
@@ -35149,11 +35165,19 @@
       <c r="Z714" s="31"/>
     </row>
     <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A715" s="28"/>
-      <c r="B715" s="28"/>
-      <c r="C715" s="28"/>
-      <c r="D715" s="33"/>
-      <c r="E715" s="33"/>
+      <c r="A715" s="54">
+        <v>710</v>
+      </c>
+      <c r="B715" s="54"/>
+      <c r="C715" s="54" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D715" s="55">
+        <v>600</v>
+      </c>
+      <c r="E715" s="55">
+        <v>600</v>
+      </c>
       <c r="F715" s="28"/>
       <c r="G715" s="28"/>
       <c r="H715" s="28"/>
@@ -43174,7 +43198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A77" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
       <selection activeCell="E105" sqref="D6:E105"/>
     </sheetView>
   </sheetViews>
@@ -43195,17 +43219,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -43225,17 +43249,17 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -43292,10 +43316,10 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
@@ -46950,7 +46974,7 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="54">
         <v>98</v>
       </c>
@@ -46986,7 +47010,7 @@
       <c r="Y103" s="69"/>
       <c r="Z103" s="69"/>
     </row>
-    <row r="104" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="54">
         <v>99</v>
       </c>
@@ -47000,7 +47024,7 @@
       <c r="E104" s="55">
         <v>590</v>
       </c>
-      <c r="F104" s="85" t="s">
+      <c r="F104" s="78" t="s">
         <v>1231</v>
       </c>
       <c r="G104" s="54"/>
@@ -47024,7 +47048,7 @@
       <c r="Y104" s="69"/>
       <c r="Z104" s="69"/>
     </row>
-    <row r="105" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="54">
         <v>100</v>
       </c>

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F603A74-0012-C54D-BCB7-9743E622506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CE5937-383B-864C-B969-916CF220BBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="760" windowWidth="18960" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15600" yWindow="760" windowWidth="18960" windowHeight="20300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -5309,8 +5309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="87" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView showGridLines="0" topLeftCell="A689" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16954,10 +16954,10 @@
         <v>400</v>
       </c>
       <c r="D313" s="2">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E313" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F313" s="22"/>
       <c r="G313" s="23"/>
@@ -39841,8 +39841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CE5937-383B-864C-B969-916CF220BBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E5F84B-5C3A-0240-BA9A-D152AB3FDD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15600" yWindow="760" windowWidth="18960" windowHeight="20300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1272">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -3745,13 +3745,118 @@
   </si>
   <si>
     <t>0918151894</t>
+  </si>
+  <si>
+    <t>Phú HT</t>
+  </si>
+  <si>
+    <t>Vương LV</t>
+  </si>
+  <si>
+    <t>Cường Phú Nhuận</t>
+  </si>
+  <si>
+    <t>Gia Khánh</t>
+  </si>
+  <si>
+    <t>Hùng Tam Kỳ</t>
+  </si>
+  <si>
+    <t>Johnny Cường</t>
+  </si>
+  <si>
+    <t>Henry Trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mẫn Seven </t>
+  </si>
+  <si>
+    <t>Được Hải Sản</t>
+  </si>
+  <si>
+    <t>Thiên Thới An</t>
+  </si>
+  <si>
+    <t>Vị Thới An</t>
+  </si>
+  <si>
+    <t>Xuân Chính Thắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảo Thép </t>
+  </si>
+  <si>
+    <t>Anh Võ Thép</t>
+  </si>
+  <si>
+    <t>Phương Toa Xe</t>
+  </si>
+  <si>
+    <t>Hòa Toa Xe</t>
+  </si>
+  <si>
+    <t>Vũ Vsip</t>
+  </si>
+  <si>
+    <t>Sơn Quỹ Tín Dụng NCT</t>
+  </si>
+  <si>
+    <t>Thái Tuấn Kiều</t>
+  </si>
+  <si>
+    <t>Phong 555</t>
+  </si>
+  <si>
+    <t>Bình Thới An</t>
+  </si>
+  <si>
+    <t>Phúc Thới An</t>
+  </si>
+  <si>
+    <t>Trí Gildden</t>
+  </si>
+  <si>
+    <t>Giải Chính Thắng</t>
+  </si>
+  <si>
+    <t>Lợi Q10</t>
+  </si>
+  <si>
+    <t>Hải VIB</t>
+  </si>
+  <si>
+    <t>Khánh Head</t>
+  </si>
+  <si>
+    <t>Vũ Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Giá Thủ Đức</t>
+  </si>
+  <si>
+    <t>Tú Gò Vấp</t>
+  </si>
+  <si>
+    <t>Minitao</t>
+  </si>
+  <si>
+    <t>Bình Củ Chi</t>
+  </si>
+  <si>
+    <t>Cường Tâm Linh</t>
+  </si>
+  <si>
+    <t>Tân Phú Yên</t>
+  </si>
+  <si>
+    <t>Ly Yoga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3809,6 +3914,36 @@
     <font>
       <sz val="11"/>
       <color indexed="15"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -4009,7 +4144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4147,6 +4282,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5309,8 +5476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A689" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E715"/>
+    <sheetView showGridLines="0" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B749" sqref="B749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6220,13 +6387,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="22"/>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="2">
-        <v>640</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="81">
+        <v>635</v>
+      </c>
+      <c r="E25" s="81">
         <v>630</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -6258,13 +6425,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="80" t="s">
         <v>1132</v>
       </c>
-      <c r="D26" s="2">
-        <v>650</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="81">
+        <v>645</v>
+      </c>
+      <c r="E26" s="81">
         <v>630</v>
       </c>
       <c r="F26" s="28"/>
@@ -7438,13 +7605,13 @@
         <v>53</v>
       </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="82" t="s">
         <v>1141</v>
       </c>
-      <c r="D58" s="2">
-        <v>650</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="83">
+        <v>665</v>
+      </c>
+      <c r="E58" s="83">
         <v>645</v>
       </c>
       <c r="F58" s="22"/>
@@ -7666,14 +7833,14 @@
       <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="2">
-        <v>640</v>
-      </c>
-      <c r="E64" s="2">
-        <v>630</v>
+      <c r="D64" s="81">
+        <v>635</v>
+      </c>
+      <c r="E64" s="81">
+        <v>625</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>80</v>
@@ -7778,13 +7945,13 @@
       <c r="B67" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="82" t="s">
         <v>1144</v>
       </c>
-      <c r="D67" s="2">
-        <v>615</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="D67" s="83">
+        <v>620</v>
+      </c>
+      <c r="E67" s="83">
         <v>615</v>
       </c>
       <c r="F67" s="22"/>
@@ -8524,13 +8691,13 @@
         <v>82</v>
       </c>
       <c r="B87" s="22"/>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="D87" s="2">
-        <v>635</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="D87" s="83">
+        <v>650</v>
+      </c>
+      <c r="E87" s="83">
         <v>625</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -8824,13 +8991,13 @@
         <v>90</v>
       </c>
       <c r="B95" s="22"/>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="D95" s="2">
-        <v>615</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="D95" s="81">
+        <v>610</v>
+      </c>
+      <c r="E95" s="81">
         <v>610</v>
       </c>
       <c r="F95" s="22"/>
@@ -9260,13 +9427,13 @@
         <v>102</v>
       </c>
       <c r="B107" s="22"/>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="80" t="s">
         <v>1157</v>
       </c>
-      <c r="D107" s="2">
-        <v>605</v>
-      </c>
-      <c r="E107" s="2">
+      <c r="D107" s="81">
+        <v>600</v>
+      </c>
+      <c r="E107" s="81">
         <v>600</v>
       </c>
       <c r="F107" s="22"/>
@@ -9296,13 +9463,13 @@
         <v>103</v>
       </c>
       <c r="B108" s="22"/>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="D108" s="2">
-        <v>670</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="D108" s="81">
+        <v>665</v>
+      </c>
+      <c r="E108" s="81">
         <v>640</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -9334,13 +9501,13 @@
         <v>104</v>
       </c>
       <c r="B109" s="22"/>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="82" t="s">
         <v>1032</v>
       </c>
-      <c r="D109" s="2">
-        <v>720</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="D109" s="83">
+        <v>735</v>
+      </c>
+      <c r="E109" s="83">
         <v>700</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -9588,14 +9755,14 @@
         <v>111</v>
       </c>
       <c r="B116" s="22"/>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="80" t="s">
         <v>1161</v>
       </c>
-      <c r="D116" s="2">
-        <v>660</v>
-      </c>
-      <c r="E116" s="2">
-        <v>660</v>
+      <c r="D116" s="81">
+        <v>655</v>
+      </c>
+      <c r="E116" s="81">
+        <v>650</v>
       </c>
       <c r="F116" s="34" t="s">
         <v>1236</v>
@@ -9626,13 +9793,13 @@
         <v>112</v>
       </c>
       <c r="B117" s="22"/>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="D117" s="2">
-        <v>585</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="D117" s="83">
+        <v>590</v>
+      </c>
+      <c r="E117" s="83">
         <v>580</v>
       </c>
       <c r="F117" s="22"/>
@@ -10108,13 +10275,13 @@
         <v>125</v>
       </c>
       <c r="B130" s="22"/>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="D130" s="2">
-        <v>660</v>
-      </c>
-      <c r="E130" s="2">
+      <c r="D130" s="83">
+        <v>675</v>
+      </c>
+      <c r="E130" s="83">
         <v>655</v>
       </c>
       <c r="F130" s="22"/>
@@ -10218,14 +10385,14 @@
         <v>128</v>
       </c>
       <c r="B133" s="22"/>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="D133" s="2">
-        <v>680</v>
-      </c>
-      <c r="E133" s="2">
+      <c r="D133" s="83">
         <v>685</v>
+      </c>
+      <c r="E133" s="83">
+        <v>670</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>149</v>
@@ -12526,13 +12693,13 @@
         <v>190</v>
       </c>
       <c r="B195" s="22"/>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="D195" s="2">
-        <v>725</v>
-      </c>
-      <c r="E195" s="2">
+      <c r="D195" s="81">
+        <v>720</v>
+      </c>
+      <c r="E195" s="81">
         <v>700</v>
       </c>
       <c r="F195" s="22"/>
@@ -12780,14 +12947,14 @@
         <v>197</v>
       </c>
       <c r="B202" s="22"/>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="80" t="s">
         <v>1210</v>
       </c>
-      <c r="D202" s="2">
-        <v>650</v>
-      </c>
-      <c r="E202" s="2">
-        <v>640</v>
+      <c r="D202" s="81">
+        <v>645</v>
+      </c>
+      <c r="E202" s="81">
+        <v>635</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>215</v>
@@ -12962,14 +13129,14 @@
         <v>202</v>
       </c>
       <c r="B207" s="22"/>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="2">
-        <v>740</v>
-      </c>
-      <c r="E207" s="2">
-        <v>740</v>
+      <c r="D207" s="81">
+        <v>735</v>
+      </c>
+      <c r="E207" s="81">
+        <v>730</v>
       </c>
       <c r="F207" s="22"/>
       <c r="G207" s="23"/>
@@ -14222,14 +14389,14 @@
         <v>235</v>
       </c>
       <c r="B240" s="22"/>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="D240" s="2">
-        <v>610</v>
-      </c>
-      <c r="E240" s="2">
-        <v>600</v>
+      <c r="D240" s="83">
+        <v>635</v>
+      </c>
+      <c r="E240" s="83">
+        <v>620</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>286</v>
@@ -14638,13 +14805,13 @@
         <v>246</v>
       </c>
       <c r="B251" s="22"/>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="84" t="s">
         <v>304</v>
       </c>
-      <c r="D251" s="2">
-        <v>645</v>
-      </c>
-      <c r="E251" s="2">
+      <c r="D251" s="85">
+        <v>655</v>
+      </c>
+      <c r="E251" s="85">
         <v>630</v>
       </c>
       <c r="F251" s="1" t="s">
@@ -14826,14 +14993,14 @@
         <v>251</v>
       </c>
       <c r="B256" s="22"/>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="80" t="s">
         <v>1061</v>
       </c>
-      <c r="D256" s="2">
-        <v>635</v>
-      </c>
-      <c r="E256" s="2">
-        <v>635</v>
+      <c r="D256" s="81">
+        <v>630</v>
+      </c>
+      <c r="E256" s="81">
+        <v>630</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>313</v>
@@ -15422,14 +15589,14 @@
         <v>267</v>
       </c>
       <c r="B272" s="22"/>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="D272" s="2">
-        <v>650</v>
-      </c>
-      <c r="E272" s="2">
-        <v>650</v>
+      <c r="D272" s="83">
+        <v>690</v>
+      </c>
+      <c r="E272" s="83">
+        <v>670</v>
       </c>
       <c r="F272" s="22"/>
       <c r="G272" s="23"/>
@@ -15610,13 +15777,13 @@
         <v>272</v>
       </c>
       <c r="B277" s="22"/>
-      <c r="C277" s="1" t="s">
+      <c r="C277" s="84" t="s">
         <v>347</v>
       </c>
-      <c r="D277" s="2">
-        <v>630</v>
-      </c>
-      <c r="E277" s="2">
+      <c r="D277" s="85">
+        <v>635</v>
+      </c>
+      <c r="E277" s="85">
         <v>610</v>
       </c>
       <c r="F277" s="1" t="s">
@@ -15648,14 +15815,14 @@
         <v>273</v>
       </c>
       <c r="B278" s="22"/>
-      <c r="C278" s="1" t="s">
+      <c r="C278" s="82" t="s">
         <v>349</v>
       </c>
-      <c r="D278" s="2">
-        <v>685</v>
-      </c>
-      <c r="E278" s="2">
-        <v>660</v>
+      <c r="D278" s="83">
+        <v>695</v>
+      </c>
+      <c r="E278" s="83">
+        <v>670</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>350</v>
@@ -16058,13 +16225,13 @@
         <v>284</v>
       </c>
       <c r="B289" s="22"/>
-      <c r="C289" s="1" t="s">
+      <c r="C289" s="82" t="s">
         <v>364</v>
       </c>
-      <c r="D289" s="2">
-        <v>660</v>
-      </c>
-      <c r="E289" s="2">
+      <c r="D289" s="83">
+        <v>675</v>
+      </c>
+      <c r="E289" s="83">
         <v>650</v>
       </c>
       <c r="F289" s="1" t="s">
@@ -16362,13 +16529,13 @@
         <v>292</v>
       </c>
       <c r="B297" s="22"/>
-      <c r="C297" s="1" t="s">
+      <c r="C297" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="D297" s="2">
-        <v>635</v>
-      </c>
-      <c r="E297" s="2">
+      <c r="D297" s="85">
+        <v>640</v>
+      </c>
+      <c r="E297" s="85">
         <v>615</v>
       </c>
       <c r="F297" s="1" t="s">
@@ -16512,14 +16679,14 @@
         <v>296</v>
       </c>
       <c r="B301" s="22"/>
-      <c r="C301" s="1" t="s">
+      <c r="C301" s="82" t="s">
         <v>385</v>
       </c>
-      <c r="D301" s="2">
-        <v>615</v>
-      </c>
-      <c r="E301" s="2">
-        <v>605</v>
+      <c r="D301" s="83">
+        <v>640</v>
+      </c>
+      <c r="E301" s="83">
+        <v>625</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>386</v>
@@ -16804,13 +16971,13 @@
         <v>304</v>
       </c>
       <c r="B309" s="22"/>
-      <c r="C309" s="1" t="s">
+      <c r="C309" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="D309" s="2">
-        <v>620</v>
-      </c>
-      <c r="E309" s="2">
+      <c r="D309" s="81">
+        <v>615</v>
+      </c>
+      <c r="E309" s="81">
         <v>605</v>
       </c>
       <c r="F309" s="1" t="s">
@@ -20332,14 +20499,14 @@
         <v>399</v>
       </c>
       <c r="B404" s="22"/>
-      <c r="C404" s="1" t="s">
+      <c r="C404" s="82" t="s">
         <v>537</v>
       </c>
-      <c r="D404" s="2">
+      <c r="D404" s="83">
+        <v>680</v>
+      </c>
+      <c r="E404" s="83">
         <v>670</v>
-      </c>
-      <c r="E404" s="2">
-        <v>650</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>538</v>
@@ -20558,13 +20725,13 @@
         <v>405</v>
       </c>
       <c r="B410" s="22"/>
-      <c r="C410" s="1" t="s">
+      <c r="C410" s="82" t="s">
         <v>547</v>
       </c>
-      <c r="D410" s="2">
-        <v>740</v>
-      </c>
-      <c r="E410" s="2">
+      <c r="D410" s="83">
+        <v>745</v>
+      </c>
+      <c r="E410" s="83">
         <v>730</v>
       </c>
       <c r="F410" s="22"/>
@@ -20632,14 +20799,14 @@
         <v>407</v>
       </c>
       <c r="B412" s="22"/>
-      <c r="C412" s="1" t="s">
+      <c r="C412" s="80" t="s">
         <v>550</v>
       </c>
-      <c r="D412" s="2">
-        <v>675</v>
-      </c>
-      <c r="E412" s="2">
+      <c r="D412" s="81">
         <v>670</v>
+      </c>
+      <c r="E412" s="81">
+        <v>660</v>
       </c>
       <c r="F412" s="22"/>
       <c r="G412" s="23"/>
@@ -21406,14 +21573,14 @@
         <v>428</v>
       </c>
       <c r="B433" s="22"/>
-      <c r="C433" s="1" t="s">
+      <c r="C433" s="80" t="s">
         <v>580</v>
       </c>
-      <c r="D433" s="2">
-        <v>695</v>
-      </c>
-      <c r="E433" s="2">
-        <v>680</v>
+      <c r="D433" s="81">
+        <v>690</v>
+      </c>
+      <c r="E433" s="81">
+        <v>660</v>
       </c>
       <c r="F433" s="22"/>
       <c r="G433" s="23"/>
@@ -22833,7 +23000,7 @@
         <v>590</v>
       </c>
       <c r="E472" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F472" s="22"/>
       <c r="G472" s="23"/>
@@ -23884,14 +24051,14 @@
         <v>496</v>
       </c>
       <c r="B501" s="22"/>
-      <c r="C501" s="1" t="s">
+      <c r="C501" s="82" t="s">
         <v>664</v>
       </c>
-      <c r="D501" s="2">
-        <v>640</v>
-      </c>
-      <c r="E501" s="2">
-        <v>635</v>
+      <c r="D501" s="83">
+        <v>680</v>
+      </c>
+      <c r="E501" s="83">
+        <v>665</v>
       </c>
       <c r="F501" s="1" t="s">
         <v>665</v>
@@ -24934,14 +25101,14 @@
         <v>524</v>
       </c>
       <c r="B529" s="22"/>
-      <c r="C529" s="1" t="s">
+      <c r="C529" s="80" t="s">
         <v>713</v>
       </c>
-      <c r="D529" s="2">
-        <v>625</v>
-      </c>
-      <c r="E529" s="2">
+      <c r="D529" s="81">
         <v>620</v>
+      </c>
+      <c r="E529" s="81">
+        <v>615</v>
       </c>
       <c r="F529" s="1" t="s">
         <v>714</v>
@@ -25190,14 +25357,14 @@
         <v>531</v>
       </c>
       <c r="B536" s="22"/>
-      <c r="C536" s="1" t="s">
+      <c r="C536" s="80" t="s">
         <v>722</v>
       </c>
-      <c r="D536" s="2">
-        <v>700</v>
-      </c>
-      <c r="E536" s="2">
-        <v>690</v>
+      <c r="D536" s="81">
+        <v>695</v>
+      </c>
+      <c r="E536" s="81">
+        <v>680</v>
       </c>
       <c r="F536" s="22"/>
       <c r="G536" s="23"/>
@@ -26002,14 +26169,14 @@
         <v>553</v>
       </c>
       <c r="B558" s="22"/>
-      <c r="C558" s="1" t="s">
+      <c r="C558" s="80" t="s">
         <v>754</v>
       </c>
-      <c r="D558" s="2">
-        <v>615</v>
-      </c>
-      <c r="E558" s="2">
-        <v>615</v>
+      <c r="D558" s="81">
+        <v>610</v>
+      </c>
+      <c r="E558" s="81">
+        <v>610</v>
       </c>
       <c r="F558" s="1" t="s">
         <v>755</v>
@@ -26114,13 +26281,13 @@
         <v>556</v>
       </c>
       <c r="B561" s="22"/>
-      <c r="C561" s="1" t="s">
+      <c r="C561" s="80" t="s">
         <v>759</v>
       </c>
-      <c r="D561" s="2">
-        <v>610</v>
-      </c>
-      <c r="E561" s="2">
+      <c r="D561" s="81">
+        <v>605</v>
+      </c>
+      <c r="E561" s="81">
         <v>605</v>
       </c>
       <c r="F561" s="22"/>
@@ -26296,14 +26463,14 @@
         <v>561</v>
       </c>
       <c r="B566" s="22"/>
-      <c r="C566" s="1" t="s">
+      <c r="C566" s="80" t="s">
         <v>765</v>
       </c>
-      <c r="D566" s="2">
-        <v>600</v>
-      </c>
-      <c r="E566" s="2">
-        <v>600</v>
+      <c r="D566" s="81">
+        <v>595</v>
+      </c>
+      <c r="E566" s="81">
+        <v>590</v>
       </c>
       <c r="F566" s="22"/>
       <c r="G566" s="23"/>
@@ -26374,7 +26541,7 @@
         <v>768</v>
       </c>
       <c r="D568" s="2">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="E568" s="2">
         <v>625</v>
@@ -26708,14 +26875,14 @@
         <v>572</v>
       </c>
       <c r="B577" s="22"/>
-      <c r="C577" s="1" t="s">
+      <c r="C577" s="80" t="s">
         <v>784</v>
       </c>
-      <c r="D577" s="2">
-        <v>585</v>
-      </c>
-      <c r="E577" s="2">
-        <v>585</v>
+      <c r="D577" s="81">
+        <v>580</v>
+      </c>
+      <c r="E577" s="81">
+        <v>580</v>
       </c>
       <c r="F577" s="22"/>
       <c r="G577" s="20"/>
@@ -27932,13 +28099,13 @@
         <v>605</v>
       </c>
       <c r="B610" s="28"/>
-      <c r="C610" s="1" t="s">
+      <c r="C610" s="82" t="s">
         <v>834</v>
       </c>
-      <c r="D610" s="2">
-        <v>665</v>
-      </c>
-      <c r="E610" s="2">
+      <c r="D610" s="83">
+        <v>685</v>
+      </c>
+      <c r="E610" s="83">
         <v>655</v>
       </c>
       <c r="F610" s="1" t="s">
@@ -29936,14 +30103,14 @@
         <v>659</v>
       </c>
       <c r="B664" s="28"/>
-      <c r="C664" s="3" t="s">
+      <c r="C664" s="86" t="s">
         <v>918</v>
       </c>
-      <c r="D664" s="2">
-        <v>720</v>
-      </c>
-      <c r="E664" s="2">
-        <v>705</v>
+      <c r="D664" s="81">
+        <v>715</v>
+      </c>
+      <c r="E664" s="81">
+        <v>700</v>
       </c>
       <c r="F664" s="3" t="s">
         <v>919</v>
@@ -30376,13 +30543,13 @@
         <v>671</v>
       </c>
       <c r="B676" s="8"/>
-      <c r="C676" s="7" t="s">
+      <c r="C676" s="87" t="s">
         <v>1043</v>
       </c>
-      <c r="D676" s="2">
-        <v>645</v>
-      </c>
-      <c r="E676" s="2">
+      <c r="D676" s="83">
+        <v>655</v>
+      </c>
+      <c r="E676" s="83">
         <v>630</v>
       </c>
       <c r="F676" s="8"/>
@@ -30601,8 +30768,12 @@
       <c r="C682" s="8" t="s">
         <v>1072</v>
       </c>
-      <c r="D682" s="2"/>
-      <c r="E682" s="2"/>
+      <c r="D682" s="2">
+        <v>600</v>
+      </c>
+      <c r="E682" s="2">
+        <v>600</v>
+      </c>
       <c r="F682" s="40" t="s">
         <v>1073</v>
       </c>
@@ -31118,14 +31289,14 @@
         <v>691</v>
       </c>
       <c r="B696" s="8"/>
-      <c r="C696" s="8" t="s">
+      <c r="C696" s="88" t="s">
         <v>1095</v>
       </c>
-      <c r="D696" s="2">
-        <v>710</v>
-      </c>
-      <c r="E696" s="2">
-        <v>700</v>
+      <c r="D696" s="81">
+        <v>690</v>
+      </c>
+      <c r="E696" s="81">
+        <v>670</v>
       </c>
       <c r="F696" s="40" t="s">
         <v>1096</v>
@@ -31156,13 +31327,13 @@
         <v>692</v>
       </c>
       <c r="B697" s="8"/>
-      <c r="C697" s="8" t="s">
+      <c r="C697" s="88" t="s">
         <v>1097</v>
       </c>
-      <c r="D697" s="2">
-        <v>610</v>
-      </c>
-      <c r="E697" s="2">
+      <c r="D697" s="81">
+        <v>605</v>
+      </c>
+      <c r="E697" s="81">
         <v>600</v>
       </c>
       <c r="F697" s="40" t="s">
@@ -31349,7 +31520,7 @@
         <v>600</v>
       </c>
       <c r="E702" s="2">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F702" s="28"/>
       <c r="G702" s="12"/>
@@ -31776,14 +31947,14 @@
         <v>709</v>
       </c>
       <c r="B714" s="8"/>
-      <c r="C714" s="8" t="s">
+      <c r="C714" s="89" t="s">
         <v>1116</v>
       </c>
-      <c r="D714" s="2">
+      <c r="D714" s="83">
+        <v>710</v>
+      </c>
+      <c r="E714" s="83">
         <v>680</v>
-      </c>
-      <c r="E714" s="2">
-        <v>670</v>
       </c>
       <c r="F714" s="28"/>
       <c r="G714" s="12"/>
@@ -31844,11 +32015,19 @@
       <c r="Z715" s="13"/>
     </row>
     <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A716" s="12"/>
+      <c r="A716" s="8">
+        <v>711</v>
+      </c>
       <c r="B716" s="12"/>
-      <c r="C716" s="12"/>
-      <c r="D716" s="15"/>
-      <c r="E716" s="15"/>
+      <c r="C716" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D716" s="38">
+        <v>790</v>
+      </c>
+      <c r="E716" s="38">
+        <v>770</v>
+      </c>
       <c r="F716" s="12"/>
       <c r="G716" s="12"/>
       <c r="H716" s="12"/>
@@ -31872,11 +32051,19 @@
       <c r="Z716" s="13"/>
     </row>
     <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="12"/>
+      <c r="A717" s="8">
+        <v>712</v>
+      </c>
       <c r="B717" s="12"/>
-      <c r="C717" s="12"/>
-      <c r="D717" s="15"/>
-      <c r="E717" s="15"/>
+      <c r="C717" s="8" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D717" s="38">
+        <v>605</v>
+      </c>
+      <c r="E717" s="38">
+        <v>600</v>
+      </c>
       <c r="F717" s="12"/>
       <c r="G717" s="12"/>
       <c r="H717" s="12"/>
@@ -31900,11 +32087,19 @@
       <c r="Z717" s="13"/>
     </row>
     <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A718" s="12"/>
+      <c r="A718" s="8">
+        <v>713</v>
+      </c>
       <c r="B718" s="12"/>
-      <c r="C718" s="12"/>
-      <c r="D718" s="15"/>
-      <c r="E718" s="15"/>
+      <c r="C718" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D718" s="38">
+        <v>600</v>
+      </c>
+      <c r="E718" s="38">
+        <v>600</v>
+      </c>
       <c r="F718" s="12"/>
       <c r="G718" s="12"/>
       <c r="H718" s="12"/>
@@ -31928,11 +32123,19 @@
       <c r="Z718" s="13"/>
     </row>
     <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A719" s="12"/>
+      <c r="A719" s="8">
+        <v>714</v>
+      </c>
       <c r="B719" s="12"/>
-      <c r="C719" s="12"/>
-      <c r="D719" s="15"/>
-      <c r="E719" s="15"/>
+      <c r="C719" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D719" s="38">
+        <v>635</v>
+      </c>
+      <c r="E719" s="38">
+        <v>620</v>
+      </c>
       <c r="F719" s="12"/>
       <c r="G719" s="12"/>
       <c r="H719" s="12"/>
@@ -31956,11 +32159,19 @@
       <c r="Z719" s="13"/>
     </row>
     <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A720" s="12"/>
+      <c r="A720" s="8">
+        <v>715</v>
+      </c>
       <c r="B720" s="12"/>
-      <c r="C720" s="12"/>
-      <c r="D720" s="15"/>
-      <c r="E720" s="15"/>
+      <c r="C720" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D720" s="38">
+        <v>635</v>
+      </c>
+      <c r="E720" s="38">
+        <v>615</v>
+      </c>
       <c r="F720" s="12"/>
       <c r="G720" s="12"/>
       <c r="H720" s="12"/>
@@ -31984,11 +32195,19 @@
       <c r="Z720" s="13"/>
     </row>
     <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A721" s="12"/>
+      <c r="A721" s="8">
+        <v>716</v>
+      </c>
       <c r="B721" s="12"/>
-      <c r="C721" s="12"/>
-      <c r="D721" s="15"/>
-      <c r="E721" s="15"/>
+      <c r="C721" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D721" s="38">
+        <v>610</v>
+      </c>
+      <c r="E721" s="38">
+        <v>600</v>
+      </c>
       <c r="F721" s="12"/>
       <c r="G721" s="12"/>
       <c r="H721" s="12"/>
@@ -32012,11 +32231,19 @@
       <c r="Z721" s="13"/>
     </row>
     <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A722" s="12"/>
+      <c r="A722" s="8">
+        <v>717</v>
+      </c>
       <c r="B722" s="12"/>
-      <c r="C722" s="12"/>
-      <c r="D722" s="15"/>
-      <c r="E722" s="15"/>
+      <c r="C722" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D722" s="38">
+        <v>610</v>
+      </c>
+      <c r="E722" s="38">
+        <v>600</v>
+      </c>
       <c r="F722" s="12"/>
       <c r="G722" s="12"/>
       <c r="H722" s="12"/>
@@ -32040,11 +32267,19 @@
       <c r="Z722" s="13"/>
     </row>
     <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A723" s="12"/>
+      <c r="A723" s="8">
+        <v>718</v>
+      </c>
       <c r="B723" s="12"/>
-      <c r="C723" s="12"/>
-      <c r="D723" s="15"/>
-      <c r="E723" s="15"/>
+      <c r="C723" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D723" s="38">
+        <v>615</v>
+      </c>
+      <c r="E723" s="38">
+        <v>600</v>
+      </c>
       <c r="F723" s="12"/>
       <c r="G723" s="12"/>
       <c r="H723" s="12"/>
@@ -32068,11 +32303,19 @@
       <c r="Z723" s="13"/>
     </row>
     <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A724" s="12"/>
+      <c r="A724" s="8">
+        <v>719</v>
+      </c>
       <c r="B724" s="12"/>
-      <c r="C724" s="12"/>
-      <c r="D724" s="15"/>
-      <c r="E724" s="15"/>
+      <c r="C724" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D724" s="38">
+        <v>615</v>
+      </c>
+      <c r="E724" s="38">
+        <v>600</v>
+      </c>
       <c r="F724" s="12"/>
       <c r="G724" s="12"/>
       <c r="H724" s="12"/>
@@ -32096,11 +32339,19 @@
       <c r="Z724" s="13"/>
     </row>
     <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A725" s="12"/>
+      <c r="A725" s="8">
+        <v>720</v>
+      </c>
       <c r="B725" s="12"/>
-      <c r="C725" s="12"/>
-      <c r="D725" s="15"/>
-      <c r="E725" s="15"/>
+      <c r="C725" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D725" s="38">
+        <v>610</v>
+      </c>
+      <c r="E725" s="38">
+        <v>600</v>
+      </c>
       <c r="F725" s="12"/>
       <c r="G725" s="12"/>
       <c r="H725" s="12"/>
@@ -32124,11 +32375,19 @@
       <c r="Z725" s="13"/>
     </row>
     <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A726" s="12"/>
+      <c r="A726" s="8">
+        <v>721</v>
+      </c>
       <c r="B726" s="12"/>
-      <c r="C726" s="12"/>
-      <c r="D726" s="15"/>
-      <c r="E726" s="15"/>
+      <c r="C726" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D726" s="38">
+        <v>620</v>
+      </c>
+      <c r="E726" s="38">
+        <v>600</v>
+      </c>
       <c r="F726" s="12"/>
       <c r="G726" s="12"/>
       <c r="H726" s="12"/>
@@ -32152,11 +32411,19 @@
       <c r="Z726" s="13"/>
     </row>
     <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A727" s="12"/>
+      <c r="A727" s="8">
+        <v>722</v>
+      </c>
       <c r="B727" s="12"/>
-      <c r="C727" s="12"/>
-      <c r="D727" s="15"/>
-      <c r="E727" s="15"/>
+      <c r="C727" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D727" s="38">
+        <v>620</v>
+      </c>
+      <c r="E727" s="38">
+        <v>600</v>
+      </c>
       <c r="F727" s="12"/>
       <c r="G727" s="12"/>
       <c r="H727" s="12"/>
@@ -32180,11 +32447,19 @@
       <c r="Z727" s="13"/>
     </row>
     <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A728" s="12"/>
+      <c r="A728" s="8">
+        <v>723</v>
+      </c>
       <c r="B728" s="12"/>
-      <c r="C728" s="12"/>
-      <c r="D728" s="15"/>
-      <c r="E728" s="15"/>
+      <c r="C728" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D728" s="38">
+        <v>630</v>
+      </c>
+      <c r="E728" s="38">
+        <v>615</v>
+      </c>
       <c r="F728" s="12"/>
       <c r="G728" s="12"/>
       <c r="H728" s="12"/>
@@ -32208,11 +32483,19 @@
       <c r="Z728" s="13"/>
     </row>
     <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A729" s="12"/>
+      <c r="A729" s="8">
+        <v>724</v>
+      </c>
       <c r="B729" s="12"/>
-      <c r="C729" s="12"/>
-      <c r="D729" s="15"/>
-      <c r="E729" s="15"/>
+      <c r="C729" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D729" s="38">
+        <v>635</v>
+      </c>
+      <c r="E729" s="38">
+        <v>615</v>
+      </c>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
       <c r="H729" s="12"/>
@@ -32236,11 +32519,19 @@
       <c r="Z729" s="13"/>
     </row>
     <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A730" s="12"/>
+      <c r="A730" s="8">
+        <v>725</v>
+      </c>
       <c r="B730" s="12"/>
-      <c r="C730" s="12"/>
-      <c r="D730" s="15"/>
-      <c r="E730" s="15"/>
+      <c r="C730" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D730" s="38">
+        <v>620</v>
+      </c>
+      <c r="E730" s="38">
+        <v>610</v>
+      </c>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
       <c r="H730" s="12"/>
@@ -32264,11 +32555,19 @@
       <c r="Z730" s="13"/>
     </row>
     <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A731" s="12"/>
+      <c r="A731" s="8">
+        <v>726</v>
+      </c>
       <c r="B731" s="12"/>
-      <c r="C731" s="12"/>
-      <c r="D731" s="15"/>
-      <c r="E731" s="15"/>
+      <c r="C731" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D731" s="38">
+        <v>640</v>
+      </c>
+      <c r="E731" s="38">
+        <v>620</v>
+      </c>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
       <c r="H731" s="12"/>
@@ -32292,11 +32591,19 @@
       <c r="Z731" s="13"/>
     </row>
     <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A732" s="12"/>
+      <c r="A732" s="8">
+        <v>727</v>
+      </c>
       <c r="B732" s="12"/>
-      <c r="C732" s="12"/>
-      <c r="D732" s="15"/>
-      <c r="E732" s="15"/>
+      <c r="C732" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D732" s="38">
+        <v>610</v>
+      </c>
+      <c r="E732" s="38">
+        <v>600</v>
+      </c>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
       <c r="H732" s="12"/>
@@ -32320,11 +32627,19 @@
       <c r="Z732" s="13"/>
     </row>
     <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A733" s="12"/>
+      <c r="A733" s="8">
+        <v>728</v>
+      </c>
       <c r="B733" s="12"/>
-      <c r="C733" s="12"/>
-      <c r="D733" s="15"/>
-      <c r="E733" s="15"/>
+      <c r="C733" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D733" s="38">
+        <v>610</v>
+      </c>
+      <c r="E733" s="38">
+        <v>605</v>
+      </c>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
       <c r="H733" s="12"/>
@@ -32348,11 +32663,19 @@
       <c r="Z733" s="13"/>
     </row>
     <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A734" s="12"/>
+      <c r="A734" s="8">
+        <v>729</v>
+      </c>
       <c r="B734" s="12"/>
-      <c r="C734" s="12"/>
-      <c r="D734" s="15"/>
-      <c r="E734" s="15"/>
+      <c r="C734" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D734" s="38">
+        <v>620</v>
+      </c>
+      <c r="E734" s="38">
+        <v>610</v>
+      </c>
       <c r="F734" s="12"/>
       <c r="G734" s="12"/>
       <c r="H734" s="12"/>
@@ -32376,11 +32699,19 @@
       <c r="Z734" s="13"/>
     </row>
     <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A735" s="12"/>
+      <c r="A735" s="8">
+        <v>730</v>
+      </c>
       <c r="B735" s="12"/>
-      <c r="C735" s="12"/>
-      <c r="D735" s="15"/>
-      <c r="E735" s="15"/>
+      <c r="C735" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D735" s="38">
+        <v>625</v>
+      </c>
+      <c r="E735" s="38">
+        <v>615</v>
+      </c>
       <c r="F735" s="12"/>
       <c r="G735" s="12"/>
       <c r="H735" s="12"/>
@@ -32404,11 +32735,19 @@
       <c r="Z735" s="13"/>
     </row>
     <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A736" s="12"/>
+      <c r="A736" s="8">
+        <v>731</v>
+      </c>
       <c r="B736" s="12"/>
-      <c r="C736" s="12"/>
-      <c r="D736" s="15"/>
-      <c r="E736" s="15"/>
+      <c r="C736" s="88" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D736" s="90">
+        <v>610</v>
+      </c>
+      <c r="E736" s="90">
+        <v>600</v>
+      </c>
       <c r="F736" s="12"/>
       <c r="G736" s="12"/>
       <c r="H736" s="12"/>
@@ -32432,11 +32771,19 @@
       <c r="Z736" s="13"/>
     </row>
     <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A737" s="12"/>
+      <c r="A737" s="8">
+        <v>732</v>
+      </c>
       <c r="B737" s="12"/>
-      <c r="C737" s="12"/>
-      <c r="D737" s="15"/>
-      <c r="E737" s="15"/>
+      <c r="C737" s="88" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D737" s="90">
+        <v>630</v>
+      </c>
+      <c r="E737" s="90">
+        <v>615</v>
+      </c>
       <c r="F737" s="12"/>
       <c r="G737" s="12"/>
       <c r="H737" s="12"/>
@@ -32460,11 +32807,19 @@
       <c r="Z737" s="13"/>
     </row>
     <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A738" s="12"/>
+      <c r="A738" s="8">
+        <v>733</v>
+      </c>
       <c r="B738" s="12"/>
-      <c r="C738" s="12"/>
-      <c r="D738" s="15"/>
-      <c r="E738" s="15"/>
+      <c r="C738" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D738" s="38">
+        <v>600</v>
+      </c>
+      <c r="E738" s="38">
+        <v>600</v>
+      </c>
       <c r="F738" s="12"/>
       <c r="G738" s="12"/>
       <c r="H738" s="12"/>
@@ -32488,11 +32843,19 @@
       <c r="Z738" s="13"/>
     </row>
     <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A739" s="12"/>
+      <c r="A739" s="8">
+        <v>734</v>
+      </c>
       <c r="B739" s="12"/>
-      <c r="C739" s="12"/>
-      <c r="D739" s="15"/>
-      <c r="E739" s="15"/>
+      <c r="C739" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D739" s="38">
+        <v>600</v>
+      </c>
+      <c r="E739" s="38">
+        <v>600</v>
+      </c>
       <c r="F739" s="12"/>
       <c r="G739" s="12"/>
       <c r="H739" s="12"/>
@@ -32516,11 +32879,19 @@
       <c r="Z739" s="13"/>
     </row>
     <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A740" s="12"/>
+      <c r="A740" s="8">
+        <v>735</v>
+      </c>
       <c r="B740" s="12"/>
-      <c r="C740" s="12"/>
-      <c r="D740" s="15"/>
-      <c r="E740" s="15"/>
+      <c r="C740" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D740" s="38">
+        <v>730</v>
+      </c>
+      <c r="E740" s="38">
+        <v>710</v>
+      </c>
       <c r="F740" s="12"/>
       <c r="G740" s="12"/>
       <c r="H740" s="12"/>
@@ -32544,11 +32915,19 @@
       <c r="Z740" s="13"/>
     </row>
     <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A741" s="12"/>
+      <c r="A741" s="8">
+        <v>736</v>
+      </c>
       <c r="B741" s="12"/>
-      <c r="C741" s="12"/>
-      <c r="D741" s="15"/>
-      <c r="E741" s="15"/>
+      <c r="C741" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D741" s="38">
+        <v>605</v>
+      </c>
+      <c r="E741" s="38">
+        <v>600</v>
+      </c>
       <c r="F741" s="12"/>
       <c r="G741" s="12"/>
       <c r="H741" s="12"/>
@@ -32572,11 +32951,19 @@
       <c r="Z741" s="13"/>
     </row>
     <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A742" s="12"/>
+      <c r="A742" s="8">
+        <v>737</v>
+      </c>
       <c r="B742" s="12"/>
-      <c r="C742" s="12"/>
-      <c r="D742" s="15"/>
-      <c r="E742" s="15"/>
+      <c r="C742" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D742" s="38">
+        <v>615</v>
+      </c>
+      <c r="E742" s="38">
+        <v>605</v>
+      </c>
       <c r="F742" s="12"/>
       <c r="G742" s="12"/>
       <c r="H742" s="12"/>
@@ -32600,11 +32987,19 @@
       <c r="Z742" s="13"/>
     </row>
     <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="12"/>
+      <c r="A743" s="8">
+        <v>738</v>
+      </c>
       <c r="B743" s="12"/>
-      <c r="C743" s="12"/>
-      <c r="D743" s="15"/>
-      <c r="E743" s="15"/>
+      <c r="C743" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D743" s="38">
+        <v>625</v>
+      </c>
+      <c r="E743" s="38">
+        <v>620</v>
+      </c>
       <c r="F743" s="12"/>
       <c r="G743" s="12"/>
       <c r="H743" s="12"/>
@@ -32628,11 +33023,19 @@
       <c r="Z743" s="13"/>
     </row>
     <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="12"/>
+      <c r="A744" s="8">
+        <v>739</v>
+      </c>
       <c r="B744" s="12"/>
-      <c r="C744" s="12"/>
-      <c r="D744" s="15"/>
-      <c r="E744" s="15"/>
+      <c r="C744" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D744" s="38">
+        <v>625</v>
+      </c>
+      <c r="E744" s="38">
+        <v>615</v>
+      </c>
       <c r="F744" s="12"/>
       <c r="G744" s="12"/>
       <c r="H744" s="12"/>
@@ -32656,11 +33059,19 @@
       <c r="Z744" s="13"/>
     </row>
     <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="12"/>
+      <c r="A745" s="8">
+        <v>740</v>
+      </c>
       <c r="B745" s="12"/>
-      <c r="C745" s="12"/>
-      <c r="D745" s="15"/>
-      <c r="E745" s="15"/>
+      <c r="C745" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D745" s="38">
+        <v>650</v>
+      </c>
+      <c r="E745" s="38">
+        <v>635</v>
+      </c>
       <c r="F745" s="12"/>
       <c r="G745" s="12"/>
       <c r="H745" s="12"/>
@@ -32684,11 +33095,19 @@
       <c r="Z745" s="13"/>
     </row>
     <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="12"/>
+      <c r="A746" s="8">
+        <v>741</v>
+      </c>
       <c r="B746" s="12"/>
-      <c r="C746" s="12"/>
-      <c r="D746" s="15"/>
-      <c r="E746" s="15"/>
+      <c r="C746" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D746" s="38">
+        <v>605</v>
+      </c>
+      <c r="E746" s="38">
+        <v>600</v>
+      </c>
       <c r="F746" s="12"/>
       <c r="G746" s="12"/>
       <c r="H746" s="12"/>
@@ -32712,11 +33131,19 @@
       <c r="Z746" s="13"/>
     </row>
     <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A747" s="12"/>
+      <c r="A747" s="8">
+        <v>742</v>
+      </c>
       <c r="B747" s="12"/>
-      <c r="C747" s="12"/>
-      <c r="D747" s="15"/>
-      <c r="E747" s="15"/>
+      <c r="C747" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D747" s="38">
+        <v>650</v>
+      </c>
+      <c r="E747" s="38">
+        <v>640</v>
+      </c>
       <c r="F747" s="12"/>
       <c r="G747" s="12"/>
       <c r="H747" s="12"/>
@@ -32740,11 +33167,19 @@
       <c r="Z747" s="13"/>
     </row>
     <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="12"/>
+      <c r="A748" s="8">
+        <v>743</v>
+      </c>
       <c r="B748" s="12"/>
-      <c r="C748" s="12"/>
-      <c r="D748" s="15"/>
-      <c r="E748" s="15"/>
+      <c r="C748" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D748" s="38">
+        <v>715</v>
+      </c>
+      <c r="E748" s="38">
+        <v>700</v>
+      </c>
       <c r="F748" s="12"/>
       <c r="G748" s="12"/>
       <c r="H748" s="12"/>
@@ -32768,11 +33203,19 @@
       <c r="Z748" s="13"/>
     </row>
     <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="12"/>
+      <c r="A749" s="8">
+        <v>744</v>
+      </c>
       <c r="B749" s="12"/>
-      <c r="C749" s="12"/>
-      <c r="D749" s="15"/>
-      <c r="E749" s="15"/>
+      <c r="C749" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D749" s="38">
+        <v>610</v>
+      </c>
+      <c r="E749" s="38">
+        <v>600</v>
+      </c>
       <c r="F749" s="12"/>
       <c r="G749" s="12"/>
       <c r="H749" s="12"/>
@@ -32796,11 +33239,19 @@
       <c r="Z749" s="13"/>
     </row>
     <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A750" s="12"/>
+      <c r="A750" s="8">
+        <v>745</v>
+      </c>
       <c r="B750" s="12"/>
-      <c r="C750" s="12"/>
-      <c r="D750" s="15"/>
-      <c r="E750" s="15"/>
+      <c r="C750" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D750" s="38">
+        <v>710</v>
+      </c>
+      <c r="E750" s="38">
+        <v>690</v>
+      </c>
       <c r="F750" s="12"/>
       <c r="G750" s="12"/>
       <c r="H750" s="12"/>
@@ -39841,8 +40292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40522,13 +40973,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="52"/>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="91" t="s">
         <v>1226</v>
       </c>
-      <c r="D20" s="2">
-        <v>610</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="81">
+        <v>605</v>
+      </c>
+      <c r="E20" s="81">
         <v>600</v>
       </c>
       <c r="F20" s="54" t="s">
@@ -40777,14 +41228,14 @@
         <v>22</v>
       </c>
       <c r="B27" s="52"/>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="91" t="s">
         <v>940</v>
       </c>
-      <c r="D27" s="2">
-        <v>640</v>
-      </c>
-      <c r="E27" s="2">
-        <v>630</v>
+      <c r="D27" s="81">
+        <v>625</v>
+      </c>
+      <c r="E27" s="81">
+        <v>610</v>
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="44"/>
@@ -41026,13 +41477,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="55"/>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="92" t="s">
         <v>945</v>
       </c>
-      <c r="D34" s="2">
-        <v>660</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="81">
+        <v>655</v>
+      </c>
+      <c r="E34" s="81">
         <v>650</v>
       </c>
       <c r="F34" s="56"/>
@@ -41384,13 +41835,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="56"/>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="93" t="s">
         <v>958</v>
       </c>
-      <c r="D44" s="2">
-        <v>640</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="83">
+        <v>655</v>
+      </c>
+      <c r="E44" s="83">
         <v>640</v>
       </c>
       <c r="F44" s="56"/>
@@ -41917,13 +42368,13 @@
         <v>54</v>
       </c>
       <c r="B59" s="56"/>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="93" t="s">
         <v>975</v>
       </c>
-      <c r="D59" s="2">
-        <v>630</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D59" s="83">
+        <v>635</v>
+      </c>
+      <c r="E59" s="83">
         <v>615</v>
       </c>
       <c r="F59" s="55"/>
@@ -42351,13 +42802,13 @@
         <v>66</v>
       </c>
       <c r="B71" s="56"/>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="93" t="s">
         <v>994</v>
       </c>
-      <c r="D71" s="2">
-        <v>620</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="D71" s="83">
+        <v>625</v>
+      </c>
+      <c r="E71" s="83">
         <v>610</v>
       </c>
       <c r="F71" s="54" t="s">
@@ -42423,14 +42874,14 @@
         <v>68</v>
       </c>
       <c r="B73" s="56"/>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="92" t="s">
         <v>997</v>
       </c>
-      <c r="D73" s="2">
-        <v>650</v>
-      </c>
-      <c r="E73" s="2">
-        <v>640</v>
+      <c r="D73" s="81">
+        <v>645</v>
+      </c>
+      <c r="E73" s="81">
+        <v>635</v>
       </c>
       <c r="F73" s="55"/>
       <c r="G73" s="44"/>
@@ -42458,13 +42909,13 @@
         <v>69</v>
       </c>
       <c r="B74" s="55"/>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="93" t="s">
         <v>998</v>
       </c>
-      <c r="D74" s="2">
-        <v>615</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="D74" s="83">
+        <v>620</v>
+      </c>
+      <c r="E74" s="83">
         <v>600</v>
       </c>
       <c r="F74" s="55"/>
@@ -42672,13 +43123,13 @@
         <v>75</v>
       </c>
       <c r="B80" s="55"/>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="92" t="s">
         <v>1006</v>
       </c>
-      <c r="D80" s="2">
-        <v>660</v>
-      </c>
-      <c r="E80" s="2">
+      <c r="D80" s="81">
+        <v>655</v>
+      </c>
+      <c r="E80" s="81">
         <v>640</v>
       </c>
       <c r="F80" s="55"/>
@@ -43575,13 +44026,13 @@
         <v>100</v>
       </c>
       <c r="B105" s="8"/>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="88" t="s">
         <v>1071</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="81">
         <v>560</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="81">
         <v>560</v>
       </c>
       <c r="F105" s="8"/>
@@ -43606,11 +44057,19 @@
       <c r="Y105" s="56"/>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="44"/>
+      <c r="A106" s="44">
+        <v>101</v>
+      </c>
       <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47"/>
+      <c r="C106" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D106" s="38">
+        <v>590</v>
+      </c>
+      <c r="E106" s="38">
+        <v>580</v>
+      </c>
       <c r="F106" s="44"/>
       <c r="G106" s="44"/>
       <c r="H106" s="44"/>

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C453FD8-2AD6-3D4B-9824-27FB90962250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88899278-B9B9-BE4A-BABD-A8F9030B9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="760" windowWidth="27860" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1315">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -3976,6 +3976,9 @@
   </si>
   <si>
     <t>Ngân Tiền Giang</t>
+  </si>
+  <si>
+    <t>Bảo Vũng Tàu</t>
   </si>
 </sst>
 </file>
@@ -4652,23 +4655,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4689,6 +4675,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5893,8 +5896,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E748" sqref="E748"/>
+      <pane ySplit="4" topLeftCell="A717" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J752" sqref="J752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5902,7 +5905,7 @@
     <col min="1" max="1" width="7.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="149" customWidth="1"/>
+    <col min="4" max="5" width="16.5" style="142" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" customWidth="1"/>
@@ -5913,17 +5916,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
+      <c r="A1" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -5942,17 +5945,17 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -6007,10 +6010,10 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="144"/>
+      <c r="E4" s="155"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -34239,20 +34242,20 @@
       <c r="Y610" s="61"/>
     </row>
     <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="150">
+      <c r="A611" s="143">
         <v>606</v>
       </c>
-      <c r="B611" s="151"/>
-      <c r="C611" s="152" t="s">
+      <c r="B611" s="144"/>
+      <c r="C611" s="145" t="s">
         <v>878</v>
       </c>
-      <c r="D611" s="153">
+      <c r="D611" s="146">
         <v>605</v>
       </c>
-      <c r="E611" s="153">
+      <c r="E611" s="146">
         <v>600</v>
       </c>
-      <c r="F611" s="154" t="s">
+      <c r="F611" s="147" t="s">
         <v>879</v>
       </c>
       <c r="G611" s="1"/>
@@ -36871,8 +36874,8 @@
       <c r="A668" s="11">
         <v>663</v>
       </c>
-      <c r="B668" s="155"/>
-      <c r="C668" s="155" t="s">
+      <c r="B668" s="148"/>
+      <c r="C668" s="148" t="s">
         <v>1083</v>
       </c>
       <c r="D668" s="13">
@@ -37186,8 +37189,8 @@
       <c r="A675" s="11">
         <v>670</v>
       </c>
-      <c r="B675" s="156"/>
-      <c r="C675" s="157" t="s">
+      <c r="B675" s="149"/>
+      <c r="C675" s="150" t="s">
         <v>1090</v>
       </c>
       <c r="D675" s="13">
@@ -37232,7 +37235,7 @@
         <v>671</v>
       </c>
       <c r="B676" s="61"/>
-      <c r="C676" s="158" t="s">
+      <c r="C676" s="151" t="s">
         <v>1091</v>
       </c>
       <c r="D676" s="58">
@@ -40713,11 +40716,19 @@
       <c r="Y752" s="1"/>
     </row>
     <row r="753" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A753" s="4"/>
+      <c r="A753" s="4">
+        <v>748</v>
+      </c>
       <c r="B753" s="4"/>
-      <c r="C753" s="4"/>
-      <c r="D753" s="105"/>
-      <c r="E753" s="105"/>
+      <c r="C753" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D753" s="105">
+        <v>725</v>
+      </c>
+      <c r="E753" s="105">
+        <v>710</v>
+      </c>
       <c r="F753" s="17"/>
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
@@ -47385,8 +47396,8 @@
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
-      <c r="D1000" s="148"/>
-      <c r="E1000" s="148"/>
+      <c r="D1000" s="141"/>
+      <c r="E1000" s="141"/>
       <c r="F1000" s="1"/>
       <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
@@ -47458,17 +47469,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
+      <c r="A1" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
@@ -47488,17 +47499,17 @@
       <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
@@ -47555,10 +47566,10 @@
       <c r="C4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="147"/>
+      <c r="E4" s="158"/>
       <c r="F4" s="31" t="s">
         <v>6</v>
       </c>
@@ -47574,10 +47585,10 @@
       <c r="J4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="145" t="s">
+      <c r="K4" s="156" t="s">
         <v>1074</v>
       </c>
-      <c r="L4" s="147"/>
+      <c r="L4" s="158"/>
       <c r="M4" s="37" t="s">
         <v>1075</v>
       </c>

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BBFD88-9346-5E42-AEA8-0AEE339947EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D624E26-B530-F547-9C09-66E6DC26CA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="760" windowWidth="27860" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1318">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -1809,9 +1809,6 @@
     <t>Vụ Quảng Nam</t>
   </si>
   <si>
-    <t>Tài Lé 230</t>
-  </si>
-  <si>
     <t>Tài 230</t>
   </si>
   <si>
@@ -3297,9 +3294,6 @@
     <t>Nguyễn Văn Danh</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhọn KB </t>
-  </si>
-  <si>
     <t>Tùy Nhà Bè</t>
   </si>
   <si>
@@ -3906,9 +3900,6 @@
     <t>Giải Chính Thắng</t>
   </si>
   <si>
-    <t>Lợi Q10</t>
-  </si>
-  <si>
     <t>Hải VIB</t>
   </si>
   <si>
@@ -3985,6 +3976,18 @@
   </si>
   <si>
     <t>Dũng STC</t>
+  </si>
+  <si>
+    <t>Ninh Trung Thiện</t>
+  </si>
+  <si>
+    <t>Bảo Trung Thiện</t>
+  </si>
+  <si>
+    <t>Nguyễn Tài 230</t>
+  </si>
+  <si>
+    <t>Hùng RMit</t>
   </si>
 </sst>
 </file>
@@ -5902,8 +5905,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <pane ySplit="4" topLeftCell="A652" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C675" sqref="C675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6033,11 +6036,11 @@
         <v>9</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="1"/>
@@ -6248,10 +6251,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D9" s="13">
         <v>685</v>
@@ -6297,10 +6300,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D10" s="13">
         <v>600</v>
@@ -6498,7 +6501,7 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="12" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D14" s="13">
         <v>655</v>
@@ -6549,7 +6552,7 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="12" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D15" s="13">
         <v>645</v>
@@ -6737,7 +6740,7 @@
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="12" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D19" s="13">
         <v>635</v>
@@ -6786,7 +6789,7 @@
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D20" s="13">
         <v>640</v>
@@ -6835,7 +6838,7 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D21" s="13">
         <v>630</v>
@@ -6886,7 +6889,7 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D22" s="13">
         <v>635</v>
@@ -6932,10 +6935,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D23" s="13">
         <v>640</v>
@@ -6982,7 +6985,7 @@
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D24" s="13">
         <v>650</v>
@@ -7080,7 +7083,7 @@
       </c>
       <c r="B26" s="79"/>
       <c r="C26" s="75" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D26" s="76">
         <v>645</v>
@@ -7274,7 +7277,7 @@
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D30" s="13">
         <v>610</v>
@@ -7515,7 +7518,7 @@
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D35" s="13">
         <v>610</v>
@@ -7564,7 +7567,7 @@
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D36" s="13">
         <v>600</v>
@@ -7613,7 +7616,7 @@
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="12" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D37" s="13">
         <v>665</v>
@@ -7803,7 +7806,7 @@
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="12" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D41" s="13">
         <v>600</v>
@@ -7852,7 +7855,7 @@
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="12" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D42" s="13">
         <v>650</v>
@@ -7946,7 +7949,7 @@
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="12" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D44" s="13">
         <v>630</v>
@@ -8457,7 +8460,7 @@
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="12" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D55" s="13">
         <v>625</v>
@@ -8504,7 +8507,7 @@
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="12" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D56" s="13">
         <v>610</v>
@@ -8594,7 +8597,7 @@
       </c>
       <c r="B58" s="56"/>
       <c r="C58" s="57" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D58" s="58">
         <v>665</v>
@@ -8639,7 +8642,7 @@
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="12" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D59" s="13">
         <v>600</v>
@@ -8732,10 +8735,10 @@
         <v>56</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D61" s="13">
         <v>625</v>
@@ -9012,10 +9015,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D67" s="58">
         <v>620</v>
@@ -9104,10 +9107,10 @@
         <v>64</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D69" s="13">
         <v>600</v>
@@ -9440,7 +9443,7 @@
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="12" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D76" s="13">
         <v>660</v>
@@ -9628,7 +9631,7 @@
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="12" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D80" s="13">
         <v>600</v>
@@ -9726,7 +9729,7 @@
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="12" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D82" s="13">
         <v>670</v>
@@ -9822,7 +9825,7 @@
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="12" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D84" s="13">
         <v>610</v>
@@ -9867,7 +9870,7 @@
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="12" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D85" s="13">
         <v>635</v>
@@ -9912,7 +9915,7 @@
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="12" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D86" s="13">
         <v>680</v>
@@ -10200,7 +10203,7 @@
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="12" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D92" s="13">
         <v>655</v>
@@ -10246,10 +10249,10 @@
         <v>88</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D93" s="13">
         <v>605</v>
@@ -10480,7 +10483,7 @@
       </c>
       <c r="B98" s="14"/>
       <c r="C98" s="12" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D98" s="13">
         <v>640</v>
@@ -10574,7 +10577,7 @@
       </c>
       <c r="B100" s="14"/>
       <c r="C100" s="12" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="D100" s="13">
         <v>600</v>
@@ -10764,7 +10767,7 @@
       </c>
       <c r="B104" s="14"/>
       <c r="C104" s="12" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D104" s="13">
         <v>625</v>
@@ -10860,7 +10863,7 @@
       </c>
       <c r="B106" s="14"/>
       <c r="C106" s="12" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D106" s="13">
         <v>660</v>
@@ -10907,7 +10910,7 @@
       </c>
       <c r="B107" s="74"/>
       <c r="C107" s="75" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D107" s="76">
         <v>600</v>
@@ -11005,7 +11008,7 @@
       </c>
       <c r="B109" s="56"/>
       <c r="C109" s="57" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D109" s="58">
         <v>735</v>
@@ -11054,7 +11057,7 @@
       </c>
       <c r="B110" s="14"/>
       <c r="C110" s="12" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D110" s="13">
         <v>600</v>
@@ -11099,7 +11102,7 @@
       </c>
       <c r="B111" s="14"/>
       <c r="C111" s="12" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D111" s="13">
         <v>615</v>
@@ -11144,7 +11147,7 @@
       </c>
       <c r="B112" s="14"/>
       <c r="C112" s="12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D112" s="13">
         <v>720</v>
@@ -11281,7 +11284,7 @@
       </c>
       <c r="B115" s="14"/>
       <c r="C115" s="12" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D115" s="13">
         <v>600</v>
@@ -11328,7 +11331,7 @@
       </c>
       <c r="B116" s="74"/>
       <c r="C116" s="75" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D116" s="76">
         <v>655</v>
@@ -11420,7 +11423,7 @@
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="12" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D118" s="13">
         <v>690</v>
@@ -11514,7 +11517,7 @@
       </c>
       <c r="B120" s="14"/>
       <c r="C120" s="12" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D120" s="13">
         <v>600</v>
@@ -11610,7 +11613,7 @@
       </c>
       <c r="B122" s="14"/>
       <c r="C122" s="12" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D122" s="13">
         <v>650</v>
@@ -11659,7 +11662,7 @@
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="12" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D123" s="13">
         <v>590</v>
@@ -11704,7 +11707,7 @@
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="12" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D124" s="13">
         <v>615</v>
@@ -11749,7 +11752,7 @@
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="12" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D125" s="13">
         <v>635</v>
@@ -11890,7 +11893,7 @@
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="12" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D128" s="13">
         <v>635</v>
@@ -11937,7 +11940,7 @@
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="12" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D129" s="13">
         <v>605</v>
@@ -12027,7 +12030,7 @@
       </c>
       <c r="B131" s="14"/>
       <c r="C131" s="12" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D131" s="13">
         <v>680</v>
@@ -12072,7 +12075,7 @@
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="12" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D132" s="13">
         <v>590</v>
@@ -12166,7 +12169,7 @@
       </c>
       <c r="B134" s="14"/>
       <c r="C134" s="12" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D134" s="13">
         <v>635</v>
@@ -12495,7 +12498,7 @@
       </c>
       <c r="B141" s="14"/>
       <c r="C141" s="12" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D141" s="13">
         <v>760</v>
@@ -12542,7 +12545,7 @@
       </c>
       <c r="B142" s="14"/>
       <c r="C142" s="12" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D142" s="13">
         <v>785</v>
@@ -12636,7 +12639,7 @@
       </c>
       <c r="B144" s="14"/>
       <c r="C144" s="12" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D144" s="13">
         <v>985</v>
@@ -12728,7 +12731,7 @@
       </c>
       <c r="B146" s="14"/>
       <c r="C146" s="12" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D146" s="13">
         <v>850</v>
@@ -12818,7 +12821,7 @@
       </c>
       <c r="B148" s="14"/>
       <c r="C148" s="12" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D148" s="13">
         <v>790</v>
@@ -12863,7 +12866,7 @@
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="12" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D149" s="13">
         <v>760</v>
@@ -13000,7 +13003,7 @@
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="12" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D152" s="13">
         <v>840</v>
@@ -13047,7 +13050,7 @@
       </c>
       <c r="B153" s="14"/>
       <c r="C153" s="12" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D153" s="13">
         <v>785</v>
@@ -13092,7 +13095,7 @@
       </c>
       <c r="B154" s="14"/>
       <c r="C154" s="12" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D154" s="13">
         <v>880</v>
@@ -13184,7 +13187,7 @@
       </c>
       <c r="B156" s="14"/>
       <c r="C156" s="12" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D156" s="13">
         <v>830</v>
@@ -13231,7 +13234,7 @@
       </c>
       <c r="B157" s="14"/>
       <c r="C157" s="12" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D157" s="13">
         <v>935</v>
@@ -13368,7 +13371,7 @@
       </c>
       <c r="B160" s="14"/>
       <c r="C160" s="12" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D160" s="13">
         <v>920</v>
@@ -13505,7 +13508,7 @@
       </c>
       <c r="B163" s="14"/>
       <c r="C163" s="12" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D163" s="13">
         <v>810</v>
@@ -13552,7 +13555,7 @@
       </c>
       <c r="B164" s="14"/>
       <c r="C164" s="12" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D164" s="13">
         <v>755</v>
@@ -13599,7 +13602,7 @@
       </c>
       <c r="B165" s="14"/>
       <c r="C165" s="12" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D165" s="13">
         <v>605</v>
@@ -13644,7 +13647,7 @@
       </c>
       <c r="B166" s="14"/>
       <c r="C166" s="12" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D166" s="13">
         <v>990</v>
@@ -13736,7 +13739,7 @@
       </c>
       <c r="B168" s="14"/>
       <c r="C168" s="12" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D168" s="13">
         <v>735</v>
@@ -13783,7 +13786,7 @@
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="12" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D169" s="13">
         <v>630</v>
@@ -13877,7 +13880,7 @@
       </c>
       <c r="B171" s="14"/>
       <c r="C171" s="12" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D171" s="13">
         <v>750</v>
@@ -14063,7 +14066,7 @@
       </c>
       <c r="B175" s="14"/>
       <c r="C175" s="12" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D175" s="13">
         <v>910</v>
@@ -14155,7 +14158,7 @@
       </c>
       <c r="B177" s="14"/>
       <c r="C177" s="12" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D177" s="13">
         <v>930</v>
@@ -14202,7 +14205,7 @@
       </c>
       <c r="B178" s="14"/>
       <c r="C178" s="12" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D178" s="13">
         <v>955</v>
@@ -14249,7 +14252,7 @@
       </c>
       <c r="B179" s="14"/>
       <c r="C179" s="12" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D179" s="13">
         <v>1010</v>
@@ -14296,7 +14299,7 @@
       </c>
       <c r="B180" s="14"/>
       <c r="C180" s="12" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D180" s="13">
         <v>670</v>
@@ -14388,7 +14391,7 @@
       </c>
       <c r="B182" s="14"/>
       <c r="C182" s="12" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D182" s="13">
         <v>890</v>
@@ -14433,7 +14436,7 @@
       </c>
       <c r="B183" s="14"/>
       <c r="C183" s="12" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D183" s="13">
         <v>815</v>
@@ -14478,7 +14481,7 @@
       </c>
       <c r="B184" s="14"/>
       <c r="C184" s="12" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D184" s="13">
         <v>835</v>
@@ -14525,7 +14528,7 @@
       </c>
       <c r="B185" s="14"/>
       <c r="C185" s="12" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D185" s="13">
         <v>735</v>
@@ -14572,7 +14575,7 @@
       </c>
       <c r="B186" s="14"/>
       <c r="C186" s="12" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D186" s="13">
         <v>780</v>
@@ -14617,7 +14620,7 @@
       </c>
       <c r="B187" s="14"/>
       <c r="C187" s="12" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D187" s="13">
         <v>810</v>
@@ -14662,7 +14665,7 @@
       </c>
       <c r="B188" s="14"/>
       <c r="C188" s="12" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D188" s="13">
         <v>880</v>
@@ -14709,7 +14712,7 @@
       </c>
       <c r="B189" s="14"/>
       <c r="C189" s="12" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D189" s="13">
         <v>885</v>
@@ -14756,7 +14759,7 @@
       </c>
       <c r="B190" s="14"/>
       <c r="C190" s="12" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D190" s="13">
         <v>715</v>
@@ -14846,7 +14849,7 @@
       </c>
       <c r="B192" s="14"/>
       <c r="C192" s="12" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D192" s="13">
         <v>880</v>
@@ -14893,7 +14896,7 @@
       </c>
       <c r="B193" s="14"/>
       <c r="C193" s="12" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D193" s="13">
         <v>745</v>
@@ -15030,7 +15033,7 @@
       </c>
       <c r="B196" s="14"/>
       <c r="C196" s="12" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D196" s="13">
         <v>790</v>
@@ -15167,7 +15170,7 @@
       </c>
       <c r="B199" s="14"/>
       <c r="C199" s="12" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D199" s="13">
         <v>725</v>
@@ -15212,7 +15215,7 @@
       </c>
       <c r="B200" s="14"/>
       <c r="C200" s="12" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D200" s="13">
         <v>745</v>
@@ -15302,7 +15305,7 @@
       </c>
       <c r="B202" s="74"/>
       <c r="C202" s="75" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D202" s="76">
         <v>645</v>
@@ -15484,7 +15487,7 @@
       </c>
       <c r="B206" s="74"/>
       <c r="C206" s="75" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D206" s="76">
         <v>690</v>
@@ -15529,7 +15532,7 @@
       </c>
       <c r="B207" s="74"/>
       <c r="C207" s="75" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D207" s="76">
         <v>735</v>
@@ -15574,7 +15577,7 @@
       </c>
       <c r="B208" s="14"/>
       <c r="C208" s="12" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D208" s="13">
         <v>760</v>
@@ -15619,7 +15622,7 @@
       </c>
       <c r="B209" s="14"/>
       <c r="C209" s="12" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D209" s="13">
         <v>725</v>
@@ -15909,7 +15912,7 @@
         <v>262</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D215" s="13">
         <v>620</v>
@@ -16299,7 +16302,7 @@
       </c>
       <c r="B223" s="14"/>
       <c r="C223" s="12" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D223" s="13">
         <v>0</v>
@@ -16873,7 +16876,7 @@
       </c>
       <c r="B235" s="14"/>
       <c r="C235" s="12" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D235" s="13">
         <v>610</v>
@@ -17868,7 +17871,7 @@
       </c>
       <c r="B256" s="74"/>
       <c r="C256" s="75" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D256" s="76">
         <v>630</v>
@@ -20985,7 +20988,7 @@
       </c>
       <c r="B323" s="14"/>
       <c r="C323" s="12" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D323" s="13">
         <v>0</v>
@@ -24419,7 +24422,7 @@
       </c>
       <c r="B397" s="14"/>
       <c r="C397" s="12" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D397" s="13">
         <v>635</v>
@@ -25114,7 +25117,7 @@
       </c>
       <c r="B412" s="74"/>
       <c r="C412" s="75" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D412" s="76">
         <v>670</v>
@@ -25251,7 +25254,7 @@
       </c>
       <c r="B415" s="14"/>
       <c r="C415" s="12" t="s">
-        <v>591</v>
+        <v>1316</v>
       </c>
       <c r="D415" s="13">
         <v>655</v>
@@ -25296,7 +25299,7 @@
       </c>
       <c r="B416" s="14"/>
       <c r="C416" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D416" s="13">
         <v>770</v>
@@ -25305,7 +25308,7 @@
         <v>750</v>
       </c>
       <c r="F416" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G416" s="14"/>
       <c r="H416" s="14"/>
@@ -25343,7 +25346,7 @@
       </c>
       <c r="B417" s="14"/>
       <c r="C417" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D417" s="13">
         <v>680</v>
@@ -25388,7 +25391,7 @@
       </c>
       <c r="B418" s="14"/>
       <c r="C418" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D418" s="13">
         <v>645</v>
@@ -25397,7 +25400,7 @@
         <v>635</v>
       </c>
       <c r="F418" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G418" s="14"/>
       <c r="H418" s="14"/>
@@ -25435,7 +25438,7 @@
       </c>
       <c r="B419" s="14"/>
       <c r="C419" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D419" s="13">
         <v>655</v>
@@ -25444,7 +25447,7 @@
         <v>650</v>
       </c>
       <c r="F419" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G419" s="14"/>
       <c r="H419" s="14"/>
@@ -25482,7 +25485,7 @@
       </c>
       <c r="B420" s="14"/>
       <c r="C420" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D420" s="13">
         <v>635</v>
@@ -25491,7 +25494,7 @@
         <v>630</v>
       </c>
       <c r="F420" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G420" s="14"/>
       <c r="H420" s="14"/>
@@ -25529,7 +25532,7 @@
       </c>
       <c r="B421" s="14"/>
       <c r="C421" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D421" s="13">
         <v>620</v>
@@ -25538,7 +25541,7 @@
         <v>610</v>
       </c>
       <c r="F421" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G421" s="14"/>
       <c r="H421" s="14"/>
@@ -25576,7 +25579,7 @@
       </c>
       <c r="B422" s="14"/>
       <c r="C422" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D422" s="13">
         <v>635</v>
@@ -25586,7 +25589,7 @@
       </c>
       <c r="F422" s="15"/>
       <c r="G422" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H422" s="14"/>
       <c r="I422" s="14"/>
@@ -25623,7 +25626,7 @@
       </c>
       <c r="B423" s="14"/>
       <c r="C423" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D423" s="13">
         <v>640</v>
@@ -25668,7 +25671,7 @@
       </c>
       <c r="B424" s="14"/>
       <c r="C424" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D424" s="13">
         <v>610</v>
@@ -25713,7 +25716,7 @@
       </c>
       <c r="B425" s="14"/>
       <c r="C425" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D425" s="13">
         <v>670</v>
@@ -25758,7 +25761,7 @@
       </c>
       <c r="B426" s="14"/>
       <c r="C426" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D426" s="13">
         <v>615</v>
@@ -25767,7 +25770,7 @@
         <v>610</v>
       </c>
       <c r="F426" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G426" s="14"/>
       <c r="H426" s="14"/>
@@ -25805,7 +25808,7 @@
       </c>
       <c r="B427" s="14"/>
       <c r="C427" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D427" s="13">
         <v>660</v>
@@ -25850,7 +25853,7 @@
       </c>
       <c r="B428" s="14"/>
       <c r="C428" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D428" s="13">
         <v>640</v>
@@ -25860,7 +25863,7 @@
       </c>
       <c r="F428" s="15"/>
       <c r="G428" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H428" s="14"/>
       <c r="I428" s="14"/>
@@ -25897,7 +25900,7 @@
       </c>
       <c r="B429" s="14"/>
       <c r="C429" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D429" s="13">
         <v>600</v>
@@ -25906,7 +25909,7 @@
         <v>600</v>
       </c>
       <c r="F429" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G429" s="14"/>
       <c r="H429" s="14"/>
@@ -25944,7 +25947,7 @@
       </c>
       <c r="B430" s="14"/>
       <c r="C430" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D430" s="13">
         <v>595</v>
@@ -25953,7 +25956,7 @@
         <v>595</v>
       </c>
       <c r="F430" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G430" s="14"/>
       <c r="H430" s="14"/>
@@ -25991,7 +25994,7 @@
       </c>
       <c r="B431" s="133"/>
       <c r="C431" s="134" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D431" s="121">
         <v>630</v>
@@ -26036,7 +26039,7 @@
       </c>
       <c r="B432" s="14"/>
       <c r="C432" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D432" s="13">
         <v>630</v>
@@ -26081,7 +26084,7 @@
       </c>
       <c r="B433" s="74"/>
       <c r="C433" s="75" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D433" s="76">
         <v>685</v>
@@ -26126,7 +26129,7 @@
       </c>
       <c r="B434" s="14"/>
       <c r="C434" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D434" s="13">
         <v>610</v>
@@ -26171,7 +26174,7 @@
       </c>
       <c r="B435" s="14"/>
       <c r="C435" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D435" s="13">
         <v>635</v>
@@ -26180,7 +26183,7 @@
         <v>625</v>
       </c>
       <c r="F435" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G435" s="14"/>
       <c r="H435" s="14"/>
@@ -26218,7 +26221,7 @@
       </c>
       <c r="B436" s="14"/>
       <c r="C436" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D436" s="13">
         <v>590</v>
@@ -26263,7 +26266,7 @@
       </c>
       <c r="B437" s="14"/>
       <c r="C437" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D437" s="13">
         <v>635</v>
@@ -26308,7 +26311,7 @@
       </c>
       <c r="B438" s="14"/>
       <c r="C438" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D438" s="13">
         <v>615</v>
@@ -26353,7 +26356,7 @@
       </c>
       <c r="B439" s="14"/>
       <c r="C439" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D439" s="13">
         <v>620</v>
@@ -26400,7 +26403,7 @@
       </c>
       <c r="B440" s="14"/>
       <c r="C440" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D440" s="13">
         <v>615</v>
@@ -26447,7 +26450,7 @@
       </c>
       <c r="B441" s="14"/>
       <c r="C441" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D441" s="13">
         <v>615</v>
@@ -26494,7 +26497,7 @@
       </c>
       <c r="B442" s="14"/>
       <c r="C442" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D442" s="13">
         <v>620</v>
@@ -26503,7 +26506,7 @@
         <v>620</v>
       </c>
       <c r="F442" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G442" s="11">
         <v>1970</v>
@@ -26543,7 +26546,7 @@
       </c>
       <c r="B443" s="14"/>
       <c r="C443" s="12" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D443" s="13">
         <v>0</v>
@@ -26578,7 +26581,7 @@
       </c>
       <c r="B444" s="14"/>
       <c r="C444" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D444" s="13">
         <v>625</v>
@@ -26625,7 +26628,7 @@
       </c>
       <c r="B445" s="14"/>
       <c r="C445" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D445" s="13">
         <v>630</v>
@@ -26672,7 +26675,7 @@
       </c>
       <c r="B446" s="14"/>
       <c r="C446" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D446" s="13">
         <v>660</v>
@@ -26681,7 +26684,7 @@
         <v>650</v>
       </c>
       <c r="F446" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G446" s="14"/>
       <c r="H446" s="14"/>
@@ -26719,7 +26722,7 @@
       </c>
       <c r="B447" s="14"/>
       <c r="C447" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D447" s="13">
         <v>735</v>
@@ -26764,7 +26767,7 @@
       </c>
       <c r="B448" s="14"/>
       <c r="C448" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D448" s="13">
         <v>625</v>
@@ -26809,7 +26812,7 @@
       </c>
       <c r="B449" s="14"/>
       <c r="C449" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D449" s="13">
         <v>730</v>
@@ -26854,7 +26857,7 @@
       </c>
       <c r="B450" s="14"/>
       <c r="C450" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D450" s="13">
         <v>660</v>
@@ -26899,7 +26902,7 @@
       </c>
       <c r="B451" s="14"/>
       <c r="C451" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D451" s="13">
         <v>645</v>
@@ -26944,7 +26947,7 @@
       </c>
       <c r="B452" s="14"/>
       <c r="C452" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D452" s="13">
         <v>655</v>
@@ -26989,7 +26992,7 @@
       </c>
       <c r="B453" s="14"/>
       <c r="C453" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D453" s="13">
         <v>610</v>
@@ -26998,7 +27001,7 @@
         <v>610</v>
       </c>
       <c r="F453" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G453" s="14"/>
       <c r="H453" s="14"/>
@@ -27036,7 +27039,7 @@
       </c>
       <c r="B454" s="14"/>
       <c r="C454" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D454" s="13">
         <v>640</v>
@@ -27081,7 +27084,7 @@
       </c>
       <c r="B455" s="14"/>
       <c r="C455" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D455" s="13">
         <v>670</v>
@@ -27126,7 +27129,7 @@
       </c>
       <c r="B456" s="14"/>
       <c r="C456" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D456" s="13">
         <v>650</v>
@@ -27170,10 +27173,10 @@
         <v>452</v>
       </c>
       <c r="B457" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="C457" s="12" t="s">
         <v>646</v>
-      </c>
-      <c r="C457" s="12" t="s">
-        <v>647</v>
       </c>
       <c r="D457" s="13">
         <v>640</v>
@@ -27218,7 +27221,7 @@
       </c>
       <c r="B458" s="14"/>
       <c r="C458" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D458" s="13">
         <v>640</v>
@@ -27263,7 +27266,7 @@
       </c>
       <c r="B459" s="14"/>
       <c r="C459" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D459" s="13">
         <v>630</v>
@@ -27308,7 +27311,7 @@
       </c>
       <c r="B460" s="14"/>
       <c r="C460" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D460" s="13">
         <v>600</v>
@@ -27353,7 +27356,7 @@
       </c>
       <c r="B461" s="14"/>
       <c r="C461" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D461" s="13">
         <v>615</v>
@@ -27362,7 +27365,7 @@
         <v>615</v>
       </c>
       <c r="F461" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G461" s="14"/>
       <c r="H461" s="14"/>
@@ -27400,7 +27403,7 @@
       </c>
       <c r="B462" s="14"/>
       <c r="C462" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D462" s="13">
         <v>640</v>
@@ -27445,7 +27448,7 @@
       </c>
       <c r="B463" s="14"/>
       <c r="C463" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D463" s="13">
         <v>630</v>
@@ -27454,7 +27457,7 @@
         <v>625</v>
       </c>
       <c r="F463" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G463" s="14"/>
       <c r="H463" s="14"/>
@@ -27492,7 +27495,7 @@
       </c>
       <c r="B464" s="14"/>
       <c r="C464" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D464" s="13">
         <v>610</v>
@@ -27501,7 +27504,7 @@
         <v>615</v>
       </c>
       <c r="F464" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G464" s="14"/>
       <c r="H464" s="14"/>
@@ -27539,7 +27542,7 @@
       </c>
       <c r="B465" s="14"/>
       <c r="C465" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D465" s="13">
         <v>600</v>
@@ -27584,7 +27587,7 @@
       </c>
       <c r="B466" s="14"/>
       <c r="C466" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D466" s="13">
         <v>645</v>
@@ -27593,7 +27596,7 @@
         <v>640</v>
       </c>
       <c r="F466" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G466" s="14"/>
       <c r="H466" s="14"/>
@@ -27631,7 +27634,7 @@
       </c>
       <c r="B467" s="14"/>
       <c r="C467" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D467" s="13">
         <v>585</v>
@@ -27676,7 +27679,7 @@
       </c>
       <c r="B468" s="14"/>
       <c r="C468" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D468" s="13">
         <v>620</v>
@@ -27721,7 +27724,7 @@
       </c>
       <c r="B469" s="14"/>
       <c r="C469" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D469" s="13">
         <v>640</v>
@@ -27766,7 +27769,7 @@
       </c>
       <c r="B470" s="14"/>
       <c r="C470" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D470" s="13">
         <v>610</v>
@@ -27811,7 +27814,7 @@
       </c>
       <c r="B471" s="14"/>
       <c r="C471" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D471" s="13">
         <v>630</v>
@@ -27856,7 +27859,7 @@
       </c>
       <c r="B472" s="14"/>
       <c r="C472" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D472" s="13">
         <v>590</v>
@@ -27901,7 +27904,7 @@
       </c>
       <c r="B473" s="14"/>
       <c r="C473" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D473" s="13">
         <v>615</v>
@@ -27946,7 +27949,7 @@
       </c>
       <c r="B474" s="14"/>
       <c r="C474" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D474" s="13">
         <v>630</v>
@@ -27991,7 +27994,7 @@
       </c>
       <c r="B475" s="14"/>
       <c r="C475" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D475" s="13">
         <v>630</v>
@@ -28000,7 +28003,7 @@
         <v>625</v>
       </c>
       <c r="F475" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G475" s="14"/>
       <c r="H475" s="14"/>
@@ -28038,7 +28041,7 @@
       </c>
       <c r="B476" s="14"/>
       <c r="C476" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D476" s="13">
         <v>620</v>
@@ -28083,7 +28086,7 @@
       </c>
       <c r="B477" s="14"/>
       <c r="C477" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D477" s="13">
         <v>610</v>
@@ -28128,7 +28131,7 @@
       </c>
       <c r="B478" s="14"/>
       <c r="C478" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D478" s="13">
         <v>650</v>
@@ -28137,7 +28140,7 @@
         <v>645</v>
       </c>
       <c r="F478" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G478" s="14"/>
       <c r="H478" s="14"/>
@@ -28175,7 +28178,7 @@
       </c>
       <c r="B479" s="14"/>
       <c r="C479" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D479" s="13">
         <v>605</v>
@@ -28220,7 +28223,7 @@
       </c>
       <c r="B480" s="14"/>
       <c r="C480" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D480" s="13">
         <v>620</v>
@@ -28265,7 +28268,7 @@
       </c>
       <c r="B481" s="14"/>
       <c r="C481" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D481" s="13">
         <v>615</v>
@@ -28310,7 +28313,7 @@
       </c>
       <c r="B482" s="14"/>
       <c r="C482" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D482" s="13">
         <v>635</v>
@@ -28355,7 +28358,7 @@
       </c>
       <c r="B483" s="14"/>
       <c r="C483" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D483" s="13">
         <v>620</v>
@@ -28400,7 +28403,7 @@
       </c>
       <c r="B484" s="14"/>
       <c r="C484" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D484" s="13">
         <v>615</v>
@@ -28409,7 +28412,7 @@
         <v>610</v>
       </c>
       <c r="F484" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G484" s="14"/>
       <c r="H484" s="14"/>
@@ -28447,7 +28450,7 @@
       </c>
       <c r="B485" s="14"/>
       <c r="C485" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D485" s="13">
         <v>625</v>
@@ -28456,7 +28459,7 @@
         <v>620</v>
       </c>
       <c r="F485" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G485" s="14"/>
       <c r="H485" s="14"/>
@@ -28494,7 +28497,7 @@
       </c>
       <c r="B486" s="14"/>
       <c r="C486" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D486" s="13">
         <v>610</v>
@@ -28503,7 +28506,7 @@
         <v>610</v>
       </c>
       <c r="F486" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G486" s="14"/>
       <c r="H486" s="14"/>
@@ -28541,7 +28544,7 @@
       </c>
       <c r="B487" s="14"/>
       <c r="C487" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D487" s="13">
         <v>630</v>
@@ -28586,7 +28589,7 @@
       </c>
       <c r="B488" s="14"/>
       <c r="C488" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D488" s="13">
         <v>630</v>
@@ -28595,7 +28598,7 @@
         <v>625</v>
       </c>
       <c r="F488" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G488" s="14"/>
       <c r="H488" s="14"/>
@@ -28633,7 +28636,7 @@
       </c>
       <c r="B489" s="14"/>
       <c r="C489" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D489" s="13">
         <v>585</v>
@@ -28678,7 +28681,7 @@
       </c>
       <c r="B490" s="14"/>
       <c r="C490" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D490" s="13">
         <v>610</v>
@@ -28723,7 +28726,7 @@
       </c>
       <c r="B491" s="14"/>
       <c r="C491" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D491" s="13">
         <v>590</v>
@@ -28768,7 +28771,7 @@
       </c>
       <c r="B492" s="14"/>
       <c r="C492" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D492" s="13">
         <v>670</v>
@@ -28813,7 +28816,7 @@
       </c>
       <c r="B493" s="14"/>
       <c r="C493" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D493" s="13">
         <v>635</v>
@@ -28858,7 +28861,7 @@
       </c>
       <c r="B494" s="14"/>
       <c r="C494" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D494" s="13">
         <v>645</v>
@@ -28903,7 +28906,7 @@
       </c>
       <c r="B495" s="14"/>
       <c r="C495" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D495" s="13">
         <v>605</v>
@@ -28912,7 +28915,7 @@
         <v>605</v>
       </c>
       <c r="F495" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G495" s="14"/>
       <c r="H495" s="14"/>
@@ -28950,7 +28953,7 @@
       </c>
       <c r="B496" s="14"/>
       <c r="C496" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D496" s="13">
         <v>640</v>
@@ -28995,7 +28998,7 @@
       </c>
       <c r="B497" s="14"/>
       <c r="C497" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D497" s="13">
         <v>610</v>
@@ -29040,7 +29043,7 @@
       </c>
       <c r="B498" s="14"/>
       <c r="C498" s="12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D498" s="13">
         <v>650</v>
@@ -29085,7 +29088,7 @@
       </c>
       <c r="B499" s="14"/>
       <c r="C499" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D499" s="13">
         <v>600</v>
@@ -29130,7 +29133,7 @@
       </c>
       <c r="B500" s="14"/>
       <c r="C500" s="12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D500" s="13">
         <v>650</v>
@@ -29175,7 +29178,7 @@
       </c>
       <c r="B501" s="56"/>
       <c r="C501" s="57" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D501" s="58">
         <v>680</v>
@@ -29184,7 +29187,7 @@
         <v>665</v>
       </c>
       <c r="F501" s="65" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G501" s="56"/>
       <c r="H501" s="56"/>
@@ -29222,7 +29225,7 @@
       </c>
       <c r="B502" s="14"/>
       <c r="C502" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D502" s="13">
         <v>625</v>
@@ -29267,7 +29270,7 @@
       </c>
       <c r="B503" s="14"/>
       <c r="C503" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D503" s="13">
         <v>610</v>
@@ -29312,7 +29315,7 @@
       </c>
       <c r="B504" s="14"/>
       <c r="C504" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D504" s="13">
         <v>640</v>
@@ -29357,7 +29360,7 @@
       </c>
       <c r="B505" s="14"/>
       <c r="C505" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D505" s="13">
         <v>610</v>
@@ -29366,7 +29369,7 @@
         <v>610</v>
       </c>
       <c r="F505" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G505" s="14"/>
       <c r="H505" s="14"/>
@@ -29404,7 +29407,7 @@
       </c>
       <c r="B506" s="14"/>
       <c r="C506" s="12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D506" s="13">
         <v>660</v>
@@ -29413,7 +29416,7 @@
         <v>655</v>
       </c>
       <c r="F506" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G506" s="14"/>
       <c r="H506" s="14"/>
@@ -29451,7 +29454,7 @@
       </c>
       <c r="B507" s="14"/>
       <c r="C507" s="12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D507" s="13">
         <v>655</v>
@@ -29460,7 +29463,7 @@
         <v>645</v>
       </c>
       <c r="F507" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G507" s="14"/>
       <c r="H507" s="14"/>
@@ -29498,7 +29501,7 @@
       </c>
       <c r="B508" s="14"/>
       <c r="C508" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D508" s="13">
         <v>625</v>
@@ -29543,7 +29546,7 @@
       </c>
       <c r="B509" s="14"/>
       <c r="C509" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D509" s="13">
         <v>605</v>
@@ -29552,7 +29555,7 @@
         <v>605</v>
       </c>
       <c r="F509" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G509" s="14"/>
       <c r="H509" s="14"/>
@@ -29590,7 +29593,7 @@
       </c>
       <c r="B510" s="14"/>
       <c r="C510" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D510" s="13">
         <v>650</v>
@@ -29599,7 +29602,7 @@
         <v>640</v>
       </c>
       <c r="F510" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G510" s="14"/>
       <c r="H510" s="14"/>
@@ -29637,7 +29640,7 @@
       </c>
       <c r="B511" s="14"/>
       <c r="C511" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D511" s="13">
         <v>640</v>
@@ -29646,7 +29649,7 @@
         <v>635</v>
       </c>
       <c r="F511" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G511" s="14"/>
       <c r="H511" s="14"/>
@@ -29684,7 +29687,7 @@
       </c>
       <c r="B512" s="14"/>
       <c r="C512" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D512" s="13">
         <v>585</v>
@@ -29693,7 +29696,7 @@
         <v>585</v>
       </c>
       <c r="F512" s="21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G512" s="14"/>
       <c r="H512" s="14"/>
@@ -29731,7 +29734,7 @@
       </c>
       <c r="B513" s="14"/>
       <c r="C513" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D513" s="13">
         <v>640</v>
@@ -29776,7 +29779,7 @@
       </c>
       <c r="B514" s="14"/>
       <c r="C514" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D514" s="13">
         <v>625</v>
@@ -29785,7 +29788,7 @@
         <v>615</v>
       </c>
       <c r="F514" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G514" s="14"/>
       <c r="H514" s="14"/>
@@ -29823,7 +29826,7 @@
       </c>
       <c r="B515" s="14"/>
       <c r="C515" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D515" s="13">
         <v>625</v>
@@ -29832,7 +29835,7 @@
         <v>615</v>
       </c>
       <c r="F515" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G515" s="14"/>
       <c r="H515" s="14"/>
@@ -29870,7 +29873,7 @@
       </c>
       <c r="B516" s="14"/>
       <c r="C516" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D516" s="13">
         <v>600</v>
@@ -29879,7 +29882,7 @@
         <v>600</v>
       </c>
       <c r="F516" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G516" s="14"/>
       <c r="H516" s="14"/>
@@ -29917,7 +29920,7 @@
       </c>
       <c r="B517" s="14"/>
       <c r="C517" s="12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D517" s="13">
         <v>670</v>
@@ -29926,7 +29929,7 @@
         <v>660</v>
       </c>
       <c r="F517" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G517" s="14"/>
       <c r="H517" s="14"/>
@@ -29964,7 +29967,7 @@
       </c>
       <c r="B518" s="14"/>
       <c r="C518" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D518" s="13">
         <v>580</v>
@@ -30009,7 +30012,7 @@
       </c>
       <c r="B519" s="14"/>
       <c r="C519" s="12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D519" s="13">
         <v>660</v>
@@ -30018,7 +30021,7 @@
         <v>650</v>
       </c>
       <c r="F519" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G519" s="14"/>
       <c r="H519" s="14"/>
@@ -30056,7 +30059,7 @@
       </c>
       <c r="B520" s="14"/>
       <c r="C520" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D520" s="13">
         <v>590</v>
@@ -30065,7 +30068,7 @@
         <v>590</v>
       </c>
       <c r="F520" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G520" s="14"/>
       <c r="H520" s="14"/>
@@ -30103,7 +30106,7 @@
       </c>
       <c r="B521" s="14"/>
       <c r="C521" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D521" s="13">
         <v>650</v>
@@ -30112,7 +30115,7 @@
         <v>640</v>
       </c>
       <c r="F521" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G521" s="14"/>
       <c r="H521" s="14"/>
@@ -30150,7 +30153,7 @@
       </c>
       <c r="B522" s="14"/>
       <c r="C522" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D522" s="13">
         <v>610</v>
@@ -30159,7 +30162,7 @@
         <v>610</v>
       </c>
       <c r="F522" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G522" s="14"/>
       <c r="H522" s="14"/>
@@ -30197,7 +30200,7 @@
       </c>
       <c r="B523" s="14"/>
       <c r="C523" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D523" s="13">
         <v>670</v>
@@ -30206,7 +30209,7 @@
         <v>660</v>
       </c>
       <c r="F523" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G523" s="14"/>
       <c r="H523" s="14"/>
@@ -30244,7 +30247,7 @@
       </c>
       <c r="B524" s="14"/>
       <c r="C524" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D524" s="13">
         <v>620</v>
@@ -30253,7 +30256,7 @@
         <v>610</v>
       </c>
       <c r="F524" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G524" s="14"/>
       <c r="H524" s="14"/>
@@ -30291,7 +30294,7 @@
       </c>
       <c r="B525" s="14"/>
       <c r="C525" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D525" s="13">
         <v>635</v>
@@ -30300,7 +30303,7 @@
         <v>625</v>
       </c>
       <c r="F525" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G525" s="14"/>
       <c r="H525" s="14"/>
@@ -30338,7 +30341,7 @@
       </c>
       <c r="B526" s="14"/>
       <c r="C526" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D526" s="13">
         <v>710</v>
@@ -30347,7 +30350,7 @@
         <v>700</v>
       </c>
       <c r="F526" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G526" s="14"/>
       <c r="H526" s="14"/>
@@ -30385,7 +30388,7 @@
       </c>
       <c r="B527" s="14"/>
       <c r="C527" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D527" s="13">
         <v>605</v>
@@ -30430,7 +30433,7 @@
       </c>
       <c r="B528" s="14"/>
       <c r="C528" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D528" s="13">
         <v>710</v>
@@ -30439,7 +30442,7 @@
         <v>700</v>
       </c>
       <c r="F528" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G528" s="14"/>
       <c r="H528" s="14"/>
@@ -30477,7 +30480,7 @@
       </c>
       <c r="B529" s="74"/>
       <c r="C529" s="75" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D529" s="76">
         <v>620</v>
@@ -30486,7 +30489,7 @@
         <v>615</v>
       </c>
       <c r="F529" s="106" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G529" s="74"/>
       <c r="H529" s="74"/>
@@ -30524,7 +30527,7 @@
       </c>
       <c r="B530" s="14"/>
       <c r="C530" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D530" s="13">
         <v>670</v>
@@ -30569,7 +30572,7 @@
       </c>
       <c r="B531" s="14"/>
       <c r="C531" s="12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D531" s="13">
         <v>870</v>
@@ -30614,7 +30617,7 @@
       </c>
       <c r="B532" s="14"/>
       <c r="C532" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D532" s="13">
         <v>630</v>
@@ -30659,7 +30662,7 @@
       </c>
       <c r="B533" s="14"/>
       <c r="C533" s="12" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D533" s="13">
         <v>760</v>
@@ -30704,7 +30707,7 @@
       </c>
       <c r="B534" s="14"/>
       <c r="C534" s="12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D534" s="13">
         <v>740</v>
@@ -30713,7 +30716,7 @@
         <v>735</v>
       </c>
       <c r="F534" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G534" s="14"/>
       <c r="H534" s="14"/>
@@ -30751,7 +30754,7 @@
       </c>
       <c r="B535" s="14"/>
       <c r="C535" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D535" s="13">
         <v>640</v>
@@ -30796,7 +30799,7 @@
       </c>
       <c r="B536" s="74"/>
       <c r="C536" s="75" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D536" s="76">
         <v>695</v>
@@ -30841,7 +30844,7 @@
       </c>
       <c r="B537" s="14"/>
       <c r="C537" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D537" s="13">
         <v>720</v>
@@ -30850,7 +30853,7 @@
         <v>705</v>
       </c>
       <c r="F537" s="21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G537" s="14"/>
       <c r="H537" s="14"/>
@@ -30888,7 +30891,7 @@
       </c>
       <c r="B538" s="14"/>
       <c r="C538" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D538" s="13">
         <v>700</v>
@@ -30897,7 +30900,7 @@
         <v>680</v>
       </c>
       <c r="F538" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G538" s="14"/>
       <c r="H538" s="14"/>
@@ -30935,7 +30938,7 @@
       </c>
       <c r="B539" s="14"/>
       <c r="C539" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D539" s="13">
         <v>640</v>
@@ -30944,7 +30947,7 @@
         <v>630</v>
       </c>
       <c r="F539" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G539" s="14"/>
       <c r="H539" s="14"/>
@@ -30982,7 +30985,7 @@
       </c>
       <c r="B540" s="14"/>
       <c r="C540" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D540" s="13">
         <v>730</v>
@@ -31027,7 +31030,7 @@
       </c>
       <c r="B541" s="14"/>
       <c r="C541" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D541" s="13">
         <v>625</v>
@@ -31072,7 +31075,7 @@
       </c>
       <c r="B542" s="14"/>
       <c r="C542" s="12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D542" s="13">
         <v>685</v>
@@ -31081,7 +31084,7 @@
         <v>680</v>
       </c>
       <c r="F542" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G542" s="14"/>
       <c r="H542" s="14"/>
@@ -31119,7 +31122,7 @@
       </c>
       <c r="B543" s="14"/>
       <c r="C543" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D543" s="13">
         <v>630</v>
@@ -31164,7 +31167,7 @@
       </c>
       <c r="B544" s="14"/>
       <c r="C544" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D544" s="13">
         <v>760</v>
@@ -31209,7 +31212,7 @@
       </c>
       <c r="B545" s="14"/>
       <c r="C545" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D545" s="13">
         <v>670</v>
@@ -31254,7 +31257,7 @@
       </c>
       <c r="B546" s="14"/>
       <c r="C546" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D546" s="13">
         <v>670</v>
@@ -31299,7 +31302,7 @@
       </c>
       <c r="B547" s="14"/>
       <c r="C547" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D547" s="13">
         <v>720</v>
@@ -31344,7 +31347,7 @@
       </c>
       <c r="B548" s="14"/>
       <c r="C548" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D548" s="13">
         <v>625</v>
@@ -31353,7 +31356,7 @@
         <v>615</v>
       </c>
       <c r="F548" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G548" s="14"/>
       <c r="H548" s="14"/>
@@ -31391,7 +31394,7 @@
       </c>
       <c r="B549" s="14"/>
       <c r="C549" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D549" s="13">
         <v>625</v>
@@ -31436,7 +31439,7 @@
       </c>
       <c r="B550" s="14"/>
       <c r="C550" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D550" s="13">
         <v>690</v>
@@ -31445,7 +31448,7 @@
         <v>675</v>
       </c>
       <c r="F550" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G550" s="14"/>
       <c r="H550" s="14"/>
@@ -31483,7 +31486,7 @@
       </c>
       <c r="B551" s="14"/>
       <c r="C551" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D551" s="13">
         <v>695</v>
@@ -31492,7 +31495,7 @@
         <v>690</v>
       </c>
       <c r="F551" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G551" s="14"/>
       <c r="H551" s="14"/>
@@ -31530,7 +31533,7 @@
       </c>
       <c r="B552" s="14"/>
       <c r="C552" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D552" s="13">
         <v>630</v>
@@ -31575,7 +31578,7 @@
       </c>
       <c r="B553" s="14"/>
       <c r="C553" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D553" s="13">
         <v>660</v>
@@ -31584,7 +31587,7 @@
         <v>650</v>
       </c>
       <c r="F553" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G553" s="14"/>
       <c r="H553" s="14"/>
@@ -31622,13 +31625,13 @@
       </c>
       <c r="B554" s="14"/>
       <c r="C554" s="12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D554" s="13">
         <v>620</v>
       </c>
       <c r="E554" s="23" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F554" s="15"/>
       <c r="G554" s="14"/>
@@ -31638,7 +31641,7 @@
         <v>620</v>
       </c>
       <c r="K554" s="24" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="L554" s="14">
         <f t="shared" si="16"/>
@@ -31667,7 +31670,7 @@
       </c>
       <c r="B555" s="14"/>
       <c r="C555" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D555" s="13">
         <v>645</v>
@@ -31676,7 +31679,7 @@
         <v>645</v>
       </c>
       <c r="F555" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G555" s="14"/>
       <c r="H555" s="14"/>
@@ -31714,7 +31717,7 @@
       </c>
       <c r="B556" s="14"/>
       <c r="C556" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D556" s="13">
         <v>625</v>
@@ -31723,7 +31726,7 @@
         <v>620</v>
       </c>
       <c r="F556" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G556" s="14"/>
       <c r="H556" s="14"/>
@@ -31761,7 +31764,7 @@
       </c>
       <c r="B557" s="14"/>
       <c r="C557" s="12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D557" s="13">
         <v>580</v>
@@ -31806,7 +31809,7 @@
       </c>
       <c r="B558" s="74"/>
       <c r="C558" s="75" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D558" s="76">
         <v>610</v>
@@ -31815,7 +31818,7 @@
         <v>610</v>
       </c>
       <c r="F558" s="106" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G558" s="74"/>
       <c r="H558" s="74"/>
@@ -31853,7 +31856,7 @@
       </c>
       <c r="B559" s="14"/>
       <c r="C559" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D559" s="13">
         <v>770</v>
@@ -31898,7 +31901,7 @@
       </c>
       <c r="B560" s="14"/>
       <c r="C560" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D560" s="13">
         <v>635</v>
@@ -31907,7 +31910,7 @@
         <v>630</v>
       </c>
       <c r="F560" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G560" s="14"/>
       <c r="H560" s="14"/>
@@ -31945,7 +31948,7 @@
       </c>
       <c r="B561" s="74"/>
       <c r="C561" s="75" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D561" s="76">
         <v>605</v>
@@ -31990,7 +31993,7 @@
       </c>
       <c r="B562" s="14"/>
       <c r="C562" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D562" s="13">
         <v>640</v>
@@ -32035,7 +32038,7 @@
       </c>
       <c r="B563" s="14"/>
       <c r="C563" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D563" s="13">
         <v>650</v>
@@ -32080,7 +32083,7 @@
       </c>
       <c r="B564" s="14"/>
       <c r="C564" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D564" s="13">
         <v>670</v>
@@ -32125,7 +32128,7 @@
       </c>
       <c r="B565" s="14"/>
       <c r="C565" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D565" s="13">
         <v>640</v>
@@ -32134,7 +32137,7 @@
         <v>625</v>
       </c>
       <c r="F565" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G565" s="14"/>
       <c r="H565" s="14"/>
@@ -32172,7 +32175,7 @@
       </c>
       <c r="B566" s="74"/>
       <c r="C566" s="75" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D566" s="76">
         <v>595</v>
@@ -32217,7 +32220,7 @@
       </c>
       <c r="B567" s="14"/>
       <c r="C567" s="12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D567" s="13">
         <v>645</v>
@@ -32226,7 +32229,7 @@
         <v>640</v>
       </c>
       <c r="F567" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G567" s="14"/>
       <c r="H567" s="14"/>
@@ -32264,7 +32267,7 @@
       </c>
       <c r="B568" s="14"/>
       <c r="C568" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D568" s="13">
         <v>630</v>
@@ -32273,7 +32276,7 @@
         <v>620</v>
       </c>
       <c r="F568" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G568" s="14"/>
       <c r="H568" s="14"/>
@@ -32311,7 +32314,7 @@
       </c>
       <c r="B569" s="14"/>
       <c r="C569" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D569" s="13">
         <v>660</v>
@@ -32320,7 +32323,7 @@
         <v>650</v>
       </c>
       <c r="F569" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G569" s="14"/>
       <c r="H569" s="14"/>
@@ -32358,7 +32361,7 @@
       </c>
       <c r="B570" s="14"/>
       <c r="C570" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D570" s="13">
         <v>640</v>
@@ -32367,7 +32370,7 @@
         <v>635</v>
       </c>
       <c r="F570" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G570" s="14"/>
       <c r="H570" s="14"/>
@@ -32405,7 +32408,7 @@
       </c>
       <c r="B571" s="14"/>
       <c r="C571" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D571" s="13">
         <v>690</v>
@@ -32414,7 +32417,7 @@
         <v>680</v>
       </c>
       <c r="F571" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G571" s="14"/>
       <c r="H571" s="14"/>
@@ -32452,7 +32455,7 @@
       </c>
       <c r="B572" s="14"/>
       <c r="C572" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D572" s="13">
         <v>640</v>
@@ -32497,7 +32500,7 @@
       </c>
       <c r="B573" s="14"/>
       <c r="C573" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D573" s="13">
         <v>645</v>
@@ -32506,7 +32509,7 @@
         <v>640</v>
       </c>
       <c r="F573" s="21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G573" s="14"/>
       <c r="H573" s="14"/>
@@ -32544,7 +32547,7 @@
       </c>
       <c r="B574" s="14"/>
       <c r="C574" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D574" s="13">
         <v>655</v>
@@ -32553,7 +32556,7 @@
         <v>640</v>
       </c>
       <c r="F574" s="21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G574" s="14"/>
       <c r="H574" s="14"/>
@@ -32591,7 +32594,7 @@
       </c>
       <c r="B575" s="14"/>
       <c r="C575" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D575" s="13">
         <v>690</v>
@@ -32636,7 +32639,7 @@
       </c>
       <c r="B576" s="14"/>
       <c r="C576" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D576" s="13">
         <v>675</v>
@@ -32645,7 +32648,7 @@
         <v>665</v>
       </c>
       <c r="F576" s="21" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G576" s="14"/>
       <c r="H576" s="14"/>
@@ -32683,7 +32686,7 @@
       </c>
       <c r="B577" s="74"/>
       <c r="C577" s="75" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D577" s="76">
         <v>580</v>
@@ -32728,7 +32731,7 @@
       </c>
       <c r="B578" s="14"/>
       <c r="C578" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D578" s="13">
         <v>580</v>
@@ -32773,7 +32776,7 @@
       </c>
       <c r="B579" s="14"/>
       <c r="C579" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D579" s="13">
         <v>580</v>
@@ -32818,7 +32821,7 @@
       </c>
       <c r="B580" s="14"/>
       <c r="C580" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D580" s="13">
         <v>580</v>
@@ -32827,7 +32830,7 @@
         <v>580</v>
       </c>
       <c r="F580" s="21" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G580" s="14"/>
       <c r="H580" s="14"/>
@@ -32865,7 +32868,7 @@
       </c>
       <c r="B581" s="14"/>
       <c r="C581" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D581" s="13">
         <v>635</v>
@@ -32910,7 +32913,7 @@
       </c>
       <c r="B582" s="14"/>
       <c r="C582" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D582" s="13">
         <v>610</v>
@@ -32919,7 +32922,7 @@
         <v>600</v>
       </c>
       <c r="F582" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G582" s="14"/>
       <c r="H582" s="14"/>
@@ -32957,7 +32960,7 @@
       </c>
       <c r="B583" s="14"/>
       <c r="C583" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D583" s="13">
         <v>605</v>
@@ -32966,11 +32969,11 @@
         <v>600</v>
       </c>
       <c r="F583" s="21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G583" s="14"/>
       <c r="H583" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I583" s="14"/>
       <c r="J583" s="16">
@@ -33006,7 +33009,7 @@
       </c>
       <c r="B584" s="14"/>
       <c r="C584" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D584" s="13">
         <v>690</v>
@@ -33051,7 +33054,7 @@
       </c>
       <c r="B585" s="14"/>
       <c r="C585" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D585" s="13">
         <v>610</v>
@@ -33096,7 +33099,7 @@
       </c>
       <c r="B586" s="1"/>
       <c r="C586" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D586" s="13">
         <v>600</v>
@@ -33141,7 +33144,7 @@
       </c>
       <c r="B587" s="1"/>
       <c r="C587" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D587" s="13">
         <v>620</v>
@@ -33186,7 +33189,7 @@
       </c>
       <c r="B588" s="1"/>
       <c r="C588" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D588" s="13">
         <v>605</v>
@@ -33231,7 +33234,7 @@
       </c>
       <c r="B589" s="14"/>
       <c r="C589" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D589" s="13">
         <v>680</v>
@@ -33240,7 +33243,7 @@
         <v>670</v>
       </c>
       <c r="F589" s="21" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G589" s="14"/>
       <c r="H589" s="14"/>
@@ -33278,7 +33281,7 @@
       </c>
       <c r="B590" s="1"/>
       <c r="C590" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D590" s="13">
         <v>745</v>
@@ -33323,7 +33326,7 @@
       </c>
       <c r="B591" s="1"/>
       <c r="C591" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D591" s="13">
         <v>730</v>
@@ -33332,7 +33335,7 @@
         <v>715</v>
       </c>
       <c r="F591" s="21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
@@ -33370,7 +33373,7 @@
       </c>
       <c r="B592" s="1"/>
       <c r="C592" s="12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D592" s="13">
         <v>735</v>
@@ -33379,7 +33382,7 @@
         <v>730</v>
       </c>
       <c r="F592" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
@@ -33417,7 +33420,7 @@
       </c>
       <c r="B593" s="1"/>
       <c r="C593" s="12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D593" s="13">
         <v>700</v>
@@ -33426,7 +33429,7 @@
         <v>690</v>
       </c>
       <c r="F593" s="21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
@@ -33464,7 +33467,7 @@
       </c>
       <c r="B594" s="1"/>
       <c r="C594" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D594" s="13">
         <v>750</v>
@@ -33473,7 +33476,7 @@
         <v>735</v>
       </c>
       <c r="F594" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
@@ -33511,7 +33514,7 @@
       </c>
       <c r="B595" s="1"/>
       <c r="C595" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D595" s="13">
         <v>600</v>
@@ -33520,7 +33523,7 @@
         <v>600</v>
       </c>
       <c r="F595" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
@@ -33558,7 +33561,7 @@
       </c>
       <c r="B596" s="1"/>
       <c r="C596" s="12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D596" s="13">
         <v>780</v>
@@ -33567,7 +33570,7 @@
         <v>760</v>
       </c>
       <c r="F596" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
@@ -33605,7 +33608,7 @@
       </c>
       <c r="B597" s="1"/>
       <c r="C597" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D597" s="13">
         <v>600</v>
@@ -33614,7 +33617,7 @@
         <v>600</v>
       </c>
       <c r="F597" s="21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
@@ -33652,7 +33655,7 @@
       </c>
       <c r="B598" s="1"/>
       <c r="C598" s="12" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D598" s="13">
         <v>720</v>
@@ -33661,7 +33664,7 @@
         <v>710</v>
       </c>
       <c r="F598" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
@@ -33699,7 +33702,7 @@
       </c>
       <c r="B599" s="14"/>
       <c r="C599" s="12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D599" s="13">
         <v>655</v>
@@ -33746,7 +33749,7 @@
       </c>
       <c r="B600" s="56"/>
       <c r="C600" s="57" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D600" s="58">
         <v>770</v>
@@ -33791,7 +33794,7 @@
       </c>
       <c r="B601" s="1"/>
       <c r="C601" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D601" s="13">
         <v>760</v>
@@ -33800,7 +33803,7 @@
         <v>740</v>
       </c>
       <c r="F601" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
@@ -33838,7 +33841,7 @@
       </c>
       <c r="B602" s="1"/>
       <c r="C602" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D602" s="13">
         <v>630</v>
@@ -33883,7 +33886,7 @@
       </c>
       <c r="B603" s="1"/>
       <c r="C603" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D603" s="13">
         <v>730</v>
@@ -33892,7 +33895,7 @@
         <v>715</v>
       </c>
       <c r="F603" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
@@ -33930,7 +33933,7 @@
       </c>
       <c r="B604" s="1"/>
       <c r="C604" s="12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D604" s="13">
         <v>605</v>
@@ -33939,7 +33942,7 @@
         <v>600</v>
       </c>
       <c r="F604" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
@@ -33977,7 +33980,7 @@
       </c>
       <c r="B605" s="1"/>
       <c r="C605" s="12" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D605" s="13">
         <v>720</v>
@@ -34022,7 +34025,7 @@
       </c>
       <c r="B606" s="14"/>
       <c r="C606" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D606" s="13">
         <v>685</v>
@@ -34067,7 +34070,7 @@
       </c>
       <c r="B607" s="1"/>
       <c r="C607" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D607" s="13">
         <v>625</v>
@@ -34076,7 +34079,7 @@
         <v>615</v>
       </c>
       <c r="F607" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
@@ -34114,7 +34117,7 @@
       </c>
       <c r="B608" s="1"/>
       <c r="C608" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D608" s="13">
         <v>645</v>
@@ -34123,7 +34126,7 @@
         <v>635</v>
       </c>
       <c r="F608" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
@@ -34161,7 +34164,7 @@
       </c>
       <c r="B609" s="1"/>
       <c r="C609" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D609" s="13">
         <v>600</v>
@@ -34206,7 +34209,7 @@
       </c>
       <c r="B610" s="61"/>
       <c r="C610" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D610" s="58">
         <v>675</v>
@@ -34215,7 +34218,7 @@
         <v>655</v>
       </c>
       <c r="F610" s="65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G610" s="61"/>
       <c r="H610" s="61"/>
@@ -34253,7 +34256,7 @@
       </c>
       <c r="B611" s="144"/>
       <c r="C611" s="145" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D611" s="146">
         <v>605</v>
@@ -34262,7 +34265,7 @@
         <v>600</v>
       </c>
       <c r="F611" s="147" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
@@ -34300,7 +34303,7 @@
       </c>
       <c r="B612" s="1"/>
       <c r="C612" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D612" s="13">
         <v>620</v>
@@ -34309,7 +34312,7 @@
         <v>600</v>
       </c>
       <c r="F612" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
@@ -34347,7 +34350,7 @@
       </c>
       <c r="B613" s="1"/>
       <c r="C613" s="12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D613" s="13">
         <v>640</v>
@@ -34356,7 +34359,7 @@
         <v>630</v>
       </c>
       <c r="F613" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
@@ -34394,7 +34397,7 @@
       </c>
       <c r="B614" s="1"/>
       <c r="C614" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D614" s="13">
         <v>630</v>
@@ -34403,7 +34406,7 @@
         <v>620</v>
       </c>
       <c r="F614" s="21" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
@@ -34441,7 +34444,7 @@
       </c>
       <c r="B615" s="1"/>
       <c r="C615" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D615" s="13">
         <v>640</v>
@@ -34486,7 +34489,7 @@
       </c>
       <c r="B616" s="1"/>
       <c r="C616" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D616" s="13">
         <v>615</v>
@@ -34495,7 +34498,7 @@
         <v>605</v>
       </c>
       <c r="F616" s="21" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
@@ -34533,7 +34536,7 @@
       </c>
       <c r="B617" s="1"/>
       <c r="C617" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D617" s="13">
         <v>625</v>
@@ -34578,7 +34581,7 @@
       </c>
       <c r="B618" s="1"/>
       <c r="C618" s="12" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D618" s="13">
         <v>625</v>
@@ -34623,7 +34626,7 @@
       </c>
       <c r="B619" s="1"/>
       <c r="C619" s="12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D619" s="13">
         <v>600</v>
@@ -34632,7 +34635,7 @@
         <v>600</v>
       </c>
       <c r="F619" s="21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
@@ -34670,7 +34673,7 @@
       </c>
       <c r="B620" s="1"/>
       <c r="C620" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D620" s="13">
         <v>625</v>
@@ -34715,7 +34718,7 @@
       </c>
       <c r="B621" s="1"/>
       <c r="C621" s="12" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D621" s="13">
         <v>600</v>
@@ -34760,7 +34763,7 @@
       </c>
       <c r="B622" s="1"/>
       <c r="C622" s="12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D622" s="13">
         <v>605</v>
@@ -34769,7 +34772,7 @@
         <v>600</v>
       </c>
       <c r="F622" s="21" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
@@ -34807,7 +34810,7 @@
       </c>
       <c r="B623" s="1"/>
       <c r="C623" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D623" s="13">
         <v>635</v>
@@ -34816,7 +34819,7 @@
         <v>620</v>
       </c>
       <c r="F623" s="21" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
@@ -34854,7 +34857,7 @@
       </c>
       <c r="B624" s="1"/>
       <c r="C624" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D624" s="13">
         <v>600</v>
@@ -34899,7 +34902,7 @@
       </c>
       <c r="B625" s="1"/>
       <c r="C625" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D625" s="13">
         <v>605</v>
@@ -34944,7 +34947,7 @@
       </c>
       <c r="B626" s="1"/>
       <c r="C626" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D626" s="13">
         <v>635</v>
@@ -34989,7 +34992,7 @@
       </c>
       <c r="B627" s="1"/>
       <c r="C627" s="12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D627" s="13">
         <v>600</v>
@@ -34998,7 +35001,7 @@
         <v>600</v>
       </c>
       <c r="F627" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
@@ -35036,7 +35039,7 @@
       </c>
       <c r="B628" s="1"/>
       <c r="C628" s="12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D628" s="13">
         <v>650</v>
@@ -35045,7 +35048,7 @@
         <v>640</v>
       </c>
       <c r="F628" s="21" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
@@ -35083,7 +35086,7 @@
       </c>
       <c r="B629" s="1"/>
       <c r="C629" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D629" s="13">
         <v>640</v>
@@ -35128,7 +35131,7 @@
       </c>
       <c r="B630" s="1"/>
       <c r="C630" s="12" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D630" s="13">
         <v>600</v>
@@ -35173,7 +35176,7 @@
       </c>
       <c r="B631" s="1"/>
       <c r="C631" s="12" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D631" s="13">
         <v>605</v>
@@ -35218,7 +35221,7 @@
       </c>
       <c r="B632" s="1"/>
       <c r="C632" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D632" s="13">
         <v>640</v>
@@ -35227,7 +35230,7 @@
         <v>635</v>
       </c>
       <c r="F632" s="21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
@@ -35265,7 +35268,7 @@
       </c>
       <c r="B633" s="1"/>
       <c r="C633" s="12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D633" s="13">
         <v>635</v>
@@ -35310,7 +35313,7 @@
       </c>
       <c r="B634" s="1"/>
       <c r="C634" s="12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D634" s="13">
         <v>600</v>
@@ -35355,7 +35358,7 @@
       </c>
       <c r="B635" s="1"/>
       <c r="C635" s="12" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D635" s="13">
         <v>605</v>
@@ -35364,7 +35367,7 @@
         <v>600</v>
       </c>
       <c r="F635" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
@@ -35402,7 +35405,7 @@
       </c>
       <c r="B636" s="1"/>
       <c r="C636" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D636" s="13">
         <v>630</v>
@@ -35411,7 +35414,7 @@
         <v>620</v>
       </c>
       <c r="F636" s="21" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
@@ -35449,7 +35452,7 @@
       </c>
       <c r="B637" s="1"/>
       <c r="C637" s="12" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D637" s="13">
         <v>620</v>
@@ -35458,7 +35461,7 @@
         <v>610</v>
       </c>
       <c r="F637" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
@@ -35496,7 +35499,7 @@
       </c>
       <c r="B638" s="1"/>
       <c r="C638" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D638" s="13">
         <v>650</v>
@@ -35541,7 +35544,7 @@
       </c>
       <c r="B639" s="1"/>
       <c r="C639" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D639" s="13">
         <v>680</v>
@@ -35586,7 +35589,7 @@
       </c>
       <c r="B640" s="1"/>
       <c r="C640" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D640" s="13">
         <v>625</v>
@@ -35631,7 +35634,7 @@
       </c>
       <c r="B641" s="1"/>
       <c r="C641" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D641" s="13">
         <v>610</v>
@@ -35676,7 +35679,7 @@
       </c>
       <c r="B642" s="1"/>
       <c r="C642" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D642" s="13">
         <v>620</v>
@@ -35721,7 +35724,7 @@
       </c>
       <c r="B643" s="1"/>
       <c r="C643" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D643" s="13">
         <v>655</v>
@@ -35766,7 +35769,7 @@
       </c>
       <c r="B644" s="1"/>
       <c r="C644" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D644" s="13">
         <v>635</v>
@@ -35775,7 +35778,7 @@
         <v>625</v>
       </c>
       <c r="F644" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
@@ -35813,7 +35816,7 @@
       </c>
       <c r="B645" s="1"/>
       <c r="C645" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D645" s="13">
         <v>615</v>
@@ -35822,7 +35825,7 @@
         <v>610</v>
       </c>
       <c r="F645" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
@@ -35860,7 +35863,7 @@
       </c>
       <c r="B646" s="1"/>
       <c r="C646" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D646" s="13">
         <v>605</v>
@@ -35869,7 +35872,7 @@
         <v>600</v>
       </c>
       <c r="F646" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
@@ -35907,7 +35910,7 @@
       </c>
       <c r="B647" s="1"/>
       <c r="C647" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D647" s="13">
         <v>630</v>
@@ -35952,7 +35955,7 @@
       </c>
       <c r="B648" s="1"/>
       <c r="C648" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D648" s="13">
         <v>630</v>
@@ -35997,7 +36000,7 @@
       </c>
       <c r="B649" s="1"/>
       <c r="C649" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D649" s="13">
         <v>600</v>
@@ -36006,7 +36009,7 @@
         <v>600</v>
       </c>
       <c r="F649" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
@@ -36044,7 +36047,7 @@
       </c>
       <c r="B650" s="1"/>
       <c r="C650" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D650" s="13">
         <v>590</v>
@@ -36053,7 +36056,7 @@
         <v>590</v>
       </c>
       <c r="F650" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
@@ -36091,7 +36094,7 @@
       </c>
       <c r="B651" s="1"/>
       <c r="C651" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D651" s="13">
         <v>650</v>
@@ -36100,7 +36103,7 @@
         <v>640</v>
       </c>
       <c r="F651" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
@@ -36138,7 +36141,7 @@
       </c>
       <c r="B652" s="1"/>
       <c r="C652" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D652" s="13">
         <v>610</v>
@@ -36147,7 +36150,7 @@
         <v>600</v>
       </c>
       <c r="F652" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
@@ -36185,7 +36188,7 @@
       </c>
       <c r="B653" s="1"/>
       <c r="C653" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D653" s="13">
         <v>645</v>
@@ -36194,7 +36197,7 @@
         <v>630</v>
       </c>
       <c r="F653" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
@@ -36232,7 +36235,7 @@
       </c>
       <c r="B654" s="1"/>
       <c r="C654" s="18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D654" s="13">
         <v>635</v>
@@ -36241,7 +36244,7 @@
         <v>625</v>
       </c>
       <c r="F654" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
@@ -36279,7 +36282,7 @@
       </c>
       <c r="B655" s="1"/>
       <c r="C655" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D655" s="13">
         <v>600</v>
@@ -36288,7 +36291,7 @@
         <v>600</v>
       </c>
       <c r="F655" s="19" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
@@ -36326,7 +36329,7 @@
       </c>
       <c r="B656" s="1"/>
       <c r="C656" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D656" s="13">
         <v>675</v>
@@ -36371,7 +36374,7 @@
       </c>
       <c r="B657" s="1"/>
       <c r="C657" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D657" s="13">
         <v>600</v>
@@ -36380,7 +36383,7 @@
         <v>600</v>
       </c>
       <c r="F657" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
@@ -36418,7 +36421,7 @@
       </c>
       <c r="B658" s="1"/>
       <c r="C658" s="18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D658" s="13">
         <v>595</v>
@@ -36463,7 +36466,7 @@
       </c>
       <c r="B659" s="1"/>
       <c r="C659" s="18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D659" s="13">
         <v>645</v>
@@ -36472,7 +36475,7 @@
         <v>630</v>
       </c>
       <c r="F659" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
@@ -36510,7 +36513,7 @@
       </c>
       <c r="B660" s="1"/>
       <c r="C660" s="18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D660" s="13">
         <v>630</v>
@@ -36519,7 +36522,7 @@
         <v>615</v>
       </c>
       <c r="F660" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
@@ -36557,7 +36560,7 @@
       </c>
       <c r="B661" s="1"/>
       <c r="C661" s="18" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D661" s="13">
         <v>610</v>
@@ -36566,7 +36569,7 @@
         <v>600</v>
       </c>
       <c r="F661" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
@@ -36604,7 +36607,7 @@
       </c>
       <c r="B662" s="1"/>
       <c r="C662" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D662" s="13">
         <v>650</v>
@@ -36649,7 +36652,7 @@
       </c>
       <c r="B663" s="1"/>
       <c r="C663" s="18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D663" s="13">
         <v>650</v>
@@ -36658,7 +36661,7 @@
         <v>635</v>
       </c>
       <c r="F663" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
@@ -36696,7 +36699,7 @@
       </c>
       <c r="B664" s="79"/>
       <c r="C664" s="91" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D664" s="76">
         <v>715</v>
@@ -36705,7 +36708,7 @@
         <v>700</v>
       </c>
       <c r="F664" s="92" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G664" s="79"/>
       <c r="H664" s="79"/>
@@ -36743,7 +36746,7 @@
       </c>
       <c r="B665" s="1"/>
       <c r="C665" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D665" s="13">
         <v>640</v>
@@ -36788,7 +36791,7 @@
       </c>
       <c r="B666" s="1"/>
       <c r="C666" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D666" s="13">
         <v>595</v>
@@ -36797,7 +36800,7 @@
         <v>595</v>
       </c>
       <c r="F666" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
@@ -36835,7 +36838,7 @@
       </c>
       <c r="B667" s="1"/>
       <c r="C667" s="18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D667" s="13">
         <v>630</v>
@@ -36844,7 +36847,7 @@
         <v>625</v>
       </c>
       <c r="F667" s="19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
@@ -36882,7 +36885,7 @@
       </c>
       <c r="B668" s="148"/>
       <c r="C668" s="148" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D668" s="13">
         <v>655</v>
@@ -36927,7 +36930,7 @@
       </c>
       <c r="B669" s="1"/>
       <c r="C669" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D669" s="13">
         <v>630</v>
@@ -36972,7 +36975,7 @@
       </c>
       <c r="B670" s="1"/>
       <c r="C670" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D670" s="13">
         <v>680</v>
@@ -37017,7 +37020,7 @@
       </c>
       <c r="B671" s="1"/>
       <c r="C671" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D671" s="13">
         <v>605</v>
@@ -37062,7 +37065,7 @@
       </c>
       <c r="B672" s="1"/>
       <c r="C672" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D672" s="13">
         <v>755</v>
@@ -37107,7 +37110,7 @@
       </c>
       <c r="B673" s="1"/>
       <c r="C673" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D673" s="13">
         <v>725</v>
@@ -37152,7 +37155,7 @@
       </c>
       <c r="B674" s="1"/>
       <c r="C674" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D674" s="13">
         <v>610</v>
@@ -37197,7 +37200,7 @@
       </c>
       <c r="B675" s="149"/>
       <c r="C675" s="150" t="s">
-        <v>1087</v>
+        <v>1317</v>
       </c>
       <c r="D675" s="13">
         <v>710</v>
@@ -37242,7 +37245,7 @@
       </c>
       <c r="B676" s="61"/>
       <c r="C676" s="151" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D676" s="58">
         <v>655</v>
@@ -37287,7 +37290,7 @@
       </c>
       <c r="B677" s="1"/>
       <c r="C677" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D677" s="13">
         <v>650</v>
@@ -37296,7 +37299,7 @@
         <v>635</v>
       </c>
       <c r="F677" s="103" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="G677" s="4"/>
       <c r="H677" s="4"/>
@@ -37334,7 +37337,7 @@
       </c>
       <c r="B678" s="1"/>
       <c r="C678" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D678" s="13">
         <v>600</v>
@@ -37343,7 +37346,7 @@
         <v>600</v>
       </c>
       <c r="F678" s="103" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
@@ -37381,7 +37384,7 @@
       </c>
       <c r="B679" s="1"/>
       <c r="C679" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D679" s="13">
         <v>650</v>
@@ -37390,7 +37393,7 @@
         <v>645</v>
       </c>
       <c r="F679" s="103" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="G679" s="4"/>
       <c r="H679" s="4"/>
@@ -37428,7 +37431,7 @@
       </c>
       <c r="B680" s="1"/>
       <c r="C680" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D680" s="13">
         <v>720</v>
@@ -37473,7 +37476,7 @@
       </c>
       <c r="B681" s="1"/>
       <c r="C681" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D681" s="13">
         <v>645</v>
@@ -37518,7 +37521,7 @@
       </c>
       <c r="B682" s="1"/>
       <c r="C682" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D682" s="13">
         <v>600</v>
@@ -37527,7 +37530,7 @@
         <v>600</v>
       </c>
       <c r="F682" s="103" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G682" s="4"/>
       <c r="H682" s="4"/>
@@ -37561,7 +37564,7 @@
       </c>
       <c r="B683" s="1"/>
       <c r="C683" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D683" s="13">
         <v>620</v>
@@ -37570,7 +37573,7 @@
         <v>610</v>
       </c>
       <c r="F683" s="103" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
@@ -37608,7 +37611,7 @@
       </c>
       <c r="B684" s="1"/>
       <c r="C684" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D684" s="13">
         <v>800</v>
@@ -37653,7 +37656,7 @@
       </c>
       <c r="B685" s="1"/>
       <c r="C685" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D685" s="13">
         <v>760</v>
@@ -37698,7 +37701,7 @@
       </c>
       <c r="B686" s="1"/>
       <c r="C686" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D686" s="13">
         <v>750</v>
@@ -37707,7 +37710,7 @@
         <v>740</v>
       </c>
       <c r="F686" s="103" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G686" s="4"/>
       <c r="H686" s="4"/>
@@ -37745,7 +37748,7 @@
       </c>
       <c r="B687" s="1"/>
       <c r="C687" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D687" s="13">
         <v>660</v>
@@ -37754,7 +37757,7 @@
         <v>650</v>
       </c>
       <c r="F687" s="103" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G687" s="4"/>
       <c r="H687" s="4"/>
@@ -37792,7 +37795,7 @@
       </c>
       <c r="B688" s="1"/>
       <c r="C688" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D688" s="13">
         <v>680</v>
@@ -37801,7 +37804,7 @@
         <v>670</v>
       </c>
       <c r="F688" s="103" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="G688" s="4"/>
       <c r="H688" s="4"/>
@@ -37839,7 +37842,7 @@
       </c>
       <c r="B689" s="1"/>
       <c r="C689" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D689" s="13">
         <v>770</v>
@@ -37884,7 +37887,7 @@
       </c>
       <c r="B690" s="1"/>
       <c r="C690" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D690" s="13">
         <v>690</v>
@@ -37893,7 +37896,7 @@
         <v>680</v>
       </c>
       <c r="F690" s="103" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
@@ -37931,7 +37934,7 @@
       </c>
       <c r="B691" s="1"/>
       <c r="C691" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D691" s="13">
         <v>680</v>
@@ -37940,7 +37943,7 @@
         <v>670</v>
       </c>
       <c r="F691" s="103" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G691" s="4"/>
       <c r="H691" s="4"/>
@@ -37978,7 +37981,7 @@
       </c>
       <c r="B692" s="1"/>
       <c r="C692" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D692" s="13">
         <v>640</v>
@@ -37987,7 +37990,7 @@
         <v>630</v>
       </c>
       <c r="F692" s="103" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G692" s="4"/>
       <c r="H692" s="4"/>
@@ -38025,7 +38028,7 @@
       </c>
       <c r="B693" s="1"/>
       <c r="C693" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D693" s="13">
         <v>680</v>
@@ -38070,7 +38073,7 @@
       </c>
       <c r="B694" s="1"/>
       <c r="C694" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D694" s="13">
         <v>740</v>
@@ -38079,7 +38082,7 @@
         <v>720</v>
       </c>
       <c r="F694" s="103" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G694" s="4"/>
       <c r="H694" s="4"/>
@@ -38117,7 +38120,7 @@
       </c>
       <c r="B695" s="1"/>
       <c r="C695" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D695" s="13">
         <v>645</v>
@@ -38126,7 +38129,7 @@
         <v>635</v>
       </c>
       <c r="F695" s="103" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G695" s="4"/>
       <c r="H695" s="4"/>
@@ -38164,7 +38167,7 @@
       </c>
       <c r="B696" s="79"/>
       <c r="C696" s="79" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D696" s="76">
         <v>690</v>
@@ -38173,7 +38176,7 @@
         <v>670</v>
       </c>
       <c r="F696" s="104" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G696" s="93"/>
       <c r="H696" s="93"/>
@@ -38211,7 +38214,7 @@
       </c>
       <c r="B697" s="79"/>
       <c r="C697" s="79" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D697" s="76">
         <v>605</v>
@@ -38220,7 +38223,7 @@
         <v>600</v>
       </c>
       <c r="F697" s="104" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G697" s="93"/>
       <c r="H697" s="93"/>
@@ -38258,7 +38261,7 @@
       </c>
       <c r="B698" s="1"/>
       <c r="C698" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D698" s="13">
         <v>655</v>
@@ -38267,7 +38270,7 @@
         <v>645</v>
       </c>
       <c r="F698" s="103" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G698" s="4"/>
       <c r="H698" s="4"/>
@@ -38305,7 +38308,7 @@
       </c>
       <c r="B699" s="1"/>
       <c r="C699" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D699" s="13">
         <v>655</v>
@@ -38314,7 +38317,7 @@
         <v>645</v>
       </c>
       <c r="F699" s="103" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G699" s="4"/>
       <c r="H699" s="4"/>
@@ -38352,7 +38355,7 @@
       </c>
       <c r="B700" s="1"/>
       <c r="C700" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D700" s="13">
         <v>620</v>
@@ -38397,7 +38400,7 @@
       </c>
       <c r="B701" s="1"/>
       <c r="C701" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D701" s="13">
         <v>635</v>
@@ -38442,7 +38445,7 @@
       </c>
       <c r="B702" s="1"/>
       <c r="C702" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D702" s="13">
         <v>600</v>
@@ -38487,7 +38490,7 @@
       </c>
       <c r="B703" s="1"/>
       <c r="C703" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D703" s="13">
         <v>650</v>
@@ -38532,7 +38535,7 @@
       </c>
       <c r="B704" s="1"/>
       <c r="C704" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D704" s="13">
         <v>620</v>
@@ -38577,7 +38580,7 @@
       </c>
       <c r="B705" s="1"/>
       <c r="C705" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D705" s="13">
         <v>590</v>
@@ -38622,7 +38625,7 @@
       </c>
       <c r="B706" s="1"/>
       <c r="C706" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D706" s="13">
         <v>640</v>
@@ -38667,7 +38670,7 @@
       </c>
       <c r="B707" s="1"/>
       <c r="C707" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D707" s="13">
         <v>620</v>
@@ -38712,7 +38715,7 @@
       </c>
       <c r="B708" s="1"/>
       <c r="C708" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D708" s="13">
         <v>615</v>
@@ -38757,7 +38760,7 @@
       </c>
       <c r="B709" s="1"/>
       <c r="C709" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D709" s="13">
         <v>625</v>
@@ -38802,7 +38805,7 @@
       </c>
       <c r="B710" s="1"/>
       <c r="C710" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D710" s="13">
         <v>630</v>
@@ -38847,7 +38850,7 @@
       </c>
       <c r="B711" s="1"/>
       <c r="C711" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D711" s="13">
         <v>650</v>
@@ -38892,7 +38895,7 @@
       </c>
       <c r="B712" s="1"/>
       <c r="C712" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D712" s="13">
         <v>600</v>
@@ -38937,7 +38940,7 @@
       </c>
       <c r="B713" s="1"/>
       <c r="C713" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D713" s="13">
         <v>600</v>
@@ -38982,7 +38985,7 @@
       </c>
       <c r="B714" s="61"/>
       <c r="C714" s="61" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D714" s="58">
         <v>710</v>
@@ -39027,7 +39030,7 @@
       </c>
       <c r="B715" s="1"/>
       <c r="C715" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D715" s="13">
         <v>600</v>
@@ -39072,7 +39075,7 @@
       </c>
       <c r="B716" s="115"/>
       <c r="C716" s="115" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D716" s="113">
         <v>790</v>
@@ -39117,7 +39120,7 @@
       </c>
       <c r="B717" s="115"/>
       <c r="C717" s="115" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D717" s="113">
         <v>605</v>
@@ -39162,7 +39165,7 @@
       </c>
       <c r="B718" s="115"/>
       <c r="C718" s="115" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D718" s="113">
         <v>600</v>
@@ -39207,7 +39210,7 @@
       </c>
       <c r="B719" s="115"/>
       <c r="C719" s="115" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D719" s="113">
         <v>635</v>
@@ -39252,7 +39255,7 @@
       </c>
       <c r="B720" s="115"/>
       <c r="C720" s="115" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D720" s="113">
         <v>635</v>
@@ -39297,7 +39300,7 @@
       </c>
       <c r="B721" s="115"/>
       <c r="C721" s="115" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D721" s="113">
         <v>610</v>
@@ -39342,7 +39345,7 @@
       </c>
       <c r="B722" s="115"/>
       <c r="C722" s="115" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D722" s="113">
         <v>610</v>
@@ -39387,7 +39390,7 @@
       </c>
       <c r="B723" s="115"/>
       <c r="C723" s="115" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D723" s="113">
         <v>615</v>
@@ -39432,7 +39435,7 @@
       </c>
       <c r="B724" s="115"/>
       <c r="C724" s="115" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D724" s="113">
         <v>615</v>
@@ -39477,7 +39480,7 @@
       </c>
       <c r="B725" s="115"/>
       <c r="C725" s="115" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D725" s="113">
         <v>610</v>
@@ -39522,7 +39525,7 @@
       </c>
       <c r="B726" s="115"/>
       <c r="C726" s="115" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D726" s="113">
         <v>620</v>
@@ -39567,7 +39570,7 @@
       </c>
       <c r="B727" s="115"/>
       <c r="C727" s="115" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D727" s="113">
         <v>620</v>
@@ -39612,7 +39615,7 @@
       </c>
       <c r="B728" s="115"/>
       <c r="C728" s="115" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D728" s="113">
         <v>630</v>
@@ -39657,7 +39660,7 @@
       </c>
       <c r="B729" s="115"/>
       <c r="C729" s="115" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D729" s="113">
         <v>635</v>
@@ -39702,7 +39705,7 @@
       </c>
       <c r="B730" s="115"/>
       <c r="C730" s="115" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D730" s="113">
         <v>620</v>
@@ -39747,7 +39750,7 @@
       </c>
       <c r="B731" s="115"/>
       <c r="C731" s="115" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D731" s="113">
         <v>640</v>
@@ -39792,7 +39795,7 @@
       </c>
       <c r="B732" s="115"/>
       <c r="C732" s="115" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D732" s="113">
         <v>610</v>
@@ -39837,7 +39840,7 @@
       </c>
       <c r="B733" s="115"/>
       <c r="C733" s="115" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D733" s="113">
         <v>610</v>
@@ -39882,7 +39885,7 @@
       </c>
       <c r="B734" s="115"/>
       <c r="C734" s="115" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D734" s="113">
         <v>620</v>
@@ -39927,7 +39930,7 @@
       </c>
       <c r="B735" s="115"/>
       <c r="C735" s="115" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D735" s="113">
         <v>625</v>
@@ -39972,7 +39975,7 @@
       </c>
       <c r="B736" s="115"/>
       <c r="C736" s="115" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D736" s="113">
         <v>610</v>
@@ -40017,7 +40020,7 @@
       </c>
       <c r="B737" s="115"/>
       <c r="C737" s="115" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D737" s="113">
         <v>630</v>
@@ -40062,7 +40065,7 @@
       </c>
       <c r="B738" s="115"/>
       <c r="C738" s="115" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D738" s="113">
         <v>600</v>
@@ -40107,7 +40110,7 @@
       </c>
       <c r="B739" s="115"/>
       <c r="C739" s="115" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D739" s="113">
         <v>600</v>
@@ -40152,24 +40155,16 @@
       </c>
       <c r="B740" s="115"/>
       <c r="C740" s="115" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D740" s="113">
-        <v>730</v>
-      </c>
-      <c r="E740" s="113">
-        <v>710</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="D740" s="113"/>
+      <c r="E740" s="113"/>
       <c r="F740" s="114"/>
       <c r="G740" s="115"/>
       <c r="H740" s="115"/>
       <c r="I740" s="115"/>
-      <c r="J740" s="115">
-        <v>730</v>
-      </c>
-      <c r="K740" s="115">
-        <v>710</v>
-      </c>
+      <c r="J740" s="115"/>
+      <c r="K740" s="115"/>
       <c r="L740" s="116">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -40197,7 +40192,7 @@
       </c>
       <c r="B741" s="115"/>
       <c r="C741" s="115" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="D741" s="113">
         <v>605</v>
@@ -40242,7 +40237,7 @@
       </c>
       <c r="B742" s="115"/>
       <c r="C742" s="115" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D742" s="113">
         <v>615</v>
@@ -40287,7 +40282,7 @@
       </c>
       <c r="B743" s="115"/>
       <c r="C743" s="115" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D743" s="113">
         <v>625</v>
@@ -40377,7 +40372,7 @@
       </c>
       <c r="B745" s="115"/>
       <c r="C745" s="115" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D745" s="113">
         <v>650</v>
@@ -40422,7 +40417,7 @@
       </c>
       <c r="B746" s="115"/>
       <c r="C746" s="115" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D746" s="113">
         <v>605</v>
@@ -40467,7 +40462,7 @@
       </c>
       <c r="B747" s="115"/>
       <c r="C747" s="115" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D747" s="113">
         <v>650</v>
@@ -40512,7 +40507,7 @@
       </c>
       <c r="B748" s="115"/>
       <c r="C748" s="115" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="D748" s="113">
         <v>715</v>
@@ -40557,7 +40552,7 @@
       </c>
       <c r="B749" s="115"/>
       <c r="C749" s="115" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D749" s="113">
         <v>610</v>
@@ -40602,7 +40597,7 @@
       </c>
       <c r="B750" s="115"/>
       <c r="C750" s="115" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D750" s="113">
         <v>710</v>
@@ -40647,7 +40642,7 @@
       </c>
       <c r="B751" s="115"/>
       <c r="C751" s="115" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D751" s="113">
         <v>670</v>
@@ -40692,7 +40687,7 @@
       </c>
       <c r="B752" s="115"/>
       <c r="C752" s="115" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D752" s="113">
         <v>720</v>
@@ -40737,7 +40732,7 @@
       </c>
       <c r="B753" s="4"/>
       <c r="C753" s="4" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D753" s="105">
         <v>725</v>
@@ -40782,7 +40777,7 @@
       </c>
       <c r="B754" s="4"/>
       <c r="C754" s="4" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D754" s="105">
         <v>690</v>
@@ -40827,7 +40822,7 @@
       </c>
       <c r="B755" s="4"/>
       <c r="C755" s="4" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D755" s="105">
         <v>660</v>
@@ -40867,19 +40862,37 @@
       <c r="Y755" s="1"/>
     </row>
     <row r="756" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A756" s="4"/>
+      <c r="A756" s="4">
+        <v>751</v>
+      </c>
       <c r="B756" s="4"/>
-      <c r="C756" s="4"/>
-      <c r="D756" s="105"/>
-      <c r="E756" s="105"/>
+      <c r="C756" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D756" s="105">
+        <v>620</v>
+      </c>
+      <c r="E756" s="105">
+        <v>610</v>
+      </c>
       <c r="F756" s="17"/>
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
       <c r="I756" s="1"/>
-      <c r="J756" s="1"/>
-      <c r="K756" s="1"/>
-      <c r="L756" s="1"/>
-      <c r="M756" s="1"/>
+      <c r="J756" s="1">
+        <v>620</v>
+      </c>
+      <c r="K756" s="1">
+        <v>610</v>
+      </c>
+      <c r="L756" s="116">
+        <f t="shared" ref="L756:L757" si="30">D756-J756</f>
+        <v>0</v>
+      </c>
+      <c r="M756" s="116">
+        <f t="shared" ref="M756:M757" si="31">E756-K756</f>
+        <v>0</v>
+      </c>
       <c r="N756" s="1"/>
       <c r="O756" s="1"/>
       <c r="P756" s="1"/>
@@ -40894,19 +40907,37 @@
       <c r="Y756" s="1"/>
     </row>
     <row r="757" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A757" s="4"/>
+      <c r="A757" s="4">
+        <v>752</v>
+      </c>
       <c r="B757" s="4"/>
-      <c r="C757" s="4"/>
-      <c r="D757" s="105"/>
-      <c r="E757" s="105"/>
+      <c r="C757" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D757" s="105">
+        <v>640</v>
+      </c>
+      <c r="E757" s="105">
+        <v>620</v>
+      </c>
       <c r="F757" s="17"/>
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
-      <c r="J757" s="1"/>
-      <c r="K757" s="1"/>
-      <c r="L757" s="1"/>
-      <c r="M757" s="1"/>
+      <c r="J757" s="1">
+        <v>640</v>
+      </c>
+      <c r="K757" s="1">
+        <v>620</v>
+      </c>
+      <c r="L757" s="116">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M757" s="116">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="N757" s="1"/>
       <c r="O757" s="1"/>
       <c r="P757" s="1"/>
@@ -47648,11 +47679,11 @@
         <v>10</v>
       </c>
       <c r="K4" s="156" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="L4" s="158"/>
       <c r="M4" s="37" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
@@ -47683,7 +47714,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>11</v>
@@ -47712,7 +47743,7 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D6" s="13">
         <v>560</v>
@@ -47721,7 +47752,7 @@
         <v>560</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
@@ -47760,7 +47791,7 @@
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="43" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D7" s="13">
         <v>655</v>
@@ -47806,7 +47837,7 @@
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="43" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D8" s="13">
         <v>645</v>
@@ -47852,7 +47883,7 @@
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="43" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D9" s="13">
         <v>635</v>
@@ -47898,7 +47929,7 @@
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="47" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D10" s="13">
         <v>645</v>
@@ -47944,7 +47975,7 @@
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="43" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D11" s="13">
         <v>580</v>
@@ -47953,7 +47984,7 @@
         <v>570</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -47992,7 +48023,7 @@
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="43" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D12" s="13">
         <v>660</v>
@@ -48038,7 +48069,7 @@
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="43" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D13" s="13">
         <v>640</v>
@@ -48047,7 +48078,7 @@
         <v>630</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
@@ -48086,7 +48117,7 @@
       </c>
       <c r="B14" s="127"/>
       <c r="C14" s="128" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D14" s="121">
         <v>690</v>
@@ -48132,7 +48163,7 @@
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="43" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D15" s="13">
         <v>595</v>
@@ -48178,7 +48209,7 @@
       </c>
       <c r="B16" s="42"/>
       <c r="C16" s="43" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D16" s="13">
         <v>655</v>
@@ -48224,7 +48255,7 @@
       </c>
       <c r="B17" s="129"/>
       <c r="C17" s="128" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D17" s="121">
         <v>680</v>
@@ -48233,7 +48264,7 @@
         <v>665</v>
       </c>
       <c r="F17" s="130" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G17" s="131"/>
       <c r="H17" s="131"/>
@@ -48272,7 +48303,7 @@
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="43" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D18" s="13">
         <v>665</v>
@@ -48318,7 +48349,7 @@
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="43" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D19" s="13">
         <v>655</v>
@@ -48364,7 +48395,7 @@
       </c>
       <c r="B20" s="83"/>
       <c r="C20" s="84" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D20" s="76">
         <v>605</v>
@@ -48373,7 +48404,7 @@
         <v>600</v>
       </c>
       <c r="F20" s="106" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
@@ -48412,7 +48443,7 @@
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="43" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D21" s="13">
         <v>570</v>
@@ -48458,7 +48489,7 @@
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="43" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D22" s="13">
         <v>590</v>
@@ -48467,7 +48498,7 @@
         <v>580</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -48506,7 +48537,7 @@
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="43" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D23" s="13">
         <v>600</v>
@@ -48515,7 +48546,7 @@
         <v>580</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -48554,7 +48585,7 @@
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="43" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D24" s="13">
         <v>730</v>
@@ -48563,7 +48594,7 @@
         <v>710</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -48602,7 +48633,7 @@
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="43" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D25" s="13">
         <v>620</v>
@@ -48648,7 +48679,7 @@
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="43" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D26" s="13">
         <v>680</v>
@@ -48657,7 +48688,7 @@
         <v>670</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -48696,7 +48727,7 @@
       </c>
       <c r="B27" s="127"/>
       <c r="C27" s="128" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D27" s="121">
         <v>630</v>
@@ -48742,7 +48773,7 @@
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="43" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D28" s="13">
         <v>620</v>
@@ -48751,7 +48782,7 @@
         <v>610</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -48790,7 +48821,7 @@
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="43" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D29" s="13">
         <v>585</v>
@@ -48836,7 +48867,7 @@
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="43" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D30" s="13">
         <v>675</v>
@@ -48882,7 +48913,7 @@
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="51" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D31" s="13">
         <v>630</v>
@@ -48891,7 +48922,7 @@
         <v>610</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -48930,7 +48961,7 @@
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="44" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D32" s="13">
         <v>575</v>
@@ -48976,7 +49007,7 @@
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="53" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D33" s="13">
         <v>570</v>
@@ -49022,7 +49053,7 @@
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="85" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D34" s="76">
         <v>655</v>
@@ -49068,7 +49099,7 @@
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="44" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D35" s="13">
         <v>570</v>
@@ -49077,7 +49108,7 @@
         <v>570</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -49116,7 +49147,7 @@
       </c>
       <c r="B36" s="119"/>
       <c r="C36" s="120" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D36" s="121">
         <v>720</v>
@@ -49125,7 +49156,7 @@
         <v>700</v>
       </c>
       <c r="F36" s="130" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G36" s="119"/>
       <c r="H36" s="119"/>
@@ -49164,7 +49195,7 @@
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="44" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D37" s="13">
         <v>600</v>
@@ -49212,7 +49243,7 @@
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="44" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D38" s="13">
         <v>610</v>
@@ -49258,7 +49289,7 @@
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="44" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D39" s="13">
         <v>640</v>
@@ -49267,7 +49298,7 @@
         <v>600</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
@@ -49306,7 +49337,7 @@
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="44" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D40" s="13">
         <v>670</v>
@@ -49352,7 +49383,7 @@
       </c>
       <c r="B41" s="46"/>
       <c r="C41" s="44" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D41" s="13">
         <v>660</v>
@@ -49398,7 +49429,7 @@
       </c>
       <c r="B42" s="32"/>
       <c r="C42" s="44" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D42" s="13">
         <v>665</v>
@@ -49444,7 +49475,7 @@
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="44" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D43" s="13">
         <v>675</v>
@@ -49490,7 +49521,7 @@
       </c>
       <c r="B44" s="68"/>
       <c r="C44" s="69" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D44" s="58">
         <v>655</v>
@@ -49536,7 +49567,7 @@
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="44" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D45" s="13">
         <v>605</v>
@@ -49584,7 +49615,7 @@
       </c>
       <c r="B46" s="32"/>
       <c r="C46" s="44" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D46" s="13">
         <v>645</v>
@@ -49630,7 +49661,7 @@
       </c>
       <c r="B47" s="32"/>
       <c r="C47" s="44" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D47" s="13">
         <v>565</v>
@@ -49676,7 +49707,7 @@
       </c>
       <c r="B48" s="32"/>
       <c r="C48" s="44" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D48" s="13">
         <v>625</v>
@@ -49722,7 +49753,7 @@
       </c>
       <c r="B49" s="46"/>
       <c r="C49" s="44" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D49" s="13">
         <v>635</v>
@@ -49731,7 +49762,7 @@
         <v>630</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G49" s="46"/>
       <c r="H49" s="46"/>
@@ -49770,7 +49801,7 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="44" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D50" s="13">
         <v>575</v>
@@ -49816,7 +49847,7 @@
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="44" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D51" s="13">
         <v>590</v>
@@ -49825,7 +49856,7 @@
         <v>580</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
@@ -49864,7 +49895,7 @@
       </c>
       <c r="B52" s="32"/>
       <c r="C52" s="44" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D52" s="13">
         <v>605</v>
@@ -49910,7 +49941,7 @@
       </c>
       <c r="B53" s="32"/>
       <c r="C53" s="44" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D53" s="13">
         <v>620</v>
@@ -49956,7 +49987,7 @@
       </c>
       <c r="B54" s="119"/>
       <c r="C54" s="120" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D54" s="121">
         <v>680</v>
@@ -50048,7 +50079,7 @@
       </c>
       <c r="B56" s="32"/>
       <c r="C56" s="44" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D56" s="13">
         <v>605</v>
@@ -50094,7 +50125,7 @@
       </c>
       <c r="B57" s="119"/>
       <c r="C57" s="120" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D57" s="121">
         <v>670</v>
@@ -50140,7 +50171,7 @@
       </c>
       <c r="B58" s="32"/>
       <c r="C58" s="44" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D58" s="13">
         <v>625</v>
@@ -50149,7 +50180,7 @@
         <v>615</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
@@ -50188,7 +50219,7 @@
       </c>
       <c r="B59" s="68"/>
       <c r="C59" s="69" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D59" s="58">
         <v>635</v>
@@ -50234,7 +50265,7 @@
       </c>
       <c r="B60" s="32"/>
       <c r="C60" s="44" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D60" s="13">
         <v>580</v>
@@ -50280,7 +50311,7 @@
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="44" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D61" s="13">
         <v>655</v>
@@ -50326,7 +50357,7 @@
       </c>
       <c r="B62" s="32"/>
       <c r="C62" s="44" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D62" s="13">
         <v>595</v>
@@ -50372,7 +50403,7 @@
       </c>
       <c r="B63" s="32"/>
       <c r="C63" s="44" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D63" s="13">
         <v>600</v>
@@ -50381,7 +50412,7 @@
         <v>590</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -50420,7 +50451,7 @@
       </c>
       <c r="B64" s="32"/>
       <c r="C64" s="44" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D64" s="13">
         <v>585</v>
@@ -50429,7 +50460,7 @@
         <v>580</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
@@ -50468,7 +50499,7 @@
       </c>
       <c r="B65" s="119"/>
       <c r="C65" s="120" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D65" s="121">
         <v>700</v>
@@ -50514,7 +50545,7 @@
       </c>
       <c r="B66" s="32"/>
       <c r="C66" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D66" s="13">
         <v>720</v>
@@ -50523,7 +50554,7 @@
         <v>700</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
@@ -50562,7 +50593,7 @@
       </c>
       <c r="B67" s="32"/>
       <c r="C67" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D67" s="13">
         <v>610</v>
@@ -50571,7 +50602,7 @@
         <v>585</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
@@ -50610,7 +50641,7 @@
       </c>
       <c r="B68" s="46"/>
       <c r="C68" s="44" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D68" s="13">
         <v>645</v>
@@ -50619,7 +50650,7 @@
         <v>640</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G68" s="46"/>
       <c r="H68" s="46"/>
@@ -50658,7 +50689,7 @@
       </c>
       <c r="B69" s="32"/>
       <c r="C69" s="44" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D69" s="13">
         <v>585</v>
@@ -50667,7 +50698,7 @@
         <v>575</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
@@ -50706,7 +50737,7 @@
       </c>
       <c r="B70" s="32"/>
       <c r="C70" s="44" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D70" s="13">
         <v>615</v>
@@ -50715,7 +50746,7 @@
         <v>610</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -50754,7 +50785,7 @@
       </c>
       <c r="B71" s="68"/>
       <c r="C71" s="69" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D71" s="58">
         <v>625</v>
@@ -50763,7 +50794,7 @@
         <v>610</v>
       </c>
       <c r="F71" s="65" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G71" s="68"/>
       <c r="H71" s="68"/>
@@ -50802,7 +50833,7 @@
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="44" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D72" s="13">
         <v>605</v>
@@ -50848,7 +50879,7 @@
       </c>
       <c r="B73" s="86"/>
       <c r="C73" s="85" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D73" s="76">
         <v>645</v>
@@ -50894,7 +50925,7 @@
       </c>
       <c r="B74" s="72"/>
       <c r="C74" s="69" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D74" s="58">
         <v>620</v>
@@ -50940,7 +50971,7 @@
       </c>
       <c r="B75" s="32"/>
       <c r="C75" s="44" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D75" s="13">
         <v>640</v>
@@ -50986,7 +51017,7 @@
       </c>
       <c r="B76" s="32"/>
       <c r="C76" s="44" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D76" s="13">
         <v>615</v>
@@ -50995,7 +51026,7 @@
         <v>600</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
@@ -51034,7 +51065,7 @@
       </c>
       <c r="B77" s="32"/>
       <c r="C77" s="44" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D77" s="13">
         <v>600</v>
@@ -51043,7 +51074,7 @@
         <v>590</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -51082,7 +51113,7 @@
       </c>
       <c r="B78" s="46"/>
       <c r="C78" s="44" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D78" s="13">
         <v>635</v>
@@ -51128,7 +51159,7 @@
       </c>
       <c r="B79" s="119"/>
       <c r="C79" s="120" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D79" s="121">
         <v>680</v>
@@ -51174,7 +51205,7 @@
       </c>
       <c r="B80" s="90"/>
       <c r="C80" s="85" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D80" s="76">
         <v>655</v>
@@ -51220,7 +51251,7 @@
       </c>
       <c r="B81" s="32"/>
       <c r="C81" s="44" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D81" s="13">
         <v>620</v>
@@ -51229,7 +51260,7 @@
         <v>610</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G81" s="32"/>
       <c r="H81" s="32"/>
@@ -51268,7 +51299,7 @@
       </c>
       <c r="B82" s="32"/>
       <c r="C82" s="44" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D82" s="13">
         <v>645</v>
@@ -51277,7 +51308,7 @@
         <v>635</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G82" s="32"/>
       <c r="H82" s="32"/>
@@ -51316,7 +51347,7 @@
       </c>
       <c r="B83" s="32"/>
       <c r="C83" s="44" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D83" s="13">
         <v>600</v>
@@ -51362,7 +51393,7 @@
       </c>
       <c r="B84" s="32"/>
       <c r="C84" s="44" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D84" s="13">
         <v>615</v>
@@ -51408,7 +51439,7 @@
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="44" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D85" s="13">
         <v>580</v>
@@ -51417,7 +51448,7 @@
         <v>570</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G85" s="32"/>
       <c r="H85" s="32"/>
@@ -51456,7 +51487,7 @@
       </c>
       <c r="B86" s="32"/>
       <c r="C86" s="44" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D86" s="13">
         <v>640</v>
@@ -51502,7 +51533,7 @@
       </c>
       <c r="B87" s="32"/>
       <c r="C87" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D87" s="13">
         <v>570</v>
@@ -51511,7 +51542,7 @@
         <v>570</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G87" s="32"/>
       <c r="H87" s="32"/>
@@ -51550,7 +51581,7 @@
       </c>
       <c r="B88" s="32"/>
       <c r="C88" s="44" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D88" s="13">
         <v>570</v>
@@ -51596,7 +51627,7 @@
       </c>
       <c r="B89" s="32"/>
       <c r="C89" s="44" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D89" s="13">
         <v>690</v>
@@ -51605,7 +51636,7 @@
         <v>670</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G89" s="32"/>
       <c r="H89" s="32"/>
@@ -51644,7 +51675,7 @@
       </c>
       <c r="B90" s="32"/>
       <c r="C90" s="44" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D90" s="13">
         <v>575</v>
@@ -51653,7 +51684,7 @@
         <v>570</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G90" s="32"/>
       <c r="H90" s="32"/>
@@ -51692,7 +51723,7 @@
       </c>
       <c r="B91" s="32"/>
       <c r="C91" s="44" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D91" s="13">
         <v>640</v>
@@ -51701,7 +51732,7 @@
         <v>610</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G91" s="32"/>
       <c r="H91" s="32"/>
@@ -51740,7 +51771,7 @@
       </c>
       <c r="B92" s="32"/>
       <c r="C92" s="53" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D92" s="13">
         <v>585</v>
@@ -51749,7 +51780,7 @@
         <v>570</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G92" s="32"/>
       <c r="H92" s="32"/>
@@ -51788,7 +51819,7 @@
       </c>
       <c r="B93" s="32"/>
       <c r="C93" s="53" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D93" s="13">
         <v>625</v>
@@ -51797,7 +51828,7 @@
         <v>620</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G93" s="32"/>
       <c r="H93" s="32"/>
@@ -51836,7 +51867,7 @@
       </c>
       <c r="B94" s="32"/>
       <c r="C94" s="53" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D94" s="13">
         <v>595</v>
@@ -51845,7 +51876,7 @@
         <v>580</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G94" s="32"/>
       <c r="H94" s="32"/>
@@ -51884,7 +51915,7 @@
       </c>
       <c r="B95" s="32"/>
       <c r="C95" s="53" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D95" s="13">
         <v>560</v>
@@ -51930,7 +51961,7 @@
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="26" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D96" s="13">
         <v>565</v>
@@ -51970,7 +52001,7 @@
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D97" s="13">
         <v>615</v>
@@ -52010,7 +52041,7 @@
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D98" s="13">
         <v>580</v>
@@ -52019,7 +52050,7 @@
         <v>575</v>
       </c>
       <c r="F98" s="103" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -52052,7 +52083,7 @@
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D99" s="13">
         <v>650</v>
@@ -52092,7 +52123,7 @@
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D100" s="13">
         <v>650</v>
@@ -52132,7 +52163,7 @@
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D101" s="13">
         <v>610</v>
@@ -52141,7 +52172,7 @@
         <v>610</v>
       </c>
       <c r="F101" s="103" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -52174,7 +52205,7 @@
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D102" s="13">
         <v>580</v>
@@ -52214,7 +52245,7 @@
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D103" s="13">
         <v>680</v>
@@ -52254,7 +52285,7 @@
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D104" s="13">
         <v>600</v>
@@ -52263,7 +52294,7 @@
         <v>590</v>
       </c>
       <c r="F104" s="109" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -52296,7 +52327,7 @@
       </c>
       <c r="B105" s="93"/>
       <c r="C105" s="93" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D105" s="76">
         <v>560</v>
@@ -52336,7 +52367,7 @@
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="D106" s="28">
         <v>590</v>
@@ -52372,7 +52403,7 @@
       </c>
       <c r="B107" s="138"/>
       <c r="C107" s="138" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D107" s="139">
         <v>730</v>

--- a/pages/api/score/data.xlsx
+++ b/pages/api/score/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/pages/api/score/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D624E26-B530-F547-9C09-66E6DC26CA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9D2548-93B4-044C-9EEE-800413EA0CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="760" windowWidth="27860" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="1321">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -3988,6 +3988,15 @@
   </si>
   <si>
     <t>Hùng RMit</t>
+  </si>
+  <si>
+    <t>Tòng Trung Thiện</t>
+  </si>
+  <si>
+    <t>Phạm Thành</t>
+  </si>
+  <si>
+    <t>0765025484</t>
   </si>
 </sst>
 </file>
@@ -4705,7 +4714,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4713,6 +4722,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5905,8 +5924,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A652" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C675" sqref="C675"/>
+      <pane ySplit="4" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F759" sqref="F759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29410,10 +29429,10 @@
         <v>708</v>
       </c>
       <c r="D506" s="13">
+        <v>680</v>
+      </c>
+      <c r="E506" s="13">
         <v>660</v>
-      </c>
-      <c r="E506" s="13">
-        <v>655</v>
       </c>
       <c r="F506" s="21" t="s">
         <v>709</v>
@@ -29429,11 +29448,11 @@
       </c>
       <c r="L506" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M506" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N506" s="1"/>
       <c r="O506" s="1"/>
@@ -40780,10 +40799,10 @@
         <v>1311</v>
       </c>
       <c r="D754" s="105">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E754" s="105">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="F754" s="17"/>
       <c r="G754" s="1"/>
@@ -40797,11 +40816,11 @@
       </c>
       <c r="L754" s="116">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M754" s="116">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="N754" s="1"/>
       <c r="O754" s="1"/>
@@ -40886,11 +40905,11 @@
         <v>610</v>
       </c>
       <c r="L756" s="116">
-        <f t="shared" ref="L756:L757" si="30">D756-J756</f>
+        <f t="shared" ref="L756:L758" si="30">D756-J756</f>
         <v>0</v>
       </c>
       <c r="M756" s="116">
-        <f t="shared" ref="M756:M757" si="31">E756-K756</f>
+        <f t="shared" ref="M756:M758" si="31">E756-K756</f>
         <v>0</v>
       </c>
       <c r="N756" s="1"/>
@@ -40952,19 +40971,39 @@
       <c r="Y757" s="1"/>
     </row>
     <row r="758" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A758" s="4"/>
+      <c r="A758" s="4">
+        <v>753</v>
+      </c>
       <c r="B758" s="4"/>
-      <c r="C758" s="4"/>
-      <c r="D758" s="105"/>
-      <c r="E758" s="105"/>
-      <c r="F758" s="17"/>
+      <c r="C758" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D758" s="105">
+        <v>740</v>
+      </c>
+      <c r="E758" s="105">
+        <v>720</v>
+      </c>
+      <c r="F758" s="103" t="s">
+        <v>1320</v>
+      </c>
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
-      <c r="J758" s="1"/>
-      <c r="K758" s="1"/>
-      <c r="L758" s="1"/>
-      <c r="M758" s="1"/>
+      <c r="J758" s="1">
+        <v>740</v>
+      </c>
+      <c r="K758" s="1">
+        <v>720</v>
+      </c>
+      <c r="L758" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M758" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="N758" s="1"/>
       <c r="O758" s="1"/>
       <c r="P758" s="1"/>
@@ -40979,11 +41018,19 @@
       <c r="Y758" s="1"/>
     </row>
     <row r="759" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A759" s="4"/>
+      <c r="A759" s="4">
+        <v>754</v>
+      </c>
       <c r="B759" s="4"/>
-      <c r="C759" s="4"/>
-      <c r="D759" s="105"/>
-      <c r="E759" s="105"/>
+      <c r="C759" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D759" s="105">
+        <v>605</v>
+      </c>
+      <c r="E759" s="105">
+        <v>600</v>
+      </c>
       <c r="F759" s="17"/>
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
@@ -47520,12 +47567,15 @@
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="L1:M3 M4 L5:M1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
